--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Core Java 8</t>
   </si>
   <si>
-    <t xml:space="preserve"> Database &amp; PostGreSQL with DevOps (Git, Sonarqube, Gradle, Jenkin)</t>
+    <t>Database &amp; PostGreSQL with DevOps (Git, Sonarqube, Gradle, Jenkin)</t>
   </si>
   <si>
     <t>Core Java Assignments</t>
@@ -1137,10 +1137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1270,22 +1270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,6 +1286,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1311,7 +1303,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1333,16 +1325,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,9 +1363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,7 +1379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,13 +1387,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,7 +1432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,49 +1462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +1480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,13 +1498,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,43 +1588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,30 +1613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,15 +1756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1776,6 +1767,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,127 +1827,127 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2385,8 +2385,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2777,7 +2777,7 @@
   <sheetPr/>
   <dimension ref="A1:D413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="433">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Core Java 8</t>
   </si>
   <si>
-    <t>Database &amp; PostGreSQL with DevOps (Git, Sonarqube, Gradle, Jenkin)</t>
+    <t xml:space="preserve"> Database &amp; PostGreSQL with DevOps (Git, Sonarqube, Gradle, Jenkin)</t>
   </si>
   <si>
     <t>Core Java Assignments</t>
@@ -74,7 +74,7 @@
     <t>React Assignments</t>
   </si>
   <si>
-    <t>Sprint 2 + HTML 5, CSS 3 with bootstrap 4, Javascript, Typescript &amp;React MCQ</t>
+    <t>Sprint 2 + HTML 5, CSS 3 with bootstrap 4, Javascript, Typescript &amp; React MCQ</t>
   </si>
   <si>
     <t>Total Training Duration</t>
@@ -501,7 +501,7 @@
     <t>Java Loops</t>
   </si>
   <si>
-    <t>Hands On Exercises - Java Loops</t>
+    <t>Hands-On Exercises - Java Loops, Strings, Numbers and Dates</t>
   </si>
   <si>
     <t>Day 3</t>
@@ -1017,8 +1017,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                First, you will discover why you would want to use collections instead of arrays.                                                                     Then, you will cover the capabilities of lists, sets, maps, queues and also the different data structure tradeoffs. Finally, you will explore important collection algorithms and how different collection implementations work.                                                                               By the end of this course, you will know how to use Java Collections to process data.</t>
+      <t xml:space="preserve">                                                                First, you will discover why you would want to use collections instead of arrays.                                                                     Then, you will cover the capabilities of lists, sets, maps, queues and also the different data structure tradeoffs. Finally, you will explore important collection algorithms and how different collection implementations work.                                                                               By the end of this course, you will know how to use Java Collections to process data.                                                     </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regular Expressions in Java   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                      Learn how to define a search pattern for strings  that can then be used to search for data in a text. </t>
+    </r>
   </si>
   <si>
     <t>2. Working with Collections</t>
@@ -1078,9 +1100,6 @@
     <t>4. Collection with Uniqueness - Sets</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Introduction </t>
-  </si>
-  <si>
     <t>2. Set Features (Live Coding)</t>
   </si>
   <si>
@@ -1120,10 +1139,535 @@
     <t>9. Core Java Queues</t>
   </si>
   <si>
+    <t>6. Regular Expressions</t>
+  </si>
+  <si>
+    <t>1. String Matching with Regular Expressions</t>
+  </si>
+  <si>
+    <t>2. String Class Support for Regular Expressions</t>
+  </si>
+  <si>
+    <t>3. Dedicated Regular Expression Classes</t>
+  </si>
+  <si>
+    <t>4. Summary</t>
+  </si>
+  <si>
     <t>Java Collections</t>
   </si>
   <si>
-    <t>Hands On Exercises - Collections</t>
+    <t>Hands On Exercises - Collections and Regular Expressions</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - List</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Map</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Set</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">At the core of every project, there is always extensive testing.                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn the benefits of TDD (Test-driven Development) and  create TDD applications using the JUnit 5 testing framework.                                                              First, you'll learn how to develop TDD applications and how to use mock objects with JUnit 5.                                                                Next, you'll discover how to move a non-TDD application into the platform.                                                          Finally, you'll dive into how to integrate JUnit5 into your workflow.                                             By the end of this course, you'll have the know how to develop safe and flexible Java applications using TDD with JUnit 5.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Introducing TDD and JUnit5</t>
+  </si>
+  <si>
+    <t>2. Code Coverage</t>
+  </si>
+  <si>
+    <t>3. JUnit 5 Architecture</t>
+  </si>
+  <si>
+    <t>4. The Flights Management Application</t>
+  </si>
+  <si>
+    <t>3. Adding New Features to the Application Using TDD and JUnit 5</t>
+  </si>
+  <si>
+    <t>1. Use JUnit 5 More Effectively</t>
+  </si>
+  <si>
+    <t>2. Adding a Premium Flight</t>
+  </si>
+  <si>
+    <t>3. Adding a Passenger Only Once</t>
+  </si>
+  <si>
+    <t>4. Adding a Policy for Bonus Points</t>
+  </si>
+  <si>
+    <t>4. Introduction to Mockito</t>
+  </si>
+  <si>
+    <t>5. What Is Mocking?</t>
+  </si>
+  <si>
+    <t>6. Why Mock?</t>
+  </si>
+  <si>
+    <t>7. Test Doubles</t>
+  </si>
+  <si>
+    <t>8. What Is a Unit?</t>
+  </si>
+  <si>
+    <t>9. Mock Classes or Mock Interfaces?</t>
+  </si>
+  <si>
+    <t>5. TDD by Integrating JUnit 5 with Mockito</t>
+  </si>
+  <si>
+    <t>1. Introduction to Integration</t>
+  </si>
+  <si>
+    <t>2. Implement the Air Conditioning Functionality</t>
+  </si>
+  <si>
+    <t>3. Implement the Database Access Functionality</t>
+  </si>
+  <si>
+    <t>4. Implement the Statistics Functionality</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - JUnit 4</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 -  Test Cases and Test Fixtures</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">File Navigation and I/O    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Learn about working with streams, files, and the file system.                              You'll also learn about I/O topics specific to working with files such open/closing files, detecting end-of-file, and buffering.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Input and Output with Streams and Files</t>
+  </si>
+  <si>
+    <t>2. Streams Overview</t>
+  </si>
+  <si>
+    <t>3. Reading and Writing with Streams</t>
+  </si>
+  <si>
+    <t>4. Common Stream Classes</t>
+  </si>
+  <si>
+    <t>5. Stream Errors and Cleanup</t>
+  </si>
+  <si>
+    <t>6. Demo: Working with Try-with-resources Part 1</t>
+  </si>
+  <si>
+    <t>7. Demo: Working with Try-with-resources Part 2</t>
+  </si>
+  <si>
+    <t>8. Chaining Streams</t>
+  </si>
+  <si>
+    <t>9. File and Buffered Streams</t>
+  </si>
+  <si>
+    <t>10. Random Access File class</t>
+  </si>
+  <si>
+    <t>11. Class Declaration</t>
+  </si>
+  <si>
+    <t>12. RandomAccessFile Methods in Java</t>
+  </si>
+  <si>
+    <t>13. Demo: Creating and Using a Random Access File object</t>
+  </si>
+  <si>
+    <t>14. Java.io.Console class</t>
+  </si>
+  <si>
+    <t>15. Java.io.Console methods</t>
+  </si>
+  <si>
+    <t>16. Demo: ConsoleDemo.java</t>
+  </si>
+  <si>
+    <t>17. Summary</t>
+  </si>
+  <si>
+    <t>Java IO</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Input and Output</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Serialization                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Learn how to serialize an object out to a serialization stream, and then restore that object information back from that serialization stream.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Persisting Objects with Serialization</t>
+  </si>
+  <si>
+    <t>2. Java Serialization Overview</t>
+  </si>
+  <si>
+    <t>3. Being Serializable</t>
+  </si>
+  <si>
+    <t>4. Serializing/Deserializing an Object</t>
+  </si>
+  <si>
+    <t>5. Transient Fields</t>
+  </si>
+  <si>
+    <t>6. Demo: Serialize and deserialize an object</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Serialization</t>
+  </si>
+  <si>
+    <t>Multithreading in Java                          Java Thread Join                                                   Java Thread Sleep                                                Thread Pools                                       Concurrency Issues                                    Thread Safety and Synchronization                                       
+Thread Exceptions                                 Analyze Deadlock Condition
+Java Thread States                                    Prevent Thread Execution                               Set the Priority for Threads
+ Using wait, notify and notifyAll</t>
+  </si>
+  <si>
+    <t>3. Multithreading and Concurrency</t>
+  </si>
+  <si>
+    <t>2. A Quick Look at the Basics</t>
+  </si>
+  <si>
+    <t>3. The Move to Multithreading</t>
+  </si>
+  <si>
+    <t>4. Java Threading Foundation</t>
+  </si>
+  <si>
+    <t>5. Thread Pools</t>
+  </si>
+  <si>
+    <t>6. Creating a Closer Relationship Between Thread Tasks</t>
+  </si>
+  <si>
+    <t>7. Concurrency Issues</t>
+  </si>
+  <si>
+    <t>8. Coordinating Method Access</t>
+  </si>
+  <si>
+    <t>9. Manual Synchronization</t>
+  </si>
+  <si>
+    <t>10. Manually Synchronized Code</t>
+  </si>
+  <si>
+    <t>11. More Concurrency-related Types</t>
+  </si>
+  <si>
+    <t>12. How to Analyze Deadlock and avoid it in Java</t>
+  </si>
+  <si>
+    <t>13. Demo: Deadlock Example and Solution</t>
+  </si>
+  <si>
+    <t>14.  Avoid Dead Lock condition</t>
+  </si>
+  <si>
+    <t>15. Thread States and Transitions</t>
+  </si>
+  <si>
+    <t>16. Runnable and Running States</t>
+  </si>
+  <si>
+    <t>17. Relinquishing control using suspend method</t>
+  </si>
+  <si>
+    <t>18. Methods to prevent Thread Execution</t>
+  </si>
+  <si>
+    <t>19. Demo : Methods to prevent Thread Execution</t>
+  </si>
+  <si>
+    <t>20. Thread Priorities</t>
+  </si>
+  <si>
+    <t>21. Demo: Set the Priority for Threads</t>
+  </si>
+  <si>
+    <t>22. wait notify notifyall</t>
+  </si>
+  <si>
+    <t>23. Demo: Printing Threads in Sequence in Java</t>
+  </si>
+  <si>
+    <t>24. Summary</t>
+  </si>
+  <si>
+    <t>Multithreading and Concurrency</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Extending Thread class</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Implement Runnable interface</t>
+  </si>
+  <si>
+    <t>Hands On Lab 3  - ThreadGroup, ThreadPriority, View all threads</t>
+  </si>
+  <si>
+    <t>Hands On Lab 4 - Synchronization</t>
+  </si>
+  <si>
+    <t>Hands On Lab 5 - Inter-thread communication</t>
+  </si>
+  <si>
+    <t>Hands On Lab 6 -Timer and TimerTask</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lambda expressions and the Stream API bring new fundamental patterns to the Java platform.    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                  Develop the skills to  iterate, filter and extract data from collections using Lambda Expressions.                                 Learn to solve problems much more efficiently with the patterns brought by the Stream API.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Introduction to Lambda Expressions in Java 8</t>
+  </si>
+  <si>
+    <t>2. Module Outline</t>
+  </si>
+  <si>
+    <t>3. The FileFilter Example</t>
+  </si>
+  <si>
+    <t>4. A First Lambda Expression</t>
+  </si>
+  <si>
+    <t>5. Live Coding: A First Lambda Expression</t>
+  </si>
+  <si>
+    <t>6. Live Coding: Runnable and Comparator Examples</t>
+  </si>
+  <si>
+    <t>7. Several Ways of Writing Lambda Expressions</t>
+  </si>
+  <si>
+    <t>8. Three Questions About Lambda Expressions</t>
+  </si>
+  <si>
+    <t>9. Functional Interfaces</t>
+  </si>
+  <si>
+    <t>10. Is a Lambda Expression an Object?</t>
+  </si>
+  <si>
+    <t>11. The Functional Interfaces Toolbox</t>
+  </si>
+  <si>
+    <t>12. Method References</t>
+  </si>
+  <si>
+    <t>13. Processing Collections with Lambdas</t>
+  </si>
+  <si>
+    <t>14. Changing the Way Interfaces Work?</t>
+  </si>
+  <si>
+    <t>15. Default and Static Methods in Java 8 Interfaces</t>
+  </si>
+  <si>
+    <t>16. New Patterns: The Predicate Interface Example</t>
+  </si>
+  <si>
+    <t>17. Live Coding: New Patterns Examples</t>
+  </si>
+  <si>
+    <t>18. Module Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Java 8 Stream API and Collectors I</t>
+  </si>
+  <si>
+    <t>1. Introduction, Module Outline</t>
+  </si>
+  <si>
+    <t>2. The Map / Filter / Reduce Algorithm</t>
+  </si>
+  <si>
+    <t>3. What Is a Stream?</t>
+  </si>
+  <si>
+    <t>4. Definition of a Stream in Java 8</t>
+  </si>
+  <si>
+    <t>5. Building and Consuming a Stream</t>
+  </si>
+  <si>
+    <t>6. Filtering a Stream</t>
+  </si>
+  <si>
+    <t>7. Live Coding: Consuming and Filtering a Stream</t>
+  </si>
+  <si>
+    <t>8. Lazy Operations on a Stream</t>
+  </si>
+  <si>
+    <t>9. Live Coding: Intermediary and Terminal Operations</t>
+  </si>
+  <si>
+    <t>11. Wrapping up Intermediary and Terminal Operations</t>
+  </si>
+  <si>
+    <t>12. The Map Operation</t>
+  </si>
+  <si>
+    <t>13. The Flatmap Operation</t>
+  </si>
+  <si>
+    <t>14. Live Coding: Map and Flatmap Examples</t>
+  </si>
+  <si>
+    <t>15. Wrapping up Map and Filter on a Stream</t>
+  </si>
+  <si>
+    <t>16.Reduction, Functions, and Bifunctions</t>
+  </si>
+  <si>
+    <t>17. Reduction of the Empty Set: Identity Element</t>
+  </si>
+  <si>
+    <t>3. Java 8 Stream API and Collectors II</t>
+  </si>
+  <si>
+    <t>18. Optionals</t>
+  </si>
+  <si>
+    <t>19. Pattern for the Optionals</t>
+  </si>
+  <si>
+    <t>20. Wrapping up Reduction Operations</t>
+  </si>
+  <si>
+    <t>21. Terminal Operations</t>
+  </si>
+  <si>
+    <t>22. Live Coding: Reductions, Optionals</t>
+  </si>
+  <si>
+    <t>23. Wrapping up Operations and Optionals</t>
+  </si>
+  <si>
+    <t>24. Collectors, Collecting in a String, in a List</t>
+  </si>
+  <si>
+    <t>25. Collecting in a Map</t>
+  </si>
+  <si>
+    <t>26. Live Coding: Processing Streams</t>
+  </si>
+  <si>
+    <t>27. Wrapping Module</t>
+  </si>
+  <si>
+    <t>1.  Introduction to Lambda Expressions in Java 8</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Lambda Expressions</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Stream API and Collectors I</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Stream API and Collectors II</t>
   </si>
   <si>
     <t>Total # of Days for Core Java 8</t>
@@ -1138,11 +1682,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1209,6 +1753,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1248,9 +1806,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,8 +1866,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,18 +1899,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1304,60 +1916,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,9 +1929,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,18 +1950,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1432,103 +2002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,7 +2020,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,61 +2182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,56 +2276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1798,6 +2318,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1806,7 +2376,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1824,134 +2394,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2005,47 +2575,76 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2061,7 +2660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2385,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2399,316 +2998,316 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="25">
+      <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="I9" s="38">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" ht="30.75" spans="6:9">
+      <c r="F10" s="39">
+        <v>2</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="38">
+        <v>2</v>
+      </c>
+      <c r="I10" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="6:9">
+      <c r="F11" s="39">
+        <v>3</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="38">
+        <v>4</v>
+      </c>
+      <c r="I11" s="38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="6:9">
+      <c r="F12" s="39">
+        <v>4</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="6:9">
+      <c r="F13" s="39">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="38">
+        <v>2</v>
+      </c>
+      <c r="I13" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="6:9">
+      <c r="F14" s="39">
+        <v>6</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="38">
+        <v>2</v>
+      </c>
+      <c r="I14" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="6:9">
+      <c r="F15" s="39">
+        <v>7</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" ht="30.75" spans="6:9">
-      <c r="F10" s="28">
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="I15" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="6:9">
+      <c r="F16" s="39">
+        <v>8</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="38">
+        <v>6</v>
+      </c>
+      <c r="I16" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="6:9">
+      <c r="F17" s="39">
+        <v>9</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="38">
+        <v>3</v>
+      </c>
+      <c r="I17" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="14" customHeight="1" spans="6:9">
+      <c r="F18" s="39">
+        <v>10</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="38">
+        <v>5</v>
+      </c>
+      <c r="I18" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="6:9">
+      <c r="F19" s="39">
+        <v>11</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="6:9">
+      <c r="F20" s="39">
+        <v>12</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="38">
+        <v>4</v>
+      </c>
+      <c r="I20" s="38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="6:9">
+      <c r="F21" s="39">
+        <v>13</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="6:9">
+      <c r="F22" s="39">
+        <v>14</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="38">
+        <v>6</v>
+      </c>
+      <c r="I22" s="38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="6:9">
+      <c r="F23" s="39">
+        <v>15</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="38">
         <v>2</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="I23" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="30.75" spans="6:9">
+      <c r="F24" s="39">
+        <v>16</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="38">
+        <v>4</v>
+      </c>
+      <c r="I24" s="38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="6:9">
+      <c r="F25" s="42"/>
+      <c r="G25" s="43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="28">
-        <v>3</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="27">
-        <v>4</v>
-      </c>
-      <c r="I11" s="27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="6:9">
-      <c r="F12" s="28">
-        <v>4</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="28">
-        <v>5</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="27">
-        <v>2</v>
-      </c>
-      <c r="I13" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="28">
-        <v>6</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="27">
-        <v>2</v>
-      </c>
-      <c r="I14" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="28">
-        <v>7</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="6:9">
-      <c r="F16" s="28">
-        <v>8</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="27">
-        <v>6</v>
-      </c>
-      <c r="I16" s="27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="14" customHeight="1" spans="6:9">
-      <c r="F17" s="28">
-        <v>9</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="27">
-        <v>3</v>
-      </c>
-      <c r="I17" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="14" customHeight="1" spans="6:9">
-      <c r="F18" s="28">
-        <v>10</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="27">
-        <v>5</v>
-      </c>
-      <c r="I18" s="27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="6:9">
-      <c r="F19" s="28">
-        <v>11</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="27">
-        <v>1</v>
-      </c>
-      <c r="I19" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="6:9">
-      <c r="F20" s="28">
-        <v>12</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="27">
-        <v>4</v>
-      </c>
-      <c r="I20" s="27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="6:9">
-      <c r="F21" s="28">
-        <v>13</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="27">
-        <v>1</v>
-      </c>
-      <c r="I21" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="6:9">
-      <c r="F22" s="28">
-        <v>14</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="27">
-        <v>6</v>
-      </c>
-      <c r="I22" s="27">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="6:9">
-      <c r="F23" s="28">
-        <v>15</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="27">
-        <v>2</v>
-      </c>
-      <c r="I23" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="30.75" spans="6:9">
-      <c r="F24" s="28">
-        <v>16</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="27">
-        <v>4</v>
-      </c>
-      <c r="I24" s="27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="6:9">
-      <c r="F25" s="31"/>
-      <c r="G25" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="33">
+      <c r="H25" s="44">
         <f>SUM(H9:H24)</f>
         <v>54</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="52">
         <f>SUM(I9:I24)</f>
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="36">
+      <c r="A32" s="47">
         <v>1</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="36">
+      <c r="A33" s="47">
         <v>2</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="36">
+      <c r="A34" s="47">
         <v>3</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="36">
+      <c r="A37" s="47">
         <v>1</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -2720,40 +3319,40 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A38" s="40">
+      <c r="A38" s="51">
         <v>2</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A39" s="40">
+      <c r="A39" s="51">
         <v>3</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" ht="54" customHeight="1" spans="1:6">
-      <c r="A40" s="40">
+      <c r="A40" s="51">
         <v>4</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2775,15 +3374,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:C572"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <selection pane="bottomLeft" activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="35.125" customWidth="1"/>
@@ -4694,14 +5293,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="271" ht="15" spans="1:4">
+    <row r="271" ht="15" spans="1:3">
       <c r="A271" s="3"/>
       <c r="B271" s="7"/>
       <c r="C271" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="D271">
-        <v>20</v>
       </c>
     </row>
     <row r="272" ht="15" spans="1:3">
@@ -4741,28 +5337,28 @@
         <v>270</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
       <c r="A278" s="3"/>
       <c r="B278" s="7"/>
       <c r="C278" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:3">
       <c r="A279" s="3"/>
       <c r="B279" s="7"/>
       <c r="C279" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
       <c r="A280" s="3"/>
       <c r="B280" s="7"/>
       <c r="C280" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" ht="15" spans="1:3">
@@ -4783,7 +5379,7 @@
       <c r="A283" s="3"/>
       <c r="B283" s="7"/>
       <c r="C283" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -4792,66 +5388,66 @@
     <row r="285" ht="15" spans="1:3">
       <c r="A285" s="3"/>
       <c r="B285" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
       <c r="A286" s="3"/>
       <c r="B286" s="7"/>
       <c r="C286" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:3">
       <c r="A287" s="3"/>
       <c r="B287" s="7"/>
       <c r="C287" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
       <c r="A288" s="3"/>
       <c r="B288" s="7"/>
       <c r="C288" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:3">
       <c r="A289" s="3"/>
       <c r="B289" s="7"/>
       <c r="C289" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
       <c r="A290" s="3"/>
       <c r="B290" s="7"/>
       <c r="C290" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:3">
       <c r="A291" s="3"/>
       <c r="B291" s="7"/>
       <c r="C291" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
       <c r="A292" s="3"/>
       <c r="B292" s="7"/>
       <c r="C292" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:3">
       <c r="A293" s="3"/>
       <c r="B293" s="7"/>
       <c r="C293" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
@@ -4866,49 +5462,1160 @@
     </row>
     <row r="296" ht="15" spans="1:3">
       <c r="A296" s="3"/>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="297" ht="15" spans="1:3">
+      <c r="A297" s="3"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" ht="15" spans="1:3">
+      <c r="A298" s="3"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" ht="15" spans="1:3">
+      <c r="A299" s="3"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" ht="15" spans="1:3">
+      <c r="A301" s="3"/>
+      <c r="B301" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C296" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="3"/>
-      <c r="B297" s="14"/>
-      <c r="C297" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="298" ht="9" customHeight="1" spans="1:3">
-      <c r="A298" s="18"/>
-      <c r="B298" s="16"/>
-      <c r="C298" s="16"/>
-    </row>
-    <row r="412" ht="18.75" spans="1:2">
-      <c r="A412" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B412" s="22">
+      <c r="C301" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="3"/>
+      <c r="B302" s="14"/>
+      <c r="C302" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1" spans="1:3">
+      <c r="A303" s="21"/>
+      <c r="B303" s="22"/>
+      <c r="C303" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="304" ht="12" customHeight="1" spans="1:3">
+      <c r="A304" s="21"/>
+      <c r="B304" s="22"/>
+      <c r="C304" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1" spans="1:3">
+      <c r="A305" s="21"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306" ht="9" customHeight="1" spans="1:3">
+      <c r="A306" s="18"/>
+      <c r="B306" s="16"/>
+      <c r="C306" s="16"/>
+    </row>
+    <row r="307" ht="24.75" spans="1:3">
+      <c r="A307" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+    </row>
+    <row r="308" ht="15.75" spans="1:3">
+      <c r="A308" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" ht="15.75" spans="1:3">
+      <c r="A309" s="3"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310" ht="15" spans="1:3">
+      <c r="A310" s="3"/>
+      <c r="B310" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="311" ht="15" spans="1:3">
+      <c r="A311" s="3"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="312" ht="15" spans="1:3">
+      <c r="A312" s="3"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" ht="15" spans="1:3">
+      <c r="A313" s="3"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="314" customFormat="1" spans="1:1">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" ht="15" spans="1:3">
+      <c r="A315" s="3"/>
+      <c r="B315" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="316" ht="15" spans="1:3">
+      <c r="A316" s="3"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="317" ht="15" spans="1:3">
+      <c r="A317" s="3"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="318" ht="15" spans="1:3">
+      <c r="A318" s="3"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="319" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A319" s="3"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="10"/>
+    </row>
+    <row r="320" customFormat="1" ht="15" spans="1:3">
+      <c r="A320" s="3"/>
+      <c r="B320" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="321" customFormat="1" ht="15" spans="1:3">
+      <c r="A321" s="3"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="322" customFormat="1" ht="15" spans="1:3">
+      <c r="A322" s="3"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="323" customFormat="1" ht="15" spans="1:3">
+      <c r="A323" s="3"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" customFormat="1" ht="15" spans="1:3">
+      <c r="A324" s="3"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="325" customFormat="1" ht="15" spans="1:3">
+      <c r="A325" s="3"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="326" customFormat="1" ht="15" spans="1:3">
+      <c r="A326" s="3"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="327" customFormat="1" spans="1:1">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" ht="15" spans="1:3">
+      <c r="A328" s="3"/>
+      <c r="B328" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C328" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="329" ht="15" spans="1:3">
+      <c r="A329" s="3"/>
+      <c r="B329" s="7"/>
+      <c r="C329" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="330" ht="15" spans="1:3">
+      <c r="A330" s="3"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="331" ht="15" spans="1:3">
+      <c r="A331" s="3"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" spans="1:1">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" ht="15" spans="1:3">
+      <c r="A333" s="3"/>
+      <c r="B333" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="3"/>
+      <c r="B334" s="14"/>
+      <c r="C334" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="3"/>
+      <c r="B335" s="14"/>
+      <c r="C335" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="336" ht="9" customHeight="1" spans="1:3">
+      <c r="A336" s="18"/>
+      <c r="B336" s="16"/>
+      <c r="C336" s="16"/>
+    </row>
+    <row r="337" ht="24.75" spans="1:3">
+      <c r="A337" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+    </row>
+    <row r="338" ht="15" spans="1:3">
+      <c r="A338" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C338" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="24"/>
+      <c r="B339" s="19"/>
+      <c r="C339" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="340" ht="15" spans="1:3">
+      <c r="A340" s="24"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="341" ht="15" spans="1:3">
+      <c r="A341" s="24"/>
+      <c r="B341" s="19"/>
+      <c r="C341" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="342" ht="15" spans="1:3">
+      <c r="A342" s="24"/>
+      <c r="B342" s="19"/>
+      <c r="C342" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="343" ht="15" spans="1:3">
+      <c r="A343" s="24"/>
+      <c r="B343" s="19"/>
+      <c r="C343" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="344" ht="15" spans="1:3">
+      <c r="A344" s="24"/>
+      <c r="B344" s="19"/>
+      <c r="C344" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="345" ht="15" spans="1:3">
+      <c r="A345" s="24"/>
+      <c r="B345" s="19"/>
+      <c r="C345" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="346" ht="15" spans="1:3">
+      <c r="A346" s="24"/>
+      <c r="B346" s="19"/>
+      <c r="C346" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="347" ht="15" spans="1:3">
+      <c r="A347" s="24"/>
+      <c r="B347" s="19"/>
+      <c r="C347" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="348" ht="15" spans="1:3">
+      <c r="A348" s="24"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="349" ht="15" spans="1:3">
+      <c r="A349" s="24"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="350" ht="15" spans="1:3">
+      <c r="A350" s="24"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="351" ht="15" spans="1:3">
+      <c r="A351" s="24"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="24"/>
+      <c r="B352" s="19"/>
+      <c r="C352" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="24"/>
+      <c r="B353" s="19"/>
+      <c r="C353" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="24"/>
+      <c r="B354" s="19"/>
+      <c r="C354" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="355" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A355" s="24"/>
+      <c r="B355" s="19"/>
+    </row>
+    <row r="356" ht="15" spans="1:3">
+      <c r="A356" s="24"/>
+      <c r="B356" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C356" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="24"/>
+      <c r="B357" s="14"/>
+      <c r="C357" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="359" ht="15" spans="1:3">
+      <c r="A359" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C359" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="24"/>
+      <c r="B360" s="19"/>
+      <c r="C360" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="361" ht="15" spans="1:3">
+      <c r="A361" s="24"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="362" ht="15" spans="1:3">
+      <c r="A362" s="24"/>
+      <c r="B362" s="19"/>
+      <c r="C362" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="363" ht="15" spans="1:3">
+      <c r="A363" s="24"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="364" ht="15" spans="1:3">
+      <c r="A364" s="24"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="24"/>
+      <c r="B365" s="19"/>
+      <c r="C365" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="366" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A366" s="24"/>
+      <c r="B366" s="19"/>
+    </row>
+    <row r="367" ht="15" spans="1:3">
+      <c r="A367" s="24"/>
+      <c r="B367" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="24"/>
+      <c r="B368" s="14"/>
+      <c r="C368" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="370" ht="15" spans="1:3">
+      <c r="A370" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B370" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="371" ht="15" spans="1:3">
+      <c r="A371" s="27"/>
+      <c r="B371" s="26"/>
+      <c r="C371" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="372" ht="15" spans="1:3">
+      <c r="A372" s="27"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="373" ht="15" spans="1:3">
+      <c r="A373" s="27"/>
+      <c r="B373" s="26"/>
+      <c r="C373" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="374" ht="15" spans="1:3">
+      <c r="A374" s="27"/>
+      <c r="B374" s="26"/>
+      <c r="C374" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="375" ht="15" spans="1:3">
+      <c r="A375" s="27"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="376" ht="15" spans="1:3">
+      <c r="A376" s="27"/>
+      <c r="B376" s="26"/>
+      <c r="C376" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="377" ht="15" spans="1:3">
+      <c r="A377" s="27"/>
+      <c r="B377" s="26"/>
+      <c r="C377" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="378" ht="15" spans="1:3">
+      <c r="A378" s="27"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="379" ht="15" spans="1:3">
+      <c r="A379" s="27"/>
+      <c r="B379" s="26"/>
+      <c r="C379" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="380" ht="15" spans="1:3">
+      <c r="A380" s="27"/>
+      <c r="B380" s="26"/>
+      <c r="C380" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="381" ht="15" spans="1:3">
+      <c r="A381" s="27"/>
+      <c r="B381" s="26"/>
+      <c r="C381" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="382" ht="15" spans="1:3">
+      <c r="A382" s="27"/>
+      <c r="B382" s="26"/>
+      <c r="C382" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="383" ht="15" spans="1:3">
+      <c r="A383" s="27"/>
+      <c r="B383" s="26"/>
+      <c r="C383" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="384" ht="15" spans="1:3">
+      <c r="A384" s="27"/>
+      <c r="B384" s="26"/>
+      <c r="C384" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="385" ht="15" spans="1:3">
+      <c r="A385" s="27"/>
+      <c r="B385" s="26"/>
+      <c r="C385" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="386" ht="15" spans="1:3">
+      <c r="A386" s="27"/>
+      <c r="B386" s="26"/>
+      <c r="C386" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="387" ht="15" spans="1:3">
+      <c r="A387" s="27"/>
+      <c r="B387" s="26"/>
+      <c r="C387" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="388" ht="15" spans="1:3">
+      <c r="A388" s="27"/>
+      <c r="B388" s="26"/>
+      <c r="C388" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="389" ht="15" spans="1:3">
+      <c r="A389" s="27"/>
+      <c r="B389" s="26"/>
+      <c r="C389" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="27"/>
+      <c r="B390" s="26"/>
+      <c r="C390" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="27"/>
+      <c r="B391" s="26"/>
+      <c r="C391" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="27"/>
+      <c r="B392" s="26"/>
+      <c r="C392" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="27"/>
+      <c r="B393" s="26"/>
+      <c r="C393" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="394" customFormat="1" spans="1:1">
+      <c r="A394" s="27"/>
+    </row>
+    <row r="395" ht="15" spans="1:3">
+      <c r="A395" s="27"/>
+      <c r="B395" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C395" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="396" ht="15" spans="1:3">
+      <c r="A396" s="27"/>
+      <c r="B396" s="14"/>
+      <c r="C396" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="397" ht="15" spans="1:3">
+      <c r="A397" s="27"/>
+      <c r="B397" s="14"/>
+      <c r="C397" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="398" ht="15" spans="1:3">
+      <c r="A398" s="27"/>
+      <c r="B398" s="14"/>
+      <c r="C398" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="399" ht="15" spans="1:3">
+      <c r="A399" s="27"/>
+      <c r="B399" s="14"/>
+      <c r="C399" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="400" ht="15" spans="1:3">
+      <c r="A400" s="27"/>
+      <c r="B400" s="14"/>
+      <c r="C400" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="401" ht="15" spans="1:3">
+      <c r="A401" s="27"/>
+      <c r="B401" s="14"/>
+      <c r="C401" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="402" ht="9" customHeight="1" spans="1:3">
+      <c r="A402" s="18"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+    </row>
+    <row r="403" ht="24.75" spans="1:3">
+      <c r="A403" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404" ht="15" spans="1:3">
+      <c r="A404" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B404" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="405" ht="15" spans="1:3">
+      <c r="A405" s="29"/>
+      <c r="B405" s="26"/>
+      <c r="C405" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="406" ht="15" spans="1:3">
+      <c r="A406" s="29"/>
+      <c r="B406" s="26"/>
+      <c r="C406" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="407" ht="15" spans="1:3">
+      <c r="A407" s="29"/>
+      <c r="B407" s="26"/>
+      <c r="C407" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="408" ht="15" spans="1:3">
+      <c r="A408" s="29"/>
+      <c r="B408" s="26"/>
+      <c r="C408" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="409" ht="15" spans="1:3">
+      <c r="A409" s="29"/>
+      <c r="B409" s="26"/>
+      <c r="C409" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="410" ht="15" spans="1:3">
+      <c r="A410" s="29"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="411" ht="15" spans="1:3">
+      <c r="A411" s="29"/>
+      <c r="B411" s="26"/>
+      <c r="C411" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="412" ht="15" spans="1:3">
+      <c r="A412" s="29"/>
+      <c r="B412" s="26"/>
+      <c r="C412" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="413" ht="15" spans="1:3">
+      <c r="A413" s="29"/>
+      <c r="B413" s="26"/>
+      <c r="C413" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="414" ht="15" spans="1:3">
+      <c r="A414" s="29"/>
+      <c r="B414" s="26"/>
+      <c r="C414" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="415" ht="15" spans="1:3">
+      <c r="A415" s="29"/>
+      <c r="B415" s="26"/>
+      <c r="C415" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="416" ht="15" spans="1:3">
+      <c r="A416" s="29"/>
+      <c r="B416" s="26"/>
+      <c r="C416" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="417" ht="15" spans="1:3">
+      <c r="A417" s="29"/>
+      <c r="B417" s="26"/>
+      <c r="C417" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="418" ht="15" spans="1:3">
+      <c r="A418" s="29"/>
+      <c r="B418" s="26"/>
+      <c r="C418" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="419" ht="15" spans="1:3">
+      <c r="A419" s="29"/>
+      <c r="B419" s="26"/>
+      <c r="C419" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="420" ht="15" spans="1:3">
+      <c r="A420" s="29"/>
+      <c r="B420" s="26"/>
+      <c r="C420" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="421" ht="15" spans="1:3">
+      <c r="A421" s="29"/>
+      <c r="B421" s="26"/>
+      <c r="C421" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="422" ht="18" spans="1:3">
+      <c r="A422" s="29"/>
+      <c r="B422" s="26"/>
+      <c r="C422" s="13"/>
+    </row>
+    <row r="423" ht="15" spans="1:3">
+      <c r="A423" s="29"/>
+      <c r="B423" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C423" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="424" ht="15" spans="1:3">
+      <c r="A424" s="29"/>
+      <c r="B424" s="26"/>
+      <c r="C424" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="425" ht="15" spans="1:3">
+      <c r="A425" s="29"/>
+      <c r="B425" s="26"/>
+      <c r="C425" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="426" ht="15" spans="1:3">
+      <c r="A426" s="29"/>
+      <c r="B426" s="26"/>
+      <c r="C426" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="427" ht="15" spans="1:3">
+      <c r="A427" s="29"/>
+      <c r="B427" s="26"/>
+      <c r="C427" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="428" ht="15" spans="1:3">
+      <c r="A428" s="29"/>
+      <c r="B428" s="26"/>
+      <c r="C428" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="429" ht="15" spans="1:3">
+      <c r="A429" s="29"/>
+      <c r="B429" s="26"/>
+      <c r="C429" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="430" ht="15" spans="1:3">
+      <c r="A430" s="29"/>
+      <c r="B430" s="26"/>
+      <c r="C430" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="431" ht="15" spans="1:3">
+      <c r="A431" s="29"/>
+      <c r="B431" s="26"/>
+      <c r="C431" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="432" ht="15" spans="1:3">
+      <c r="A432" s="29"/>
+      <c r="B432" s="26"/>
+      <c r="C432" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="433" ht="15" spans="1:3">
+      <c r="A433" s="29"/>
+      <c r="B433" s="26"/>
+      <c r="C433" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="434" ht="15" spans="1:3">
+      <c r="A434" s="29"/>
+      <c r="B434" s="26"/>
+      <c r="C434" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="435" ht="15" spans="1:3">
+      <c r="A435" s="29"/>
+      <c r="B435" s="26"/>
+      <c r="C435" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="436" ht="15" spans="1:3">
+      <c r="A436" s="29"/>
+      <c r="B436" s="26"/>
+      <c r="C436" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="437" ht="15" spans="1:3">
+      <c r="A437" s="29"/>
+      <c r="B437" s="26"/>
+      <c r="C437" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="438" ht="15" spans="1:3">
+      <c r="A438" s="29"/>
+      <c r="B438" s="26"/>
+      <c r="C438" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="439" ht="15" spans="1:3">
+      <c r="A439" s="29"/>
+      <c r="B439" s="26"/>
+      <c r="C439" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="440" ht="18" spans="1:3">
+      <c r="A440" s="29"/>
+      <c r="B440" s="26"/>
+      <c r="C440" s="13"/>
+    </row>
+    <row r="441" ht="15" spans="1:3">
+      <c r="A441" s="29"/>
+      <c r="B441" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="442" ht="15" spans="1:3">
+      <c r="A442" s="29"/>
+      <c r="B442" s="26"/>
+      <c r="C442" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="443" ht="15" spans="1:3">
+      <c r="A443" s="29"/>
+      <c r="B443" s="26"/>
+      <c r="C443" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="444" ht="15" spans="1:3">
+      <c r="A444" s="29"/>
+      <c r="B444" s="26"/>
+      <c r="C444" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="445" ht="15" spans="1:3">
+      <c r="A445" s="29"/>
+      <c r="B445" s="26"/>
+      <c r="C445" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="446" ht="15" spans="1:3">
+      <c r="A446" s="29"/>
+      <c r="B446" s="26"/>
+      <c r="C446" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="447" ht="15" spans="1:3">
+      <c r="A447" s="29"/>
+      <c r="B447" s="26"/>
+      <c r="C447" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="448" ht="15" spans="1:3">
+      <c r="A448" s="29"/>
+      <c r="B448" s="26"/>
+      <c r="C448" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="449" ht="15" spans="1:3">
+      <c r="A449" s="29"/>
+      <c r="B449" s="26"/>
+      <c r="C449" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="450" ht="15" spans="1:3">
+      <c r="A450" s="29"/>
+      <c r="B450" s="26"/>
+      <c r="C450" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="451" ht="18" spans="1:3">
+      <c r="A451" s="29"/>
+      <c r="B451" s="30"/>
+      <c r="C451" s="13"/>
+    </row>
+    <row r="452" ht="15" spans="1:3">
+      <c r="A452" s="29"/>
+      <c r="B452" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C452" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="453" ht="15" spans="1:3">
+      <c r="A453" s="29"/>
+      <c r="B453" s="14"/>
+      <c r="C453" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="454" ht="15" spans="1:3">
+      <c r="A454" s="29"/>
+      <c r="B454" s="14"/>
+      <c r="C454" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="455" ht="15" spans="1:3">
+      <c r="A455" s="29"/>
+      <c r="B455" s="14"/>
+      <c r="C455" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="456" ht="15" spans="1:3">
+      <c r="A456" s="29"/>
+      <c r="B456" s="14"/>
+      <c r="C456" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="457" ht="15" spans="1:3">
+      <c r="A457" s="29"/>
+      <c r="B457" s="14"/>
+      <c r="C457" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="31"/>
+      <c r="B458" s="31"/>
+      <c r="C458" s="31"/>
+    </row>
+    <row r="571" ht="18.75" spans="1:2">
+      <c r="A571" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B571" s="33">
         <v>10.5</v>
       </c>
     </row>
-    <row r="413" ht="18.75" spans="1:2">
-      <c r="A413" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B413" s="22">
+    <row r="572" ht="18.75" spans="1:2">
+      <c r="A572" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B572" s="33">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="75">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A145:C145"/>
     <mergeCell ref="A198:C198"/>
     <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A403:C403"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A26:A35"/>
@@ -4919,7 +6626,12 @@
     <mergeCell ref="A146:A196"/>
     <mergeCell ref="A199:A230"/>
     <mergeCell ref="A232:A253"/>
-    <mergeCell ref="A256:A297"/>
+    <mergeCell ref="A256:A305"/>
+    <mergeCell ref="A308:A335"/>
+    <mergeCell ref="A338:A357"/>
+    <mergeCell ref="A359:A368"/>
+    <mergeCell ref="A370:A401"/>
+    <mergeCell ref="A404:A457"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B16:B24"/>
     <mergeCell ref="B26:B35"/>
@@ -4953,8 +6665,28 @@
     <mergeCell ref="B269:B275"/>
     <mergeCell ref="B277:B283"/>
     <mergeCell ref="B285:B294"/>
-    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="B301:B305"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B320:B326"/>
+    <mergeCell ref="B328:B331"/>
+    <mergeCell ref="B333:B335"/>
+    <mergeCell ref="B338:B354"/>
+    <mergeCell ref="B356:B357"/>
+    <mergeCell ref="B359:B365"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="B370:B393"/>
+    <mergeCell ref="B395:B401"/>
+    <mergeCell ref="B404:B421"/>
+    <mergeCell ref="B423:B439"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B452:B457"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C405" r:id="rId1" display="2. Module Outline"/>
+    <hyperlink ref="C419" r:id="rId2" display="16. New Patterns: The Predicate Interface Example"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Core Java 8</t>
   </si>
   <si>
-    <t xml:space="preserve"> Database &amp; PostGreSQL with DevOps (Git, Sonarqube, Gradle, Jenkin)</t>
+    <t>Database &amp; PostGreSQL with DevOps (Git, Sonarqube, Gradle, Jenkin)</t>
   </si>
   <si>
     <t>Core Java Assignments</t>
@@ -1681,10 +1681,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1807,23 +1807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1837,16 +1821,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1859,8 +1835,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,69 +1936,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2002,7 +2002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,7 +2014,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,13 +2056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,13 +2068,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,7 +2110,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,43 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,61 +2176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,30 +2277,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2318,19 +2294,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2346,6 +2311,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2368,15 +2342,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2394,134 +2394,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2575,13 +2575,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2984,8 +2977,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2998,316 +2991,316 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="36">
+      <c r="F9" s="33">
         <v>1</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="35">
         <v>10.5</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="35">
         <v>84</v>
       </c>
     </row>
     <row r="10" ht="30.75" spans="6:9">
-      <c r="F10" s="39">
+      <c r="F10" s="36">
         <v>2</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <v>2</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="35">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="39">
+      <c r="F11" s="36">
         <v>3</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="35">
         <v>4</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="35">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="6:9">
-      <c r="F12" s="39">
+      <c r="F12" s="36">
         <v>4</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="35">
         <v>0.5</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="35">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="39">
+      <c r="F13" s="36">
         <v>5</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <v>2</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="35">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="39">
+      <c r="F14" s="36">
         <v>6</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="35">
         <v>2</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="35">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <v>7</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="35">
         <v>1</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="6:9">
-      <c r="F16" s="39">
+      <c r="F16" s="36">
         <v>8</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="35">
         <v>6</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="6:9">
-      <c r="F17" s="39">
+      <c r="F17" s="36">
         <v>9</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="35">
         <v>3</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="35">
         <v>24</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="6:9">
-      <c r="F18" s="39">
+      <c r="F18" s="36">
         <v>10</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <v>5</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="35">
         <v>40</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="6:9">
-      <c r="F19" s="39">
+      <c r="F19" s="36">
         <v>11</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="35">
         <v>1</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="6:9">
-      <c r="F20" s="39">
+      <c r="F20" s="36">
         <v>12</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="35">
         <v>4</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="35">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="6:9">
-      <c r="F21" s="39">
+      <c r="F21" s="36">
         <v>13</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="35">
         <v>1</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="35">
         <v>16</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="6:9">
-      <c r="F22" s="39">
+      <c r="F22" s="36">
         <v>14</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="35">
         <v>6</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="35">
         <v>48</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="6:9">
-      <c r="F23" s="39">
+      <c r="F23" s="36">
         <v>15</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="35">
         <v>2</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="35">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="30.75" spans="6:9">
-      <c r="F24" s="39">
+      <c r="F24" s="36">
         <v>16</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="35">
         <v>4</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="35">
         <v>32</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="6:9">
-      <c r="F25" s="42"/>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="41">
         <f>SUM(H9:H24)</f>
         <v>54</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="49">
         <f>SUM(I9:I24)</f>
         <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="47">
+      <c r="A32" s="44">
         <v>1</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="47">
+      <c r="A33" s="44">
         <v>2</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="47">
+      <c r="A34" s="44">
         <v>3</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="47">
+      <c r="A37" s="44">
         <v>1</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -3319,40 +3312,40 @@
       <c r="F37" s="17"/>
     </row>
     <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A38" s="51">
+      <c r="A38" s="48">
         <v>2</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A39" s="51">
+      <c r="A39" s="48">
         <v>3</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" ht="54" customHeight="1" spans="1:6">
-      <c r="A40" s="51">
+      <c r="A40" s="48">
         <v>4</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3376,8 +3369,8 @@
   <sheetPr/>
   <dimension ref="A1:C572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F309" sqref="F309"/>
     </sheetView>
@@ -5510,23 +5503,23 @@
       </c>
     </row>
     <row r="303" ht="15" customHeight="1" spans="1:3">
-      <c r="A303" s="21"/>
-      <c r="B303" s="22"/>
-      <c r="C303" s="23" t="s">
+      <c r="A303" s="3"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" ht="12" customHeight="1" spans="1:3">
-      <c r="A304" s="21"/>
-      <c r="B304" s="22"/>
-      <c r="C304" s="23" t="s">
+      <c r="A304" s="3"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:3">
-      <c r="A305" s="21"/>
-      <c r="B305" s="22"/>
-      <c r="C305" s="23" t="s">
+      <c r="A305" s="3"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="10" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5749,7 +5742,7 @@
       <c r="C337" s="2"/>
     </row>
     <row r="338" ht="15" spans="1:3">
-      <c r="A338" s="24" t="s">
+      <c r="A338" s="21" t="s">
         <v>319</v>
       </c>
       <c r="B338" s="19" t="s">
@@ -5760,123 +5753,123 @@
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="24"/>
+      <c r="A339" s="21"/>
       <c r="B339" s="19"/>
       <c r="C339" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:3">
-      <c r="A340" s="24"/>
+      <c r="A340" s="21"/>
       <c r="B340" s="19"/>
       <c r="C340" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="341" ht="15" spans="1:3">
-      <c r="A341" s="24"/>
+      <c r="A341" s="21"/>
       <c r="B341" s="19"/>
       <c r="C341" s="13" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
-      <c r="A342" s="24"/>
+      <c r="A342" s="21"/>
       <c r="B342" s="19"/>
       <c r="C342" s="13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:3">
-      <c r="A343" s="24"/>
+      <c r="A343" s="21"/>
       <c r="B343" s="19"/>
       <c r="C343" s="13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
-      <c r="A344" s="24"/>
+      <c r="A344" s="21"/>
       <c r="B344" s="19"/>
       <c r="C344" s="13" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:3">
-      <c r="A345" s="24"/>
+      <c r="A345" s="21"/>
       <c r="B345" s="19"/>
       <c r="C345" s="13" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
-      <c r="A346" s="24"/>
+      <c r="A346" s="21"/>
       <c r="B346" s="19"/>
       <c r="C346" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:3">
-      <c r="A347" s="24"/>
+      <c r="A347" s="21"/>
       <c r="B347" s="19"/>
       <c r="C347" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
-      <c r="A348" s="24"/>
+      <c r="A348" s="21"/>
       <c r="B348" s="19"/>
       <c r="C348" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:3">
-      <c r="A349" s="24"/>
+      <c r="A349" s="21"/>
       <c r="B349" s="19"/>
       <c r="C349" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
-      <c r="A350" s="24"/>
+      <c r="A350" s="21"/>
       <c r="B350" s="19"/>
       <c r="C350" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:3">
-      <c r="A351" s="24"/>
+      <c r="A351" s="21"/>
       <c r="B351" s="19"/>
       <c r="C351" s="13" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="24"/>
+      <c r="A352" s="21"/>
       <c r="B352" s="19"/>
       <c r="C352" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="24"/>
+      <c r="A353" s="21"/>
       <c r="B353" s="19"/>
       <c r="C353" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="24"/>
+      <c r="A354" s="21"/>
       <c r="B354" s="19"/>
       <c r="C354" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="355" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A355" s="24"/>
+      <c r="A355" s="21"/>
       <c r="B355" s="19"/>
     </row>
     <row r="356" ht="15" spans="1:3">
-      <c r="A356" s="24"/>
+      <c r="A356" s="21"/>
       <c r="B356" s="14" t="s">
         <v>22</v>
       </c>
@@ -5885,14 +5878,14 @@
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="24"/>
+      <c r="A357" s="21"/>
       <c r="B357" s="14"/>
       <c r="C357" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="359" ht="15" spans="1:3">
-      <c r="A359" s="24" t="s">
+      <c r="A359" s="21" t="s">
         <v>339</v>
       </c>
       <c r="B359" s="19" t="s">
@@ -5903,53 +5896,53 @@
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="24"/>
+      <c r="A360" s="21"/>
       <c r="B360" s="19"/>
       <c r="C360" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="361" ht="15" spans="1:3">
-      <c r="A361" s="24"/>
+      <c r="A361" s="21"/>
       <c r="B361" s="19"/>
       <c r="C361" s="13" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
-      <c r="A362" s="24"/>
+      <c r="A362" s="21"/>
       <c r="B362" s="19"/>
       <c r="C362" s="13" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:3">
-      <c r="A363" s="24"/>
+      <c r="A363" s="21"/>
       <c r="B363" s="19"/>
       <c r="C363" s="13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
-      <c r="A364" s="24"/>
+      <c r="A364" s="21"/>
       <c r="B364" s="19"/>
       <c r="C364" s="13" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="24"/>
+      <c r="A365" s="21"/>
       <c r="B365" s="19"/>
       <c r="C365" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="366" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A366" s="24"/>
+      <c r="A366" s="21"/>
       <c r="B366" s="19"/>
     </row>
     <row r="367" ht="15" spans="1:3">
-      <c r="A367" s="24"/>
+      <c r="A367" s="21"/>
       <c r="B367" s="14" t="s">
         <v>22</v>
       </c>
@@ -5958,17 +5951,17 @@
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="24"/>
+      <c r="A368" s="21"/>
       <c r="B368" s="14"/>
       <c r="C368" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:3">
-      <c r="A370" s="25" t="s">
+      <c r="A370" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="26" t="s">
+      <c r="B370" s="23" t="s">
         <v>348</v>
       </c>
       <c r="C370" s="13" t="s">
@@ -5976,171 +5969,171 @@
       </c>
     </row>
     <row r="371" ht="15" spans="1:3">
-      <c r="A371" s="27"/>
-      <c r="B371" s="26"/>
+      <c r="A371" s="24"/>
+      <c r="B371" s="23"/>
       <c r="C371" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
-      <c r="A372" s="27"/>
-      <c r="B372" s="26"/>
+      <c r="A372" s="24"/>
+      <c r="B372" s="23"/>
       <c r="C372" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="373" ht="15" spans="1:3">
-      <c r="A373" s="27"/>
-      <c r="B373" s="26"/>
+      <c r="A373" s="24"/>
+      <c r="B373" s="23"/>
       <c r="C373" s="13" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
-      <c r="A374" s="27"/>
-      <c r="B374" s="26"/>
+      <c r="A374" s="24"/>
+      <c r="B374" s="23"/>
       <c r="C374" s="13" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="375" ht="15" spans="1:3">
-      <c r="A375" s="27"/>
-      <c r="B375" s="26"/>
-      <c r="C375" s="28" t="s">
+      <c r="A375" s="24"/>
+      <c r="B375" s="23"/>
+      <c r="C375" s="25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:3">
-      <c r="A376" s="27"/>
-      <c r="B376" s="26"/>
+      <c r="A376" s="24"/>
+      <c r="B376" s="23"/>
       <c r="C376" s="13" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="377" ht="15" spans="1:3">
-      <c r="A377" s="27"/>
-      <c r="B377" s="26"/>
-      <c r="C377" s="28" t="s">
+      <c r="A377" s="24"/>
+      <c r="B377" s="23"/>
+      <c r="C377" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:3">
-      <c r="A378" s="27"/>
-      <c r="B378" s="26"/>
+      <c r="A378" s="24"/>
+      <c r="B378" s="23"/>
       <c r="C378" s="13" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="379" ht="15" spans="1:3">
-      <c r="A379" s="27"/>
-      <c r="B379" s="26"/>
-      <c r="C379" s="28" t="s">
+      <c r="A379" s="24"/>
+      <c r="B379" s="23"/>
+      <c r="C379" s="25" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:3">
-      <c r="A380" s="27"/>
-      <c r="B380" s="26"/>
+      <c r="A380" s="24"/>
+      <c r="B380" s="23"/>
       <c r="C380" s="13" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="381" ht="15" spans="1:3">
-      <c r="A381" s="27"/>
-      <c r="B381" s="26"/>
-      <c r="C381" s="28" t="s">
+      <c r="A381" s="24"/>
+      <c r="B381" s="23"/>
+      <c r="C381" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:3">
-      <c r="A382" s="27"/>
-      <c r="B382" s="26"/>
+      <c r="A382" s="24"/>
+      <c r="B382" s="23"/>
       <c r="C382" s="13" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="383" ht="15" spans="1:3">
-      <c r="A383" s="27"/>
-      <c r="B383" s="26"/>
+      <c r="A383" s="24"/>
+      <c r="B383" s="23"/>
       <c r="C383" s="13" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
-      <c r="A384" s="27"/>
-      <c r="B384" s="26"/>
+      <c r="A384" s="24"/>
+      <c r="B384" s="23"/>
       <c r="C384" s="13" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="385" ht="15" spans="1:3">
-      <c r="A385" s="27"/>
-      <c r="B385" s="26"/>
+      <c r="A385" s="24"/>
+      <c r="B385" s="23"/>
       <c r="C385" s="13" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
-      <c r="A386" s="27"/>
-      <c r="B386" s="26"/>
+      <c r="A386" s="24"/>
+      <c r="B386" s="23"/>
       <c r="C386" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="387" ht="15" spans="1:3">
-      <c r="A387" s="27"/>
-      <c r="B387" s="26"/>
+      <c r="A387" s="24"/>
+      <c r="B387" s="23"/>
       <c r="C387" s="13" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
-      <c r="A388" s="27"/>
-      <c r="B388" s="26"/>
+      <c r="A388" s="24"/>
+      <c r="B388" s="23"/>
       <c r="C388" s="13" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:3">
-      <c r="A389" s="27"/>
-      <c r="B389" s="26"/>
+      <c r="A389" s="24"/>
+      <c r="B389" s="23"/>
       <c r="C389" s="13" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="27"/>
-      <c r="B390" s="26"/>
+      <c r="A390" s="24"/>
+      <c r="B390" s="23"/>
       <c r="C390" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="27"/>
-      <c r="B391" s="26"/>
+      <c r="A391" s="24"/>
+      <c r="B391" s="23"/>
       <c r="C391" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="27"/>
-      <c r="B392" s="26"/>
+      <c r="A392" s="24"/>
+      <c r="B392" s="23"/>
       <c r="C392" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="27"/>
-      <c r="B393" s="26"/>
+      <c r="A393" s="24"/>
+      <c r="B393" s="23"/>
       <c r="C393" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="394" customFormat="1" spans="1:1">
-      <c r="A394" s="27"/>
+      <c r="A394" s="24"/>
     </row>
     <row r="395" ht="15" spans="1:3">
-      <c r="A395" s="27"/>
+      <c r="A395" s="24"/>
       <c r="B395" s="14" t="s">
         <v>22</v>
       </c>
@@ -6149,42 +6142,42 @@
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
-      <c r="A396" s="27"/>
+      <c r="A396" s="24"/>
       <c r="B396" s="14"/>
       <c r="C396" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:3">
-      <c r="A397" s="27"/>
+      <c r="A397" s="24"/>
       <c r="B397" s="14"/>
       <c r="C397" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
-      <c r="A398" s="27"/>
+      <c r="A398" s="24"/>
       <c r="B398" s="14"/>
       <c r="C398" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:3">
-      <c r="A399" s="27"/>
+      <c r="A399" s="24"/>
       <c r="B399" s="14"/>
       <c r="C399" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
-      <c r="A400" s="27"/>
+      <c r="A400" s="24"/>
       <c r="B400" s="14"/>
       <c r="C400" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:3">
-      <c r="A401" s="27"/>
+      <c r="A401" s="24"/>
       <c r="B401" s="14"/>
       <c r="C401" s="10" t="s">
         <v>378</v>
@@ -6203,10 +6196,10 @@
       <c r="C403" s="2"/>
     </row>
     <row r="404" ht="15" spans="1:3">
-      <c r="A404" s="29" t="s">
+      <c r="A404" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="B404" s="26" t="s">
+      <c r="B404" s="23" t="s">
         <v>381</v>
       </c>
       <c r="C404" s="13" t="s">
@@ -6214,132 +6207,132 @@
       </c>
     </row>
     <row r="405" ht="15" spans="1:3">
-      <c r="A405" s="29"/>
-      <c r="B405" s="26"/>
+      <c r="A405" s="26"/>
+      <c r="B405" s="23"/>
       <c r="C405" s="13" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
-      <c r="A406" s="29"/>
-      <c r="B406" s="26"/>
+      <c r="A406" s="26"/>
+      <c r="B406" s="23"/>
       <c r="C406" s="13" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:3">
-      <c r="A407" s="29"/>
-      <c r="B407" s="26"/>
+      <c r="A407" s="26"/>
+      <c r="B407" s="23"/>
       <c r="C407" s="13" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="408" ht="15" spans="1:3">
-      <c r="A408" s="29"/>
-      <c r="B408" s="26"/>
+      <c r="A408" s="26"/>
+      <c r="B408" s="23"/>
       <c r="C408" s="13" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:3">
-      <c r="A409" s="29"/>
-      <c r="B409" s="26"/>
+      <c r="A409" s="26"/>
+      <c r="B409" s="23"/>
       <c r="C409" s="13" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:3">
-      <c r="A410" s="29"/>
-      <c r="B410" s="26"/>
+      <c r="A410" s="26"/>
+      <c r="B410" s="23"/>
       <c r="C410" s="13" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:3">
-      <c r="A411" s="29"/>
-      <c r="B411" s="26"/>
+      <c r="A411" s="26"/>
+      <c r="B411" s="23"/>
       <c r="C411" s="13" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
-      <c r="A412" s="29"/>
-      <c r="B412" s="26"/>
+      <c r="A412" s="26"/>
+      <c r="B412" s="23"/>
       <c r="C412" s="13" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:3">
-      <c r="A413" s="29"/>
-      <c r="B413" s="26"/>
+      <c r="A413" s="26"/>
+      <c r="B413" s="23"/>
       <c r="C413" s="13" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
-      <c r="A414" s="29"/>
-      <c r="B414" s="26"/>
+      <c r="A414" s="26"/>
+      <c r="B414" s="23"/>
       <c r="C414" s="13" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:3">
-      <c r="A415" s="29"/>
-      <c r="B415" s="26"/>
+      <c r="A415" s="26"/>
+      <c r="B415" s="23"/>
       <c r="C415" s="13" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
-      <c r="A416" s="29"/>
-      <c r="B416" s="26"/>
+      <c r="A416" s="26"/>
+      <c r="B416" s="23"/>
       <c r="C416" s="13" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:3">
-      <c r="A417" s="29"/>
-      <c r="B417" s="26"/>
+      <c r="A417" s="26"/>
+      <c r="B417" s="23"/>
       <c r="C417" s="13" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
-      <c r="A418" s="29"/>
-      <c r="B418" s="26"/>
+      <c r="A418" s="26"/>
+      <c r="B418" s="23"/>
       <c r="C418" s="13" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="419" ht="15" spans="1:3">
-      <c r="A419" s="29"/>
-      <c r="B419" s="26"/>
+      <c r="A419" s="26"/>
+      <c r="B419" s="23"/>
       <c r="C419" s="13" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
-      <c r="A420" s="29"/>
-      <c r="B420" s="26"/>
+      <c r="A420" s="26"/>
+      <c r="B420" s="23"/>
       <c r="C420" s="13" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="421" ht="15" spans="1:3">
-      <c r="A421" s="29"/>
-      <c r="B421" s="26"/>
+      <c r="A421" s="26"/>
+      <c r="B421" s="23"/>
       <c r="C421" s="13" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="422" ht="18" spans="1:3">
-      <c r="A422" s="29"/>
-      <c r="B422" s="26"/>
+      <c r="A422" s="26"/>
+      <c r="B422" s="23"/>
       <c r="C422" s="13"/>
     </row>
     <row r="423" ht="15" spans="1:3">
-      <c r="A423" s="29"/>
-      <c r="B423" s="26" t="s">
+      <c r="A423" s="26"/>
+      <c r="B423" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C423" s="13" t="s">
@@ -6347,125 +6340,125 @@
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
-      <c r="A424" s="29"/>
-      <c r="B424" s="26"/>
+      <c r="A424" s="26"/>
+      <c r="B424" s="23"/>
       <c r="C424" s="13" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="425" ht="15" spans="1:3">
-      <c r="A425" s="29"/>
-      <c r="B425" s="26"/>
+      <c r="A425" s="26"/>
+      <c r="B425" s="23"/>
       <c r="C425" s="13" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
-      <c r="A426" s="29"/>
-      <c r="B426" s="26"/>
+      <c r="A426" s="26"/>
+      <c r="B426" s="23"/>
       <c r="C426" s="13" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="427" ht="15" spans="1:3">
-      <c r="A427" s="29"/>
-      <c r="B427" s="26"/>
+      <c r="A427" s="26"/>
+      <c r="B427" s="23"/>
       <c r="C427" s="13" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
-      <c r="A428" s="29"/>
-      <c r="B428" s="26"/>
+      <c r="A428" s="26"/>
+      <c r="B428" s="23"/>
       <c r="C428" s="13" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:3">
-      <c r="A429" s="29"/>
-      <c r="B429" s="26"/>
+      <c r="A429" s="26"/>
+      <c r="B429" s="23"/>
       <c r="C429" s="13" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
-      <c r="A430" s="29"/>
-      <c r="B430" s="26"/>
+      <c r="A430" s="26"/>
+      <c r="B430" s="23"/>
       <c r="C430" s="13" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:3">
-      <c r="A431" s="29"/>
-      <c r="B431" s="26"/>
+      <c r="A431" s="26"/>
+      <c r="B431" s="23"/>
       <c r="C431" s="13" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
-      <c r="A432" s="29"/>
-      <c r="B432" s="26"/>
+      <c r="A432" s="26"/>
+      <c r="B432" s="23"/>
       <c r="C432" s="13" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:3">
-      <c r="A433" s="29"/>
-      <c r="B433" s="26"/>
+      <c r="A433" s="26"/>
+      <c r="B433" s="23"/>
       <c r="C433" s="13" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
-      <c r="A434" s="29"/>
-      <c r="B434" s="26"/>
+      <c r="A434" s="26"/>
+      <c r="B434" s="23"/>
       <c r="C434" s="13" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="435" ht="15" spans="1:3">
-      <c r="A435" s="29"/>
-      <c r="B435" s="26"/>
+      <c r="A435" s="26"/>
+      <c r="B435" s="23"/>
       <c r="C435" s="13" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="436" ht="15" spans="1:3">
-      <c r="A436" s="29"/>
-      <c r="B436" s="26"/>
+      <c r="A436" s="26"/>
+      <c r="B436" s="23"/>
       <c r="C436" s="13" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="437" ht="15" spans="1:3">
-      <c r="A437" s="29"/>
-      <c r="B437" s="26"/>
+      <c r="A437" s="26"/>
+      <c r="B437" s="23"/>
       <c r="C437" s="13" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:3">
-      <c r="A438" s="29"/>
-      <c r="B438" s="26"/>
+      <c r="A438" s="26"/>
+      <c r="B438" s="23"/>
       <c r="C438" s="13" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="439" ht="15" spans="1:3">
-      <c r="A439" s="29"/>
-      <c r="B439" s="26"/>
+      <c r="A439" s="26"/>
+      <c r="B439" s="23"/>
       <c r="C439" s="13" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="440" ht="18" spans="1:3">
-      <c r="A440" s="29"/>
-      <c r="B440" s="26"/>
+      <c r="A440" s="26"/>
+      <c r="B440" s="23"/>
       <c r="C440" s="13"/>
     </row>
     <row r="441" ht="15" spans="1:3">
-      <c r="A441" s="29"/>
-      <c r="B441" s="26" t="s">
+      <c r="A441" s="26"/>
+      <c r="B441" s="23" t="s">
         <v>416</v>
       </c>
       <c r="C441" s="13" t="s">
@@ -6473,75 +6466,75 @@
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
-      <c r="A442" s="29"/>
-      <c r="B442" s="26"/>
+      <c r="A442" s="26"/>
+      <c r="B442" s="23"/>
       <c r="C442" s="13" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="443" ht="15" spans="1:3">
-      <c r="A443" s="29"/>
-      <c r="B443" s="26"/>
+      <c r="A443" s="26"/>
+      <c r="B443" s="23"/>
       <c r="C443" s="13" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
-      <c r="A444" s="29"/>
-      <c r="B444" s="26"/>
+      <c r="A444" s="26"/>
+      <c r="B444" s="23"/>
       <c r="C444" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="445" ht="15" spans="1:3">
-      <c r="A445" s="29"/>
-      <c r="B445" s="26"/>
+      <c r="A445" s="26"/>
+      <c r="B445" s="23"/>
       <c r="C445" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:3">
-      <c r="A446" s="29"/>
-      <c r="B446" s="26"/>
+      <c r="A446" s="26"/>
+      <c r="B446" s="23"/>
       <c r="C446" s="13" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="447" ht="15" spans="1:3">
-      <c r="A447" s="29"/>
-      <c r="B447" s="26"/>
+      <c r="A447" s="26"/>
+      <c r="B447" s="23"/>
       <c r="C447" s="13" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
-      <c r="A448" s="29"/>
-      <c r="B448" s="26"/>
+      <c r="A448" s="26"/>
+      <c r="B448" s="23"/>
       <c r="C448" s="13" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:3">
-      <c r="A449" s="29"/>
-      <c r="B449" s="26"/>
+      <c r="A449" s="26"/>
+      <c r="B449" s="23"/>
       <c r="C449" s="13" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
-      <c r="A450" s="29"/>
-      <c r="B450" s="26"/>
+      <c r="A450" s="26"/>
+      <c r="B450" s="23"/>
       <c r="C450" s="13" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:3">
-      <c r="A451" s="29"/>
-      <c r="B451" s="30"/>
+      <c r="A451" s="26"/>
+      <c r="B451" s="27"/>
       <c r="C451" s="13"/>
     </row>
     <row r="452" ht="15" spans="1:3">
-      <c r="A452" s="29"/>
+      <c r="A452" s="26"/>
       <c r="B452" s="14" t="s">
         <v>22</v>
       </c>
@@ -6550,58 +6543,58 @@
       </c>
     </row>
     <row r="453" ht="15" spans="1:3">
-      <c r="A453" s="29"/>
+      <c r="A453" s="26"/>
       <c r="B453" s="14"/>
       <c r="C453" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
-      <c r="A454" s="29"/>
+      <c r="A454" s="26"/>
       <c r="B454" s="14"/>
       <c r="C454" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="455" ht="15" spans="1:3">
-      <c r="A455" s="29"/>
+      <c r="A455" s="26"/>
       <c r="B455" s="14"/>
       <c r="C455" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
-      <c r="A456" s="29"/>
+      <c r="A456" s="26"/>
       <c r="B456" s="14"/>
       <c r="C456" s="15" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="457" ht="15" spans="1:3">
-      <c r="A457" s="29"/>
+      <c r="A457" s="26"/>
       <c r="B457" s="14"/>
       <c r="C457" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="31"/>
-      <c r="B458" s="31"/>
-      <c r="C458" s="31"/>
+      <c r="A458" s="28"/>
+      <c r="B458" s="28"/>
+      <c r="C458" s="28"/>
     </row>
     <row r="571" ht="18.75" spans="1:2">
-      <c r="A571" s="32" t="s">
+      <c r="A571" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B571" s="33">
+      <c r="B571" s="30">
         <v>10.5</v>
       </c>
     </row>
     <row r="572" ht="18.75" spans="1:2">
-      <c r="A572" s="32" t="s">
+      <c r="A572" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="B572" s="33">
+      <c r="B572" s="30">
         <v>84</v>
       </c>
     </row>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="472">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1670,6 +1670,146 @@
     <t>Hands On Exercises - Stream API and Collectors II</t>
   </si>
   <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Advanced Java Concurrent Patterns.                                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Advanced fundamentals you'll need to understand to write efficient concurrent applications, that support heavy concurrency and provide high throughput.                                                     Learn about how you can improve the quality of your concurrent code, by using sophisticated concurrent tools that allow for smooth lock acquisition and fault tolerance.                              Get introduced to advanced data structures, such as the copy on write arrays, the concurrent blocking queues, the concurrent skip lists and concurrent hashmaps.               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Leveraging Concurrent Collections to Simplify Application Design</t>
+  </si>
+  <si>
+    <t>1. Introduction, Module Agenda</t>
+  </si>
+  <si>
+    <t>2. Implementing Concurrency at the API Level</t>
+  </si>
+  <si>
+    <t>3. Hierarchy of Collection and Map, Concurrent Interfaces</t>
+  </si>
+  <si>
+    <t>4. What Does It Mean for an Interface to Be Concurrent?</t>
+  </si>
+  <si>
+    <t>5. Why You Should Avoid Vectors and Stacks</t>
+  </si>
+  <si>
+    <t>6. Understanding Copy On Write Arrays</t>
+  </si>
+  <si>
+    <t>7. Wrapping up CopyOnWriteArrayList</t>
+  </si>
+  <si>
+    <t>8.  Introducing Queue and Deque, and Their Implementation</t>
+  </si>
+  <si>
+    <t>9. Understanding How Queue Works in a Concurrent Environment</t>
+  </si>
+  <si>
+    <t>10. Adding Elements to a Queue That Is Full: How Can It Fail?</t>
+  </si>
+  <si>
+    <t>11. Understanding Error Handling in Queue and Deque</t>
+  </si>
+  <si>
+    <t>12. Wrapping up Queue, Deque, and Their Blocking Versions</t>
+  </si>
+  <si>
+    <t>13.  Introducing Concurrent Maps and Their Implementations</t>
+  </si>
+  <si>
+    <t>14. Atomic Operations Defined by the ConcurrentMap Interface</t>
+  </si>
+  <si>
+    <t>15. Understanding Concurrency for a HashMap</t>
+  </si>
+  <si>
+    <t>16. Understanding the Structure of the ConcurrentHashMap from Java 7</t>
+  </si>
+  <si>
+    <t>17. Introducing the Java 8 ConcurrentHashMap and Its Parallel Methods</t>
+  </si>
+  <si>
+    <t>18. Parallel Search on a Java 8 ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>19. Parallel Map / Reduce on a Java 8 ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>20. Parallel ForEach on a Java 8 ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>21. Creating a Concurrent Set on a Java 8 ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>22. Wrapping up the Java 8 ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>23. Introducing Skip Lists to Implement ConcurrentMap</t>
+  </si>
+  <si>
+    <t>24. Understanding How Linked Lists Can Be Improved by Skip Lists</t>
+  </si>
+  <si>
+    <t>25. Wrapping up the Skip List Structure</t>
+  </si>
+  <si>
+    <t>26. How to Make a Skip List Concurrent Without Synchronization</t>
+  </si>
+  <si>
+    <t>27. Wrapping up ConcurrentSkipList</t>
+  </si>
+  <si>
+    <t>28. Live Coding: Producer / Consumer Built on an ArrayBlockingQueue</t>
+  </si>
+  <si>
+    <t>29. Live Coding: Parallel Reduce in Action on a ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>30. Live Coding: Parallel Search in Action on a ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>31. Live Coding: Computing an Average on a ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>32. Live Coding Wrap-up</t>
+  </si>
+  <si>
+    <t>33. Module Wrap-up</t>
+  </si>
+  <si>
+    <t>34. Course Wrap-up</t>
+  </si>
+  <si>
+    <t>Java 8 Advanced Concurrent Patterns</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Java 8 Advanced Concurrent Patterns</t>
+  </si>
+  <si>
     <t>Total # of Days for Core Java 8</t>
   </si>
   <si>
@@ -1682,9 +1822,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1806,8 +1946,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,14 +1977,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,23 +2006,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,17 +2045,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1905,29 +2069,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1935,9 +2076,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2002,7 +2142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,7 +2160,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,31 +2250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,13 +2268,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,109 +2316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2291,6 +2431,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2315,15 +2499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2338,186 +2513,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2977,7 +3117,7 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:F40"/>
     </sheetView>
   </sheetViews>
@@ -3367,19 +3507,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C572"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F309" sqref="F309"/>
+      <selection pane="bottomLeft" activeCell="E471" sqref="E471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="35.125" customWidth="1"/>
-    <col min="3" max="3" width="55.125" customWidth="1"/>
+    <col min="3" max="3" width="67.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
@@ -6582,24 +6722,312 @@
       <c r="B458" s="28"/>
       <c r="C458" s="28"/>
     </row>
-    <row r="571" ht="18.75" spans="1:2">
-      <c r="A571" s="29" t="s">
+    <row r="459" ht="24.75" spans="1:3">
+      <c r="A459" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B571" s="30">
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+    </row>
+    <row r="460" ht="15.75" spans="1:3">
+      <c r="A460" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="461" ht="12" customHeight="1" spans="1:3">
+      <c r="A461" s="3"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="5"/>
+    </row>
+    <row r="462" ht="16" customHeight="1" spans="1:3">
+      <c r="A462" s="3"/>
+      <c r="B462" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="463" ht="20" customHeight="1" spans="1:3">
+      <c r="A463" s="3"/>
+      <c r="B463" s="7"/>
+      <c r="C463" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="464" ht="15" spans="1:3">
+      <c r="A464" s="3"/>
+      <c r="B464" s="7"/>
+      <c r="C464" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="465" ht="21" customHeight="1" spans="1:3">
+      <c r="A465" s="3"/>
+      <c r="B465" s="7"/>
+      <c r="C465" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="466" ht="15" customHeight="1" spans="1:3">
+      <c r="A466" s="3"/>
+      <c r="B466" s="7"/>
+      <c r="C466" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="467" ht="15" spans="1:3">
+      <c r="A467" s="3"/>
+      <c r="B467" s="7"/>
+      <c r="C467" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="468" ht="17" customHeight="1" spans="1:3">
+      <c r="A468" s="3"/>
+      <c r="B468" s="7"/>
+      <c r="C468" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="469" ht="13" customHeight="1" spans="1:3">
+      <c r="A469" s="3"/>
+      <c r="B469" s="7"/>
+      <c r="C469" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="470" ht="13" customHeight="1" spans="1:3">
+      <c r="A470" s="3"/>
+      <c r="B470" s="7"/>
+      <c r="C470" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="471" ht="15" spans="1:3">
+      <c r="A471" s="3"/>
+      <c r="B471" s="7"/>
+      <c r="C471" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="472" ht="15" spans="1:3">
+      <c r="A472" s="3"/>
+      <c r="B472" s="7"/>
+      <c r="C472" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="473" ht="15" spans="1:3">
+      <c r="A473" s="3"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="474" ht="15" spans="1:3">
+      <c r="A474" s="3"/>
+      <c r="B474" s="7"/>
+      <c r="C474" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="475" ht="15" spans="1:3">
+      <c r="A475" s="3"/>
+      <c r="B475" s="7"/>
+      <c r="C475" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="476" ht="15" spans="1:3">
+      <c r="A476" s="3"/>
+      <c r="B476" s="7"/>
+      <c r="C476" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="477" ht="15" customHeight="1" spans="1:3">
+      <c r="A477" s="3"/>
+      <c r="B477" s="7"/>
+      <c r="C477" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="478" ht="15" spans="1:3">
+      <c r="A478" s="3"/>
+      <c r="B478" s="7"/>
+      <c r="C478" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="479" ht="15" spans="1:3">
+      <c r="A479" s="3"/>
+      <c r="B479" s="7"/>
+      <c r="C479" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="480" ht="15" spans="1:3">
+      <c r="A480" s="3"/>
+      <c r="B480" s="7"/>
+      <c r="C480" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="481" ht="18" customHeight="1" spans="1:3">
+      <c r="A481" s="3"/>
+      <c r="B481" s="7"/>
+      <c r="C481" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="482" ht="18" customHeight="1" spans="1:3">
+      <c r="A482" s="3"/>
+      <c r="B482" s="7"/>
+      <c r="C482" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="483" ht="18" customHeight="1" spans="1:3">
+      <c r="A483" s="3"/>
+      <c r="B483" s="7"/>
+      <c r="C483" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="484" ht="16" customHeight="1" spans="1:3">
+      <c r="A484" s="3"/>
+      <c r="B484" s="7"/>
+      <c r="C484" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="485" ht="16" customHeight="1" spans="1:3">
+      <c r="A485" s="3"/>
+      <c r="B485" s="7"/>
+      <c r="C485" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="486" ht="16" customHeight="1" spans="1:3">
+      <c r="A486" s="3"/>
+      <c r="B486" s="7"/>
+      <c r="C486" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="487" ht="16" customHeight="1" spans="1:3">
+      <c r="A487" s="3"/>
+      <c r="B487" s="7"/>
+      <c r="C487" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="488" ht="16" customHeight="1" spans="1:3">
+      <c r="A488" s="3"/>
+      <c r="B488" s="7"/>
+      <c r="C488" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="489" ht="16" customHeight="1" spans="1:3">
+      <c r="A489" s="3"/>
+      <c r="B489" s="7"/>
+      <c r="C489" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="490" ht="16" customHeight="1" spans="1:3">
+      <c r="A490" s="3"/>
+      <c r="B490" s="7"/>
+      <c r="C490" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="491" ht="16" customHeight="1" spans="1:3">
+      <c r="A491" s="3"/>
+      <c r="B491" s="7"/>
+      <c r="C491" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="492" ht="16" customHeight="1" spans="1:3">
+      <c r="A492" s="3"/>
+      <c r="B492" s="7"/>
+      <c r="C492" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="493" ht="16" customHeight="1" spans="1:3">
+      <c r="A493" s="3"/>
+      <c r="B493" s="7"/>
+      <c r="C493" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="494" ht="16" customHeight="1" spans="1:3">
+      <c r="A494" s="3"/>
+      <c r="B494" s="7"/>
+      <c r="C494" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="495" ht="16" customHeight="1" spans="1:3">
+      <c r="A495" s="3"/>
+      <c r="B495" s="7"/>
+      <c r="C495" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="496" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A496" s="3"/>
+      <c r="B496" s="7"/>
+    </row>
+    <row r="497" ht="15" spans="1:3">
+      <c r="A497" s="3"/>
+      <c r="B497" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C497" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="498" ht="15" spans="1:3">
+      <c r="A498" s="3"/>
+      <c r="B498" s="14"/>
+      <c r="C498" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="499" ht="9" customHeight="1" spans="1:3">
+      <c r="A499" s="18"/>
+      <c r="B499" s="16"/>
+      <c r="C499" s="16"/>
+    </row>
+    <row r="501" ht="18.75" spans="1:2">
+      <c r="A501" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B501" s="30">
         <v>10.5</v>
       </c>
     </row>
-    <row r="572" ht="18.75" spans="1:2">
-      <c r="A572" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="B572" s="30">
+    <row r="502" ht="18.75" spans="1:2">
+      <c r="A502" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B502" s="30">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="79">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A100:C100"/>
@@ -6609,6 +7037,7 @@
     <mergeCell ref="A307:C307"/>
     <mergeCell ref="A337:C337"/>
     <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A459:C459"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A26:A35"/>
@@ -6625,6 +7054,7 @@
     <mergeCell ref="A359:A368"/>
     <mergeCell ref="A370:A401"/>
     <mergeCell ref="A404:A457"/>
+    <mergeCell ref="A460:A498"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B16:B24"/>
     <mergeCell ref="B26:B35"/>
@@ -6675,6 +7105,8 @@
     <mergeCell ref="B423:B439"/>
     <mergeCell ref="B441:B450"/>
     <mergeCell ref="B452:B457"/>
+    <mergeCell ref="B462:B495"/>
+    <mergeCell ref="B497:B498"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C405" r:id="rId1" display="2. Module Outline"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -1674,6 +1674,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Advanced Java Concurrent Patterns.                                                                   </t>
     </r>
     <r>
@@ -1821,10 +1829,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1946,18 +1954,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1970,14 +1978,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,7 +1993,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2000,37 +2001,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2039,6 +2010,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,9 +2046,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2084,7 +2084,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,13 +2150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,7 +2180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,37 +2204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,37 +2222,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,25 +2306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,31 +2330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,17 +2424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2442,44 +2444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2513,18 +2477,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2534,130 +2542,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3117,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:F40"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3510,9 +3518,9 @@
   <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E471" sqref="E471"/>
+      <selection pane="bottomLeft" activeCell="E492" sqref="E492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
     <sheet name="Core Java 8" sheetId="25" r:id="rId2"/>
+    <sheet name="Database Using PostgreSQL" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="555">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1818,10 +1819,319 @@
     <t>Hands On Exercises - Java 8 Advanced Concurrent Patterns</t>
   </si>
   <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Garbage Collection (GC) is a fundamental part of Java.                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn all aspects of garbage collection, including looking at what 'young' and 'old' generations are, how the JVM moves objects between eden and survivor spaces, how memory is promoted into the 'old' generation, how different garbage collectors work, and how they affect the running of your application.                                        Check out 'card tables' and how they help manage memory in the old generation.                                                     Examine each of the garbage collectors including the serial and parallel collectors; the CMS collector and the G1 collector.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Introduction</t>
+  </si>
+  <si>
+    <t>2. Different Types of Garbage Collection</t>
+  </si>
+  <si>
+    <t>3.  Reference Counted Garbage Collection</t>
+  </si>
+  <si>
+    <t>4. Mark and Sweep Garbage Collection</t>
+  </si>
+  <si>
+    <t>5. Generational Garbage Collection</t>
+  </si>
+  <si>
+    <t>6. Demonstrating How the Garbage Collection Works</t>
+  </si>
+  <si>
+    <t>3. How Garbage Collection Works in the Oracle JVM</t>
+  </si>
+  <si>
+    <t>1. Introducing the Players</t>
+  </si>
+  <si>
+    <t>2. The Basics of Garbage Collection in the Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>3. Minor Garbage Collects and Major Garbage Collects</t>
+  </si>
+  <si>
+    <t>4. How Allocations Work in the Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>5. What Is a Cardtable and How Is It Used in Garbage Collection</t>
+  </si>
+  <si>
+    <t>6. Serial Versus Parallel Garbage Collectors</t>
+  </si>
+  <si>
+    <t>7. The G1 Garbage Collector</t>
+  </si>
+  <si>
+    <t>8. Which Garbage Collector to Choose</t>
+  </si>
+  <si>
+    <t>4. Writing Code That Explicitly Makes Objects Eligible for Garbage Collection</t>
+  </si>
+  <si>
+    <t>1. Demo : Object created inside a method</t>
+  </si>
+  <si>
+    <t>2. Demo : Reassigning the reference variable</t>
+  </si>
+  <si>
+    <t>3. Demo : Nullifying the reference variable</t>
+  </si>
+  <si>
+    <t>4. Demo : Anonymous object</t>
+  </si>
+  <si>
+    <t>Garbage Collection in Java</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - Garbage Collection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Being able to read and write data to a relational database is an absolute, must-have skill when working with Java applications.                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gain the ability to access and modify data in relational databases using the JDBC API.                                                             Learn how to connect the JDBC API to a database.                                               Discover how to read and update data in a database using the JDBC API.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Overview and Setup</t>
+  </si>
+  <si>
+    <t>1. Overview and Setup</t>
+  </si>
+  <si>
+    <t>2. Installing MySQL and Example Database</t>
+  </si>
+  <si>
+    <t>3.  Install Java</t>
+  </si>
+  <si>
+    <t>4. Using Spring Tool Suite or Eclipse with JDBC</t>
+  </si>
+  <si>
+    <t>5. Using Command Line with JDBC</t>
+  </si>
+  <si>
+    <t>3. Connecting JDBC to the Relational Database</t>
+  </si>
+  <si>
+    <t>1. Using the Driver Manager and Services</t>
+  </si>
+  <si>
+    <t>2. Using Class.forName() with Legacy Applications</t>
+  </si>
+  <si>
+    <t>3. Using the JDBC DataSource</t>
+  </si>
+  <si>
+    <t>4. Using JDBC to Query Databases</t>
+  </si>
+  <si>
+    <t>1. Using the Statement and ResultSet Types</t>
+  </si>
+  <si>
+    <t>2. Handling Exceptions in JDBC</t>
+  </si>
+  <si>
+    <t>3. Using the PreparedStatement and ResultSet</t>
+  </si>
+  <si>
+    <t>4. Using Input Parameters with a PreparedStatement</t>
+  </si>
+  <si>
+    <t>5. Accessing Multiple Columns with ResultSet</t>
+  </si>
+  <si>
+    <t>6. Additional ResultSet Navigation Methods</t>
+  </si>
+  <si>
+    <t>5. Using JDBC to Update Databases</t>
+  </si>
+  <si>
+    <t>1. Using the Prepared Statement to Modify Data</t>
+  </si>
+  <si>
+    <t>2. Getting the Update Count from the PreparedStatement</t>
+  </si>
+  <si>
+    <t>3. Inserting New Data with PreparedStatement</t>
+  </si>
+  <si>
+    <t>4. Deleting Records with PreparedStatement</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - JDBC</t>
+  </si>
+  <si>
     <t>Total # of Days for Core Java 8</t>
   </si>
   <si>
     <t>Total # of Hours for Core Java 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">While each organization will have its own database preference, data analysts will benefit from knowing the basics of querying data from PostgreSQL, a popular open-source database platform.                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In this course, Querying Data from PostgreSQL, you will get a comprehensive introduction of how to query data using PostgreSQL and its pgAdmin tool.                                              Learn the basic structure of a relational database.                                          Discover how to select data from tables, apply criteria and filters to limit your results, and enhance these skills by retrieving data from multiple tables.                                                             Explore basic aggregation functions and be exposed to ANSI-compliant SQL.                                                                     When you're finished with this course, you will have the skills and knowledge of PostgreSQL necessary to easily retrieve data from relational databases.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Understanding the Relational Model</t>
+  </si>
+  <si>
+    <t>1. Overview</t>
+  </si>
+  <si>
+    <t>2. Introduction to PostgreSQL</t>
+  </si>
+  <si>
+    <t>3.  Introduction to Relational Databases</t>
+  </si>
+  <si>
+    <t>5.  Summary</t>
+  </si>
+  <si>
+    <t>3.SELECTing Your Data</t>
+  </si>
+  <si>
+    <t>2. Introduction to SELECT</t>
+  </si>
+  <si>
+    <t>3. Explicit Selection</t>
+  </si>
+  <si>
+    <t>4. Selecting Distinct Values</t>
+  </si>
+  <si>
+    <t>4. Limiting Your Results</t>
+  </si>
+  <si>
+    <t>2. Introducing The WHERE Keyword</t>
+  </si>
+  <si>
+    <t>3. Specific Conditions</t>
+  </si>
+  <si>
+    <t>4. I LIKE Pattern Matching</t>
+  </si>
+  <si>
+    <t>5. Null Values</t>
+  </si>
+  <si>
+    <t>6. Putting It Together</t>
+  </si>
+  <si>
+    <t>7. Operator Precedence</t>
+  </si>
+  <si>
+    <t>8. Summary</t>
+  </si>
+  <si>
+    <t>5. Joining for Further Insight</t>
+  </si>
+  <si>
+    <t>2. Keys to the Relationship</t>
+  </si>
+  <si>
+    <t>3. Inner Joins</t>
+  </si>
+  <si>
+    <t>4. Table Aliases</t>
+  </si>
+  <si>
+    <t>5. Outer Joins</t>
+  </si>
+  <si>
+    <t>6. Full Joins</t>
+  </si>
+  <si>
+    <t>7. Implementing Joins</t>
+  </si>
+  <si>
+    <t>6. Presenting and Aggregating Your Results</t>
+  </si>
+  <si>
+    <t>2. Sort Order</t>
+  </si>
+  <si>
+    <t>3. Introduction to Aggregate Functions</t>
+  </si>
+  <si>
+    <t>4. Filtering Aggregate Results</t>
+  </si>
+  <si>
+    <t>1. Summary</t>
+  </si>
+  <si>
+    <t>PostgreSQL Queries</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - PostgreSQL Basic Queries</t>
+  </si>
+  <si>
+    <t>Total # of Days for JPA with Hibernate</t>
+  </si>
+  <si>
+    <t>Total # of Hours for JPA with Hibernate</t>
   </si>
 </sst>
 </file>
@@ -1829,10 +2139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1879,6 +2189,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF738F93"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1894,8 +2211,15 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF738F93"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1910,20 +2234,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1962,7 +2272,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1970,7 +2295,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1984,16 +2331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2009,14 +2349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2031,6 +2364,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2038,23 +2379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2062,15 +2388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2084,15 +2402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2150,102 +2460,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2258,7 +2472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,13 +2490,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,19 +2610,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,25 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2426,39 +2736,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2478,11 +2778,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2505,171 +2811,175 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2700,39 +3010,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2741,15 +3060,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3125,8 +3441,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3139,361 +3455,361 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="33">
+      <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="37">
         <v>10.5</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="37">
         <v>84</v>
       </c>
     </row>
     <row r="10" ht="30.75" spans="6:9">
-      <c r="F10" s="36">
+      <c r="F10" s="38">
         <v>2</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="37">
         <v>2</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="37">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="36">
+      <c r="F11" s="38">
         <v>3</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="37">
+        <v>3</v>
+      </c>
+      <c r="I11" s="37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="6:9">
+      <c r="F12" s="38">
         <v>4</v>
       </c>
-      <c r="I11" s="35">
+      <c r="G12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="6:9">
+      <c r="F13" s="38">
+        <v>5</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="37">
+        <v>2</v>
+      </c>
+      <c r="I13" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="6:9">
+      <c r="F14" s="38">
+        <v>6</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="37">
+        <v>2</v>
+      </c>
+      <c r="I14" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="6:9">
+      <c r="F15" s="38">
+        <v>7</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="6:9">
+      <c r="F16" s="38">
+        <v>8</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="37">
+        <v>6</v>
+      </c>
+      <c r="I16" s="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="6:9">
+      <c r="F17" s="38">
+        <v>9</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="37">
+        <v>3</v>
+      </c>
+      <c r="I17" s="37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="14" customHeight="1" spans="6:9">
+      <c r="F18" s="38">
+        <v>10</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="37">
+        <v>5</v>
+      </c>
+      <c r="I18" s="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="6:9">
+      <c r="F19" s="38">
+        <v>11</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1</v>
+      </c>
+      <c r="I19" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="6:9">
+      <c r="F20" s="38">
+        <v>12</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="37">
+        <v>4</v>
+      </c>
+      <c r="I20" s="37">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:9">
-      <c r="F12" s="36">
+    <row r="21" ht="15.75" spans="6:9">
+      <c r="F21" s="38">
+        <v>13</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
+      </c>
+      <c r="I21" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="6:9">
+      <c r="F22" s="38">
+        <v>14</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="37">
+        <v>6</v>
+      </c>
+      <c r="I22" s="37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="6:9">
+      <c r="F23" s="38">
+        <v>15</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="37">
+        <v>2</v>
+      </c>
+      <c r="I23" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="30.75" spans="6:9">
+      <c r="F24" s="38">
+        <v>16</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="37">
         <v>4</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="I24" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="6:9">
+      <c r="F25" s="41"/>
+      <c r="G25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="43">
+        <f>SUM(H9:H24)</f>
+        <v>53</v>
+      </c>
+      <c r="I25" s="51">
+        <f>SUM(I9:I24)</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="46">
+        <v>1</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="46">
+        <v>2</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:6">
+      <c r="A34" s="46">
+        <v>3</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="44"/>
+      <c r="B36" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A37" s="46">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A38" s="50">
+        <v>2</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+    </row>
+    <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A39" s="50">
+        <v>3</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+    </row>
+    <row r="40" ht="54" customHeight="1" spans="1:6">
+      <c r="A40" s="50">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="36">
-        <v>5</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="35">
-        <v>2</v>
-      </c>
-      <c r="I13" s="35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="36">
-        <v>6</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="35">
-        <v>2</v>
-      </c>
-      <c r="I14" s="35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="36">
-        <v>7</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="35">
-        <v>1</v>
-      </c>
-      <c r="I15" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="6:9">
-      <c r="F16" s="36">
-        <v>8</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="35">
-        <v>6</v>
-      </c>
-      <c r="I16" s="35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="14" customHeight="1" spans="6:9">
-      <c r="F17" s="36">
-        <v>9</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="35">
-        <v>3</v>
-      </c>
-      <c r="I17" s="35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="14" customHeight="1" spans="6:9">
-      <c r="F18" s="36">
-        <v>10</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="35">
-        <v>5</v>
-      </c>
-      <c r="I18" s="35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="6:9">
-      <c r="F19" s="36">
-        <v>11</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="35">
-        <v>1</v>
-      </c>
-      <c r="I19" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="6:9">
-      <c r="F20" s="36">
-        <v>12</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="35">
-        <v>4</v>
-      </c>
-      <c r="I20" s="35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="6:9">
-      <c r="F21" s="36">
-        <v>13</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="35">
-        <v>1</v>
-      </c>
-      <c r="I21" s="35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="6:9">
-      <c r="F22" s="36">
-        <v>14</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="35">
-        <v>6</v>
-      </c>
-      <c r="I22" s="35">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="6:9">
-      <c r="F23" s="36">
-        <v>15</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="35">
-        <v>2</v>
-      </c>
-      <c r="I23" s="35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="30.75" spans="6:9">
-      <c r="F24" s="36">
-        <v>16</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="35">
-        <v>4</v>
-      </c>
-      <c r="I24" s="35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="6:9">
-      <c r="F25" s="39"/>
-      <c r="G25" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="41">
-        <f>SUM(H9:H24)</f>
-        <v>54</v>
-      </c>
-      <c r="I25" s="49">
-        <f>SUM(I9:I24)</f>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="44">
-        <v>1</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="44">
-        <v>2</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="44">
-        <v>3</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-    </row>
-    <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="44">
-        <v>1</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A38" s="48">
-        <v>2</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A39" s="48">
-        <v>3</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" ht="54" customHeight="1" spans="1:6">
-      <c r="A40" s="48">
-        <v>4</v>
-      </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3515,12 +3831,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C502"/>
+  <dimension ref="A1:C556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E492" sqref="E492"/>
+      <selection pane="bottomLeft" activeCell="C558" sqref="C558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3637,7 +3953,7 @@
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10"/>
     </row>
@@ -3720,77 +4036,77 @@
       <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="3" t="s">
@@ -3799,81 +4115,81 @@
       <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="3"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -3882,15 +4198,15 @@
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="3"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" ht="9" customHeight="1" spans="1:3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" ht="24.75" spans="1:3">
       <c r="A51" s="2" t="s">
@@ -3906,7 +4222,7 @@
       <c r="B52" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3976,21 +4292,21 @@
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="3"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
       <c r="A63" s="3"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="17"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="3"/>
       <c r="B64" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4039,21 +4355,21 @@
     <row r="71" spans="1:3">
       <c r="A71" s="3"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="3"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4065,7 +4381,7 @@
       <c r="B75" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4086,14 +4402,14 @@
     <row r="78" ht="16" customHeight="1" spans="1:3">
       <c r="A78" s="3"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:3">
       <c r="A79" s="3"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4114,35 +4430,35 @@
     <row r="82" ht="16" customHeight="1" spans="1:3">
       <c r="A82" s="3"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="1:3">
       <c r="A83" s="3"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="1:3">
       <c r="A84" s="3"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1" spans="1:3">
       <c r="A85" s="3"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="12"/>
     </row>
     <row r="86" ht="16" customHeight="1" spans="1:3">
       <c r="A86" s="3"/>
       <c r="B86" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4163,14 +4479,14 @@
     <row r="89" ht="16" customHeight="1" spans="1:3">
       <c r="A89" s="3"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1" spans="1:3">
       <c r="A90" s="3"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4184,28 +4500,28 @@
     <row r="92" ht="16" customHeight="1" spans="1:3">
       <c r="A92" s="3"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1" spans="1:3">
       <c r="A93" s="3"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1" spans="1:3">
       <c r="A94" s="3"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
       <c r="A95" s="3"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4215,7 +4531,7 @@
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="3"/>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -4224,15 +4540,15 @@
     </row>
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="3"/>
-      <c r="B98" s="14"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="99" ht="9" customHeight="1" spans="1:3">
-      <c r="A99" s="18"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
     </row>
     <row r="100" ht="24.75" spans="1:3">
       <c r="A100" s="2" t="s">
@@ -4262,7 +4578,7 @@
       <c r="B103" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4325,21 +4641,21 @@
     <row r="112" ht="15" spans="1:3">
       <c r="A112" s="3"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:3">
       <c r="A113" s="3"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="17"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" ht="15" spans="1:3">
       <c r="A114" s="3"/>
       <c r="B114" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4388,14 +4704,14 @@
     <row r="121" spans="1:3">
       <c r="A121" s="3"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4407,7 +4723,7 @@
       <c r="B124" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4428,14 +4744,14 @@
     <row r="127" ht="16" customHeight="1" spans="1:3">
       <c r="A127" s="3"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:3">
       <c r="A128" s="3"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4449,21 +4765,21 @@
     <row r="130" ht="16" customHeight="1" spans="1:3">
       <c r="A130" s="3"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1" spans="1:3">
       <c r="A131" s="3"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="12"/>
     </row>
     <row r="132" ht="16" customHeight="1" spans="1:3">
       <c r="A132" s="3"/>
       <c r="B132" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4484,14 +4800,14 @@
     <row r="135" ht="16" customHeight="1" spans="1:3">
       <c r="A135" s="3"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1" spans="1:3">
       <c r="A136" s="3"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4505,21 +4821,21 @@
     <row r="138" ht="16" customHeight="1" spans="1:3">
       <c r="A138" s="3"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" ht="16" customHeight="1" spans="1:3">
       <c r="A139" s="3"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
       <c r="A140" s="3"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4529,7 +4845,7 @@
     </row>
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="3"/>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C142" s="15" t="s">
@@ -4538,15 +4854,15 @@
     </row>
     <row r="143" ht="15" spans="1:3">
       <c r="A143" s="3"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="144" ht="9" customHeight="1" spans="1:3">
-      <c r="A144" s="18"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
     </row>
     <row r="145" ht="24.75" spans="1:3">
       <c r="A145" s="2" t="s">
@@ -4562,7 +4878,7 @@
       <c r="B146" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4625,28 +4941,28 @@
     <row r="155" ht="15" spans="1:3">
       <c r="A155" s="3"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
       <c r="A156" s="3"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="157" ht="15.75" spans="1:3">
       <c r="A157" s="3"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="17"/>
+      <c r="C157" s="13"/>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="3"/>
       <c r="B158" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4695,7 +5011,7 @@
     <row r="165" spans="1:3">
       <c r="A165" s="3"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4707,7 +5023,7 @@
       <c r="B167" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4728,14 +5044,14 @@
     <row r="170" ht="16" customHeight="1" spans="1:3">
       <c r="A170" s="3"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="1" spans="1:3">
       <c r="A171" s="3"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4749,21 +5065,21 @@
     <row r="173" ht="16" customHeight="1" spans="1:3">
       <c r="A173" s="3"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="1" spans="1:3">
       <c r="A174" s="3"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="13"/>
+      <c r="C174" s="12"/>
     </row>
     <row r="175" ht="16" customHeight="1" spans="1:3">
       <c r="A175" s="3"/>
       <c r="B175" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4784,14 +5100,14 @@
     <row r="178" ht="16" customHeight="1" spans="1:3">
       <c r="A178" s="3"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="1" spans="1:3">
       <c r="A179" s="3"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="13" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4805,49 +5121,49 @@
     <row r="181" ht="16" customHeight="1" spans="1:3">
       <c r="A181" s="3"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="182" ht="16" customHeight="1" spans="1:3">
       <c r="A182" s="3"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
       <c r="A183" s="3"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" customFormat="1" ht="15" spans="1:3">
       <c r="A184" s="3"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="1" ht="15" spans="1:3">
       <c r="A185" s="3"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="15.75" spans="1:3">
       <c r="A186" s="3"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="13"/>
+      <c r="C186" s="12"/>
     </row>
     <row r="187" customFormat="1" ht="15" spans="1:3">
       <c r="A187" s="3"/>
       <c r="B187" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4868,14 +5184,14 @@
     <row r="190" customFormat="1" spans="1:3">
       <c r="A190" s="3"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:3">
       <c r="A191" s="3"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="13" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4889,18 +5205,18 @@
     <row r="193" customFormat="1" ht="15" spans="1:3">
       <c r="A193" s="3"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="194" customFormat="1" ht="15.75" spans="1:3">
       <c r="A194" s="3"/>
       <c r="B194" s="7"/>
-      <c r="C194" s="13"/>
+      <c r="C194" s="12"/>
     </row>
     <row r="195" ht="15" spans="1:3">
       <c r="A195" s="3"/>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C195" s="15" t="s">
@@ -4909,15 +5225,15 @@
     </row>
     <row r="196" ht="15" spans="1:3">
       <c r="A196" s="3"/>
-      <c r="B196" s="14"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="197" ht="9" customHeight="1" spans="1:3">
-      <c r="A197" s="18"/>
-      <c r="B197" s="16"/>
-      <c r="C197" s="16"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
     </row>
     <row r="198" ht="24.75" spans="1:3">
       <c r="A198" s="2" t="s">
@@ -4947,112 +5263,112 @@
       <c r="B201" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:3">
       <c r="A202" s="3"/>
       <c r="B202" s="7"/>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
       <c r="A203" s="3"/>
       <c r="B203" s="7"/>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1" spans="1:3">
       <c r="A204" s="3"/>
       <c r="B204" s="7"/>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:3">
       <c r="A205" s="3"/>
       <c r="B205" s="7"/>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="3"/>
       <c r="B206" s="7"/>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:3">
       <c r="A207" s="3"/>
       <c r="B207" s="7"/>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:3">
       <c r="A208" s="3"/>
       <c r="B208" s="7"/>
-      <c r="C208" s="17"/>
+      <c r="C208" s="13"/>
     </row>
     <row r="209" ht="15" spans="1:3">
       <c r="A209" s="3"/>
-      <c r="B209" s="19" t="s">
+      <c r="B209" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C209" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
       <c r="A210" s="3"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="13" t="s">
+      <c r="B210" s="22"/>
+      <c r="C210" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" ht="15" spans="1:3">
       <c r="A211" s="3"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="13" t="s">
+      <c r="B211" s="22"/>
+      <c r="C211" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
       <c r="A212" s="3"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="13" t="s">
+      <c r="B212" s="22"/>
+      <c r="C212" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" ht="15" spans="1:3">
       <c r="A213" s="3"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="13" t="s">
+      <c r="B213" s="22"/>
+      <c r="C213" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="214" ht="15" spans="1:3">
       <c r="A214" s="3"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="13" t="s">
+      <c r="B214" s="22"/>
+      <c r="C214" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="215" ht="15" spans="1:3">
       <c r="A215" s="3"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="13" t="s">
+      <c r="B215" s="22"/>
+      <c r="C215" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="216" ht="15" spans="1:3">
       <c r="A216" s="3"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="13" t="s">
+      <c r="B216" s="22"/>
+      <c r="C216" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5064,7 +5380,7 @@
       <c r="B218" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C218" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5085,14 +5401,14 @@
     <row r="221" ht="16" customHeight="1" spans="1:3">
       <c r="A221" s="3"/>
       <c r="B221" s="7"/>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="13" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" ht="16" customHeight="1" spans="1:3">
       <c r="A222" s="3"/>
       <c r="B222" s="7"/>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="13" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5106,39 +5422,39 @@
     <row r="224" ht="16" customHeight="1" spans="1:3">
       <c r="A224" s="3"/>
       <c r="B224" s="7"/>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" ht="16" customHeight="1" spans="1:3">
       <c r="A225" s="3"/>
       <c r="B225" s="7"/>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" ht="16" customHeight="1" spans="1:3">
       <c r="A226" s="3"/>
       <c r="B226" s="7"/>
-      <c r="C226" s="13" t="s">
+      <c r="C226" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" ht="16" customHeight="1" spans="1:3">
       <c r="A227" s="3"/>
       <c r="B227" s="7"/>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="228" customFormat="1" ht="15.75" spans="1:3">
       <c r="A228" s="3"/>
       <c r="B228" s="7"/>
-      <c r="C228" s="13"/>
+      <c r="C228" s="12"/>
     </row>
     <row r="229" ht="15" spans="1:3">
       <c r="A229" s="3"/>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C229" s="15" t="s">
@@ -5147,14 +5463,14 @@
     </row>
     <row r="230" ht="15" spans="1:3">
       <c r="A230" s="3"/>
-      <c r="B230" s="14"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
       <c r="A231" s="3"/>
-      <c r="B231" s="14"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="10"/>
     </row>
     <row r="232" ht="14" customHeight="1" spans="1:3">
@@ -5198,50 +5514,50 @@
     </row>
     <row r="237" ht="9" customHeight="1" spans="1:3">
       <c r="A237" s="3"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="12"/>
     </row>
     <row r="238" ht="21" customHeight="1" spans="1:3">
       <c r="A238" s="3"/>
       <c r="B238" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="C238" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="239" ht="13" customHeight="1" spans="1:3">
       <c r="A239" s="3"/>
       <c r="B239" s="7"/>
-      <c r="C239" s="13" t="s">
+      <c r="C239" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:3">
       <c r="A240" s="3"/>
       <c r="B240" s="7"/>
-      <c r="C240" s="13" t="s">
+      <c r="C240" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:3">
       <c r="A241" s="3"/>
       <c r="B241" s="7"/>
-      <c r="C241" s="13" t="s">
+      <c r="C241" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
       <c r="A242" s="3"/>
       <c r="B242" s="7"/>
-      <c r="C242" s="13" t="s">
+      <c r="C242" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" ht="15" spans="1:3">
       <c r="A243" s="3"/>
       <c r="B243" s="7"/>
-      <c r="C243" s="13" t="s">
+      <c r="C243" s="12" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5253,53 +5569,53 @@
       <c r="B245" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="13" t="s">
+      <c r="C245" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="246" ht="15" spans="1:3">
       <c r="A246" s="3"/>
       <c r="B246" s="7"/>
-      <c r="C246" s="13" t="s">
+      <c r="C246" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" ht="15" spans="1:3">
       <c r="A247" s="3"/>
       <c r="B247" s="7"/>
-      <c r="C247" s="13" t="s">
+      <c r="C247" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
       <c r="A248" s="3"/>
       <c r="B248" s="7"/>
-      <c r="C248" s="13" t="s">
+      <c r="C248" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="249" ht="15" spans="1:3">
       <c r="A249" s="3"/>
       <c r="B249" s="7"/>
-      <c r="C249" s="13" t="s">
+      <c r="C249" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
       <c r="A250" s="3"/>
       <c r="B250" s="7"/>
-      <c r="C250" s="13" t="s">
+      <c r="C250" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:3">
       <c r="A251" s="3"/>
       <c r="B251" s="7"/>
-      <c r="C251" s="13"/>
+      <c r="C251" s="12"/>
     </row>
     <row r="252" ht="15" spans="1:3">
       <c r="A252" s="3"/>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C252" s="15" t="s">
@@ -5308,15 +5624,15 @@
     </row>
     <row r="253" ht="15" spans="1:3">
       <c r="A253" s="3"/>
-      <c r="B253" s="14"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="254" ht="10" customHeight="1" spans="1:3">
-      <c r="A254" s="18"/>
-      <c r="B254" s="16"/>
-      <c r="C254" s="16"/>
+      <c r="A254" s="16"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
     </row>
     <row r="255" ht="24.75" spans="1:3">
       <c r="A255" s="2" t="s">
@@ -5636,7 +5952,7 @@
     </row>
     <row r="301" ht="15" spans="1:3">
       <c r="A301" s="3"/>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C301" s="15" t="s">
@@ -5645,36 +5961,36 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="3"/>
-      <c r="B302" s="14"/>
+      <c r="B302" s="21"/>
       <c r="C302" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="303" ht="15" customHeight="1" spans="1:3">
       <c r="A303" s="3"/>
-      <c r="B303" s="14"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" ht="12" customHeight="1" spans="1:3">
       <c r="A304" s="3"/>
-      <c r="B304" s="14"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:3">
       <c r="A305" s="3"/>
-      <c r="B305" s="14"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="306" ht="9" customHeight="1" spans="1:3">
-      <c r="A306" s="18"/>
-      <c r="B306" s="16"/>
-      <c r="C306" s="16"/>
+      <c r="A306" s="16"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="17"/>
     </row>
     <row r="307" ht="24.75" spans="1:3">
       <c r="A307" s="2" t="s">
@@ -5856,7 +6172,7 @@
     </row>
     <row r="333" ht="15" spans="1:3">
       <c r="A333" s="3"/>
-      <c r="B333" s="14" t="s">
+      <c r="B333" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C333" s="15" t="s">
@@ -5865,22 +6181,22 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="3"/>
-      <c r="B334" s="14"/>
+      <c r="B334" s="21"/>
       <c r="C334" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="3"/>
-      <c r="B335" s="14"/>
+      <c r="B335" s="21"/>
       <c r="C335" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="336" ht="9" customHeight="1" spans="1:3">
-      <c r="A336" s="18"/>
-      <c r="B336" s="16"/>
-      <c r="C336" s="16"/>
+      <c r="A336" s="16"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" ht="24.75" spans="1:3">
       <c r="A337" s="2" t="s">
@@ -5890,135 +6206,135 @@
       <c r="C337" s="2"/>
     </row>
     <row r="338" ht="15" spans="1:3">
-      <c r="A338" s="21" t="s">
+      <c r="A338" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B338" s="19" t="s">
+      <c r="B338" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="C338" s="13" t="s">
+      <c r="C338" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="21"/>
-      <c r="B339" s="19"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="22"/>
       <c r="C339" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:3">
-      <c r="A340" s="21"/>
-      <c r="B340" s="19"/>
-      <c r="C340" s="13" t="s">
+      <c r="A340" s="24"/>
+      <c r="B340" s="22"/>
+      <c r="C340" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="341" ht="15" spans="1:3">
-      <c r="A341" s="21"/>
-      <c r="B341" s="19"/>
-      <c r="C341" s="13" t="s">
+      <c r="A341" s="24"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="12" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
-      <c r="A342" s="21"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="13" t="s">
+      <c r="A342" s="24"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="12" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:3">
-      <c r="A343" s="21"/>
-      <c r="B343" s="19"/>
-      <c r="C343" s="13" t="s">
+      <c r="A343" s="24"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="12" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
-      <c r="A344" s="21"/>
-      <c r="B344" s="19"/>
-      <c r="C344" s="13" t="s">
+      <c r="A344" s="24"/>
+      <c r="B344" s="22"/>
+      <c r="C344" s="12" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:3">
-      <c r="A345" s="21"/>
-      <c r="B345" s="19"/>
-      <c r="C345" s="13" t="s">
+      <c r="A345" s="24"/>
+      <c r="B345" s="22"/>
+      <c r="C345" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
-      <c r="A346" s="21"/>
-      <c r="B346" s="19"/>
-      <c r="C346" s="13" t="s">
+      <c r="A346" s="24"/>
+      <c r="B346" s="22"/>
+      <c r="C346" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:3">
-      <c r="A347" s="21"/>
-      <c r="B347" s="19"/>
-      <c r="C347" s="13" t="s">
+      <c r="A347" s="24"/>
+      <c r="B347" s="22"/>
+      <c r="C347" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
-      <c r="A348" s="21"/>
-      <c r="B348" s="19"/>
-      <c r="C348" s="13" t="s">
+      <c r="A348" s="24"/>
+      <c r="B348" s="22"/>
+      <c r="C348" s="12" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:3">
-      <c r="A349" s="21"/>
-      <c r="B349" s="19"/>
-      <c r="C349" s="13" t="s">
+      <c r="A349" s="24"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
-      <c r="A350" s="21"/>
-      <c r="B350" s="19"/>
-      <c r="C350" s="13" t="s">
+      <c r="A350" s="24"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:3">
-      <c r="A351" s="21"/>
-      <c r="B351" s="19"/>
-      <c r="C351" s="13" t="s">
+      <c r="A351" s="24"/>
+      <c r="B351" s="22"/>
+      <c r="C351" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="21"/>
-      <c r="B352" s="19"/>
+      <c r="A352" s="24"/>
+      <c r="B352" s="22"/>
       <c r="C352" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="21"/>
-      <c r="B353" s="19"/>
+      <c r="A353" s="24"/>
+      <c r="B353" s="22"/>
       <c r="C353" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="21"/>
-      <c r="B354" s="19"/>
+      <c r="A354" s="24"/>
+      <c r="B354" s="22"/>
       <c r="C354" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="355" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A355" s="21"/>
-      <c r="B355" s="19"/>
+      <c r="A355" s="24"/>
+      <c r="B355" s="22"/>
     </row>
     <row r="356" ht="15" spans="1:3">
-      <c r="A356" s="21"/>
-      <c r="B356" s="14" t="s">
+      <c r="A356" s="24"/>
+      <c r="B356" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C356" s="15" t="s">
@@ -6026,72 +6342,72 @@
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="21"/>
-      <c r="B357" s="14"/>
+      <c r="A357" s="24"/>
+      <c r="B357" s="21"/>
       <c r="C357" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="359" ht="15" spans="1:3">
-      <c r="A359" s="21" t="s">
+      <c r="A359" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="B359" s="19" t="s">
+      <c r="B359" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C359" s="13" t="s">
+      <c r="C359" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="21"/>
-      <c r="B360" s="19"/>
+      <c r="A360" s="24"/>
+      <c r="B360" s="22"/>
       <c r="C360" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="361" ht="15" spans="1:3">
-      <c r="A361" s="21"/>
-      <c r="B361" s="19"/>
-      <c r="C361" s="13" t="s">
+      <c r="A361" s="24"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
-      <c r="A362" s="21"/>
-      <c r="B362" s="19"/>
-      <c r="C362" s="13" t="s">
+      <c r="A362" s="24"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="12" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:3">
-      <c r="A363" s="21"/>
-      <c r="B363" s="19"/>
-      <c r="C363" s="13" t="s">
+      <c r="A363" s="24"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
-      <c r="A364" s="21"/>
-      <c r="B364" s="19"/>
-      <c r="C364" s="13" t="s">
+      <c r="A364" s="24"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="12" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="21"/>
-      <c r="B365" s="19"/>
+      <c r="A365" s="24"/>
+      <c r="B365" s="22"/>
       <c r="C365" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="366" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A366" s="21"/>
-      <c r="B366" s="19"/>
+      <c r="A366" s="24"/>
+      <c r="B366" s="22"/>
     </row>
     <row r="367" ht="15" spans="1:3">
-      <c r="A367" s="21"/>
-      <c r="B367" s="14" t="s">
+      <c r="A367" s="24"/>
+      <c r="B367" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C367" s="15" t="s">
@@ -6099,190 +6415,190 @@
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="21"/>
-      <c r="B368" s="14"/>
+      <c r="A368" s="24"/>
+      <c r="B368" s="21"/>
       <c r="C368" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:3">
-      <c r="A370" s="22" t="s">
+      <c r="A370" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="23" t="s">
+      <c r="B370" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C370" s="13" t="s">
+      <c r="C370" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="371" ht="15" spans="1:3">
-      <c r="A371" s="24"/>
-      <c r="B371" s="23"/>
-      <c r="C371" s="13" t="s">
+      <c r="A371" s="27"/>
+      <c r="B371" s="26"/>
+      <c r="C371" s="12" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
-      <c r="A372" s="24"/>
-      <c r="B372" s="23"/>
-      <c r="C372" s="13" t="s">
+      <c r="A372" s="27"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="12" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="373" ht="15" spans="1:3">
-      <c r="A373" s="24"/>
-      <c r="B373" s="23"/>
-      <c r="C373" s="13" t="s">
+      <c r="A373" s="27"/>
+      <c r="B373" s="26"/>
+      <c r="C373" s="12" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
-      <c r="A374" s="24"/>
-      <c r="B374" s="23"/>
-      <c r="C374" s="13" t="s">
+      <c r="A374" s="27"/>
+      <c r="B374" s="26"/>
+      <c r="C374" s="12" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="375" ht="15" spans="1:3">
-      <c r="A375" s="24"/>
-      <c r="B375" s="23"/>
-      <c r="C375" s="25" t="s">
+      <c r="A375" s="27"/>
+      <c r="B375" s="26"/>
+      <c r="C375" s="28" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:3">
-      <c r="A376" s="24"/>
-      <c r="B376" s="23"/>
-      <c r="C376" s="13" t="s">
+      <c r="A376" s="27"/>
+      <c r="B376" s="26"/>
+      <c r="C376" s="12" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="377" ht="15" spans="1:3">
-      <c r="A377" s="24"/>
-      <c r="B377" s="23"/>
-      <c r="C377" s="25" t="s">
+      <c r="A377" s="27"/>
+      <c r="B377" s="26"/>
+      <c r="C377" s="28" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:3">
-      <c r="A378" s="24"/>
-      <c r="B378" s="23"/>
-      <c r="C378" s="13" t="s">
+      <c r="A378" s="27"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="12" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="379" ht="15" spans="1:3">
-      <c r="A379" s="24"/>
-      <c r="B379" s="23"/>
-      <c r="C379" s="25" t="s">
+      <c r="A379" s="27"/>
+      <c r="B379" s="26"/>
+      <c r="C379" s="28" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:3">
-      <c r="A380" s="24"/>
-      <c r="B380" s="23"/>
-      <c r="C380" s="13" t="s">
+      <c r="A380" s="27"/>
+      <c r="B380" s="26"/>
+      <c r="C380" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="381" ht="15" spans="1:3">
-      <c r="A381" s="24"/>
-      <c r="B381" s="23"/>
-      <c r="C381" s="25" t="s">
+      <c r="A381" s="27"/>
+      <c r="B381" s="26"/>
+      <c r="C381" s="28" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:3">
-      <c r="A382" s="24"/>
-      <c r="B382" s="23"/>
-      <c r="C382" s="13" t="s">
+      <c r="A382" s="27"/>
+      <c r="B382" s="26"/>
+      <c r="C382" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="383" ht="15" spans="1:3">
-      <c r="A383" s="24"/>
-      <c r="B383" s="23"/>
-      <c r="C383" s="13" t="s">
+      <c r="A383" s="27"/>
+      <c r="B383" s="26"/>
+      <c r="C383" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
-      <c r="A384" s="24"/>
-      <c r="B384" s="23"/>
-      <c r="C384" s="13" t="s">
+      <c r="A384" s="27"/>
+      <c r="B384" s="26"/>
+      <c r="C384" s="12" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="385" ht="15" spans="1:3">
-      <c r="A385" s="24"/>
-      <c r="B385" s="23"/>
-      <c r="C385" s="13" t="s">
+      <c r="A385" s="27"/>
+      <c r="B385" s="26"/>
+      <c r="C385" s="12" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
-      <c r="A386" s="24"/>
-      <c r="B386" s="23"/>
-      <c r="C386" s="13" t="s">
+      <c r="A386" s="27"/>
+      <c r="B386" s="26"/>
+      <c r="C386" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="387" ht="15" spans="1:3">
-      <c r="A387" s="24"/>
-      <c r="B387" s="23"/>
-      <c r="C387" s="13" t="s">
+      <c r="A387" s="27"/>
+      <c r="B387" s="26"/>
+      <c r="C387" s="12" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
-      <c r="A388" s="24"/>
-      <c r="B388" s="23"/>
-      <c r="C388" s="13" t="s">
+      <c r="A388" s="27"/>
+      <c r="B388" s="26"/>
+      <c r="C388" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:3">
-      <c r="A389" s="24"/>
-      <c r="B389" s="23"/>
-      <c r="C389" s="13" t="s">
+      <c r="A389" s="27"/>
+      <c r="B389" s="26"/>
+      <c r="C389" s="12" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="24"/>
-      <c r="B390" s="23"/>
+      <c r="A390" s="27"/>
+      <c r="B390" s="26"/>
       <c r="C390" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="24"/>
-      <c r="B391" s="23"/>
+      <c r="A391" s="27"/>
+      <c r="B391" s="26"/>
       <c r="C391" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="24"/>
-      <c r="B392" s="23"/>
+      <c r="A392" s="27"/>
+      <c r="B392" s="26"/>
       <c r="C392" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="24"/>
-      <c r="B393" s="23"/>
+      <c r="A393" s="27"/>
+      <c r="B393" s="26"/>
       <c r="C393" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="394" customFormat="1" spans="1:1">
-      <c r="A394" s="24"/>
+      <c r="A394" s="27"/>
     </row>
     <row r="395" ht="15" spans="1:3">
-      <c r="A395" s="24"/>
-      <c r="B395" s="14" t="s">
+      <c r="A395" s="27"/>
+      <c r="B395" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C395" s="15" t="s">
@@ -6290,51 +6606,51 @@
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
-      <c r="A396" s="24"/>
-      <c r="B396" s="14"/>
+      <c r="A396" s="27"/>
+      <c r="B396" s="21"/>
       <c r="C396" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:3">
-      <c r="A397" s="24"/>
-      <c r="B397" s="14"/>
+      <c r="A397" s="27"/>
+      <c r="B397" s="21"/>
       <c r="C397" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
-      <c r="A398" s="24"/>
-      <c r="B398" s="14"/>
+      <c r="A398" s="27"/>
+      <c r="B398" s="21"/>
       <c r="C398" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:3">
-      <c r="A399" s="24"/>
-      <c r="B399" s="14"/>
+      <c r="A399" s="27"/>
+      <c r="B399" s="21"/>
       <c r="C399" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
-      <c r="A400" s="24"/>
-      <c r="B400" s="14"/>
+      <c r="A400" s="27"/>
+      <c r="B400" s="21"/>
       <c r="C400" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:3">
-      <c r="A401" s="24"/>
-      <c r="B401" s="14"/>
+      <c r="A401" s="27"/>
+      <c r="B401" s="21"/>
       <c r="C401" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="402" ht="9" customHeight="1" spans="1:3">
-      <c r="A402" s="18"/>
-      <c r="B402" s="16"/>
-      <c r="C402" s="16"/>
+      <c r="A402" s="16"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" ht="24.75" spans="1:3">
       <c r="A403" s="2" t="s">
@@ -6344,346 +6660,346 @@
       <c r="C403" s="2"/>
     </row>
     <row r="404" ht="15" spans="1:3">
-      <c r="A404" s="26" t="s">
+      <c r="A404" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="B404" s="23" t="s">
+      <c r="B404" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C404" s="13" t="s">
+      <c r="C404" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="405" ht="15" spans="1:3">
-      <c r="A405" s="26"/>
-      <c r="B405" s="23"/>
-      <c r="C405" s="13" t="s">
+      <c r="A405" s="29"/>
+      <c r="B405" s="26"/>
+      <c r="C405" s="12" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
-      <c r="A406" s="26"/>
-      <c r="B406" s="23"/>
-      <c r="C406" s="13" t="s">
+      <c r="A406" s="29"/>
+      <c r="B406" s="26"/>
+      <c r="C406" s="12" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:3">
-      <c r="A407" s="26"/>
-      <c r="B407" s="23"/>
-      <c r="C407" s="13" t="s">
+      <c r="A407" s="29"/>
+      <c r="B407" s="26"/>
+      <c r="C407" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="408" ht="15" spans="1:3">
-      <c r="A408" s="26"/>
-      <c r="B408" s="23"/>
-      <c r="C408" s="13" t="s">
+      <c r="A408" s="29"/>
+      <c r="B408" s="26"/>
+      <c r="C408" s="12" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:3">
-      <c r="A409" s="26"/>
-      <c r="B409" s="23"/>
-      <c r="C409" s="13" t="s">
+      <c r="A409" s="29"/>
+      <c r="B409" s="26"/>
+      <c r="C409" s="12" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:3">
-      <c r="A410" s="26"/>
-      <c r="B410" s="23"/>
-      <c r="C410" s="13" t="s">
+      <c r="A410" s="29"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="12" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:3">
-      <c r="A411" s="26"/>
-      <c r="B411" s="23"/>
-      <c r="C411" s="13" t="s">
+      <c r="A411" s="29"/>
+      <c r="B411" s="26"/>
+      <c r="C411" s="12" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
-      <c r="A412" s="26"/>
-      <c r="B412" s="23"/>
-      <c r="C412" s="13" t="s">
+      <c r="A412" s="29"/>
+      <c r="B412" s="26"/>
+      <c r="C412" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:3">
-      <c r="A413" s="26"/>
-      <c r="B413" s="23"/>
-      <c r="C413" s="13" t="s">
+      <c r="A413" s="29"/>
+      <c r="B413" s="26"/>
+      <c r="C413" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
-      <c r="A414" s="26"/>
-      <c r="B414" s="23"/>
-      <c r="C414" s="13" t="s">
+      <c r="A414" s="29"/>
+      <c r="B414" s="26"/>
+      <c r="C414" s="12" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:3">
-      <c r="A415" s="26"/>
-      <c r="B415" s="23"/>
-      <c r="C415" s="13" t="s">
+      <c r="A415" s="29"/>
+      <c r="B415" s="26"/>
+      <c r="C415" s="12" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
-      <c r="A416" s="26"/>
-      <c r="B416" s="23"/>
-      <c r="C416" s="13" t="s">
+      <c r="A416" s="29"/>
+      <c r="B416" s="26"/>
+      <c r="C416" s="12" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:3">
-      <c r="A417" s="26"/>
-      <c r="B417" s="23"/>
-      <c r="C417" s="13" t="s">
+      <c r="A417" s="29"/>
+      <c r="B417" s="26"/>
+      <c r="C417" s="12" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
-      <c r="A418" s="26"/>
-      <c r="B418" s="23"/>
-      <c r="C418" s="13" t="s">
+      <c r="A418" s="29"/>
+      <c r="B418" s="26"/>
+      <c r="C418" s="12" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="419" ht="15" spans="1:3">
-      <c r="A419" s="26"/>
-      <c r="B419" s="23"/>
-      <c r="C419" s="13" t="s">
+      <c r="A419" s="29"/>
+      <c r="B419" s="26"/>
+      <c r="C419" s="12" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
-      <c r="A420" s="26"/>
-      <c r="B420" s="23"/>
-      <c r="C420" s="13" t="s">
+      <c r="A420" s="29"/>
+      <c r="B420" s="26"/>
+      <c r="C420" s="12" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="421" ht="15" spans="1:3">
-      <c r="A421" s="26"/>
-      <c r="B421" s="23"/>
-      <c r="C421" s="13" t="s">
+      <c r="A421" s="29"/>
+      <c r="B421" s="26"/>
+      <c r="C421" s="12" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="422" ht="18" spans="1:3">
-      <c r="A422" s="26"/>
-      <c r="B422" s="23"/>
-      <c r="C422" s="13"/>
+      <c r="A422" s="29"/>
+      <c r="B422" s="26"/>
+      <c r="C422" s="12"/>
     </row>
     <row r="423" ht="15" spans="1:3">
-      <c r="A423" s="26"/>
-      <c r="B423" s="23" t="s">
+      <c r="A423" s="29"/>
+      <c r="B423" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="C423" s="13" t="s">
+      <c r="C423" s="12" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
-      <c r="A424" s="26"/>
-      <c r="B424" s="23"/>
-      <c r="C424" s="13" t="s">
+      <c r="A424" s="29"/>
+      <c r="B424" s="26"/>
+      <c r="C424" s="12" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="425" ht="15" spans="1:3">
-      <c r="A425" s="26"/>
-      <c r="B425" s="23"/>
-      <c r="C425" s="13" t="s">
+      <c r="A425" s="29"/>
+      <c r="B425" s="26"/>
+      <c r="C425" s="12" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
-      <c r="A426" s="26"/>
-      <c r="B426" s="23"/>
-      <c r="C426" s="13" t="s">
+      <c r="A426" s="29"/>
+      <c r="B426" s="26"/>
+      <c r="C426" s="12" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="427" ht="15" spans="1:3">
-      <c r="A427" s="26"/>
-      <c r="B427" s="23"/>
-      <c r="C427" s="13" t="s">
+      <c r="A427" s="29"/>
+      <c r="B427" s="26"/>
+      <c r="C427" s="12" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
-      <c r="A428" s="26"/>
-      <c r="B428" s="23"/>
-      <c r="C428" s="13" t="s">
+      <c r="A428" s="29"/>
+      <c r="B428" s="26"/>
+      <c r="C428" s="12" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:3">
-      <c r="A429" s="26"/>
-      <c r="B429" s="23"/>
-      <c r="C429" s="13" t="s">
+      <c r="A429" s="29"/>
+      <c r="B429" s="26"/>
+      <c r="C429" s="12" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
-      <c r="A430" s="26"/>
-      <c r="B430" s="23"/>
-      <c r="C430" s="13" t="s">
+      <c r="A430" s="29"/>
+      <c r="B430" s="26"/>
+      <c r="C430" s="12" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:3">
-      <c r="A431" s="26"/>
-      <c r="B431" s="23"/>
-      <c r="C431" s="13" t="s">
+      <c r="A431" s="29"/>
+      <c r="B431" s="26"/>
+      <c r="C431" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
-      <c r="A432" s="26"/>
-      <c r="B432" s="23"/>
-      <c r="C432" s="13" t="s">
+      <c r="A432" s="29"/>
+      <c r="B432" s="26"/>
+      <c r="C432" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:3">
-      <c r="A433" s="26"/>
-      <c r="B433" s="23"/>
-      <c r="C433" s="13" t="s">
+      <c r="A433" s="29"/>
+      <c r="B433" s="26"/>
+      <c r="C433" s="12" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
-      <c r="A434" s="26"/>
-      <c r="B434" s="23"/>
-      <c r="C434" s="13" t="s">
+      <c r="A434" s="29"/>
+      <c r="B434" s="26"/>
+      <c r="C434" s="12" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="435" ht="15" spans="1:3">
-      <c r="A435" s="26"/>
-      <c r="B435" s="23"/>
-      <c r="C435" s="13" t="s">
+      <c r="A435" s="29"/>
+      <c r="B435" s="26"/>
+      <c r="C435" s="12" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="436" ht="15" spans="1:3">
-      <c r="A436" s="26"/>
-      <c r="B436" s="23"/>
-      <c r="C436" s="13" t="s">
+      <c r="A436" s="29"/>
+      <c r="B436" s="26"/>
+      <c r="C436" s="12" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="437" ht="15" spans="1:3">
-      <c r="A437" s="26"/>
-      <c r="B437" s="23"/>
-      <c r="C437" s="13" t="s">
+      <c r="A437" s="29"/>
+      <c r="B437" s="26"/>
+      <c r="C437" s="12" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:3">
-      <c r="A438" s="26"/>
-      <c r="B438" s="23"/>
-      <c r="C438" s="13" t="s">
+      <c r="A438" s="29"/>
+      <c r="B438" s="26"/>
+      <c r="C438" s="12" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="439" ht="15" spans="1:3">
-      <c r="A439" s="26"/>
-      <c r="B439" s="23"/>
-      <c r="C439" s="13" t="s">
+      <c r="A439" s="29"/>
+      <c r="B439" s="26"/>
+      <c r="C439" s="12" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="440" ht="18" spans="1:3">
-      <c r="A440" s="26"/>
-      <c r="B440" s="23"/>
-      <c r="C440" s="13"/>
+      <c r="A440" s="29"/>
+      <c r="B440" s="26"/>
+      <c r="C440" s="12"/>
     </row>
     <row r="441" ht="15" spans="1:3">
-      <c r="A441" s="26"/>
-      <c r="B441" s="23" t="s">
+      <c r="A441" s="29"/>
+      <c r="B441" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C441" s="13" t="s">
+      <c r="C441" s="12" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
-      <c r="A442" s="26"/>
-      <c r="B442" s="23"/>
-      <c r="C442" s="13" t="s">
+      <c r="A442" s="29"/>
+      <c r="B442" s="26"/>
+      <c r="C442" s="12" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="443" ht="15" spans="1:3">
-      <c r="A443" s="26"/>
-      <c r="B443" s="23"/>
-      <c r="C443" s="13" t="s">
+      <c r="A443" s="29"/>
+      <c r="B443" s="26"/>
+      <c r="C443" s="12" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
-      <c r="A444" s="26"/>
-      <c r="B444" s="23"/>
-      <c r="C444" s="13" t="s">
+      <c r="A444" s="29"/>
+      <c r="B444" s="26"/>
+      <c r="C444" s="12" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="445" ht="15" spans="1:3">
-      <c r="A445" s="26"/>
-      <c r="B445" s="23"/>
-      <c r="C445" s="13" t="s">
+      <c r="A445" s="29"/>
+      <c r="B445" s="26"/>
+      <c r="C445" s="12" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:3">
-      <c r="A446" s="26"/>
-      <c r="B446" s="23"/>
-      <c r="C446" s="13" t="s">
+      <c r="A446" s="29"/>
+      <c r="B446" s="26"/>
+      <c r="C446" s="12" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="447" ht="15" spans="1:3">
-      <c r="A447" s="26"/>
-      <c r="B447" s="23"/>
-      <c r="C447" s="13" t="s">
+      <c r="A447" s="29"/>
+      <c r="B447" s="26"/>
+      <c r="C447" s="12" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
-      <c r="A448" s="26"/>
-      <c r="B448" s="23"/>
-      <c r="C448" s="13" t="s">
+      <c r="A448" s="29"/>
+      <c r="B448" s="26"/>
+      <c r="C448" s="12" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:3">
-      <c r="A449" s="26"/>
-      <c r="B449" s="23"/>
-      <c r="C449" s="13" t="s">
+      <c r="A449" s="29"/>
+      <c r="B449" s="26"/>
+      <c r="C449" s="12" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
-      <c r="A450" s="26"/>
-      <c r="B450" s="23"/>
-      <c r="C450" s="13" t="s">
+      <c r="A450" s="29"/>
+      <c r="B450" s="26"/>
+      <c r="C450" s="12" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:3">
-      <c r="A451" s="26"/>
-      <c r="B451" s="27"/>
-      <c r="C451" s="13"/>
+      <c r="A451" s="29"/>
+      <c r="B451" s="30"/>
+      <c r="C451" s="12"/>
     </row>
     <row r="452" ht="15" spans="1:3">
-      <c r="A452" s="26"/>
-      <c r="B452" s="14" t="s">
+      <c r="A452" s="29"/>
+      <c r="B452" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C452" s="15" t="s">
@@ -6691,44 +7007,44 @@
       </c>
     </row>
     <row r="453" ht="15" spans="1:3">
-      <c r="A453" s="26"/>
-      <c r="B453" s="14"/>
+      <c r="A453" s="29"/>
+      <c r="B453" s="21"/>
       <c r="C453" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
-      <c r="A454" s="26"/>
-      <c r="B454" s="14"/>
+      <c r="A454" s="29"/>
+      <c r="B454" s="21"/>
       <c r="C454" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="455" ht="15" spans="1:3">
-      <c r="A455" s="26"/>
-      <c r="B455" s="14"/>
+      <c r="A455" s="29"/>
+      <c r="B455" s="21"/>
       <c r="C455" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
-      <c r="A456" s="26"/>
-      <c r="B456" s="14"/>
+      <c r="A456" s="29"/>
+      <c r="B456" s="21"/>
       <c r="C456" s="15" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="457" ht="15" spans="1:3">
-      <c r="A457" s="26"/>
-      <c r="B457" s="14"/>
+      <c r="A457" s="29"/>
+      <c r="B457" s="21"/>
       <c r="C457" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="28"/>
-      <c r="B458" s="28"/>
-      <c r="C458" s="28"/>
+      <c r="A458" s="31"/>
+      <c r="B458" s="31"/>
+      <c r="C458" s="31"/>
     </row>
     <row r="459" ht="24.75" spans="1:3">
       <c r="A459" s="2" t="s">
@@ -6999,7 +7315,7 @@
     </row>
     <row r="497" ht="15" spans="1:3">
       <c r="A497" s="3"/>
-      <c r="B497" s="14" t="s">
+      <c r="B497" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C497" s="15" t="s">
@@ -7008,34 +7324,416 @@
     </row>
     <row r="498" ht="15" spans="1:3">
       <c r="A498" s="3"/>
-      <c r="B498" s="14"/>
+      <c r="B498" s="21"/>
       <c r="C498" s="10" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="499" ht="9" customHeight="1" spans="1:3">
-      <c r="A499" s="18"/>
-      <c r="B499" s="16"/>
-      <c r="C499" s="16"/>
-    </row>
-    <row r="501" ht="18.75" spans="1:2">
-      <c r="A501" s="29" t="s">
+      <c r="A499" s="16"/>
+      <c r="B499" s="17"/>
+      <c r="C499" s="17"/>
+    </row>
+    <row r="500" ht="24.75" spans="1:3">
+      <c r="A500" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B501" s="30">
+      <c r="B500" s="2"/>
+      <c r="C500" s="2"/>
+    </row>
+    <row r="501" ht="15.75" spans="1:3">
+      <c r="A501" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="502" ht="15.75" spans="1:3">
+      <c r="A502" s="3"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503" ht="15" spans="1:3">
+      <c r="A503" s="3"/>
+      <c r="B503" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C503" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="3"/>
+      <c r="B504" s="26"/>
+      <c r="C504" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="505" ht="15" spans="1:3">
+      <c r="A505" s="3"/>
+      <c r="B505" s="26"/>
+      <c r="C505" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="506" ht="15" spans="1:3">
+      <c r="A506" s="3"/>
+      <c r="B506" s="26"/>
+      <c r="C506" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="507" ht="15" spans="1:3">
+      <c r="A507" s="3"/>
+      <c r="B507" s="26"/>
+      <c r="C507" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="508" ht="15" spans="1:3">
+      <c r="A508" s="3"/>
+      <c r="B508" s="26"/>
+      <c r="C508" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="509" ht="18" spans="1:3">
+      <c r="A509" s="3"/>
+      <c r="B509" s="26"/>
+      <c r="C509" s="12"/>
+    </row>
+    <row r="510" ht="15" spans="1:3">
+      <c r="A510" s="3"/>
+      <c r="B510" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C510" s="32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="511" ht="15" spans="1:3">
+      <c r="A511" s="3"/>
+      <c r="B511" s="26"/>
+      <c r="C511" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="512" ht="15" spans="1:3">
+      <c r="A512" s="3"/>
+      <c r="B512" s="26"/>
+      <c r="C512" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="513" ht="15" spans="1:3">
+      <c r="A513" s="3"/>
+      <c r="B513" s="26"/>
+      <c r="C513" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="514" ht="15" spans="1:3">
+      <c r="A514" s="3"/>
+      <c r="B514" s="26"/>
+      <c r="C514" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="515" ht="15" spans="1:3">
+      <c r="A515" s="3"/>
+      <c r="B515" s="26"/>
+      <c r="C515" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="516" ht="15" spans="1:3">
+      <c r="A516" s="3"/>
+      <c r="B516" s="26"/>
+      <c r="C516" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="517" ht="15" spans="1:3">
+      <c r="A517" s="3"/>
+      <c r="B517" s="26"/>
+      <c r="C517" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="518" ht="18" spans="1:3">
+      <c r="A518" s="3"/>
+      <c r="B518" s="26"/>
+      <c r="C518" s="12"/>
+    </row>
+    <row r="519" ht="15" spans="1:3">
+      <c r="A519" s="3"/>
+      <c r="B519" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="520" ht="15" spans="1:3">
+      <c r="A520" s="3"/>
+      <c r="B520" s="7"/>
+      <c r="C520" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="521" ht="15" spans="1:3">
+      <c r="A521" s="3"/>
+      <c r="B521" s="7"/>
+      <c r="C521" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="522" ht="15" spans="1:3">
+      <c r="A522" s="3"/>
+      <c r="B522" s="7"/>
+      <c r="C522" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="523" ht="18" spans="1:3">
+      <c r="A523" s="3"/>
+      <c r="B523" s="23"/>
+      <c r="C523" s="12"/>
+    </row>
+    <row r="524" ht="15" spans="1:3">
+      <c r="A524" s="3"/>
+      <c r="B524" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C524" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="525" ht="15" spans="1:3">
+      <c r="A525" s="3"/>
+      <c r="B525" s="14"/>
+      <c r="C525" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="526" ht="9" customHeight="1" spans="1:3">
+      <c r="A526" s="8"/>
+      <c r="B526" s="8"/>
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" ht="15.75" spans="1:3">
+      <c r="A527" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="528" ht="15.75" spans="1:3">
+      <c r="A528" s="3"/>
+      <c r="B528" s="4"/>
+      <c r="C528" s="5"/>
+    </row>
+    <row r="529" ht="15" spans="1:3">
+      <c r="A529" s="3"/>
+      <c r="B529" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="C529" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="3"/>
+      <c r="B530" s="26"/>
+      <c r="C530" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="531" ht="15" spans="1:3">
+      <c r="A531" s="3"/>
+      <c r="B531" s="26"/>
+      <c r="C531" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="532" ht="15" spans="1:3">
+      <c r="A532" s="3"/>
+      <c r="B532" s="26"/>
+      <c r="C532" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="533" ht="15" spans="1:3">
+      <c r="A533" s="3"/>
+      <c r="B533" s="26"/>
+      <c r="C533" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="534" ht="12" customHeight="1" spans="1:3">
+      <c r="A534" s="3"/>
+      <c r="B534" s="26"/>
+      <c r="C534" s="12"/>
+    </row>
+    <row r="535" ht="15" spans="1:3">
+      <c r="A535" s="3"/>
+      <c r="B535" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C535" s="32" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="536" ht="15" spans="1:3">
+      <c r="A536" s="3"/>
+      <c r="B536" s="26"/>
+      <c r="C536" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="537" ht="15" spans="1:3">
+      <c r="A537" s="3"/>
+      <c r="B537" s="26"/>
+      <c r="C537" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="538" ht="11" customHeight="1" spans="1:3">
+      <c r="A538" s="3"/>
+      <c r="B538" s="26"/>
+      <c r="C538" s="12"/>
+    </row>
+    <row r="539" ht="15" spans="1:3">
+      <c r="A539" s="3"/>
+      <c r="B539" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="540" ht="15" spans="1:3">
+      <c r="A540" s="3"/>
+      <c r="B540" s="26"/>
+      <c r="C540" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="541" ht="15" spans="1:3">
+      <c r="A541" s="3"/>
+      <c r="B541" s="26"/>
+      <c r="C541" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="542" ht="15" spans="1:3">
+      <c r="A542" s="3"/>
+      <c r="B542" s="26"/>
+      <c r="C542" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="543" ht="15" spans="1:3">
+      <c r="A543" s="3"/>
+      <c r="B543" s="26"/>
+      <c r="C543" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="544" ht="15" spans="1:3">
+      <c r="A544" s="3"/>
+      <c r="B544" s="26"/>
+      <c r="C544" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="545" ht="15.75" spans="1:3">
+      <c r="A545" s="3"/>
+      <c r="B545" s="7"/>
+      <c r="C545" s="12"/>
+    </row>
+    <row r="546" ht="15" spans="1:3">
+      <c r="A546" s="3"/>
+      <c r="B546" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="547" ht="15" spans="1:3">
+      <c r="A547" s="3"/>
+      <c r="B547" s="26"/>
+      <c r="C547" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="548" ht="15" spans="1:3">
+      <c r="A548" s="3"/>
+      <c r="B548" s="26"/>
+      <c r="C548" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="549" ht="15" spans="1:3">
+      <c r="A549" s="3"/>
+      <c r="B549" s="26"/>
+      <c r="C549" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="550" ht="18" spans="1:3">
+      <c r="A550" s="3"/>
+      <c r="B550" s="23"/>
+      <c r="C550" s="12"/>
+    </row>
+    <row r="551" ht="15" spans="1:3">
+      <c r="A551" s="3"/>
+      <c r="B551" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C551" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="552" ht="15" spans="1:3">
+      <c r="A552" s="3"/>
+      <c r="B552" s="14"/>
+      <c r="C552" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="553" ht="9" customHeight="1" spans="1:3">
+      <c r="A553" s="16"/>
+      <c r="B553" s="17"/>
+      <c r="C553" s="17"/>
+    </row>
+    <row r="555" ht="18.75" spans="1:2">
+      <c r="A555" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B555" s="19">
         <v>10.5</v>
       </c>
     </row>
-    <row r="502" ht="18.75" spans="1:2">
-      <c r="A502" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="B502" s="30">
+    <row r="556" ht="18.75" spans="1:2">
+      <c r="A556" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B556" s="19">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="91">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A100:C100"/>
@@ -7046,6 +7744,7 @@
     <mergeCell ref="A337:C337"/>
     <mergeCell ref="A403:C403"/>
     <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A500:C500"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A26:A35"/>
@@ -7063,6 +7762,8 @@
     <mergeCell ref="A370:A401"/>
     <mergeCell ref="A404:A457"/>
     <mergeCell ref="A460:A498"/>
+    <mergeCell ref="A501:A525"/>
+    <mergeCell ref="A527:A552"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B16:B24"/>
     <mergeCell ref="B26:B35"/>
@@ -7115,6 +7816,15 @@
     <mergeCell ref="B452:B457"/>
     <mergeCell ref="B462:B495"/>
     <mergeCell ref="B497:B498"/>
+    <mergeCell ref="B503:B508"/>
+    <mergeCell ref="B510:B517"/>
+    <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B524:B525"/>
+    <mergeCell ref="B529:B533"/>
+    <mergeCell ref="B535:B537"/>
+    <mergeCell ref="B539:B544"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="B551:B552"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C405" r:id="rId1" display="2. Module Outline"/>
@@ -7123,4 +7833,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="10" customHeight="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" ht="14" customHeight="1" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="33" ht="12" customHeight="1" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" ht="16" customHeight="1" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" ht="21" customHeight="1" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" ht="15.75" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44" ht="9" customHeight="1" spans="1:3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+    </row>
+    <row r="158" ht="18.75" spans="1:2">
+      <c r="A158" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B158" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" ht="18.75" spans="1:2">
+      <c r="A159" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B159" s="19">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A43"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B42:B43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="556">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2012,6 +2012,9 @@
     <t>Total # of Hours for Core Java 8</t>
   </si>
   <si>
+    <t>Day 12</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2139,8 +2142,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -2265,15 +2268,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2286,30 +2296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2318,22 +2306,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,14 +2321,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2372,25 +2336,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2402,7 +2351,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,7 +2463,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,13 +2559,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,85 +2607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2580,43 +2619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,13 +2643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2736,11 +2739,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2749,16 +2765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2778,17 +2785,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,41 +2809,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2852,130 +2855,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7841,9 +7844,9 @@
   <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7866,14 +7869,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
@@ -7890,31 +7893,31 @@
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:3">
@@ -7925,31 +7928,31 @@
     <row r="10" ht="18" customHeight="1" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
@@ -7967,59 +7970,59 @@
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
@@ -8030,59 +8033,59 @@
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:3">
@@ -8093,31 +8096,31 @@
     <row r="34" ht="16" customHeight="1" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:3">
@@ -8138,7 +8141,7 @@
         <v>149</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="1:2">
@@ -8151,14 +8154,14 @@
         <v>22</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="14"/>
       <c r="C43" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" ht="9" customHeight="1" spans="1:3">
@@ -8168,7 +8171,7 @@
     </row>
     <row r="158" ht="18.75" spans="1:2">
       <c r="A158" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B158" s="19">
         <v>2</v>
@@ -8176,7 +8179,7 @@
     </row>
     <row r="159" ht="18.75" spans="1:2">
       <c r="A159" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B159" s="19">
         <v>16</v>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
     <sheet name="Core Java 8" sheetId="25" r:id="rId2"/>
     <sheet name="Database Using PostgreSQL" sheetId="26" r:id="rId3"/>
+    <sheet name="DevOps and CI CD concepts" sheetId="27" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="607">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2131,10 +2132,206 @@
     <t>Hands On Exercises - PostgreSQL Basic Queries</t>
   </si>
   <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PostgreSQL is commonly known as Postgres and is is often referred to as a the world's most advanced open source database.                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In this course, we will go over the basics of  DML, DDL and TCL PostgreSQL commands.                                                                Learn how to restore a database from a tar file.                                                 Understand the basic Data Types in PostgreSQL and how to use Array Functions and Operators.         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+  </si>
+  <si>
+    <t>1. PostgreSQL Data Operations - Insert, Update, Delete</t>
+  </si>
+  <si>
+    <t>1. Loading Sample Data</t>
+  </si>
+  <si>
+    <t>2. Getting Started</t>
+  </si>
+  <si>
+    <t>3. Scenario 1 Task 1: Update Table With New Data</t>
+  </si>
+  <si>
+    <t>4. Scenario 1 Task 2: Insert Data Into Table</t>
+  </si>
+  <si>
+    <t>5. Scenario 4: Delete Rows From Table</t>
+  </si>
+  <si>
+    <t>2. Data Types in PostgreSQL</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>3. Arrays Functions and Operators</t>
+  </si>
+  <si>
+    <t>2. Array  Operators</t>
+  </si>
+  <si>
+    <t>3. Array Functions</t>
+  </si>
+  <si>
+    <t>4. Demo : Array Functions and Operators</t>
+  </si>
+  <si>
+    <t>4. PostgreSQL DDL, Transactions and Constraints</t>
+  </si>
+  <si>
+    <t>1. Data Definition (DDL) Commands</t>
+  </si>
+  <si>
+    <t>CREATE  Database</t>
+  </si>
+  <si>
+    <t>CREATE  Table</t>
+  </si>
+  <si>
+    <t>ALTER</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>TRUNCATE</t>
+  </si>
+  <si>
+    <t>RENAME</t>
+  </si>
+  <si>
+    <t>2. Transaction Control (TCL) Commands</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>COMMIT</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>3. Constraints Used In Database</t>
+  </si>
+  <si>
+    <t>NOT NULL Constraint</t>
+  </si>
+  <si>
+    <t>UNIQUE Constraint</t>
+  </si>
+  <si>
+    <t>CHECK Constraint</t>
+  </si>
+  <si>
+    <t>Total # of Days for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Total # of Hours for PostgreSQL</t>
+  </si>
+  <si>
     <t>Total # of Days for JPA with Hibernate</t>
   </si>
   <si>
     <t>Total # of Hours for JPA with Hibernate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DevOps may not mean the same thing to everyone you ask but there are a set of principles that can be distilled.                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In this course, you will be briefly introduced to coalescing development and operations.                                 Next, you will explore thinking beyond just DevOps.                                   Then, you'll see the benefits of a one at a time management approach and automating wisely.                                   Finally, you will discover how you can apply these principles to iteratively improve the way you work.                                By the end of this course, you will gain a larger understanding of how DevOps plays a role in your organization.</t>
+    </r>
+  </si>
+  <si>
+    <t>Introduction to 5W’s of DevOps</t>
+  </si>
+  <si>
+    <t>1. Introduction to DevOps</t>
+  </si>
+  <si>
+    <t>2. 5W’s of DevOps</t>
+  </si>
+  <si>
+    <t>3. What is DevOps?</t>
+  </si>
+  <si>
+    <t>4. Why do we need DevOps?</t>
+  </si>
+  <si>
+    <t>6. When do we need DevOps?</t>
+  </si>
+  <si>
+    <t>7. For Whom do we need DevOps?</t>
+  </si>
+  <si>
+    <t>8. Where do we need DevOps?</t>
+  </si>
+  <si>
+    <t>9. DevOps and Testing Market</t>
+  </si>
+  <si>
+    <t>10. Top Points Of Frictions - Development and Testing</t>
+  </si>
+  <si>
+    <t>11. The DevOps ToolChain</t>
+  </si>
+  <si>
+    <t>12. Tools and Technology</t>
+  </si>
+  <si>
+    <t>13. Case Study</t>
+  </si>
+  <si>
+    <t>14. DevOps Services For A Non-Banking Finance Leader</t>
   </si>
 </sst>
 </file>
@@ -2142,12 +2339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2170,7 +2367,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2184,21 +2381,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF738F93"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2224,6 +2406,29 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF738F93"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2275,29 +2480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2311,25 +2494,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2343,8 +2517,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2352,6 +2550,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,6 +2570,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2375,14 +2588,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2396,18 +2609,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2463,13 +2675,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,19 +2831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,37 +2843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2553,97 +2855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,30 +2958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2785,15 +2973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2804,6 +2983,41 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2826,26 +3040,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2855,134 +3067,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2994,6 +3206,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3002,38 +3249,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3042,69 +3269,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3120,7 +3344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3458,361 +3682,361 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="35">
+      <c r="F9" s="39">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="41">
         <v>10.5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="41">
         <v>84</v>
       </c>
     </row>
     <row r="10" ht="30.75" spans="6:9">
-      <c r="F10" s="38">
+      <c r="F10" s="42">
         <v>2</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="41">
         <v>2</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="38">
+      <c r="F11" s="42">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="41">
         <v>3</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="41">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="6:9">
-      <c r="F12" s="38">
+      <c r="F12" s="42">
         <v>4</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="41">
         <v>0.5</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="38">
+      <c r="F13" s="42">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="41">
         <v>2</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="38">
+      <c r="F14" s="42">
         <v>6</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="41">
         <v>2</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="38">
+      <c r="F15" s="42">
         <v>7</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="41">
         <v>1</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="6:9">
-      <c r="F16" s="38">
+      <c r="F16" s="42">
         <v>8</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="41">
         <v>6</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="6:9">
-      <c r="F17" s="38">
+      <c r="F17" s="42">
         <v>9</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="41">
         <v>3</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="41">
         <v>24</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="6:9">
-      <c r="F18" s="38">
+      <c r="F18" s="42">
         <v>10</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="41">
         <v>5</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="6:9">
-      <c r="F19" s="38">
+      <c r="F19" s="42">
         <v>11</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="41">
         <v>1</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="6:9">
-      <c r="F20" s="38">
+      <c r="F20" s="42">
         <v>12</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="41">
         <v>4</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="6:9">
-      <c r="F21" s="38">
+      <c r="F21" s="42">
         <v>13</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="41">
         <v>1</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="6:9">
-      <c r="F22" s="38">
+      <c r="F22" s="42">
         <v>14</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="41">
         <v>6</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="41">
         <v>48</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="6:9">
-      <c r="F23" s="38">
+      <c r="F23" s="42">
         <v>15</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="41">
         <v>2</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="30.75" spans="6:9">
-      <c r="F24" s="38">
+      <c r="F24" s="42">
         <v>16</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="41">
         <v>4</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="6:9">
-      <c r="F25" s="41"/>
-      <c r="G25" s="42" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="47">
         <f>SUM(H9:H24)</f>
         <v>53</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="55">
         <f>SUM(I9:I24)</f>
         <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="46">
+      <c r="A32" s="50">
         <v>1</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="46">
+      <c r="A33" s="50">
         <v>2</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="46">
+      <c r="A34" s="50">
         <v>3</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="46">
+      <c r="A37" s="50">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A38" s="50">
+      <c r="A38" s="54">
         <v>2</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A39" s="50">
+      <c r="A39" s="54">
         <v>3</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" ht="54" customHeight="1" spans="1:6">
-      <c r="A40" s="50">
+      <c r="A40" s="54">
         <v>4</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3868,103 +4092,103 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3972,244 +4196,244 @@
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="12" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="12" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="12" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="12" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="12" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="12" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="12" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" ht="9" customHeight="1" spans="1:3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" ht="24.75" spans="1:3">
       <c r="A51" s="2" t="s">
@@ -4219,339 +4443,339 @@
       <c r="C51" s="2"/>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1" spans="1:3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" spans="1:3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" spans="1:3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="13"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="21"/>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="4"/>
       <c r="C65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="4"/>
       <c r="C66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="4"/>
       <c r="C67" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="4"/>
       <c r="C68" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="4"/>
       <c r="C69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="4"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="13" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="13" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="12" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="3"/>
+      <c r="A74" s="16"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="4"/>
       <c r="C76" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="4"/>
       <c r="C77" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="1:3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="13" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="13" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1" spans="1:3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="4"/>
       <c r="C80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1" spans="1:3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="4"/>
       <c r="C81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1" spans="1:3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="13" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="1:3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="13" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="1:3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="12" t="s">
+      <c r="A84" s="16"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1" spans="1:3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" ht="16" customHeight="1" spans="1:3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" ht="16" customHeight="1" spans="1:3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="4"/>
       <c r="C87" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1" spans="1:3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="4"/>
       <c r="C88" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1" spans="1:3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="13" t="s">
+      <c r="A89" s="16"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="21" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1" spans="1:3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="13" t="s">
+      <c r="A90" s="16"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1" spans="1:3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="4"/>
       <c r="C91" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" ht="16" customHeight="1" spans="1:3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="13" t="s">
+      <c r="A92" s="16"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1" spans="1:3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="13" t="s">
+      <c r="A93" s="16"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="21" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1" spans="1:3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="13" t="s">
+      <c r="A94" s="16"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="12" t="s">
+      <c r="A95" s="16"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="1:2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" ht="15" spans="1:3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="16"/>
+      <c r="B97" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="99" ht="9" customHeight="1" spans="1:3">
-      <c r="A99" s="16"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
     </row>
     <row r="100" ht="24.75" spans="1:3">
       <c r="A100" s="2" t="s">
@@ -4561,311 +4785,311 @@
       <c r="C100" s="2"/>
     </row>
     <row r="101" ht="15.75" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
     </row>
     <row r="103" ht="16" customHeight="1" spans="1:3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="16"/>
+      <c r="B103" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:3">
-      <c r="A104" s="3"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8" t="s">
+      <c r="A107" s="16"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="109" ht="17" customHeight="1" spans="1:3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="110" ht="13" customHeight="1" spans="1:3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="111" ht="13" customHeight="1" spans="1:3">
-      <c r="A111" s="3"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
-      <c r="A112" s="3"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="12" t="s">
+      <c r="A112" s="16"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:3">
-      <c r="A113" s="3"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="13"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="21"/>
     </row>
     <row r="114" ht="15" spans="1:3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="16"/>
+      <c r="B114" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="3"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="4"/>
       <c r="C115" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="7"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="4"/>
       <c r="C116" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="3"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="4"/>
       <c r="C117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="3"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="4"/>
       <c r="C118" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="3"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="4"/>
       <c r="C119" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="3"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="4"/>
       <c r="C120" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="3"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="13" t="s">
+      <c r="A121" s="16"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="3"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="13" t="s">
+      <c r="A122" s="16"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:1">
-      <c r="A123" s="3"/>
+      <c r="A123" s="16"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:3">
-      <c r="A124" s="3"/>
-      <c r="B124" s="7" t="s">
+      <c r="A124" s="16"/>
+      <c r="B124" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="4"/>
       <c r="C125" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="4"/>
       <c r="C126" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" ht="16" customHeight="1" spans="1:3">
-      <c r="A127" s="3"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="13" t="s">
+      <c r="A127" s="16"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="13" t="s">
+      <c r="A128" s="16"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" ht="16" customHeight="1" spans="1:3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="4"/>
       <c r="C129" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" ht="16" customHeight="1" spans="1:3">
-      <c r="A130" s="3"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="12" t="s">
+      <c r="A130" s="16"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1" spans="1:3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="12"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132" ht="16" customHeight="1" spans="1:3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="7" t="s">
+      <c r="A132" s="16"/>
+      <c r="B132" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="133" ht="16" customHeight="1" spans="1:3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="7"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="4"/>
       <c r="C133" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" ht="16" customHeight="1" spans="1:3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="4"/>
       <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" ht="16" customHeight="1" spans="1:3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="13" t="s">
+      <c r="A135" s="16"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1" spans="1:3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="13" t="s">
+      <c r="A136" s="16"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" ht="16" customHeight="1" spans="1:3">
-      <c r="A137" s="3"/>
-      <c r="B137" s="7"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="4"/>
       <c r="C137" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="138" ht="16" customHeight="1" spans="1:3">
-      <c r="A138" s="3"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="13" t="s">
+      <c r="A138" s="16"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" ht="16" customHeight="1" spans="1:3">
-      <c r="A139" s="3"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="13" t="s">
+      <c r="A139" s="16"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="12" t="s">
+      <c r="A140" s="16"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="7"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="4"/>
     </row>
     <row r="142" ht="15" spans="1:3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="21" t="s">
+      <c r="A142" s="16"/>
+      <c r="B142" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="143" ht="15" spans="1:3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="21"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="144" ht="9" customHeight="1" spans="1:3">
-      <c r="A144" s="16"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" ht="24.75" spans="1:3">
       <c r="A145" s="2" t="s">
@@ -4875,368 +5099,368 @@
       <c r="C145" s="2"/>
     </row>
     <row r="146" ht="16" customHeight="1" spans="1:3">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:3">
-      <c r="A147" s="3"/>
-      <c r="B147" s="7"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="4"/>
       <c r="C147" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="7"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="4"/>
       <c r="C148" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="149" ht="21" customHeight="1" spans="1:3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="7"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" spans="1:3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="8" t="s">
+      <c r="A150" s="16"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
-      <c r="A151" s="3"/>
-      <c r="B151" s="7"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="4"/>
       <c r="C151" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="152" ht="17" customHeight="1" spans="1:3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="7"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="4"/>
       <c r="C152" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:3">
-      <c r="A153" s="3"/>
-      <c r="B153" s="7"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="4"/>
       <c r="C153" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="154" ht="13" customHeight="1" spans="1:3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="4"/>
       <c r="C154" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="12" t="s">
+      <c r="A155" s="16"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
-      <c r="A156" s="3"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="12" t="s">
+      <c r="A156" s="16"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="157" ht="15.75" spans="1:3">
-      <c r="A157" s="3"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="13"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="21"/>
     </row>
     <row r="158" ht="15" spans="1:3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="7" t="s">
+      <c r="A158" s="16"/>
+      <c r="B158" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="7"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="4"/>
       <c r="C159" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="7"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="4"/>
       <c r="C160" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="3"/>
-      <c r="B161" s="7"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="4"/>
       <c r="C161" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="7"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="4"/>
       <c r="C162" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="7"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="4"/>
       <c r="C163" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="7"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="4"/>
       <c r="C164" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="13" t="s">
+      <c r="A165" s="16"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="1:1">
-      <c r="A166" s="3"/>
+      <c r="A166" s="16"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:3">
-      <c r="A167" s="3"/>
-      <c r="B167" s="7" t="s">
+      <c r="A167" s="16"/>
+      <c r="B167" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="4"/>
       <c r="C168" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="7"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="4"/>
       <c r="C169" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="170" ht="16" customHeight="1" spans="1:3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="13" t="s">
+      <c r="A170" s="16"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="1" spans="1:3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="13" t="s">
+      <c r="A171" s="16"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="172" ht="16" customHeight="1" spans="1:3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="7"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="4"/>
       <c r="C172" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="173" ht="16" customHeight="1" spans="1:3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="12" t="s">
+      <c r="A173" s="16"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="1" spans="1:3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="12"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" ht="16" customHeight="1" spans="1:3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="7" t="s">
+      <c r="A175" s="16"/>
+      <c r="B175" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="176" ht="16" customHeight="1" spans="1:3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="7"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="4"/>
       <c r="C176" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" ht="16" customHeight="1" spans="1:3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="7"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="4"/>
       <c r="C177" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" ht="16" customHeight="1" spans="1:3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="13" t="s">
+      <c r="A178" s="16"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="21" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="1" spans="1:3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="13" t="s">
+      <c r="A179" s="16"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="180" ht="16" customHeight="1" spans="1:3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="7"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="4"/>
       <c r="C180" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="181" ht="16" customHeight="1" spans="1:3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="13" t="s">
+      <c r="A181" s="16"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="182" ht="16" customHeight="1" spans="1:3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="13" t="s">
+      <c r="A182" s="16"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
-      <c r="A183" s="3"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="12" t="s">
+      <c r="A183" s="16"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" customFormat="1" ht="15" spans="1:3">
-      <c r="A184" s="3"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="12" t="s">
+      <c r="A184" s="16"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="1" ht="15" spans="1:3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="12" t="s">
+      <c r="A185" s="16"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A186" s="3"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="12"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" customFormat="1" ht="15" spans="1:3">
-      <c r="A187" s="3"/>
-      <c r="B187" s="7" t="s">
+      <c r="A187" s="16"/>
+      <c r="B187" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="188" customFormat="1" spans="1:3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="7"/>
+      <c r="A188" s="16"/>
+      <c r="B188" s="4"/>
       <c r="C188" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:3">
-      <c r="A189" s="3"/>
-      <c r="B189" s="7"/>
+      <c r="A189" s="16"/>
+      <c r="B189" s="4"/>
       <c r="C189" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
-      <c r="A190" s="3"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="13" t="s">
+      <c r="A190" s="16"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="21" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="13" t="s">
+      <c r="A191" s="16"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="21" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="192" customFormat="1" spans="1:3">
-      <c r="A192" s="3"/>
-      <c r="B192" s="7"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="4"/>
       <c r="C192" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="193" customFormat="1" ht="15" spans="1:3">
-      <c r="A193" s="3"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="12" t="s">
+      <c r="A193" s="16"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="194" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="12"/>
+      <c r="A194" s="16"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" ht="15" spans="1:3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="21" t="s">
+      <c r="A195" s="16"/>
+      <c r="B195" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
-      <c r="A196" s="3"/>
-      <c r="B196" s="21"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="26"/>
       <c r="C196" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="197" ht="9" customHeight="1" spans="1:3">
-      <c r="A197" s="16"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" ht="24.75" spans="1:3">
       <c r="A198" s="2" t="s">
@@ -5246,241 +5470,241 @@
       <c r="C198" s="2"/>
     </row>
     <row r="199" ht="15.75" spans="1:3">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" ht="15.75" spans="1:3">
-      <c r="A200" s="3"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="5"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="18"/>
     </row>
     <row r="201" ht="16" customHeight="1" spans="1:3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="7" t="s">
+      <c r="A201" s="16"/>
+      <c r="B201" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:3">
-      <c r="A202" s="3"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="12" t="s">
+      <c r="A202" s="16"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
-      <c r="A203" s="3"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="12" t="s">
+      <c r="A203" s="16"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1" spans="1:3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="12" t="s">
+      <c r="A204" s="16"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="12" t="s">
+      <c r="A205" s="16"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
-      <c r="A206" s="3"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="12" t="s">
+      <c r="A206" s="16"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="12" t="s">
+      <c r="A207" s="16"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="13"/>
+      <c r="A208" s="16"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="21"/>
     </row>
     <row r="209" ht="15" spans="1:3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="22" t="s">
+      <c r="A209" s="16"/>
+      <c r="B209" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="22"/>
-      <c r="C210" s="12" t="s">
+      <c r="A210" s="16"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" ht="15" spans="1:3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="22"/>
-      <c r="C211" s="12" t="s">
+      <c r="A211" s="16"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="12" t="s">
+      <c r="A212" s="16"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" ht="15" spans="1:3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="12" t="s">
+      <c r="A213" s="16"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="214" ht="15" spans="1:3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="12" t="s">
+      <c r="A214" s="16"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="215" ht="15" spans="1:3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="22"/>
-      <c r="C215" s="12" t="s">
+      <c r="A215" s="16"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="216" ht="15" spans="1:3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="22"/>
-      <c r="C216" s="12" t="s">
+      <c r="A216" s="16"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="217" customFormat="1" spans="1:1">
-      <c r="A217" s="3"/>
+      <c r="A217" s="16"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="7" t="s">
+      <c r="A218" s="16"/>
+      <c r="B218" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C218" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="16"/>
+      <c r="B219" s="4"/>
       <c r="C219" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:3">
-      <c r="A220" s="3"/>
-      <c r="B220" s="7"/>
+      <c r="A220" s="16"/>
+      <c r="B220" s="4"/>
       <c r="C220" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" ht="16" customHeight="1" spans="1:3">
-      <c r="A221" s="3"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="13" t="s">
+      <c r="A221" s="16"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="21" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" ht="16" customHeight="1" spans="1:3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="13" t="s">
+      <c r="A222" s="16"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="223" ht="16" customHeight="1" spans="1:3">
-      <c r="A223" s="3"/>
-      <c r="B223" s="7"/>
+      <c r="A223" s="16"/>
+      <c r="B223" s="4"/>
       <c r="C223" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="224" ht="16" customHeight="1" spans="1:3">
-      <c r="A224" s="3"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="12" t="s">
+      <c r="A224" s="16"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" ht="16" customHeight="1" spans="1:3">
-      <c r="A225" s="3"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="13" t="s">
+      <c r="A225" s="16"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" ht="16" customHeight="1" spans="1:3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="12" t="s">
+      <c r="A226" s="16"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" ht="16" customHeight="1" spans="1:3">
-      <c r="A227" s="3"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="12" t="s">
+      <c r="A227" s="16"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="228" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A228" s="3"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="12"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="11"/>
     </row>
     <row r="229" ht="15" spans="1:3">
-      <c r="A229" s="3"/>
-      <c r="B229" s="21" t="s">
+      <c r="A229" s="16"/>
+      <c r="B229" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="C229" s="23" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="230" ht="15" spans="1:3">
-      <c r="A230" s="3"/>
-      <c r="B230" s="21"/>
+      <c r="A230" s="16"/>
+      <c r="B230" s="26"/>
       <c r="C230" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
-      <c r="A231" s="3"/>
-      <c r="B231" s="21"/>
+      <c r="A231" s="16"/>
+      <c r="B231" s="26"/>
       <c r="C231" s="10"/>
     </row>
     <row r="232" ht="14" customHeight="1" spans="1:3">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C232" s="10" t="s">
@@ -5488,154 +5712,154 @@
       </c>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:3">
-      <c r="A233" s="3"/>
-      <c r="B233" s="7"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="4"/>
       <c r="C233" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" ht="19" customHeight="1" spans="1:3">
-      <c r="A234" s="3"/>
-      <c r="B234" s="7"/>
+      <c r="A234" s="16"/>
+      <c r="B234" s="4"/>
       <c r="C234" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:3">
-      <c r="A235" s="3"/>
-      <c r="B235" s="7"/>
+      <c r="A235" s="16"/>
+      <c r="B235" s="4"/>
       <c r="C235" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" ht="17" customHeight="1" spans="1:3">
-      <c r="A236" s="3"/>
-      <c r="B236" s="7"/>
+      <c r="A236" s="16"/>
+      <c r="B236" s="4"/>
       <c r="C236" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="237" ht="9" customHeight="1" spans="1:3">
-      <c r="A237" s="3"/>
-      <c r="B237" s="23"/>
-      <c r="C237" s="12"/>
+      <c r="A237" s="16"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1" spans="1:3">
-      <c r="A238" s="3"/>
-      <c r="B238" s="7" t="s">
+      <c r="A238" s="16"/>
+      <c r="B238" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="239" ht="13" customHeight="1" spans="1:3">
-      <c r="A239" s="3"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="12" t="s">
+      <c r="A239" s="16"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:3">
-      <c r="A240" s="3"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="12" t="s">
+      <c r="A240" s="16"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:3">
-      <c r="A241" s="3"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="12" t="s">
+      <c r="A241" s="16"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
-      <c r="A242" s="3"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="12" t="s">
+      <c r="A242" s="16"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" ht="15" spans="1:3">
-      <c r="A243" s="3"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="12" t="s">
+      <c r="A243" s="16"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="3"/>
+      <c r="A244" s="16"/>
     </row>
     <row r="245" ht="15" spans="1:3">
-      <c r="A245" s="3"/>
-      <c r="B245" s="7" t="s">
+      <c r="A245" s="16"/>
+      <c r="B245" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="C245" s="11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="246" ht="15" spans="1:3">
-      <c r="A246" s="3"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="12" t="s">
+      <c r="A246" s="16"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" ht="15" spans="1:3">
-      <c r="A247" s="3"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="12" t="s">
+      <c r="A247" s="16"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
-      <c r="A248" s="3"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="12" t="s">
+      <c r="A248" s="16"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="11" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="249" ht="15" spans="1:3">
-      <c r="A249" s="3"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="12" t="s">
+      <c r="A249" s="16"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
-      <c r="A250" s="3"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="12" t="s">
+      <c r="A250" s="16"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:3">
-      <c r="A251" s="3"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="16"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252" ht="15" spans="1:3">
-      <c r="A252" s="3"/>
-      <c r="B252" s="21" t="s">
+      <c r="A252" s="16"/>
+      <c r="B252" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="253" ht="15" spans="1:3">
-      <c r="A253" s="3"/>
-      <c r="B253" s="21"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="254" ht="10" customHeight="1" spans="1:3">
-      <c r="A254" s="16"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
+      <c r="A254" s="12"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
     </row>
     <row r="255" ht="24.75" spans="1:3">
       <c r="A255" s="2" t="s">
@@ -5645,19 +5869,19 @@
       <c r="C255" s="2"/>
     </row>
     <row r="256" ht="15.75" spans="1:3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="257" ht="15" spans="1:3">
-      <c r="A257" s="3"/>
-      <c r="B257" s="7" t="s">
+      <c r="A257" s="16"/>
+      <c r="B257" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="10" t="s">
@@ -5665,81 +5889,81 @@
       </c>
     </row>
     <row r="258" ht="15" spans="1:3">
-      <c r="A258" s="3"/>
-      <c r="B258" s="7"/>
+      <c r="A258" s="16"/>
+      <c r="B258" s="4"/>
       <c r="C258" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="259" ht="15" spans="1:3">
-      <c r="A259" s="3"/>
-      <c r="B259" s="7"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="4"/>
       <c r="C259" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
-      <c r="A260" s="3"/>
-      <c r="B260" s="7"/>
+      <c r="A260" s="16"/>
+      <c r="B260" s="4"/>
       <c r="C260" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="261" ht="15" spans="1:3">
-      <c r="A261" s="3"/>
-      <c r="B261" s="7"/>
+      <c r="A261" s="16"/>
+      <c r="B261" s="4"/>
       <c r="C261" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="262" ht="15" spans="1:3">
-      <c r="A262" s="3"/>
-      <c r="B262" s="7"/>
+      <c r="A262" s="16"/>
+      <c r="B262" s="4"/>
       <c r="C262" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="263" ht="15" spans="1:3">
-      <c r="A263" s="3"/>
-      <c r="B263" s="7"/>
+      <c r="A263" s="16"/>
+      <c r="B263" s="4"/>
       <c r="C263" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="264" ht="20" customHeight="1" spans="1:3">
-      <c r="A264" s="3"/>
-      <c r="B264" s="7"/>
+      <c r="A264" s="16"/>
+      <c r="B264" s="4"/>
       <c r="C264" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="265" ht="21" customHeight="1" spans="1:3">
-      <c r="A265" s="3"/>
-      <c r="B265" s="7"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="4"/>
       <c r="C265" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:3">
-      <c r="A266" s="3"/>
-      <c r="B266" s="7"/>
+      <c r="A266" s="16"/>
+      <c r="B266" s="4"/>
       <c r="C266" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="267" ht="15" customHeight="1" spans="1:3">
-      <c r="A267" s="3"/>
-      <c r="B267" s="7"/>
+      <c r="A267" s="16"/>
+      <c r="B267" s="4"/>
       <c r="C267" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="3"/>
+      <c r="A268" s="16"/>
     </row>
     <row r="269" ht="15" spans="1:3">
-      <c r="A269" s="3"/>
-      <c r="B269" s="7" t="s">
+      <c r="A269" s="16"/>
+      <c r="B269" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C269" s="10" t="s">
@@ -5747,53 +5971,53 @@
       </c>
     </row>
     <row r="270" ht="15" spans="1:3">
-      <c r="A270" s="3"/>
-      <c r="B270" s="7"/>
+      <c r="A270" s="16"/>
+      <c r="B270" s="4"/>
       <c r="C270" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="271" ht="15" spans="1:3">
-      <c r="A271" s="3"/>
-      <c r="B271" s="7"/>
+      <c r="A271" s="16"/>
+      <c r="B271" s="4"/>
       <c r="C271" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="272" ht="15" spans="1:3">
-      <c r="A272" s="3"/>
-      <c r="B272" s="7"/>
+      <c r="A272" s="16"/>
+      <c r="B272" s="4"/>
       <c r="C272" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="273" ht="15" spans="1:3">
-      <c r="A273" s="3"/>
-      <c r="B273" s="7"/>
+      <c r="A273" s="16"/>
+      <c r="B273" s="4"/>
       <c r="C273" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
-      <c r="A274" s="3"/>
-      <c r="B274" s="7"/>
+      <c r="A274" s="16"/>
+      <c r="B274" s="4"/>
       <c r="C274" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="275" ht="15" spans="1:3">
-      <c r="A275" s="3"/>
-      <c r="B275" s="7"/>
+      <c r="A275" s="16"/>
+      <c r="B275" s="4"/>
       <c r="C275" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="3"/>
+      <c r="A276" s="16"/>
     </row>
     <row r="277" ht="15" spans="1:3">
-      <c r="A277" s="3"/>
-      <c r="B277" s="7" t="s">
+      <c r="A277" s="16"/>
+      <c r="B277" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="10" t="s">
@@ -5801,53 +6025,53 @@
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
-      <c r="A278" s="3"/>
-      <c r="B278" s="7"/>
+      <c r="A278" s="16"/>
+      <c r="B278" s="4"/>
       <c r="C278" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:3">
-      <c r="A279" s="3"/>
-      <c r="B279" s="7"/>
+      <c r="A279" s="16"/>
+      <c r="B279" s="4"/>
       <c r="C279" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
-      <c r="A280" s="3"/>
-      <c r="B280" s="7"/>
+      <c r="A280" s="16"/>
+      <c r="B280" s="4"/>
       <c r="C280" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="281" ht="15" spans="1:3">
-      <c r="A281" s="3"/>
-      <c r="B281" s="7"/>
+      <c r="A281" s="16"/>
+      <c r="B281" s="4"/>
       <c r="C281" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
-      <c r="A282" s="3"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="16"/>
+      <c r="B282" s="4"/>
       <c r="C282" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="283" ht="15" spans="1:3">
-      <c r="A283" s="3"/>
-      <c r="B283" s="7"/>
+      <c r="A283" s="16"/>
+      <c r="B283" s="4"/>
       <c r="C283" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="3"/>
+      <c r="A284" s="16"/>
     </row>
     <row r="285" ht="15" spans="1:3">
-      <c r="A285" s="3"/>
-      <c r="B285" s="7" t="s">
+      <c r="A285" s="16"/>
+      <c r="B285" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C285" s="10" t="s">
@@ -5855,74 +6079,74 @@
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
-      <c r="A286" s="3"/>
-      <c r="B286" s="7"/>
+      <c r="A286" s="16"/>
+      <c r="B286" s="4"/>
       <c r="C286" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:3">
-      <c r="A287" s="3"/>
-      <c r="B287" s="7"/>
+      <c r="A287" s="16"/>
+      <c r="B287" s="4"/>
       <c r="C287" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
-      <c r="A288" s="3"/>
-      <c r="B288" s="7"/>
+      <c r="A288" s="16"/>
+      <c r="B288" s="4"/>
       <c r="C288" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:3">
-      <c r="A289" s="3"/>
-      <c r="B289" s="7"/>
+      <c r="A289" s="16"/>
+      <c r="B289" s="4"/>
       <c r="C289" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
-      <c r="A290" s="3"/>
-      <c r="B290" s="7"/>
+      <c r="A290" s="16"/>
+      <c r="B290" s="4"/>
       <c r="C290" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:3">
-      <c r="A291" s="3"/>
-      <c r="B291" s="7"/>
+      <c r="A291" s="16"/>
+      <c r="B291" s="4"/>
       <c r="C291" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
-      <c r="A292" s="3"/>
-      <c r="B292" s="7"/>
+      <c r="A292" s="16"/>
+      <c r="B292" s="4"/>
       <c r="C292" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:3">
-      <c r="A293" s="3"/>
-      <c r="B293" s="7"/>
+      <c r="A293" s="16"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
-      <c r="A294" s="3"/>
-      <c r="B294" s="7"/>
+      <c r="A294" s="16"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="3"/>
+      <c r="A295" s="16"/>
     </row>
     <row r="296" ht="15" spans="1:3">
-      <c r="A296" s="3"/>
-      <c r="B296" s="7" t="s">
+      <c r="A296" s="16"/>
+      <c r="B296" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C296" s="10" t="s">
@@ -5930,70 +6154,70 @@
       </c>
     </row>
     <row r="297" ht="15" spans="1:3">
-      <c r="A297" s="3"/>
-      <c r="B297" s="7"/>
+      <c r="A297" s="16"/>
+      <c r="B297" s="4"/>
       <c r="C297" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
-      <c r="A298" s="3"/>
-      <c r="B298" s="7"/>
+      <c r="A298" s="16"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:3">
-      <c r="A299" s="3"/>
-      <c r="B299" s="7"/>
+      <c r="A299" s="16"/>
+      <c r="B299" s="4"/>
       <c r="C299" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="3"/>
+      <c r="A300" s="16"/>
     </row>
     <row r="301" ht="15" spans="1:3">
-      <c r="A301" s="3"/>
-      <c r="B301" s="21" t="s">
+      <c r="A301" s="16"/>
+      <c r="B301" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C301" s="23" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="3"/>
-      <c r="B302" s="21"/>
+      <c r="A302" s="16"/>
+      <c r="B302" s="26"/>
       <c r="C302" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="303" ht="15" customHeight="1" spans="1:3">
-      <c r="A303" s="3"/>
-      <c r="B303" s="21"/>
+      <c r="A303" s="16"/>
+      <c r="B303" s="26"/>
       <c r="C303" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" ht="12" customHeight="1" spans="1:3">
-      <c r="A304" s="3"/>
-      <c r="B304" s="21"/>
+      <c r="A304" s="16"/>
+      <c r="B304" s="26"/>
       <c r="C304" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:3">
-      <c r="A305" s="3"/>
-      <c r="B305" s="21"/>
+      <c r="A305" s="16"/>
+      <c r="B305" s="26"/>
       <c r="C305" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="306" ht="9" customHeight="1" spans="1:3">
-      <c r="A306" s="16"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
+      <c r="A306" s="12"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
     </row>
     <row r="307" ht="24.75" spans="1:3">
       <c r="A307" s="2" t="s">
@@ -6003,24 +6227,24 @@
       <c r="C307" s="2"/>
     </row>
     <row r="308" ht="15.75" spans="1:3">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C308" s="5" t="s">
+      <c r="C308" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="309" ht="15.75" spans="1:3">
-      <c r="A309" s="3"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="5"/>
+      <c r="A309" s="16"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="18"/>
     </row>
     <row r="310" ht="15" spans="1:3">
-      <c r="A310" s="3"/>
-      <c r="B310" s="7" t="s">
+      <c r="A310" s="16"/>
+      <c r="B310" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C310" s="10" t="s">
@@ -6028,32 +6252,32 @@
       </c>
     </row>
     <row r="311" ht="15" spans="1:3">
-      <c r="A311" s="3"/>
-      <c r="B311" s="7"/>
+      <c r="A311" s="16"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
-      <c r="A312" s="3"/>
-      <c r="B312" s="7"/>
+      <c r="A312" s="16"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:3">
-      <c r="A313" s="3"/>
-      <c r="B313" s="7"/>
+      <c r="A313" s="16"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:1">
-      <c r="A314" s="3"/>
+      <c r="A314" s="16"/>
     </row>
     <row r="315" ht="15" spans="1:3">
-      <c r="A315" s="3"/>
-      <c r="B315" s="7" t="s">
+      <c r="A315" s="16"/>
+      <c r="B315" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C315" s="10" t="s">
@@ -6061,88 +6285,88 @@
       </c>
     </row>
     <row r="316" ht="15" spans="1:3">
-      <c r="A316" s="3"/>
-      <c r="B316" s="7"/>
+      <c r="A316" s="16"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:3">
-      <c r="A317" s="3"/>
-      <c r="B317" s="7"/>
+      <c r="A317" s="16"/>
+      <c r="B317" s="4"/>
       <c r="C317" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
-      <c r="A318" s="3"/>
-      <c r="B318" s="7"/>
+      <c r="A318" s="16"/>
+      <c r="B318" s="4"/>
       <c r="C318" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A319" s="3"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="16"/>
+      <c r="B319" s="4"/>
       <c r="C319" s="10"/>
     </row>
     <row r="320" customFormat="1" ht="15" spans="1:3">
-      <c r="A320" s="3"/>
-      <c r="B320" s="7" t="s">
+      <c r="A320" s="16"/>
+      <c r="B320" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C320" s="11" t="s">
+      <c r="C320" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="321" customFormat="1" ht="15" spans="1:3">
-      <c r="A321" s="3"/>
-      <c r="B321" s="7"/>
-      <c r="C321" s="11" t="s">
+      <c r="A321" s="16"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="322" customFormat="1" ht="15" spans="1:3">
-      <c r="A322" s="3"/>
-      <c r="B322" s="7"/>
-      <c r="C322" s="11" t="s">
+      <c r="A322" s="16"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" customFormat="1" ht="15" spans="1:3">
-      <c r="A323" s="3"/>
-      <c r="B323" s="7"/>
-      <c r="C323" s="11" t="s">
+      <c r="A323" s="16"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="324" customFormat="1" ht="15" spans="1:3">
-      <c r="A324" s="3"/>
-      <c r="B324" s="7"/>
-      <c r="C324" s="11" t="s">
+      <c r="A324" s="16"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="325" customFormat="1" ht="15" spans="1:3">
-      <c r="A325" s="3"/>
-      <c r="B325" s="7"/>
-      <c r="C325" s="11" t="s">
+      <c r="A325" s="16"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="326" customFormat="1" ht="15" spans="1:3">
-      <c r="A326" s="3"/>
-      <c r="B326" s="7"/>
-      <c r="C326" s="11" t="s">
+      <c r="A326" s="16"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:1">
-      <c r="A327" s="3"/>
+      <c r="A327" s="16"/>
     </row>
     <row r="328" ht="15" spans="1:3">
-      <c r="A328" s="3"/>
-      <c r="B328" s="7" t="s">
+      <c r="A328" s="16"/>
+      <c r="B328" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C328" s="10" t="s">
@@ -6150,56 +6374,56 @@
       </c>
     </row>
     <row r="329" ht="15" spans="1:3">
-      <c r="A329" s="3"/>
-      <c r="B329" s="7"/>
+      <c r="A329" s="16"/>
+      <c r="B329" s="4"/>
       <c r="C329" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
-      <c r="A330" s="3"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="16"/>
+      <c r="B330" s="4"/>
       <c r="C330" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:3">
-      <c r="A331" s="3"/>
-      <c r="B331" s="7"/>
+      <c r="A331" s="16"/>
+      <c r="B331" s="4"/>
       <c r="C331" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="332" customFormat="1" spans="1:1">
-      <c r="A332" s="3"/>
+      <c r="A332" s="16"/>
     </row>
     <row r="333" ht="15" spans="1:3">
-      <c r="A333" s="3"/>
-      <c r="B333" s="21" t="s">
+      <c r="A333" s="16"/>
+      <c r="B333" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="15" t="s">
+      <c r="C333" s="23" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="3"/>
-      <c r="B334" s="21"/>
+      <c r="A334" s="16"/>
+      <c r="B334" s="26"/>
       <c r="C334" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="3"/>
-      <c r="B335" s="21"/>
+      <c r="A335" s="16"/>
+      <c r="B335" s="26"/>
       <c r="C335" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="336" ht="9" customHeight="1" spans="1:3">
-      <c r="A336" s="16"/>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="A336" s="12"/>
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
     </row>
     <row r="337" ht="24.75" spans="1:3">
       <c r="A337" s="2" t="s">
@@ -6209,451 +6433,451 @@
       <c r="C337" s="2"/>
     </row>
     <row r="338" ht="15" spans="1:3">
-      <c r="A338" s="24" t="s">
+      <c r="A338" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="B338" s="22" t="s">
+      <c r="B338" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="C338" s="12" t="s">
+      <c r="C338" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="24"/>
-      <c r="B339" s="22"/>
+      <c r="A339" s="29"/>
+      <c r="B339" s="27"/>
       <c r="C339" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:3">
-      <c r="A340" s="24"/>
-      <c r="B340" s="22"/>
-      <c r="C340" s="12" t="s">
+      <c r="A340" s="29"/>
+      <c r="B340" s="27"/>
+      <c r="C340" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="341" ht="15" spans="1:3">
-      <c r="A341" s="24"/>
-      <c r="B341" s="22"/>
-      <c r="C341" s="12" t="s">
+      <c r="A341" s="29"/>
+      <c r="B341" s="27"/>
+      <c r="C341" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
-      <c r="A342" s="24"/>
-      <c r="B342" s="22"/>
-      <c r="C342" s="12" t="s">
+      <c r="A342" s="29"/>
+      <c r="B342" s="27"/>
+      <c r="C342" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:3">
-      <c r="A343" s="24"/>
-      <c r="B343" s="22"/>
-      <c r="C343" s="12" t="s">
+      <c r="A343" s="29"/>
+      <c r="B343" s="27"/>
+      <c r="C343" s="11" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
-      <c r="A344" s="24"/>
-      <c r="B344" s="22"/>
-      <c r="C344" s="12" t="s">
+      <c r="A344" s="29"/>
+      <c r="B344" s="27"/>
+      <c r="C344" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:3">
-      <c r="A345" s="24"/>
-      <c r="B345" s="22"/>
-      <c r="C345" s="12" t="s">
+      <c r="A345" s="29"/>
+      <c r="B345" s="27"/>
+      <c r="C345" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
-      <c r="A346" s="24"/>
-      <c r="B346" s="22"/>
-      <c r="C346" s="12" t="s">
+      <c r="A346" s="29"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:3">
-      <c r="A347" s="24"/>
-      <c r="B347" s="22"/>
-      <c r="C347" s="12" t="s">
+      <c r="A347" s="29"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="11" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
-      <c r="A348" s="24"/>
-      <c r="B348" s="22"/>
-      <c r="C348" s="12" t="s">
+      <c r="A348" s="29"/>
+      <c r="B348" s="27"/>
+      <c r="C348" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:3">
-      <c r="A349" s="24"/>
-      <c r="B349" s="22"/>
-      <c r="C349" s="12" t="s">
+      <c r="A349" s="29"/>
+      <c r="B349" s="27"/>
+      <c r="C349" s="11" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
-      <c r="A350" s="24"/>
-      <c r="B350" s="22"/>
-      <c r="C350" s="12" t="s">
+      <c r="A350" s="29"/>
+      <c r="B350" s="27"/>
+      <c r="C350" s="11" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:3">
-      <c r="A351" s="24"/>
-      <c r="B351" s="22"/>
-      <c r="C351" s="12" t="s">
+      <c r="A351" s="29"/>
+      <c r="B351" s="27"/>
+      <c r="C351" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="24"/>
-      <c r="B352" s="22"/>
+      <c r="A352" s="29"/>
+      <c r="B352" s="27"/>
       <c r="C352" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="24"/>
-      <c r="B353" s="22"/>
+      <c r="A353" s="29"/>
+      <c r="B353" s="27"/>
       <c r="C353" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="24"/>
-      <c r="B354" s="22"/>
+      <c r="A354" s="29"/>
+      <c r="B354" s="27"/>
       <c r="C354" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="355" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A355" s="24"/>
-      <c r="B355" s="22"/>
+      <c r="A355" s="29"/>
+      <c r="B355" s="27"/>
     </row>
     <row r="356" ht="15" spans="1:3">
-      <c r="A356" s="24"/>
-      <c r="B356" s="21" t="s">
+      <c r="A356" s="29"/>
+      <c r="B356" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C356" s="15" t="s">
+      <c r="C356" s="23" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="24"/>
-      <c r="B357" s="21"/>
+      <c r="A357" s="29"/>
+      <c r="B357" s="26"/>
       <c r="C357" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="359" ht="15" spans="1:3">
-      <c r="A359" s="24" t="s">
+      <c r="A359" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="B359" s="22" t="s">
+      <c r="B359" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C359" s="12" t="s">
+      <c r="C359" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="24"/>
-      <c r="B360" s="22"/>
+      <c r="A360" s="29"/>
+      <c r="B360" s="27"/>
       <c r="C360" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="361" ht="15" spans="1:3">
-      <c r="A361" s="24"/>
-      <c r="B361" s="22"/>
-      <c r="C361" s="12" t="s">
+      <c r="A361" s="29"/>
+      <c r="B361" s="27"/>
+      <c r="C361" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
-      <c r="A362" s="24"/>
-      <c r="B362" s="22"/>
-      <c r="C362" s="12" t="s">
+      <c r="A362" s="29"/>
+      <c r="B362" s="27"/>
+      <c r="C362" s="11" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:3">
-      <c r="A363" s="24"/>
-      <c r="B363" s="22"/>
-      <c r="C363" s="12" t="s">
+      <c r="A363" s="29"/>
+      <c r="B363" s="27"/>
+      <c r="C363" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
-      <c r="A364" s="24"/>
-      <c r="B364" s="22"/>
-      <c r="C364" s="12" t="s">
+      <c r="A364" s="29"/>
+      <c r="B364" s="27"/>
+      <c r="C364" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="24"/>
-      <c r="B365" s="22"/>
+      <c r="A365" s="29"/>
+      <c r="B365" s="27"/>
       <c r="C365" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="366" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A366" s="24"/>
-      <c r="B366" s="22"/>
+      <c r="A366" s="29"/>
+      <c r="B366" s="27"/>
     </row>
     <row r="367" ht="15" spans="1:3">
-      <c r="A367" s="24"/>
-      <c r="B367" s="21" t="s">
+      <c r="A367" s="29"/>
+      <c r="B367" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C367" s="15" t="s">
+      <c r="C367" s="23" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="24"/>
-      <c r="B368" s="21"/>
+      <c r="A368" s="29"/>
+      <c r="B368" s="26"/>
       <c r="C368" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:3">
-      <c r="A370" s="25" t="s">
+      <c r="A370" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="26" t="s">
+      <c r="B370" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C370" s="12" t="s">
+      <c r="C370" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="371" ht="15" spans="1:3">
-      <c r="A371" s="27"/>
-      <c r="B371" s="26"/>
-      <c r="C371" s="12" t="s">
+      <c r="A371" s="32"/>
+      <c r="B371" s="31"/>
+      <c r="C371" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
-      <c r="A372" s="27"/>
-      <c r="B372" s="26"/>
-      <c r="C372" s="12" t="s">
+      <c r="A372" s="32"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="373" ht="15" spans="1:3">
-      <c r="A373" s="27"/>
-      <c r="B373" s="26"/>
-      <c r="C373" s="12" t="s">
+      <c r="A373" s="32"/>
+      <c r="B373" s="31"/>
+      <c r="C373" s="11" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
-      <c r="A374" s="27"/>
-      <c r="B374" s="26"/>
-      <c r="C374" s="12" t="s">
+      <c r="A374" s="32"/>
+      <c r="B374" s="31"/>
+      <c r="C374" s="11" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="375" ht="15" spans="1:3">
-      <c r="A375" s="27"/>
-      <c r="B375" s="26"/>
-      <c r="C375" s="28" t="s">
+      <c r="A375" s="32"/>
+      <c r="B375" s="31"/>
+      <c r="C375" s="33" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:3">
-      <c r="A376" s="27"/>
-      <c r="B376" s="26"/>
-      <c r="C376" s="12" t="s">
+      <c r="A376" s="32"/>
+      <c r="B376" s="31"/>
+      <c r="C376" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="377" ht="15" spans="1:3">
-      <c r="A377" s="27"/>
-      <c r="B377" s="26"/>
-      <c r="C377" s="28" t="s">
+      <c r="A377" s="32"/>
+      <c r="B377" s="31"/>
+      <c r="C377" s="33" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:3">
-      <c r="A378" s="27"/>
-      <c r="B378" s="26"/>
-      <c r="C378" s="12" t="s">
+      <c r="A378" s="32"/>
+      <c r="B378" s="31"/>
+      <c r="C378" s="11" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="379" ht="15" spans="1:3">
-      <c r="A379" s="27"/>
-      <c r="B379" s="26"/>
-      <c r="C379" s="28" t="s">
+      <c r="A379" s="32"/>
+      <c r="B379" s="31"/>
+      <c r="C379" s="33" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:3">
-      <c r="A380" s="27"/>
-      <c r="B380" s="26"/>
-      <c r="C380" s="12" t="s">
+      <c r="A380" s="32"/>
+      <c r="B380" s="31"/>
+      <c r="C380" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="381" ht="15" spans="1:3">
-      <c r="A381" s="27"/>
-      <c r="B381" s="26"/>
-      <c r="C381" s="28" t="s">
+      <c r="A381" s="32"/>
+      <c r="B381" s="31"/>
+      <c r="C381" s="33" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:3">
-      <c r="A382" s="27"/>
-      <c r="B382" s="26"/>
-      <c r="C382" s="12" t="s">
+      <c r="A382" s="32"/>
+      <c r="B382" s="31"/>
+      <c r="C382" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="383" ht="15" spans="1:3">
-      <c r="A383" s="27"/>
-      <c r="B383" s="26"/>
-      <c r="C383" s="12" t="s">
+      <c r="A383" s="32"/>
+      <c r="B383" s="31"/>
+      <c r="C383" s="11" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
-      <c r="A384" s="27"/>
-      <c r="B384" s="26"/>
-      <c r="C384" s="12" t="s">
+      <c r="A384" s="32"/>
+      <c r="B384" s="31"/>
+      <c r="C384" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="385" ht="15" spans="1:3">
-      <c r="A385" s="27"/>
-      <c r="B385" s="26"/>
-      <c r="C385" s="12" t="s">
+      <c r="A385" s="32"/>
+      <c r="B385" s="31"/>
+      <c r="C385" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
-      <c r="A386" s="27"/>
-      <c r="B386" s="26"/>
-      <c r="C386" s="12" t="s">
+      <c r="A386" s="32"/>
+      <c r="B386" s="31"/>
+      <c r="C386" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="387" ht="15" spans="1:3">
-      <c r="A387" s="27"/>
-      <c r="B387" s="26"/>
-      <c r="C387" s="12" t="s">
+      <c r="A387" s="32"/>
+      <c r="B387" s="31"/>
+      <c r="C387" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
-      <c r="A388" s="27"/>
-      <c r="B388" s="26"/>
-      <c r="C388" s="12" t="s">
+      <c r="A388" s="32"/>
+      <c r="B388" s="31"/>
+      <c r="C388" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:3">
-      <c r="A389" s="27"/>
-      <c r="B389" s="26"/>
-      <c r="C389" s="12" t="s">
+      <c r="A389" s="32"/>
+      <c r="B389" s="31"/>
+      <c r="C389" s="11" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="27"/>
-      <c r="B390" s="26"/>
+      <c r="A390" s="32"/>
+      <c r="B390" s="31"/>
       <c r="C390" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="27"/>
-      <c r="B391" s="26"/>
+      <c r="A391" s="32"/>
+      <c r="B391" s="31"/>
       <c r="C391" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="27"/>
-      <c r="B392" s="26"/>
+      <c r="A392" s="32"/>
+      <c r="B392" s="31"/>
       <c r="C392" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="27"/>
-      <c r="B393" s="26"/>
+      <c r="A393" s="32"/>
+      <c r="B393" s="31"/>
       <c r="C393" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="394" customFormat="1" spans="1:1">
-      <c r="A394" s="27"/>
+      <c r="A394" s="32"/>
     </row>
     <row r="395" ht="15" spans="1:3">
-      <c r="A395" s="27"/>
-      <c r="B395" s="21" t="s">
+      <c r="A395" s="32"/>
+      <c r="B395" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C395" s="15" t="s">
+      <c r="C395" s="23" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
-      <c r="A396" s="27"/>
-      <c r="B396" s="21"/>
+      <c r="A396" s="32"/>
+      <c r="B396" s="26"/>
       <c r="C396" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:3">
-      <c r="A397" s="27"/>
-      <c r="B397" s="21"/>
+      <c r="A397" s="32"/>
+      <c r="B397" s="26"/>
       <c r="C397" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
-      <c r="A398" s="27"/>
-      <c r="B398" s="21"/>
+      <c r="A398" s="32"/>
+      <c r="B398" s="26"/>
       <c r="C398" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:3">
-      <c r="A399" s="27"/>
-      <c r="B399" s="21"/>
+      <c r="A399" s="32"/>
+      <c r="B399" s="26"/>
       <c r="C399" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
-      <c r="A400" s="27"/>
-      <c r="B400" s="21"/>
+      <c r="A400" s="32"/>
+      <c r="B400" s="26"/>
       <c r="C400" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:3">
-      <c r="A401" s="27"/>
-      <c r="B401" s="21"/>
+      <c r="A401" s="32"/>
+      <c r="B401" s="26"/>
       <c r="C401" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="402" ht="9" customHeight="1" spans="1:3">
-      <c r="A402" s="16"/>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="A402" s="12"/>
+      <c r="B402" s="13"/>
+      <c r="C402" s="13"/>
     </row>
     <row r="403" ht="24.75" spans="1:3">
       <c r="A403" s="2" t="s">
@@ -6663,391 +6887,391 @@
       <c r="C403" s="2"/>
     </row>
     <row r="404" ht="15" spans="1:3">
-      <c r="A404" s="29" t="s">
+      <c r="A404" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="B404" s="26" t="s">
+      <c r="B404" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="C404" s="12" t="s">
+      <c r="C404" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="405" ht="15" spans="1:3">
-      <c r="A405" s="29"/>
-      <c r="B405" s="26"/>
-      <c r="C405" s="12" t="s">
+      <c r="A405" s="34"/>
+      <c r="B405" s="31"/>
+      <c r="C405" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
-      <c r="A406" s="29"/>
-      <c r="B406" s="26"/>
-      <c r="C406" s="12" t="s">
+      <c r="A406" s="34"/>
+      <c r="B406" s="31"/>
+      <c r="C406" s="11" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:3">
-      <c r="A407" s="29"/>
-      <c r="B407" s="26"/>
-      <c r="C407" s="12" t="s">
+      <c r="A407" s="34"/>
+      <c r="B407" s="31"/>
+      <c r="C407" s="11" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="408" ht="15" spans="1:3">
-      <c r="A408" s="29"/>
-      <c r="B408" s="26"/>
-      <c r="C408" s="12" t="s">
+      <c r="A408" s="34"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="11" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:3">
-      <c r="A409" s="29"/>
-      <c r="B409" s="26"/>
-      <c r="C409" s="12" t="s">
+      <c r="A409" s="34"/>
+      <c r="B409" s="31"/>
+      <c r="C409" s="11" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:3">
-      <c r="A410" s="29"/>
-      <c r="B410" s="26"/>
-      <c r="C410" s="12" t="s">
+      <c r="A410" s="34"/>
+      <c r="B410" s="31"/>
+      <c r="C410" s="11" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:3">
-      <c r="A411" s="29"/>
-      <c r="B411" s="26"/>
-      <c r="C411" s="12" t="s">
+      <c r="A411" s="34"/>
+      <c r="B411" s="31"/>
+      <c r="C411" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
-      <c r="A412" s="29"/>
-      <c r="B412" s="26"/>
-      <c r="C412" s="12" t="s">
+      <c r="A412" s="34"/>
+      <c r="B412" s="31"/>
+      <c r="C412" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:3">
-      <c r="A413" s="29"/>
-      <c r="B413" s="26"/>
-      <c r="C413" s="12" t="s">
+      <c r="A413" s="34"/>
+      <c r="B413" s="31"/>
+      <c r="C413" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
-      <c r="A414" s="29"/>
-      <c r="B414" s="26"/>
-      <c r="C414" s="12" t="s">
+      <c r="A414" s="34"/>
+      <c r="B414" s="31"/>
+      <c r="C414" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:3">
-      <c r="A415" s="29"/>
-      <c r="B415" s="26"/>
-      <c r="C415" s="12" t="s">
+      <c r="A415" s="34"/>
+      <c r="B415" s="31"/>
+      <c r="C415" s="11" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
-      <c r="A416" s="29"/>
-      <c r="B416" s="26"/>
-      <c r="C416" s="12" t="s">
+      <c r="A416" s="34"/>
+      <c r="B416" s="31"/>
+      <c r="C416" s="11" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:3">
-      <c r="A417" s="29"/>
-      <c r="B417" s="26"/>
-      <c r="C417" s="12" t="s">
+      <c r="A417" s="34"/>
+      <c r="B417" s="31"/>
+      <c r="C417" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
-      <c r="A418" s="29"/>
-      <c r="B418" s="26"/>
-      <c r="C418" s="12" t="s">
+      <c r="A418" s="34"/>
+      <c r="B418" s="31"/>
+      <c r="C418" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="419" ht="15" spans="1:3">
-      <c r="A419" s="29"/>
-      <c r="B419" s="26"/>
-      <c r="C419" s="12" t="s">
+      <c r="A419" s="34"/>
+      <c r="B419" s="31"/>
+      <c r="C419" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
-      <c r="A420" s="29"/>
-      <c r="B420" s="26"/>
-      <c r="C420" s="12" t="s">
+      <c r="A420" s="34"/>
+      <c r="B420" s="31"/>
+      <c r="C420" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="421" ht="15" spans="1:3">
-      <c r="A421" s="29"/>
-      <c r="B421" s="26"/>
-      <c r="C421" s="12" t="s">
+      <c r="A421" s="34"/>
+      <c r="B421" s="31"/>
+      <c r="C421" s="11" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="422" ht="18" spans="1:3">
-      <c r="A422" s="29"/>
-      <c r="B422" s="26"/>
-      <c r="C422" s="12"/>
+      <c r="A422" s="34"/>
+      <c r="B422" s="31"/>
+      <c r="C422" s="11"/>
     </row>
     <row r="423" ht="15" spans="1:3">
-      <c r="A423" s="29"/>
-      <c r="B423" s="26" t="s">
+      <c r="A423" s="34"/>
+      <c r="B423" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="C423" s="12" t="s">
+      <c r="C423" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
-      <c r="A424" s="29"/>
-      <c r="B424" s="26"/>
-      <c r="C424" s="12" t="s">
+      <c r="A424" s="34"/>
+      <c r="B424" s="31"/>
+      <c r="C424" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="425" ht="15" spans="1:3">
-      <c r="A425" s="29"/>
-      <c r="B425" s="26"/>
-      <c r="C425" s="12" t="s">
+      <c r="A425" s="34"/>
+      <c r="B425" s="31"/>
+      <c r="C425" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
-      <c r="A426" s="29"/>
-      <c r="B426" s="26"/>
-      <c r="C426" s="12" t="s">
+      <c r="A426" s="34"/>
+      <c r="B426" s="31"/>
+      <c r="C426" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="427" ht="15" spans="1:3">
-      <c r="A427" s="29"/>
-      <c r="B427" s="26"/>
-      <c r="C427" s="12" t="s">
+      <c r="A427" s="34"/>
+      <c r="B427" s="31"/>
+      <c r="C427" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
-      <c r="A428" s="29"/>
-      <c r="B428" s="26"/>
-      <c r="C428" s="12" t="s">
+      <c r="A428" s="34"/>
+      <c r="B428" s="31"/>
+      <c r="C428" s="11" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:3">
-      <c r="A429" s="29"/>
-      <c r="B429" s="26"/>
-      <c r="C429" s="12" t="s">
+      <c r="A429" s="34"/>
+      <c r="B429" s="31"/>
+      <c r="C429" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
-      <c r="A430" s="29"/>
-      <c r="B430" s="26"/>
-      <c r="C430" s="12" t="s">
+      <c r="A430" s="34"/>
+      <c r="B430" s="31"/>
+      <c r="C430" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:3">
-      <c r="A431" s="29"/>
-      <c r="B431" s="26"/>
-      <c r="C431" s="12" t="s">
+      <c r="A431" s="34"/>
+      <c r="B431" s="31"/>
+      <c r="C431" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
-      <c r="A432" s="29"/>
-      <c r="B432" s="26"/>
-      <c r="C432" s="12" t="s">
+      <c r="A432" s="34"/>
+      <c r="B432" s="31"/>
+      <c r="C432" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:3">
-      <c r="A433" s="29"/>
-      <c r="B433" s="26"/>
-      <c r="C433" s="12" t="s">
+      <c r="A433" s="34"/>
+      <c r="B433" s="31"/>
+      <c r="C433" s="11" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
-      <c r="A434" s="29"/>
-      <c r="B434" s="26"/>
-      <c r="C434" s="12" t="s">
+      <c r="A434" s="34"/>
+      <c r="B434" s="31"/>
+      <c r="C434" s="11" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="435" ht="15" spans="1:3">
-      <c r="A435" s="29"/>
-      <c r="B435" s="26"/>
-      <c r="C435" s="12" t="s">
+      <c r="A435" s="34"/>
+      <c r="B435" s="31"/>
+      <c r="C435" s="11" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="436" ht="15" spans="1:3">
-      <c r="A436" s="29"/>
-      <c r="B436" s="26"/>
-      <c r="C436" s="12" t="s">
+      <c r="A436" s="34"/>
+      <c r="B436" s="31"/>
+      <c r="C436" s="11" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="437" ht="15" spans="1:3">
-      <c r="A437" s="29"/>
-      <c r="B437" s="26"/>
-      <c r="C437" s="12" t="s">
+      <c r="A437" s="34"/>
+      <c r="B437" s="31"/>
+      <c r="C437" s="11" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:3">
-      <c r="A438" s="29"/>
-      <c r="B438" s="26"/>
-      <c r="C438" s="12" t="s">
+      <c r="A438" s="34"/>
+      <c r="B438" s="31"/>
+      <c r="C438" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="439" ht="15" spans="1:3">
-      <c r="A439" s="29"/>
-      <c r="B439" s="26"/>
-      <c r="C439" s="12" t="s">
+      <c r="A439" s="34"/>
+      <c r="B439" s="31"/>
+      <c r="C439" s="11" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="440" ht="18" spans="1:3">
-      <c r="A440" s="29"/>
-      <c r="B440" s="26"/>
-      <c r="C440" s="12"/>
+      <c r="A440" s="34"/>
+      <c r="B440" s="31"/>
+      <c r="C440" s="11"/>
     </row>
     <row r="441" ht="15" spans="1:3">
-      <c r="A441" s="29"/>
-      <c r="B441" s="26" t="s">
+      <c r="A441" s="34"/>
+      <c r="B441" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="C441" s="12" t="s">
+      <c r="C441" s="11" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
-      <c r="A442" s="29"/>
-      <c r="B442" s="26"/>
-      <c r="C442" s="12" t="s">
+      <c r="A442" s="34"/>
+      <c r="B442" s="31"/>
+      <c r="C442" s="11" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="443" ht="15" spans="1:3">
-      <c r="A443" s="29"/>
-      <c r="B443" s="26"/>
-      <c r="C443" s="12" t="s">
+      <c r="A443" s="34"/>
+      <c r="B443" s="31"/>
+      <c r="C443" s="11" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
-      <c r="A444" s="29"/>
-      <c r="B444" s="26"/>
-      <c r="C444" s="12" t="s">
+      <c r="A444" s="34"/>
+      <c r="B444" s="31"/>
+      <c r="C444" s="11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="445" ht="15" spans="1:3">
-      <c r="A445" s="29"/>
-      <c r="B445" s="26"/>
-      <c r="C445" s="12" t="s">
+      <c r="A445" s="34"/>
+      <c r="B445" s="31"/>
+      <c r="C445" s="11" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:3">
-      <c r="A446" s="29"/>
-      <c r="B446" s="26"/>
-      <c r="C446" s="12" t="s">
+      <c r="A446" s="34"/>
+      <c r="B446" s="31"/>
+      <c r="C446" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="447" ht="15" spans="1:3">
-      <c r="A447" s="29"/>
-      <c r="B447" s="26"/>
-      <c r="C447" s="12" t="s">
+      <c r="A447" s="34"/>
+      <c r="B447" s="31"/>
+      <c r="C447" s="11" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
-      <c r="A448" s="29"/>
-      <c r="B448" s="26"/>
-      <c r="C448" s="12" t="s">
+      <c r="A448" s="34"/>
+      <c r="B448" s="31"/>
+      <c r="C448" s="11" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:3">
-      <c r="A449" s="29"/>
-      <c r="B449" s="26"/>
-      <c r="C449" s="12" t="s">
+      <c r="A449" s="34"/>
+      <c r="B449" s="31"/>
+      <c r="C449" s="11" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
-      <c r="A450" s="29"/>
-      <c r="B450" s="26"/>
-      <c r="C450" s="12" t="s">
+      <c r="A450" s="34"/>
+      <c r="B450" s="31"/>
+      <c r="C450" s="11" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:3">
-      <c r="A451" s="29"/>
-      <c r="B451" s="30"/>
-      <c r="C451" s="12"/>
+      <c r="A451" s="34"/>
+      <c r="B451" s="35"/>
+      <c r="C451" s="11"/>
     </row>
     <row r="452" ht="15" spans="1:3">
-      <c r="A452" s="29"/>
-      <c r="B452" s="21" t="s">
+      <c r="A452" s="34"/>
+      <c r="B452" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C452" s="15" t="s">
+      <c r="C452" s="23" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="453" ht="15" spans="1:3">
-      <c r="A453" s="29"/>
-      <c r="B453" s="21"/>
+      <c r="A453" s="34"/>
+      <c r="B453" s="26"/>
       <c r="C453" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
-      <c r="A454" s="29"/>
-      <c r="B454" s="21"/>
-      <c r="C454" s="15" t="s">
+      <c r="A454" s="34"/>
+      <c r="B454" s="26"/>
+      <c r="C454" s="23" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="455" ht="15" spans="1:3">
-      <c r="A455" s="29"/>
-      <c r="B455" s="21"/>
+      <c r="A455" s="34"/>
+      <c r="B455" s="26"/>
       <c r="C455" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
-      <c r="A456" s="29"/>
-      <c r="B456" s="21"/>
-      <c r="C456" s="15" t="s">
+      <c r="A456" s="34"/>
+      <c r="B456" s="26"/>
+      <c r="C456" s="23" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="457" ht="15" spans="1:3">
-      <c r="A457" s="29"/>
-      <c r="B457" s="21"/>
+      <c r="A457" s="34"/>
+      <c r="B457" s="26"/>
       <c r="C457" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="31"/>
-      <c r="B458" s="31"/>
-      <c r="C458" s="31"/>
+      <c r="A458" s="36"/>
+      <c r="B458" s="36"/>
+      <c r="C458" s="36"/>
     </row>
     <row r="459" ht="24.75" spans="1:3">
       <c r="A459" s="2" t="s">
@@ -7057,24 +7281,24 @@
       <c r="C459" s="2"/>
     </row>
     <row r="460" ht="15.75" spans="1:3">
-      <c r="A460" s="3" t="s">
+      <c r="A460" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="B460" s="4" t="s">
+      <c r="B460" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C460" s="5" t="s">
+      <c r="C460" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="461" ht="12" customHeight="1" spans="1:3">
-      <c r="A461" s="3"/>
-      <c r="B461" s="4"/>
-      <c r="C461" s="5"/>
+      <c r="A461" s="16"/>
+      <c r="B461" s="17"/>
+      <c r="C461" s="18"/>
     </row>
     <row r="462" ht="16" customHeight="1" spans="1:3">
-      <c r="A462" s="3"/>
-      <c r="B462" s="7" t="s">
+      <c r="A462" s="16"/>
+      <c r="B462" s="4" t="s">
         <v>433</v>
       </c>
       <c r="C462" s="10" t="s">
@@ -7082,260 +7306,260 @@
       </c>
     </row>
     <row r="463" ht="20" customHeight="1" spans="1:3">
-      <c r="A463" s="3"/>
-      <c r="B463" s="7"/>
+      <c r="A463" s="16"/>
+      <c r="B463" s="4"/>
       <c r="C463" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
-      <c r="A464" s="3"/>
-      <c r="B464" s="7"/>
+      <c r="A464" s="16"/>
+      <c r="B464" s="4"/>
       <c r="C464" s="10" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="465" ht="21" customHeight="1" spans="1:3">
-      <c r="A465" s="3"/>
-      <c r="B465" s="7"/>
+      <c r="A465" s="16"/>
+      <c r="B465" s="4"/>
       <c r="C465" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="466" ht="15" customHeight="1" spans="1:3">
-      <c r="A466" s="3"/>
-      <c r="B466" s="7"/>
+      <c r="A466" s="16"/>
+      <c r="B466" s="4"/>
       <c r="C466" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="467" ht="15" spans="1:3">
-      <c r="A467" s="3"/>
-      <c r="B467" s="7"/>
+      <c r="A467" s="16"/>
+      <c r="B467" s="4"/>
       <c r="C467" s="10" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="468" ht="17" customHeight="1" spans="1:3">
-      <c r="A468" s="3"/>
-      <c r="B468" s="7"/>
+      <c r="A468" s="16"/>
+      <c r="B468" s="4"/>
       <c r="C468" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="469" ht="13" customHeight="1" spans="1:3">
-      <c r="A469" s="3"/>
-      <c r="B469" s="7"/>
+      <c r="A469" s="16"/>
+      <c r="B469" s="4"/>
       <c r="C469" s="10" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="470" ht="13" customHeight="1" spans="1:3">
-      <c r="A470" s="3"/>
-      <c r="B470" s="7"/>
+      <c r="A470" s="16"/>
+      <c r="B470" s="4"/>
       <c r="C470" s="10" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="471" ht="15" spans="1:3">
-      <c r="A471" s="3"/>
-      <c r="B471" s="7"/>
+      <c r="A471" s="16"/>
+      <c r="B471" s="4"/>
       <c r="C471" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
-      <c r="A472" s="3"/>
-      <c r="B472" s="7"/>
+      <c r="A472" s="16"/>
+      <c r="B472" s="4"/>
       <c r="C472" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="473" ht="15" spans="1:3">
-      <c r="A473" s="3"/>
-      <c r="B473" s="7"/>
+      <c r="A473" s="16"/>
+      <c r="B473" s="4"/>
       <c r="C473" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
-      <c r="A474" s="3"/>
-      <c r="B474" s="7"/>
+      <c r="A474" s="16"/>
+      <c r="B474" s="4"/>
       <c r="C474" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="475" ht="15" spans="1:3">
-      <c r="A475" s="3"/>
-      <c r="B475" s="7"/>
+      <c r="A475" s="16"/>
+      <c r="B475" s="4"/>
       <c r="C475" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
-      <c r="A476" s="3"/>
-      <c r="B476" s="7"/>
+      <c r="A476" s="16"/>
+      <c r="B476" s="4"/>
       <c r="C476" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="477" ht="15" customHeight="1" spans="1:3">
-      <c r="A477" s="3"/>
-      <c r="B477" s="7"/>
+      <c r="A477" s="16"/>
+      <c r="B477" s="4"/>
       <c r="C477" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
-      <c r="A478" s="3"/>
-      <c r="B478" s="7"/>
+      <c r="A478" s="16"/>
+      <c r="B478" s="4"/>
       <c r="C478" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="479" ht="15" spans="1:3">
-      <c r="A479" s="3"/>
-      <c r="B479" s="7"/>
+      <c r="A479" s="16"/>
+      <c r="B479" s="4"/>
       <c r="C479" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
-      <c r="A480" s="3"/>
-      <c r="B480" s="7"/>
+      <c r="A480" s="16"/>
+      <c r="B480" s="4"/>
       <c r="C480" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="481" ht="18" customHeight="1" spans="1:3">
-      <c r="A481" s="3"/>
-      <c r="B481" s="7"/>
+      <c r="A481" s="16"/>
+      <c r="B481" s="4"/>
       <c r="C481" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="482" ht="18" customHeight="1" spans="1:3">
-      <c r="A482" s="3"/>
-      <c r="B482" s="7"/>
+      <c r="A482" s="16"/>
+      <c r="B482" s="4"/>
       <c r="C482" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="483" ht="18" customHeight="1" spans="1:3">
-      <c r="A483" s="3"/>
-      <c r="B483" s="7"/>
+      <c r="A483" s="16"/>
+      <c r="B483" s="4"/>
       <c r="C483" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="484" ht="16" customHeight="1" spans="1:3">
-      <c r="A484" s="3"/>
-      <c r="B484" s="7"/>
+      <c r="A484" s="16"/>
+      <c r="B484" s="4"/>
       <c r="C484" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="485" ht="16" customHeight="1" spans="1:3">
-      <c r="A485" s="3"/>
-      <c r="B485" s="7"/>
+      <c r="A485" s="16"/>
+      <c r="B485" s="4"/>
       <c r="C485" s="10" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="486" ht="16" customHeight="1" spans="1:3">
-      <c r="A486" s="3"/>
-      <c r="B486" s="7"/>
+      <c r="A486" s="16"/>
+      <c r="B486" s="4"/>
       <c r="C486" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="487" ht="16" customHeight="1" spans="1:3">
-      <c r="A487" s="3"/>
-      <c r="B487" s="7"/>
+      <c r="A487" s="16"/>
+      <c r="B487" s="4"/>
       <c r="C487" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="488" ht="16" customHeight="1" spans="1:3">
-      <c r="A488" s="3"/>
-      <c r="B488" s="7"/>
+      <c r="A488" s="16"/>
+      <c r="B488" s="4"/>
       <c r="C488" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="489" ht="16" customHeight="1" spans="1:3">
-      <c r="A489" s="3"/>
-      <c r="B489" s="7"/>
+      <c r="A489" s="16"/>
+      <c r="B489" s="4"/>
       <c r="C489" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="490" ht="16" customHeight="1" spans="1:3">
-      <c r="A490" s="3"/>
-      <c r="B490" s="7"/>
+      <c r="A490" s="16"/>
+      <c r="B490" s="4"/>
       <c r="C490" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="491" ht="16" customHeight="1" spans="1:3">
-      <c r="A491" s="3"/>
-      <c r="B491" s="7"/>
+      <c r="A491" s="16"/>
+      <c r="B491" s="4"/>
       <c r="C491" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="492" ht="16" customHeight="1" spans="1:3">
-      <c r="A492" s="3"/>
-      <c r="B492" s="7"/>
+      <c r="A492" s="16"/>
+      <c r="B492" s="4"/>
       <c r="C492" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="493" ht="16" customHeight="1" spans="1:3">
-      <c r="A493" s="3"/>
-      <c r="B493" s="7"/>
+      <c r="A493" s="16"/>
+      <c r="B493" s="4"/>
       <c r="C493" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="494" ht="16" customHeight="1" spans="1:3">
-      <c r="A494" s="3"/>
-      <c r="B494" s="7"/>
+      <c r="A494" s="16"/>
+      <c r="B494" s="4"/>
       <c r="C494" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="495" ht="16" customHeight="1" spans="1:3">
-      <c r="A495" s="3"/>
-      <c r="B495" s="7"/>
+      <c r="A495" s="16"/>
+      <c r="B495" s="4"/>
       <c r="C495" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="496" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A496" s="3"/>
-      <c r="B496" s="7"/>
+      <c r="A496" s="16"/>
+      <c r="B496" s="4"/>
     </row>
     <row r="497" ht="15" spans="1:3">
-      <c r="A497" s="3"/>
-      <c r="B497" s="21" t="s">
+      <c r="A497" s="16"/>
+      <c r="B497" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C497" s="15" t="s">
+      <c r="C497" s="23" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="498" ht="15" spans="1:3">
-      <c r="A498" s="3"/>
-      <c r="B498" s="21"/>
+      <c r="A498" s="16"/>
+      <c r="B498" s="26"/>
       <c r="C498" s="10" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="499" ht="9" customHeight="1" spans="1:3">
-      <c r="A499" s="16"/>
-      <c r="B499" s="17"/>
-      <c r="C499" s="17"/>
+      <c r="A499" s="12"/>
+      <c r="B499" s="13"/>
+      <c r="C499" s="13"/>
     </row>
     <row r="500" ht="24.75" spans="1:3">
       <c r="A500" s="2" t="s">
@@ -7345,393 +7569,393 @@
       <c r="C500" s="2"/>
     </row>
     <row r="501" ht="15.75" spans="1:3">
-      <c r="A501" s="3" t="s">
+      <c r="A501" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B501" s="4" t="s">
+      <c r="B501" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C501" s="5" t="s">
+      <c r="C501" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="502" ht="15.75" spans="1:3">
-      <c r="A502" s="3"/>
-      <c r="B502" s="4"/>
-      <c r="C502" s="5"/>
+      <c r="A502" s="16"/>
+      <c r="B502" s="17"/>
+      <c r="C502" s="18"/>
     </row>
     <row r="503" ht="15" spans="1:3">
-      <c r="A503" s="3"/>
-      <c r="B503" s="26" t="s">
+      <c r="A503" s="16"/>
+      <c r="B503" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="C503" s="12" t="s">
+      <c r="C503" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" s="3"/>
-      <c r="B504" s="26"/>
+      <c r="A504" s="16"/>
+      <c r="B504" s="31"/>
       <c r="C504" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="505" ht="15" spans="1:3">
-      <c r="A505" s="3"/>
-      <c r="B505" s="26"/>
-      <c r="C505" s="12" t="s">
+      <c r="A505" s="16"/>
+      <c r="B505" s="31"/>
+      <c r="C505" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="506" ht="15" spans="1:3">
-      <c r="A506" s="3"/>
-      <c r="B506" s="26"/>
-      <c r="C506" s="12" t="s">
+      <c r="A506" s="16"/>
+      <c r="B506" s="31"/>
+      <c r="C506" s="11" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="507" ht="15" spans="1:3">
-      <c r="A507" s="3"/>
-      <c r="B507" s="26"/>
-      <c r="C507" s="12" t="s">
+      <c r="A507" s="16"/>
+      <c r="B507" s="31"/>
+      <c r="C507" s="11" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="508" ht="15" spans="1:3">
-      <c r="A508" s="3"/>
-      <c r="B508" s="26"/>
-      <c r="C508" s="12" t="s">
+      <c r="A508" s="16"/>
+      <c r="B508" s="31"/>
+      <c r="C508" s="11" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="509" ht="18" spans="1:3">
-      <c r="A509" s="3"/>
-      <c r="B509" s="26"/>
-      <c r="C509" s="12"/>
+      <c r="A509" s="16"/>
+      <c r="B509" s="31"/>
+      <c r="C509" s="11"/>
     </row>
     <row r="510" ht="15" spans="1:3">
-      <c r="A510" s="3"/>
-      <c r="B510" s="26" t="s">
+      <c r="A510" s="16"/>
+      <c r="B510" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="C510" s="32" t="s">
+      <c r="C510" s="24" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="511" ht="15" spans="1:3">
-      <c r="A511" s="3"/>
-      <c r="B511" s="26"/>
-      <c r="C511" s="12" t="s">
+      <c r="A511" s="16"/>
+      <c r="B511" s="31"/>
+      <c r="C511" s="11" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="512" ht="15" spans="1:3">
-      <c r="A512" s="3"/>
-      <c r="B512" s="26"/>
-      <c r="C512" s="12" t="s">
+      <c r="A512" s="16"/>
+      <c r="B512" s="31"/>
+      <c r="C512" s="11" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="513" ht="15" spans="1:3">
-      <c r="A513" s="3"/>
-      <c r="B513" s="26"/>
-      <c r="C513" s="12" t="s">
+      <c r="A513" s="16"/>
+      <c r="B513" s="31"/>
+      <c r="C513" s="11" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="514" ht="15" spans="1:3">
-      <c r="A514" s="3"/>
-      <c r="B514" s="26"/>
-      <c r="C514" s="12" t="s">
+      <c r="A514" s="16"/>
+      <c r="B514" s="31"/>
+      <c r="C514" s="11" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="515" ht="15" spans="1:3">
-      <c r="A515" s="3"/>
-      <c r="B515" s="26"/>
-      <c r="C515" s="12" t="s">
+      <c r="A515" s="16"/>
+      <c r="B515" s="31"/>
+      <c r="C515" s="11" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="516" ht="15" spans="1:3">
-      <c r="A516" s="3"/>
-      <c r="B516" s="26"/>
-      <c r="C516" s="12" t="s">
+      <c r="A516" s="16"/>
+      <c r="B516" s="31"/>
+      <c r="C516" s="11" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="517" ht="15" spans="1:3">
-      <c r="A517" s="3"/>
-      <c r="B517" s="26"/>
-      <c r="C517" s="12" t="s">
+      <c r="A517" s="16"/>
+      <c r="B517" s="31"/>
+      <c r="C517" s="11" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="518" ht="18" spans="1:3">
-      <c r="A518" s="3"/>
-      <c r="B518" s="26"/>
-      <c r="C518" s="12"/>
+      <c r="A518" s="16"/>
+      <c r="B518" s="31"/>
+      <c r="C518" s="11"/>
     </row>
     <row r="519" ht="15" spans="1:3">
-      <c r="A519" s="3"/>
-      <c r="B519" s="7" t="s">
+      <c r="A519" s="16"/>
+      <c r="B519" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C519" s="5" t="s">
+      <c r="C519" s="18" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="520" ht="15" spans="1:3">
-      <c r="A520" s="3"/>
-      <c r="B520" s="7"/>
-      <c r="C520" s="12" t="s">
+      <c r="A520" s="16"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="11" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="521" ht="15" spans="1:3">
-      <c r="A521" s="3"/>
-      <c r="B521" s="7"/>
-      <c r="C521" s="12" t="s">
+      <c r="A521" s="16"/>
+      <c r="B521" s="4"/>
+      <c r="C521" s="11" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="522" ht="15" spans="1:3">
-      <c r="A522" s="3"/>
-      <c r="B522" s="7"/>
-      <c r="C522" s="12" t="s">
+      <c r="A522" s="16"/>
+      <c r="B522" s="4"/>
+      <c r="C522" s="11" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="523" ht="18" spans="1:3">
-      <c r="A523" s="3"/>
-      <c r="B523" s="23"/>
-      <c r="C523" s="12"/>
+      <c r="A523" s="16"/>
+      <c r="B523" s="28"/>
+      <c r="C523" s="11"/>
     </row>
     <row r="524" ht="15" spans="1:3">
-      <c r="A524" s="3"/>
-      <c r="B524" s="14" t="s">
+      <c r="A524" s="16"/>
+      <c r="B524" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C524" s="15" t="s">
+      <c r="C524" s="23" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="525" ht="15" spans="1:3">
-      <c r="A525" s="3"/>
-      <c r="B525" s="14"/>
+      <c r="A525" s="16"/>
+      <c r="B525" s="22"/>
       <c r="C525" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="526" ht="9" customHeight="1" spans="1:3">
-      <c r="A526" s="8"/>
-      <c r="B526" s="8"/>
-      <c r="C526" s="8"/>
+      <c r="A526" s="20"/>
+      <c r="B526" s="20"/>
+      <c r="C526" s="20"/>
     </row>
     <row r="527" ht="15.75" spans="1:3">
-      <c r="A527" s="3" t="s">
+      <c r="A527" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="B527" s="4" t="s">
+      <c r="B527" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C527" s="5" t="s">
+      <c r="C527" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="528" ht="15.75" spans="1:3">
-      <c r="A528" s="3"/>
-      <c r="B528" s="4"/>
-      <c r="C528" s="5"/>
+      <c r="A528" s="16"/>
+      <c r="B528" s="17"/>
+      <c r="C528" s="18"/>
     </row>
     <row r="529" ht="15" spans="1:3">
-      <c r="A529" s="3"/>
-      <c r="B529" s="26" t="s">
+      <c r="A529" s="16"/>
+      <c r="B529" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="C529" s="12" t="s">
+      <c r="C529" s="11" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="A530" s="3"/>
-      <c r="B530" s="26"/>
+      <c r="A530" s="16"/>
+      <c r="B530" s="31"/>
       <c r="C530" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="531" ht="15" spans="1:3">
-      <c r="A531" s="3"/>
-      <c r="B531" s="26"/>
-      <c r="C531" s="12" t="s">
+      <c r="A531" s="16"/>
+      <c r="B531" s="31"/>
+      <c r="C531" s="11" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="532" ht="15" spans="1:3">
-      <c r="A532" s="3"/>
-      <c r="B532" s="26"/>
-      <c r="C532" s="12" t="s">
+      <c r="A532" s="16"/>
+      <c r="B532" s="31"/>
+      <c r="C532" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="533" ht="15" spans="1:3">
-      <c r="A533" s="3"/>
-      <c r="B533" s="26"/>
-      <c r="C533" s="12" t="s">
+      <c r="A533" s="16"/>
+      <c r="B533" s="31"/>
+      <c r="C533" s="11" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="534" ht="12" customHeight="1" spans="1:3">
-      <c r="A534" s="3"/>
-      <c r="B534" s="26"/>
-      <c r="C534" s="12"/>
+      <c r="A534" s="16"/>
+      <c r="B534" s="31"/>
+      <c r="C534" s="11"/>
     </row>
     <row r="535" ht="15" spans="1:3">
-      <c r="A535" s="3"/>
-      <c r="B535" s="26" t="s">
+      <c r="A535" s="16"/>
+      <c r="B535" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="C535" s="32" t="s">
+      <c r="C535" s="24" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="536" ht="15" spans="1:3">
-      <c r="A536" s="3"/>
-      <c r="B536" s="26"/>
-      <c r="C536" s="12" t="s">
+      <c r="A536" s="16"/>
+      <c r="B536" s="31"/>
+      <c r="C536" s="11" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="537" ht="15" spans="1:3">
-      <c r="A537" s="3"/>
-      <c r="B537" s="26"/>
-      <c r="C537" s="12" t="s">
+      <c r="A537" s="16"/>
+      <c r="B537" s="31"/>
+      <c r="C537" s="11" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="538" ht="11" customHeight="1" spans="1:3">
-      <c r="A538" s="3"/>
-      <c r="B538" s="26"/>
-      <c r="C538" s="12"/>
+      <c r="A538" s="16"/>
+      <c r="B538" s="31"/>
+      <c r="C538" s="11"/>
     </row>
     <row r="539" ht="15" spans="1:3">
-      <c r="A539" s="3"/>
-      <c r="B539" s="26" t="s">
+      <c r="A539" s="16"/>
+      <c r="B539" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="C539" s="5" t="s">
+      <c r="C539" s="18" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="540" ht="15" spans="1:3">
-      <c r="A540" s="3"/>
-      <c r="B540" s="26"/>
-      <c r="C540" s="12" t="s">
+      <c r="A540" s="16"/>
+      <c r="B540" s="31"/>
+      <c r="C540" s="11" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="541" ht="15" spans="1:3">
-      <c r="A541" s="3"/>
-      <c r="B541" s="26"/>
-      <c r="C541" s="12" t="s">
+      <c r="A541" s="16"/>
+      <c r="B541" s="31"/>
+      <c r="C541" s="11" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="542" ht="15" spans="1:3">
-      <c r="A542" s="3"/>
-      <c r="B542" s="26"/>
-      <c r="C542" s="12" t="s">
+      <c r="A542" s="16"/>
+      <c r="B542" s="31"/>
+      <c r="C542" s="11" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="543" ht="15" spans="1:3">
-      <c r="A543" s="3"/>
-      <c r="B543" s="26"/>
-      <c r="C543" s="12" t="s">
+      <c r="A543" s="16"/>
+      <c r="B543" s="31"/>
+      <c r="C543" s="11" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="544" ht="15" spans="1:3">
-      <c r="A544" s="3"/>
-      <c r="B544" s="26"/>
-      <c r="C544" s="12" t="s">
+      <c r="A544" s="16"/>
+      <c r="B544" s="31"/>
+      <c r="C544" s="11" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="545" ht="15.75" spans="1:3">
-      <c r="A545" s="3"/>
-      <c r="B545" s="7"/>
-      <c r="C545" s="12"/>
+      <c r="A545" s="16"/>
+      <c r="B545" s="4"/>
+      <c r="C545" s="11"/>
     </row>
     <row r="546" ht="15" spans="1:3">
-      <c r="A546" s="3"/>
-      <c r="B546" s="26" t="s">
+      <c r="A546" s="16"/>
+      <c r="B546" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="C546" s="5" t="s">
+      <c r="C546" s="18" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="547" ht="15" spans="1:3">
-      <c r="A547" s="3"/>
-      <c r="B547" s="26"/>
-      <c r="C547" s="12" t="s">
+      <c r="A547" s="16"/>
+      <c r="B547" s="31"/>
+      <c r="C547" s="11" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="548" ht="15" spans="1:3">
-      <c r="A548" s="3"/>
-      <c r="B548" s="26"/>
-      <c r="C548" s="12" t="s">
+      <c r="A548" s="16"/>
+      <c r="B548" s="31"/>
+      <c r="C548" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="549" ht="15" spans="1:3">
-      <c r="A549" s="3"/>
-      <c r="B549" s="26"/>
-      <c r="C549" s="12" t="s">
+      <c r="A549" s="16"/>
+      <c r="B549" s="31"/>
+      <c r="C549" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="550" ht="18" spans="1:3">
-      <c r="A550" s="3"/>
-      <c r="B550" s="23"/>
-      <c r="C550" s="12"/>
+      <c r="A550" s="16"/>
+      <c r="B550" s="28"/>
+      <c r="C550" s="11"/>
     </row>
     <row r="551" ht="15" spans="1:3">
-      <c r="A551" s="3"/>
-      <c r="B551" s="14" t="s">
+      <c r="A551" s="16"/>
+      <c r="B551" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C551" s="15" t="s">
+      <c r="C551" s="23" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="552" ht="15" spans="1:3">
-      <c r="A552" s="3"/>
-      <c r="B552" s="14"/>
+      <c r="A552" s="16"/>
+      <c r="B552" s="22"/>
       <c r="C552" s="10" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="553" ht="9" customHeight="1" spans="1:3">
-      <c r="A553" s="16"/>
-      <c r="B553" s="17"/>
-      <c r="C553" s="17"/>
+      <c r="A553" s="12"/>
+      <c r="B553" s="13"/>
+      <c r="C553" s="13"/>
     </row>
     <row r="555" ht="18.75" spans="1:2">
-      <c r="A555" s="18" t="s">
+      <c r="A555" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B555" s="19">
+      <c r="B555" s="15">
         <v>10.5</v>
       </c>
     </row>
     <row r="556" ht="18.75" spans="1:2">
-      <c r="A556" s="18" t="s">
+      <c r="A556" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="B556" s="19">
+      <c r="B556" s="15">
         <v>84</v>
       </c>
     </row>
@@ -7843,10 +8067,10 @@
   <sheetPr/>
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7875,59 +8099,59 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="18" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="20" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
         <v>528</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -7935,266 +8159,724 @@
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="11" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="11" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="11" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="9" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" ht="15.75" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="23" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="44" ht="9" customHeight="1" spans="1:3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" ht="24.75" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" ht="24.75" spans="1:3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="19"/>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="20" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="1:3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" ht="15" spans="1:3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:3">
+      <c r="A73" s="16"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:3">
+      <c r="A75" s="16"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="24" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="1:3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="24" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="24" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:3">
+      <c r="A80" s="16"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="24" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:3">
+      <c r="A81" s="16"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="24" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="83" ht="18" spans="1:3">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="85" ht="18.75" spans="1:2">
+      <c r="A85" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B85" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" spans="1:2">
+      <c r="A86" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B86" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="158" ht="18.75" spans="1:2">
-      <c r="A158" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="B158" s="19">
+      <c r="A158" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B158" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="159" ht="18.75" spans="1:2">
-      <c r="A159" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="B159" s="19">
+      <c r="A159" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B159" s="15">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A3:A43"/>
+    <mergeCell ref="A46:A82"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B68:B82"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" ht="14" customHeight="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" ht="9" customHeight="1" spans="1:3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="118" ht="18.75" spans="1:2">
+      <c r="A118" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B118" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" ht="18.75" spans="1:2">
+      <c r="A119" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B119" s="15">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="610">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2129,21 +2129,19 @@
     <t>PostgreSQL Queries</t>
   </si>
   <si>
-    <t>Hands On Exercises - PostgreSQL Basic Queries</t>
+    <t>1.  Hands On Exercises - PostgreSQL Basic Queries</t>
+  </si>
+  <si>
+    <t>2. Hands On Exercises - PostgreSQL  Joins and Subqueries</t>
+  </si>
+  <si>
+    <t>3. Hands On Exercises - PostgreSQL  Aggregation</t>
   </si>
   <si>
     <t>Day 13</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">PostgreSQL is commonly known as Postgres and is is often referred to as a the world's most advanced open source database.                                                    </t>
     </r>
     <r>
@@ -2154,130 +2152,130 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">In this course, we will go over the basics of  DML, DDL and TCL PostgreSQL commands.                                                                Learn how to restore a database from a tar file.                                                 Understand the basic Data Types in PostgreSQL and how to use Array Functions and Operators.         </t>
+      <t>In this course, we will go over the basics of  DML, DDL and TCL PostgreSQL commands.                                                                Learn how to restore a database from a tar file.                                                 Understand the basic Data Types in PostgreSQL and how to use Array Functions and Operators.</t>
     </r>
+  </si>
+  <si>
+    <t>1. PostgreSQL Data Operations - Insert, Update, Delete</t>
+  </si>
+  <si>
+    <t>1. Loading Sample Data</t>
+  </si>
+  <si>
+    <t>2. Getting Started</t>
+  </si>
+  <si>
+    <t>3. Scenario 1 Task 1: Update Table With New Data</t>
+  </si>
+  <si>
+    <t>4. Scenario 1 Task 2: Insert Data Into Table</t>
+  </si>
+  <si>
+    <t>5. Scenario 4: Delete Rows From Table</t>
+  </si>
+  <si>
+    <t>2. Data Types in PostgreSQL</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>3. Arrays Functions and Operators</t>
+  </si>
+  <si>
+    <t>2. Array  Operators</t>
+  </si>
+  <si>
+    <t>3. Array Functions</t>
+  </si>
+  <si>
+    <t>4. Demo : Array Functions and Operators</t>
+  </si>
+  <si>
+    <t>4. PostgreSQL DDL, Transactions and Constraints</t>
+  </si>
+  <si>
+    <t>1. Data Definition (DDL) Commands</t>
+  </si>
+  <si>
+    <t>CREATE  Database</t>
+  </si>
+  <si>
+    <t>CREATE  Table</t>
+  </si>
+  <si>
+    <t>ALTER</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>TRUNCATE</t>
+  </si>
+  <si>
+    <t>RENAME</t>
+  </si>
+  <si>
+    <t>2. Transaction Control (TCL) Commands</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>COMMIT</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>3. Constraints Used In Database</t>
+  </si>
+  <si>
+    <t>NOT NULL Constraint</t>
+  </si>
+  <si>
+    <t>UNIQUE Constraint</t>
+  </si>
+  <si>
+    <t>CHECK Constraint</t>
+  </si>
+  <si>
+    <t>Hands On Exercises - PostgreSQL Modifying data</t>
+  </si>
+  <si>
+    <t>Total # of Days for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Total # of Hours for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Total # of Days for JPA with Hibernate</t>
+  </si>
+  <si>
+    <t>Total # of Hours for JPA with Hibernate</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="10"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-  </si>
-  <si>
-    <t>1. PostgreSQL Data Operations - Insert, Update, Delete</t>
-  </si>
-  <si>
-    <t>1. Loading Sample Data</t>
-  </si>
-  <si>
-    <t>2. Getting Started</t>
-  </si>
-  <si>
-    <t>3. Scenario 1 Task 1: Update Table With New Data</t>
-  </si>
-  <si>
-    <t>4. Scenario 1 Task 2: Insert Data Into Table</t>
-  </si>
-  <si>
-    <t>5. Scenario 4: Delete Rows From Table</t>
-  </si>
-  <si>
-    <t>2. Data Types in PostgreSQL</t>
-  </si>
-  <si>
-    <t>Character</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Date/Time</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>3. Arrays Functions and Operators</t>
-  </si>
-  <si>
-    <t>2. Array  Operators</t>
-  </si>
-  <si>
-    <t>3. Array Functions</t>
-  </si>
-  <si>
-    <t>4. Demo : Array Functions and Operators</t>
-  </si>
-  <si>
-    <t>4. PostgreSQL DDL, Transactions and Constraints</t>
-  </si>
-  <si>
-    <t>1. Data Definition (DDL) Commands</t>
-  </si>
-  <si>
-    <t>CREATE  Database</t>
-  </si>
-  <si>
-    <t>CREATE  Table</t>
-  </si>
-  <si>
-    <t>ALTER</t>
-  </si>
-  <si>
-    <t>DROP</t>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-  </si>
-  <si>
-    <t>RENAME</t>
-  </si>
-  <si>
-    <t>2. Transaction Control (TCL) Commands</t>
-  </si>
-  <si>
-    <t>BEGIN</t>
-  </si>
-  <si>
-    <t>COMMIT</t>
-  </si>
-  <si>
-    <t>ROLLBACK</t>
-  </si>
-  <si>
-    <t>3. Constraints Used In Database</t>
-  </si>
-  <si>
-    <t>NOT NULL Constraint</t>
-  </si>
-  <si>
-    <t>UNIQUE Constraint</t>
-  </si>
-  <si>
-    <t>CHECK Constraint</t>
-  </si>
-  <si>
-    <t>Total # of Days for PostgreSQL</t>
-  </si>
-  <si>
-    <t>Total # of Hours for PostgreSQL</t>
-  </si>
-  <si>
-    <t>Total # of Days for JPA with Hibernate</t>
-  </si>
-  <si>
-    <t>Total # of Hours for JPA with Hibernate</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">DevOps may not mean the same thing to everyone you ask but there are a set of principles that can be distilled.                                                                                                  </t>
     </r>
     <r>
@@ -2339,10 +2337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -2472,6 +2470,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2480,7 +2509,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2494,16 +2538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2517,9 +2553,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2534,35 +2570,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2570,9 +2577,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2586,14 +2593,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -2601,16 +2600,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2675,7 +2673,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2687,19 +2727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2711,7 +2739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,7 +2751,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2735,121 +2841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2949,30 +2947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2992,33 +2966,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3042,22 +2999,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3067,130 +3065,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8065,12 +8063,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -8388,67 +8386,69 @@
         <v>553</v>
       </c>
     </row>
-    <row r="44" ht="9" customHeight="1" spans="1:3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" ht="24.75" spans="1:3">
-      <c r="A45" s="2" t="s">
+    <row r="44" ht="18.75" spans="1:3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="22"/>
+      <c r="C44" t="s">
         <v>554</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="16" t="s">
+    </row>
+    <row r="45" ht="18.75" spans="1:3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="22"/>
+      <c r="C45" t="s">
         <v>555</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="46" ht="9" customHeight="1" spans="1:3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" ht="24.75" spans="1:3">
+      <c r="A47" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" ht="24.75" spans="1:3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="C48" s="18" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="16"/>
       <c r="B49" s="4"/>
       <c r="C49" s="20" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="16"/>
       <c r="B50" s="4"/>
       <c r="C50" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="16"/>
       <c r="B51" s="4"/>
       <c r="C51" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="16"/>
       <c r="B52" s="4"/>
       <c r="C52" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
@@ -8466,7 +8466,7 @@
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>73</v>
@@ -8476,42 +8476,42 @@
       <c r="A56" s="16"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="16"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="16"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="16"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="16"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="16"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
@@ -8522,7 +8522,7 @@
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="16"/>
       <c r="B63" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>524</v>
@@ -8532,21 +8532,21 @@
       <c r="A64" s="16"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="16"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="16"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
@@ -8557,163 +8557,185 @@
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="16"/>
       <c r="B68" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="16"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="16"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="16"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="16"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="16"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
       <c r="A74" s="16"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:3">
       <c r="A75" s="16"/>
       <c r="B75" s="4"/>
       <c r="C75" s="24" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
       <c r="A76" s="16"/>
       <c r="B76" s="4"/>
       <c r="C76" s="24" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
       <c r="A77" s="16"/>
       <c r="B77" s="4"/>
       <c r="C77" s="24" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="16"/>
       <c r="B78" s="4"/>
       <c r="C78" s="24" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="16"/>
       <c r="B79" s="4"/>
       <c r="C79" s="24" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="16"/>
       <c r="B80" s="4"/>
       <c r="C80" s="24" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="16"/>
       <c r="B81" s="4"/>
       <c r="C81" s="24" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="16"/>
       <c r="B82" s="4"/>
       <c r="C82" s="24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="83" ht="18" spans="1:3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="85" ht="18.75" spans="1:2">
-      <c r="A85" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="B85" s="15">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="24"/>
+    </row>
+    <row r="84" ht="15" spans="1:3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="86" ht="10" customHeight="1" spans="1:3">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="88" ht="18.75" spans="1:2">
+      <c r="A88" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B88" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="86" ht="18.75" spans="1:2">
-      <c r="A86" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="B86" s="15">
+    <row r="89" ht="18.75" spans="1:2">
+      <c r="A89" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" s="15">
         <v>16</v>
       </c>
     </row>
-    <row r="158" ht="18.75" spans="1:2">
-      <c r="A158" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="B158" s="15">
+    <row r="161" ht="18.75" spans="1:2">
+      <c r="A161" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B161" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="159" ht="18.75" spans="1:2">
-      <c r="A159" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="B159" s="15">
+    <row r="162" ht="18.75" spans="1:2">
+      <c r="A162" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B162" s="15">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A3:A43"/>
-    <mergeCell ref="A46:A82"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A3:A45"/>
+    <mergeCell ref="A48:A85"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B16:B23"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B48:B53"/>
     <mergeCell ref="B55:B61"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B82"/>
+    <mergeCell ref="B84:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -8751,104 +8773,104 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" ht="9" customHeight="1" spans="1:3">
@@ -8858,7 +8880,7 @@
     </row>
     <row r="118" ht="18.75" spans="1:2">
       <c r="A118" s="14" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B118" s="15">
         <v>2</v>
@@ -8866,7 +8888,7 @@
     </row>
     <row r="119" ht="18.75" spans="1:2">
       <c r="A119" s="14" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B119" s="15">
         <v>16</v>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="674">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2142,6 +2142,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">PostgreSQL is commonly known as Postgres and is is often referred to as a the world's most advanced open source database.                                                    </t>
     </r>
     <r>
@@ -2331,6 +2339,250 @@
   <si>
     <t>14. DevOps Services For A Non-Banking Finance Leader</t>
   </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Version control is at the center of any file based project. Whether, you're a software developer, project manager, team member, student, or anyone who works on file based projects; keeping track of changes is essential to creating a great product.                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In this course,you'll learn the popular version control system Git and why it plays a significant role in creating better projects.                                           You'll see the basics of understanding Git.                                                                      Then you'll start your journey with Steve, a local coffee shop owner, and explore how Git elevates his project in a fun and easy step-by-step experience.                                                                                      Finally, you'll discover common and extended commands used in Git everyday.                                                           When you're finished with this course, you'll have a working knowledge of Git as a version control system for your project.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Get Up and Running with Git</t>
+  </si>
+  <si>
+    <t>2. What Is Git?</t>
+  </si>
+  <si>
+    <t>3. Coffee Shop Analogy</t>
+  </si>
+  <si>
+    <t>4. The Three Stages of a File</t>
+  </si>
+  <si>
+    <t>5. The Three Main Parts of Git</t>
+  </si>
+  <si>
+    <t>6. Using the Command Line</t>
+  </si>
+  <si>
+    <t>7. Install Git</t>
+  </si>
+  <si>
+    <t>8. Configure Git</t>
+  </si>
+  <si>
+    <t>9. Git Help</t>
+  </si>
+  <si>
+    <t>10. Initialize a New Git Repository</t>
+  </si>
+  <si>
+    <t>11. Send Your Code to a Code Hosting Provider</t>
+  </si>
+  <si>
+    <t>12. Create an Account with a Code Hosting Provider</t>
+  </si>
+  <si>
+    <t>13. Push a Git Repository to a Code Hosting Provider</t>
+  </si>
+  <si>
+    <t>14. Summary</t>
+  </si>
+  <si>
+    <t>3. Basic Commands of Everyday Git</t>
+  </si>
+  <si>
+    <t>2. Git Status</t>
+  </si>
+  <si>
+    <t>3. File Stages</t>
+  </si>
+  <si>
+    <t>4. Track a New File</t>
+  </si>
+  <si>
+    <t>5. Stage Modified Files</t>
+  </si>
+  <si>
+    <t>6. Short Status</t>
+  </si>
+  <si>
+    <t>7. Git Diff Explained</t>
+  </si>
+  <si>
+    <t>8. Git Diff in Action</t>
+  </si>
+  <si>
+    <t>9. Commit Changes</t>
+  </si>
+  <si>
+    <t>4. Extended Commands of Everyday Git</t>
+  </si>
+  <si>
+    <t>2. Push to Remote Origin</t>
+  </si>
+  <si>
+    <t>3. Check Commit History</t>
+  </si>
+  <si>
+    <t>4. Commit Messages</t>
+  </si>
+  <si>
+    <t>5. Remove and Move Files</t>
+  </si>
+  <si>
+    <t>6. Introduction to Branches</t>
+  </si>
+  <si>
+    <t>7. Working with Branches</t>
+  </si>
+  <si>
+    <t>8. Merge</t>
+  </si>
+  <si>
+    <t>9. Reset</t>
+  </si>
+  <si>
+    <t>10. Pull from Remote Origin</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>1.  Hands On Exercises - Git</t>
+  </si>
+  <si>
+    <t>2. Hands On Exercises - Learn &amp; Practice Git</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SonarLint is available an stand-alone extension for the Eclipse IDE.                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SonarLint analyzes your files automatically if you open them.                                                                                                      You can run its analysis for one or several projects. After the analysis the SonarLint Report shows the issues the analysis found.</t>
+    </r>
+  </si>
+  <si>
+    <t>Static Analysis of Source Code Using SonarLint</t>
+  </si>
+  <si>
+    <t>1. Pros &amp; Cons of Static Analysis</t>
+  </si>
+  <si>
+    <t>2. Find your Static Analysis Tool</t>
+  </si>
+  <si>
+    <t>3. Common Static Analysis Tools</t>
+  </si>
+  <si>
+    <t>4. Sacn with SonarLint</t>
+  </si>
+  <si>
+    <t>6. Configure SonarLint</t>
+  </si>
+  <si>
+    <t>7. Analyze Scan Report</t>
+  </si>
+  <si>
+    <t>8. Update SonarLint Rule</t>
+  </si>
+  <si>
+    <t>9. Sonar Lint Rule Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gradle is a Java tool that manages your build environment. It lets you build test and run your code. Through plugins it is easily extendable.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>While Gradle itself is written in Java it provides two DSLs: one that is written in Groovy and one that is written in Kotlin, in which you write the configuration scripts.                                                                  Next, you will discover how to run Java and Kotlin builds.                                                                                     Finally, learn about the Gradle ‘wrapper’ - a mechanism to ensure developers always use the correct version of Gradle.                                                      By the end of this course, you will know how to use Gradle to manage projects.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Setting up Gradle in Your Environment</t>
+  </si>
+  <si>
+    <t>2. Comparing Ant and Maven</t>
+  </si>
+  <si>
+    <t>3. Installing Gradle</t>
+  </si>
+  <si>
+    <t>4. Running Gradle for the First TIme</t>
+  </si>
+  <si>
+    <t>5. Initial Use of Plugins</t>
+  </si>
+  <si>
+    <t>6. Using the Gradle Wrapper</t>
+  </si>
+  <si>
+    <t>7. Review</t>
+  </si>
+  <si>
+    <t>3. Understanding Projects and Tasks</t>
+  </si>
+  <si>
+    <t>1. Introduction to Build Files</t>
+  </si>
+  <si>
+    <t>2. Writing Tasks</t>
+  </si>
+  <si>
+    <t>3. Dependencies</t>
+  </si>
+  <si>
+    <t>4. Adding Plugins</t>
+  </si>
+  <si>
+    <t>Total # of Days for DevOps and CI/CD</t>
+  </si>
+  <si>
+    <t>Total # of Hours for DevOps and CI/CD</t>
+  </si>
 </sst>
 </file>
 
@@ -2338,11 +2590,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2394,20 +2646,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2427,6 +2665,28 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2470,39 +2730,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2522,11 +2752,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2538,8 +2775,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2553,17 +2806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2578,14 +2822,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2593,8 +2829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2608,7 +2852,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2623,6 +2883,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2673,7 +2940,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,85 +3018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2775,19 +3030,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2799,7 +3060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,19 +3084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,13 +3114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2947,17 +3214,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2967,39 +3228,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3021,10 +3249,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3044,16 +3270,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3065,134 +3332,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3229,13 +3496,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3248,17 +3509,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3267,66 +3537,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3342,7 +3612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3666,8 +3936,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3680,361 +3950,361 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="39">
+      <c r="F9" s="40">
         <v>1</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="42">
         <v>10.5</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="42">
         <v>84</v>
       </c>
     </row>
     <row r="10" ht="30.75" spans="6:9">
-      <c r="F10" s="42">
+      <c r="F10" s="43">
         <v>2</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="42">
+        <v>3</v>
+      </c>
+      <c r="I10" s="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="6:9">
+      <c r="F11" s="43">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="42">
         <v>2</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I11" s="42">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="42">
+    <row r="12" ht="15.75" spans="6:9">
+      <c r="F12" s="43">
+        <v>4</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="6:9">
+      <c r="F13" s="43">
+        <v>5</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="42">
+        <v>2</v>
+      </c>
+      <c r="I13" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="6:9">
+      <c r="F14" s="43">
+        <v>6</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="42">
+        <v>2</v>
+      </c>
+      <c r="I14" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="6:9">
+      <c r="F15" s="43">
+        <v>7</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="42">
+        <v>1</v>
+      </c>
+      <c r="I15" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="6:9">
+      <c r="F16" s="43">
+        <v>8</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="42">
+        <v>6</v>
+      </c>
+      <c r="I16" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="6:9">
+      <c r="F17" s="43">
+        <v>9</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="42">
         <v>3</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="I17" s="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="14" customHeight="1" spans="6:9">
+      <c r="F18" s="43">
+        <v>10</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="42">
+        <v>5</v>
+      </c>
+      <c r="I18" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="6:9">
+      <c r="F19" s="43">
+        <v>11</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="42">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="6:9">
+      <c r="F20" s="43">
+        <v>12</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="42">
+        <v>4</v>
+      </c>
+      <c r="I20" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="6:9">
+      <c r="F21" s="43">
+        <v>13</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="42">
+        <v>1</v>
+      </c>
+      <c r="I21" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="6:9">
+      <c r="F22" s="43">
+        <v>14</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="42">
         <v>6</v>
       </c>
-      <c r="H11" s="41">
-        <v>3</v>
-      </c>
-      <c r="I11" s="41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="6:9">
-      <c r="F12" s="42">
+      <c r="I22" s="42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="6:9">
+      <c r="F23" s="43">
+        <v>15</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="42">
+        <v>2</v>
+      </c>
+      <c r="I23" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="30.75" spans="6:9">
+      <c r="F24" s="43">
+        <v>16</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="42">
         <v>4</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="42">
-        <v>5</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="41">
-        <v>2</v>
-      </c>
-      <c r="I13" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="42">
-        <v>6</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="41">
-        <v>2</v>
-      </c>
-      <c r="I14" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="42">
-        <v>7</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="41">
-        <v>1</v>
-      </c>
-      <c r="I15" s="41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="6:9">
-      <c r="F16" s="42">
-        <v>8</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="41">
-        <v>6</v>
-      </c>
-      <c r="I16" s="41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="14" customHeight="1" spans="6:9">
-      <c r="F17" s="42">
-        <v>9</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="41">
-        <v>3</v>
-      </c>
-      <c r="I17" s="41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="14" customHeight="1" spans="6:9">
-      <c r="F18" s="42">
-        <v>10</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="41">
-        <v>5</v>
-      </c>
-      <c r="I18" s="41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="6:9">
-      <c r="F19" s="42">
-        <v>11</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="41">
-        <v>1</v>
-      </c>
-      <c r="I19" s="41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="6:9">
-      <c r="F20" s="42">
-        <v>12</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="41">
-        <v>4</v>
-      </c>
-      <c r="I20" s="41">
+      <c r="I24" s="42">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="6:9">
-      <c r="F21" s="42">
-        <v>13</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="41">
-        <v>1</v>
-      </c>
-      <c r="I21" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="6:9">
-      <c r="F22" s="42">
-        <v>14</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="41">
-        <v>6</v>
-      </c>
-      <c r="I22" s="41">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="6:9">
-      <c r="F23" s="42">
-        <v>15</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="41">
-        <v>2</v>
-      </c>
-      <c r="I23" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="30.75" spans="6:9">
-      <c r="F24" s="42">
-        <v>16</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="41">
-        <v>4</v>
-      </c>
-      <c r="I24" s="41">
-        <v>32</v>
-      </c>
-    </row>
     <row r="25" ht="15.75" spans="6:9">
-      <c r="F25" s="45"/>
-      <c r="G25" s="46" t="s">
+      <c r="F25" s="46"/>
+      <c r="G25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="48">
         <f>SUM(H9:H24)</f>
         <v>53</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="56">
         <f>SUM(I9:I24)</f>
         <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="50">
+      <c r="A32" s="51">
         <v>1</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="50">
+      <c r="A33" s="51">
         <v>2</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="50">
+      <c r="A34" s="51">
         <v>3</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="50">
+      <c r="A37" s="51">
         <v>1</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A38" s="54">
+      <c r="A38" s="55">
         <v>2</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A39" s="54">
+      <c r="A39" s="55">
         <v>3</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" ht="54" customHeight="1" spans="1:6">
-      <c r="A40" s="54">
+      <c r="A40" s="55">
         <v>4</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4059,7 +4329,7 @@
   <dimension ref="A1:C556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C558" sqref="C558"/>
     </sheetView>
@@ -4090,100 +4360,100 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4194,68 +4464,68 @@
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4"/>
       <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4266,75 +4536,75 @@
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4345,85 +4615,85 @@
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="10" t="s">
         <v>82</v>
       </c>
@@ -4441,7 +4711,7 @@
       <c r="C51" s="2"/>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -4452,82 +4722,82 @@
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="4"/>
       <c r="C53" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="4"/>
       <c r="C54" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="4"/>
       <c r="C55" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="4"/>
       <c r="C57" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1" spans="1:3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="4"/>
       <c r="C58" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" spans="1:3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="4"/>
       <c r="C59" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" spans="1:3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="4"/>
       <c r="C60" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="4"/>
       <c r="C61" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="21"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="4" t="s">
         <v>95</v>
       </c>
@@ -4536,73 +4806,73 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="16"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="4" t="s">
         <v>104</v>
       </c>
@@ -4611,75 +4881,75 @@
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="4"/>
       <c r="C76" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="1:3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="25" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1" spans="1:3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="4"/>
       <c r="C80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1" spans="1:3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1" spans="1:3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="1:3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="1:3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1" spans="1:3">
-      <c r="A85" s="16"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
     </row>
     <row r="86" ht="16" customHeight="1" spans="1:3">
-      <c r="A86" s="16"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="4" t="s">
         <v>113</v>
       </c>
@@ -4688,84 +4958,84 @@
       </c>
     </row>
     <row r="87" ht="16" customHeight="1" spans="1:3">
-      <c r="A87" s="16"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="4"/>
       <c r="C87" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1" spans="1:3">
-      <c r="A88" s="16"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="4"/>
       <c r="C88" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1" spans="1:3">
-      <c r="A89" s="16"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1" spans="1:3">
-      <c r="A90" s="16"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1" spans="1:3">
-      <c r="A91" s="16"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" ht="16" customHeight="1" spans="1:3">
-      <c r="A92" s="16"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1" spans="1:3">
-      <c r="A93" s="16"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="25" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1" spans="1:3">
-      <c r="A94" s="16"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
-      <c r="A95" s="16"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="1:2">
-      <c r="A96" s="16"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" ht="15" spans="1:3">
-      <c r="A97" s="16"/>
-      <c r="B97" s="26" t="s">
+      <c r="A97" s="14"/>
+      <c r="B97" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="26"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
@@ -4783,23 +5053,23 @@
       <c r="C100" s="2"/>
     </row>
     <row r="101" ht="15.75" spans="1:3">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
     </row>
     <row r="103" ht="16" customHeight="1" spans="1:3">
-      <c r="A103" s="16"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="4" t="s">
         <v>126</v>
       </c>
@@ -4808,75 +5078,75 @@
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:3">
-      <c r="A104" s="16"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="4"/>
       <c r="C104" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
-      <c r="A105" s="16"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="4"/>
       <c r="C105" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:3">
-      <c r="A106" s="16"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="4"/>
       <c r="C106" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:3">
-      <c r="A107" s="16"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
-      <c r="A108" s="16"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="4"/>
       <c r="C108" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="109" ht="17" customHeight="1" spans="1:3">
-      <c r="A109" s="16"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="4"/>
       <c r="C109" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="110" ht="13" customHeight="1" spans="1:3">
-      <c r="A110" s="16"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="4"/>
       <c r="C110" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="111" ht="13" customHeight="1" spans="1:3">
-      <c r="A111" s="16"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="4"/>
       <c r="C111" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
-      <c r="A112" s="16"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:3">
-      <c r="A113" s="16"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="21"/>
+      <c r="C113" s="25"/>
     </row>
     <row r="114" ht="15" spans="1:3">
-      <c r="A114" s="16"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="4" t="s">
         <v>135</v>
       </c>
@@ -4885,66 +5155,66 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="16"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="4"/>
       <c r="C115" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="16"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="4"/>
       <c r="C116" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="16"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="4"/>
       <c r="C117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="16"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="4"/>
       <c r="C118" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="16"/>
+      <c r="A119" s="14"/>
       <c r="B119" s="4"/>
       <c r="C119" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="16"/>
+      <c r="A120" s="14"/>
       <c r="B120" s="4"/>
       <c r="C120" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="16"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="16"/>
+      <c r="A122" s="14"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:1">
-      <c r="A123" s="16"/>
+      <c r="A123" s="14"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:3">
-      <c r="A124" s="16"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="4" t="s">
         <v>143</v>
       </c>
@@ -4953,54 +5223,54 @@
       </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:3">
-      <c r="A125" s="16"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="4"/>
       <c r="C125" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:3">
-      <c r="A126" s="16"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="4"/>
       <c r="C126" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" ht="16" customHeight="1" spans="1:3">
-      <c r="A127" s="16"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:3">
-      <c r="A128" s="16"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" ht="16" customHeight="1" spans="1:3">
-      <c r="A129" s="16"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" ht="16" customHeight="1" spans="1:3">
-      <c r="A130" s="16"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1" spans="1:3">
-      <c r="A131" s="16"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
     </row>
     <row r="132" ht="16" customHeight="1" spans="1:3">
-      <c r="A132" s="16"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="4" t="s">
         <v>150</v>
       </c>
@@ -5009,77 +5279,77 @@
       </c>
     </row>
     <row r="133" ht="16" customHeight="1" spans="1:3">
-      <c r="A133" s="16"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" ht="16" customHeight="1" spans="1:3">
-      <c r="A134" s="16"/>
+      <c r="A134" s="14"/>
       <c r="B134" s="4"/>
       <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" ht="16" customHeight="1" spans="1:3">
-      <c r="A135" s="16"/>
+      <c r="A135" s="14"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1" spans="1:3">
-      <c r="A136" s="16"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="25" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" ht="16" customHeight="1" spans="1:3">
-      <c r="A137" s="16"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="4"/>
       <c r="C137" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="138" ht="16" customHeight="1" spans="1:3">
-      <c r="A138" s="16"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" ht="16" customHeight="1" spans="1:3">
-      <c r="A139" s="16"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
-      <c r="A140" s="16"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A141" s="16"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="4"/>
     </row>
     <row r="142" ht="15" spans="1:3">
-      <c r="A142" s="16"/>
-      <c r="B142" s="26" t="s">
+      <c r="A142" s="14"/>
+      <c r="B142" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="143" ht="15" spans="1:3">
-      <c r="A143" s="16"/>
-      <c r="B143" s="26"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="27"/>
       <c r="C143" s="10" t="s">
         <v>159</v>
       </c>
@@ -5097,7 +5367,7 @@
       <c r="C145" s="2"/>
     </row>
     <row r="146" ht="16" customHeight="1" spans="1:3">
-      <c r="A146" s="16" t="s">
+      <c r="A146" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -5108,82 +5378,82 @@
       </c>
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:3">
-      <c r="A147" s="16"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="4"/>
       <c r="C147" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
-      <c r="A148" s="16"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="4"/>
       <c r="C148" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="149" ht="21" customHeight="1" spans="1:3">
-      <c r="A149" s="16"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="4"/>
       <c r="C149" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" spans="1:3">
-      <c r="A150" s="16"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
-      <c r="A151" s="16"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="4"/>
       <c r="C151" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="152" ht="17" customHeight="1" spans="1:3">
-      <c r="A152" s="16"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="4"/>
       <c r="C152" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:3">
-      <c r="A153" s="16"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="4"/>
       <c r="C153" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="154" ht="13" customHeight="1" spans="1:3">
-      <c r="A154" s="16"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="4"/>
       <c r="C154" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
-      <c r="A155" s="16"/>
+      <c r="A155" s="14"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
-      <c r="A156" s="16"/>
+      <c r="A156" s="14"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="157" ht="15.75" spans="1:3">
-      <c r="A157" s="16"/>
+      <c r="A157" s="14"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="21"/>
+      <c r="C157" s="25"/>
     </row>
     <row r="158" ht="15" spans="1:3">
-      <c r="A158" s="16"/>
+      <c r="A158" s="14"/>
       <c r="B158" s="4" t="s">
         <v>172</v>
       </c>
@@ -5192,59 +5462,59 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="16"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="4"/>
       <c r="C159" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="16"/>
+      <c r="A160" s="14"/>
       <c r="B160" s="4"/>
       <c r="C160" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="16"/>
+      <c r="A161" s="14"/>
       <c r="B161" s="4"/>
       <c r="C161" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="16"/>
+      <c r="A162" s="14"/>
       <c r="B162" s="4"/>
       <c r="C162" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="16"/>
+      <c r="A163" s="14"/>
       <c r="B163" s="4"/>
       <c r="C163" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="16"/>
+      <c r="A164" s="14"/>
       <c r="B164" s="4"/>
       <c r="C164" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="16"/>
+      <c r="A165" s="14"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="1:1">
-      <c r="A166" s="16"/>
+      <c r="A166" s="14"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:3">
-      <c r="A167" s="16"/>
+      <c r="A167" s="14"/>
       <c r="B167" s="4" t="s">
         <v>179</v>
       </c>
@@ -5253,54 +5523,54 @@
       </c>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:3">
-      <c r="A168" s="16"/>
+      <c r="A168" s="14"/>
       <c r="B168" s="4"/>
       <c r="C168" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:3">
-      <c r="A169" s="16"/>
+      <c r="A169" s="14"/>
       <c r="B169" s="4"/>
       <c r="C169" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="170" ht="16" customHeight="1" spans="1:3">
-      <c r="A170" s="16"/>
+      <c r="A170" s="14"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="1" spans="1:3">
-      <c r="A171" s="16"/>
+      <c r="A171" s="14"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="172" ht="16" customHeight="1" spans="1:3">
-      <c r="A172" s="16"/>
+      <c r="A172" s="14"/>
       <c r="B172" s="4"/>
       <c r="C172" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="173" ht="16" customHeight="1" spans="1:3">
-      <c r="A173" s="16"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="1" spans="1:3">
-      <c r="A174" s="16"/>
+      <c r="A174" s="14"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
     </row>
     <row r="175" ht="16" customHeight="1" spans="1:3">
-      <c r="A175" s="16"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="4" t="s">
         <v>185</v>
       </c>
@@ -5309,82 +5579,82 @@
       </c>
     </row>
     <row r="176" ht="16" customHeight="1" spans="1:3">
-      <c r="A176" s="16"/>
+      <c r="A176" s="14"/>
       <c r="B176" s="4"/>
       <c r="C176" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" ht="16" customHeight="1" spans="1:3">
-      <c r="A177" s="16"/>
+      <c r="A177" s="14"/>
       <c r="B177" s="4"/>
       <c r="C177" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" ht="16" customHeight="1" spans="1:3">
-      <c r="A178" s="16"/>
+      <c r="A178" s="14"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="25" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="1" spans="1:3">
-      <c r="A179" s="16"/>
+      <c r="A179" s="14"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="25" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="180" ht="16" customHeight="1" spans="1:3">
-      <c r="A180" s="16"/>
+      <c r="A180" s="14"/>
       <c r="B180" s="4"/>
       <c r="C180" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="181" ht="16" customHeight="1" spans="1:3">
-      <c r="A181" s="16"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="25" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="182" ht="16" customHeight="1" spans="1:3">
-      <c r="A182" s="16"/>
+      <c r="A182" s="14"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
-      <c r="A183" s="16"/>
+      <c r="A183" s="14"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" customFormat="1" ht="15" spans="1:3">
-      <c r="A184" s="16"/>
+      <c r="A184" s="14"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="1" ht="15" spans="1:3">
-      <c r="A185" s="16"/>
+      <c r="A185" s="14"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A186" s="16"/>
+      <c r="A186" s="14"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
     </row>
     <row r="187" customFormat="1" ht="15" spans="1:3">
-      <c r="A187" s="16"/>
+      <c r="A187" s="14"/>
       <c r="B187" s="4" t="s">
         <v>195</v>
       </c>
@@ -5393,64 +5663,64 @@
       </c>
     </row>
     <row r="188" customFormat="1" spans="1:3">
-      <c r="A188" s="16"/>
+      <c r="A188" s="14"/>
       <c r="B188" s="4"/>
       <c r="C188" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:3">
-      <c r="A189" s="16"/>
+      <c r="A189" s="14"/>
       <c r="B189" s="4"/>
       <c r="C189" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
-      <c r="A190" s="16"/>
+      <c r="A190" s="14"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:3">
-      <c r="A191" s="16"/>
+      <c r="A191" s="14"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="192" customFormat="1" spans="1:3">
-      <c r="A192" s="16"/>
+      <c r="A192" s="14"/>
       <c r="B192" s="4"/>
       <c r="C192" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="193" customFormat="1" ht="15" spans="1:3">
-      <c r="A193" s="16"/>
+      <c r="A193" s="14"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="194" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A194" s="16"/>
+      <c r="A194" s="14"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
     </row>
     <row r="195" ht="15" spans="1:3">
-      <c r="A195" s="16"/>
-      <c r="B195" s="26" t="s">
+      <c r="A195" s="14"/>
+      <c r="B195" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="23" t="s">
+      <c r="C195" s="21" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
-      <c r="A196" s="16"/>
-      <c r="B196" s="26"/>
+      <c r="A196" s="14"/>
+      <c r="B196" s="27"/>
       <c r="C196" s="10" t="s">
         <v>202</v>
       </c>
@@ -5468,23 +5738,23 @@
       <c r="C198" s="2"/>
     </row>
     <row r="199" ht="15.75" spans="1:3">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" ht="15.75" spans="1:3">
-      <c r="A200" s="16"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="18"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="16"/>
     </row>
     <row r="201" ht="16" customHeight="1" spans="1:3">
-      <c r="A201" s="16"/>
+      <c r="A201" s="14"/>
       <c r="B201" s="4" t="s">
         <v>205</v>
       </c>
@@ -5493,55 +5763,55 @@
       </c>
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:3">
-      <c r="A202" s="16"/>
+      <c r="A202" s="14"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
-      <c r="A203" s="16"/>
+      <c r="A203" s="14"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1" spans="1:3">
-      <c r="A204" s="16"/>
+      <c r="A204" s="14"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:3">
-      <c r="A205" s="16"/>
+      <c r="A205" s="14"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
-      <c r="A206" s="16"/>
+      <c r="A206" s="14"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:3">
-      <c r="A207" s="16"/>
+      <c r="A207" s="14"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:3">
-      <c r="A208" s="16"/>
+      <c r="A208" s="14"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="21"/>
+      <c r="C208" s="25"/>
     </row>
     <row r="209" ht="15" spans="1:3">
-      <c r="A209" s="16"/>
-      <c r="B209" s="27" t="s">
+      <c r="A209" s="14"/>
+      <c r="B209" s="28" t="s">
         <v>211</v>
       </c>
       <c r="C209" s="11" t="s">
@@ -5549,59 +5819,59 @@
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
-      <c r="A210" s="16"/>
-      <c r="B210" s="27"/>
+      <c r="A210" s="14"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" ht="15" spans="1:3">
-      <c r="A211" s="16"/>
-      <c r="B211" s="27"/>
+      <c r="A211" s="14"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
-      <c r="A212" s="16"/>
-      <c r="B212" s="27"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" ht="15" spans="1:3">
-      <c r="A213" s="16"/>
-      <c r="B213" s="27"/>
+      <c r="A213" s="14"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="214" ht="15" spans="1:3">
-      <c r="A214" s="16"/>
-      <c r="B214" s="27"/>
+      <c r="A214" s="14"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="215" ht="15" spans="1:3">
-      <c r="A215" s="16"/>
-      <c r="B215" s="27"/>
+      <c r="A215" s="14"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="216" ht="15" spans="1:3">
-      <c r="A216" s="16"/>
-      <c r="B216" s="27"/>
+      <c r="A216" s="14"/>
+      <c r="B216" s="28"/>
       <c r="C216" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="217" customFormat="1" spans="1:1">
-      <c r="A217" s="16"/>
+      <c r="A217" s="14"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:3">
-      <c r="A218" s="16"/>
+      <c r="A218" s="14"/>
       <c r="B218" s="4" t="s">
         <v>218</v>
       </c>
@@ -5610,96 +5880,96 @@
       </c>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:3">
-      <c r="A219" s="16"/>
+      <c r="A219" s="14"/>
       <c r="B219" s="4"/>
       <c r="C219" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:3">
-      <c r="A220" s="16"/>
+      <c r="A220" s="14"/>
       <c r="B220" s="4"/>
       <c r="C220" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" ht="16" customHeight="1" spans="1:3">
-      <c r="A221" s="16"/>
+      <c r="A221" s="14"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" ht="16" customHeight="1" spans="1:3">
-      <c r="A222" s="16"/>
+      <c r="A222" s="14"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="25" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="223" ht="16" customHeight="1" spans="1:3">
-      <c r="A223" s="16"/>
+      <c r="A223" s="14"/>
       <c r="B223" s="4"/>
       <c r="C223" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="224" ht="16" customHeight="1" spans="1:3">
-      <c r="A224" s="16"/>
+      <c r="A224" s="14"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" ht="16" customHeight="1" spans="1:3">
-      <c r="A225" s="16"/>
+      <c r="A225" s="14"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="25" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" ht="16" customHeight="1" spans="1:3">
-      <c r="A226" s="16"/>
+      <c r="A226" s="14"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" ht="16" customHeight="1" spans="1:3">
-      <c r="A227" s="16"/>
+      <c r="A227" s="14"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="228" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A228" s="16"/>
+      <c r="A228" s="14"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
     </row>
     <row r="229" ht="15" spans="1:3">
-      <c r="A229" s="16"/>
-      <c r="B229" s="26" t="s">
+      <c r="A229" s="14"/>
+      <c r="B229" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C229" s="23" t="s">
+      <c r="C229" s="21" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="230" ht="15" spans="1:3">
-      <c r="A230" s="16"/>
-      <c r="B230" s="26"/>
+      <c r="A230" s="14"/>
+      <c r="B230" s="27"/>
       <c r="C230" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
-      <c r="A231" s="16"/>
-      <c r="B231" s="26"/>
+      <c r="A231" s="14"/>
+      <c r="B231" s="27"/>
       <c r="C231" s="10"/>
     </row>
     <row r="232" ht="14" customHeight="1" spans="1:3">
-      <c r="A232" s="16" t="s">
+      <c r="A232" s="14" t="s">
         <v>229</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -5710,40 +5980,40 @@
       </c>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:3">
-      <c r="A233" s="16"/>
+      <c r="A233" s="14"/>
       <c r="B233" s="4"/>
       <c r="C233" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" ht="19" customHeight="1" spans="1:3">
-      <c r="A234" s="16"/>
+      <c r="A234" s="14"/>
       <c r="B234" s="4"/>
       <c r="C234" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:3">
-      <c r="A235" s="16"/>
+      <c r="A235" s="14"/>
       <c r="B235" s="4"/>
       <c r="C235" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" ht="17" customHeight="1" spans="1:3">
-      <c r="A236" s="16"/>
+      <c r="A236" s="14"/>
       <c r="B236" s="4"/>
       <c r="C236" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="237" ht="9" customHeight="1" spans="1:3">
-      <c r="A237" s="16"/>
-      <c r="B237" s="28"/>
+      <c r="A237" s="14"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1" spans="1:3">
-      <c r="A238" s="16"/>
+      <c r="A238" s="14"/>
       <c r="B238" s="4" t="s">
         <v>235</v>
       </c>
@@ -5752,45 +6022,45 @@
       </c>
     </row>
     <row r="239" ht="13" customHeight="1" spans="1:3">
-      <c r="A239" s="16"/>
+      <c r="A239" s="14"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:3">
-      <c r="A240" s="16"/>
+      <c r="A240" s="14"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:3">
-      <c r="A241" s="16"/>
+      <c r="A241" s="14"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
-      <c r="A242" s="16"/>
+      <c r="A242" s="14"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" ht="15" spans="1:3">
-      <c r="A243" s="16"/>
+      <c r="A243" s="14"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="16"/>
+      <c r="A244" s="14"/>
     </row>
     <row r="245" ht="15" spans="1:3">
-      <c r="A245" s="16"/>
+      <c r="A245" s="14"/>
       <c r="B245" s="4" t="s">
         <v>241</v>
       </c>
@@ -5799,57 +6069,57 @@
       </c>
     </row>
     <row r="246" ht="15" spans="1:3">
-      <c r="A246" s="16"/>
+      <c r="A246" s="14"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" ht="15" spans="1:3">
-      <c r="A247" s="16"/>
+      <c r="A247" s="14"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
-      <c r="A248" s="16"/>
+      <c r="A248" s="14"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="249" ht="15" spans="1:3">
-      <c r="A249" s="16"/>
+      <c r="A249" s="14"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
-      <c r="A250" s="16"/>
+      <c r="A250" s="14"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:3">
-      <c r="A251" s="16"/>
+      <c r="A251" s="14"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
     </row>
     <row r="252" ht="15" spans="1:3">
-      <c r="A252" s="16"/>
-      <c r="B252" s="26" t="s">
+      <c r="A252" s="14"/>
+      <c r="B252" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C252" s="23" t="s">
+      <c r="C252" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="253" ht="15" spans="1:3">
-      <c r="A253" s="16"/>
-      <c r="B253" s="26"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="27"/>
       <c r="C253" s="10" t="s">
         <v>249</v>
       </c>
@@ -5867,18 +6137,18 @@
       <c r="C255" s="2"/>
     </row>
     <row r="256" ht="15.75" spans="1:3">
-      <c r="A256" s="16" t="s">
+      <c r="A256" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B256" s="17" t="s">
+      <c r="B256" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="257" ht="15" spans="1:3">
-      <c r="A257" s="16"/>
+      <c r="A257" s="14"/>
       <c r="B257" s="4" t="s">
         <v>252</v>
       </c>
@@ -5887,80 +6157,80 @@
       </c>
     </row>
     <row r="258" ht="15" spans="1:3">
-      <c r="A258" s="16"/>
+      <c r="A258" s="14"/>
       <c r="B258" s="4"/>
       <c r="C258" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="259" ht="15" spans="1:3">
-      <c r="A259" s="16"/>
+      <c r="A259" s="14"/>
       <c r="B259" s="4"/>
       <c r="C259" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
-      <c r="A260" s="16"/>
+      <c r="A260" s="14"/>
       <c r="B260" s="4"/>
       <c r="C260" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="261" ht="15" spans="1:3">
-      <c r="A261" s="16"/>
+      <c r="A261" s="14"/>
       <c r="B261" s="4"/>
       <c r="C261" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="262" ht="15" spans="1:3">
-      <c r="A262" s="16"/>
+      <c r="A262" s="14"/>
       <c r="B262" s="4"/>
       <c r="C262" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="263" ht="15" spans="1:3">
-      <c r="A263" s="16"/>
+      <c r="A263" s="14"/>
       <c r="B263" s="4"/>
       <c r="C263" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="264" ht="20" customHeight="1" spans="1:3">
-      <c r="A264" s="16"/>
+      <c r="A264" s="14"/>
       <c r="B264" s="4"/>
       <c r="C264" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="265" ht="21" customHeight="1" spans="1:3">
-      <c r="A265" s="16"/>
+      <c r="A265" s="14"/>
       <c r="B265" s="4"/>
       <c r="C265" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:3">
-      <c r="A266" s="16"/>
+      <c r="A266" s="14"/>
       <c r="B266" s="4"/>
       <c r="C266" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="267" ht="15" customHeight="1" spans="1:3">
-      <c r="A267" s="16"/>
+      <c r="A267" s="14"/>
       <c r="B267" s="4"/>
       <c r="C267" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="16"/>
+      <c r="A268" s="14"/>
     </row>
     <row r="269" ht="15" spans="1:3">
-      <c r="A269" s="16"/>
+      <c r="A269" s="14"/>
       <c r="B269" s="4" t="s">
         <v>262</v>
       </c>
@@ -5969,52 +6239,52 @@
       </c>
     </row>
     <row r="270" ht="15" spans="1:3">
-      <c r="A270" s="16"/>
+      <c r="A270" s="14"/>
       <c r="B270" s="4"/>
       <c r="C270" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="271" ht="15" spans="1:3">
-      <c r="A271" s="16"/>
+      <c r="A271" s="14"/>
       <c r="B271" s="4"/>
       <c r="C271" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="272" ht="15" spans="1:3">
-      <c r="A272" s="16"/>
+      <c r="A272" s="14"/>
       <c r="B272" s="4"/>
       <c r="C272" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="273" ht="15" spans="1:3">
-      <c r="A273" s="16"/>
+      <c r="A273" s="14"/>
       <c r="B273" s="4"/>
       <c r="C273" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
-      <c r="A274" s="16"/>
+      <c r="A274" s="14"/>
       <c r="B274" s="4"/>
       <c r="C274" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="275" ht="15" spans="1:3">
-      <c r="A275" s="16"/>
+      <c r="A275" s="14"/>
       <c r="B275" s="4"/>
       <c r="C275" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="16"/>
+      <c r="A276" s="14"/>
     </row>
     <row r="277" ht="15" spans="1:3">
-      <c r="A277" s="16"/>
+      <c r="A277" s="14"/>
       <c r="B277" s="4" t="s">
         <v>270</v>
       </c>
@@ -6023,52 +6293,52 @@
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
-      <c r="A278" s="16"/>
+      <c r="A278" s="14"/>
       <c r="B278" s="4"/>
       <c r="C278" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:3">
-      <c r="A279" s="16"/>
+      <c r="A279" s="14"/>
       <c r="B279" s="4"/>
       <c r="C279" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
-      <c r="A280" s="16"/>
+      <c r="A280" s="14"/>
       <c r="B280" s="4"/>
       <c r="C280" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="281" ht="15" spans="1:3">
-      <c r="A281" s="16"/>
+      <c r="A281" s="14"/>
       <c r="B281" s="4"/>
       <c r="C281" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
-      <c r="A282" s="16"/>
+      <c r="A282" s="14"/>
       <c r="B282" s="4"/>
       <c r="C282" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="283" ht="15" spans="1:3">
-      <c r="A283" s="16"/>
+      <c r="A283" s="14"/>
       <c r="B283" s="4"/>
       <c r="C283" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="16"/>
+      <c r="A284" s="14"/>
     </row>
     <row r="285" ht="15" spans="1:3">
-      <c r="A285" s="16"/>
+      <c r="A285" s="14"/>
       <c r="B285" s="4" t="s">
         <v>275</v>
       </c>
@@ -6077,73 +6347,73 @@
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
-      <c r="A286" s="16"/>
+      <c r="A286" s="14"/>
       <c r="B286" s="4"/>
       <c r="C286" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:3">
-      <c r="A287" s="16"/>
+      <c r="A287" s="14"/>
       <c r="B287" s="4"/>
       <c r="C287" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
-      <c r="A288" s="16"/>
+      <c r="A288" s="14"/>
       <c r="B288" s="4"/>
       <c r="C288" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:3">
-      <c r="A289" s="16"/>
+      <c r="A289" s="14"/>
       <c r="B289" s="4"/>
       <c r="C289" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
-      <c r="A290" s="16"/>
+      <c r="A290" s="14"/>
       <c r="B290" s="4"/>
       <c r="C290" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:3">
-      <c r="A291" s="16"/>
+      <c r="A291" s="14"/>
       <c r="B291" s="4"/>
       <c r="C291" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
-      <c r="A292" s="16"/>
+      <c r="A292" s="14"/>
       <c r="B292" s="4"/>
       <c r="C292" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:3">
-      <c r="A293" s="16"/>
+      <c r="A293" s="14"/>
       <c r="B293" s="4"/>
       <c r="C293" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
-      <c r="A294" s="16"/>
+      <c r="A294" s="14"/>
       <c r="B294" s="4"/>
       <c r="C294" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="16"/>
+      <c r="A295" s="14"/>
     </row>
     <row r="296" ht="15" spans="1:3">
-      <c r="A296" s="16"/>
+      <c r="A296" s="14"/>
       <c r="B296" s="4" t="s">
         <v>284</v>
       </c>
@@ -6152,62 +6422,62 @@
       </c>
     </row>
     <row r="297" ht="15" spans="1:3">
-      <c r="A297" s="16"/>
+      <c r="A297" s="14"/>
       <c r="B297" s="4"/>
       <c r="C297" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
-      <c r="A298" s="16"/>
+      <c r="A298" s="14"/>
       <c r="B298" s="4"/>
       <c r="C298" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:3">
-      <c r="A299" s="16"/>
+      <c r="A299" s="14"/>
       <c r="B299" s="4"/>
       <c r="C299" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="16"/>
+      <c r="A300" s="14"/>
     </row>
     <row r="301" ht="15" spans="1:3">
-      <c r="A301" s="16"/>
-      <c r="B301" s="26" t="s">
+      <c r="A301" s="14"/>
+      <c r="B301" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C301" s="23" t="s">
+      <c r="C301" s="21" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="16"/>
-      <c r="B302" s="26"/>
+      <c r="A302" s="14"/>
+      <c r="B302" s="27"/>
       <c r="C302" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="303" ht="15" customHeight="1" spans="1:3">
-      <c r="A303" s="16"/>
-      <c r="B303" s="26"/>
+      <c r="A303" s="14"/>
+      <c r="B303" s="27"/>
       <c r="C303" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" ht="12" customHeight="1" spans="1:3">
-      <c r="A304" s="16"/>
-      <c r="B304" s="26"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="27"/>
       <c r="C304" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:3">
-      <c r="A305" s="16"/>
-      <c r="B305" s="26"/>
+      <c r="A305" s="14"/>
+      <c r="B305" s="27"/>
       <c r="C305" s="10" t="s">
         <v>293</v>
       </c>
@@ -6225,23 +6495,23 @@
       <c r="C307" s="2"/>
     </row>
     <row r="308" ht="15.75" spans="1:3">
-      <c r="A308" s="16" t="s">
+      <c r="A308" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="309" ht="15.75" spans="1:3">
-      <c r="A309" s="16"/>
-      <c r="B309" s="17"/>
-      <c r="C309" s="18"/>
+      <c r="A309" s="14"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="16"/>
     </row>
     <row r="310" ht="15" spans="1:3">
-      <c r="A310" s="16"/>
+      <c r="A310" s="14"/>
       <c r="B310" s="4" t="s">
         <v>296</v>
       </c>
@@ -6250,31 +6520,31 @@
       </c>
     </row>
     <row r="311" ht="15" spans="1:3">
-      <c r="A311" s="16"/>
+      <c r="A311" s="14"/>
       <c r="B311" s="4"/>
       <c r="C311" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
-      <c r="A312" s="16"/>
+      <c r="A312" s="14"/>
       <c r="B312" s="4"/>
       <c r="C312" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:3">
-      <c r="A313" s="16"/>
+      <c r="A313" s="14"/>
       <c r="B313" s="4"/>
       <c r="C313" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:1">
-      <c r="A314" s="16"/>
+      <c r="A314" s="14"/>
     </row>
     <row r="315" ht="15" spans="1:3">
-      <c r="A315" s="16"/>
+      <c r="A315" s="14"/>
       <c r="B315" s="4" t="s">
         <v>300</v>
       </c>
@@ -6283,33 +6553,33 @@
       </c>
     </row>
     <row r="316" ht="15" spans="1:3">
-      <c r="A316" s="16"/>
+      <c r="A316" s="14"/>
       <c r="B316" s="4"/>
       <c r="C316" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:3">
-      <c r="A317" s="16"/>
+      <c r="A317" s="14"/>
       <c r="B317" s="4"/>
       <c r="C317" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
-      <c r="A318" s="16"/>
+      <c r="A318" s="14"/>
       <c r="B318" s="4"/>
       <c r="C318" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A319" s="16"/>
+      <c r="A319" s="14"/>
       <c r="B319" s="4"/>
       <c r="C319" s="10"/>
     </row>
     <row r="320" customFormat="1" ht="15" spans="1:3">
-      <c r="A320" s="16"/>
+      <c r="A320" s="14"/>
       <c r="B320" s="4" t="s">
         <v>305</v>
       </c>
@@ -6318,52 +6588,52 @@
       </c>
     </row>
     <row r="321" customFormat="1" ht="15" spans="1:3">
-      <c r="A321" s="16"/>
+      <c r="A321" s="14"/>
       <c r="B321" s="4"/>
       <c r="C321" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="322" customFormat="1" ht="15" spans="1:3">
-      <c r="A322" s="16"/>
+      <c r="A322" s="14"/>
       <c r="B322" s="4"/>
       <c r="C322" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" customFormat="1" ht="15" spans="1:3">
-      <c r="A323" s="16"/>
+      <c r="A323" s="14"/>
       <c r="B323" s="4"/>
       <c r="C323" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="324" customFormat="1" ht="15" spans="1:3">
-      <c r="A324" s="16"/>
+      <c r="A324" s="14"/>
       <c r="B324" s="4"/>
       <c r="C324" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="325" customFormat="1" ht="15" spans="1:3">
-      <c r="A325" s="16"/>
+      <c r="A325" s="14"/>
       <c r="B325" s="4"/>
       <c r="C325" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="326" customFormat="1" ht="15" spans="1:3">
-      <c r="A326" s="16"/>
+      <c r="A326" s="14"/>
       <c r="B326" s="4"/>
       <c r="C326" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:1">
-      <c r="A327" s="16"/>
+      <c r="A327" s="14"/>
     </row>
     <row r="328" ht="15" spans="1:3">
-      <c r="A328" s="16"/>
+      <c r="A328" s="14"/>
       <c r="B328" s="4" t="s">
         <v>311</v>
       </c>
@@ -6372,48 +6642,48 @@
       </c>
     </row>
     <row r="329" ht="15" spans="1:3">
-      <c r="A329" s="16"/>
+      <c r="A329" s="14"/>
       <c r="B329" s="4"/>
       <c r="C329" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
-      <c r="A330" s="16"/>
+      <c r="A330" s="14"/>
       <c r="B330" s="4"/>
       <c r="C330" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:3">
-      <c r="A331" s="16"/>
+      <c r="A331" s="14"/>
       <c r="B331" s="4"/>
       <c r="C331" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="332" customFormat="1" spans="1:1">
-      <c r="A332" s="16"/>
+      <c r="A332" s="14"/>
     </row>
     <row r="333" ht="15" spans="1:3">
-      <c r="A333" s="16"/>
-      <c r="B333" s="26" t="s">
+      <c r="A333" s="14"/>
+      <c r="B333" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="23" t="s">
+      <c r="C333" s="21" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="16"/>
-      <c r="B334" s="26"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="27"/>
       <c r="C334" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="16"/>
-      <c r="B335" s="26"/>
+      <c r="A335" s="14"/>
+      <c r="B335" s="27"/>
       <c r="C335" t="s">
         <v>317</v>
       </c>
@@ -6431,10 +6701,10 @@
       <c r="C337" s="2"/>
     </row>
     <row r="338" ht="15" spans="1:3">
-      <c r="A338" s="29" t="s">
+      <c r="A338" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="B338" s="27" t="s">
+      <c r="B338" s="28" t="s">
         <v>320</v>
       </c>
       <c r="C338" s="11" t="s">
@@ -6442,142 +6712,142 @@
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="29"/>
-      <c r="B339" s="27"/>
+      <c r="A339" s="30"/>
+      <c r="B339" s="28"/>
       <c r="C339" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="340" ht="15" spans="1:3">
-      <c r="A340" s="29"/>
-      <c r="B340" s="27"/>
+      <c r="A340" s="30"/>
+      <c r="B340" s="28"/>
       <c r="C340" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="341" ht="15" spans="1:3">
-      <c r="A341" s="29"/>
-      <c r="B341" s="27"/>
+      <c r="A341" s="30"/>
+      <c r="B341" s="28"/>
       <c r="C341" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
-      <c r="A342" s="29"/>
-      <c r="B342" s="27"/>
+      <c r="A342" s="30"/>
+      <c r="B342" s="28"/>
       <c r="C342" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:3">
-      <c r="A343" s="29"/>
-      <c r="B343" s="27"/>
+      <c r="A343" s="30"/>
+      <c r="B343" s="28"/>
       <c r="C343" s="11" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
-      <c r="A344" s="29"/>
-      <c r="B344" s="27"/>
+      <c r="A344" s="30"/>
+      <c r="B344" s="28"/>
       <c r="C344" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:3">
-      <c r="A345" s="29"/>
-      <c r="B345" s="27"/>
+      <c r="A345" s="30"/>
+      <c r="B345" s="28"/>
       <c r="C345" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
-      <c r="A346" s="29"/>
-      <c r="B346" s="27"/>
+      <c r="A346" s="30"/>
+      <c r="B346" s="28"/>
       <c r="C346" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:3">
-      <c r="A347" s="29"/>
-      <c r="B347" s="27"/>
+      <c r="A347" s="30"/>
+      <c r="B347" s="28"/>
       <c r="C347" s="11" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
-      <c r="A348" s="29"/>
-      <c r="B348" s="27"/>
+      <c r="A348" s="30"/>
+      <c r="B348" s="28"/>
       <c r="C348" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:3">
-      <c r="A349" s="29"/>
-      <c r="B349" s="27"/>
+      <c r="A349" s="30"/>
+      <c r="B349" s="28"/>
       <c r="C349" s="11" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
-      <c r="A350" s="29"/>
-      <c r="B350" s="27"/>
+      <c r="A350" s="30"/>
+      <c r="B350" s="28"/>
       <c r="C350" s="11" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:3">
-      <c r="A351" s="29"/>
-      <c r="B351" s="27"/>
+      <c r="A351" s="30"/>
+      <c r="B351" s="28"/>
       <c r="C351" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="29"/>
-      <c r="B352" s="27"/>
+      <c r="A352" s="30"/>
+      <c r="B352" s="28"/>
       <c r="C352" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="29"/>
-      <c r="B353" s="27"/>
+      <c r="A353" s="30"/>
+      <c r="B353" s="28"/>
       <c r="C353" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="29"/>
-      <c r="B354" s="27"/>
+      <c r="A354" s="30"/>
+      <c r="B354" s="28"/>
       <c r="C354" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="355" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A355" s="29"/>
-      <c r="B355" s="27"/>
+      <c r="A355" s="30"/>
+      <c r="B355" s="28"/>
     </row>
     <row r="356" ht="15" spans="1:3">
-      <c r="A356" s="29"/>
-      <c r="B356" s="26" t="s">
+      <c r="A356" s="30"/>
+      <c r="B356" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C356" s="23" t="s">
+      <c r="C356" s="21" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="29"/>
-      <c r="B357" s="26"/>
+      <c r="A357" s="30"/>
+      <c r="B357" s="27"/>
       <c r="C357" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="359" ht="15" spans="1:3">
-      <c r="A359" s="29" t="s">
+      <c r="A359" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B359" s="27" t="s">
+      <c r="B359" s="28" t="s">
         <v>340</v>
       </c>
       <c r="C359" s="11" t="s">
@@ -6585,72 +6855,72 @@
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="29"/>
-      <c r="B360" s="27"/>
+      <c r="A360" s="30"/>
+      <c r="B360" s="28"/>
       <c r="C360" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="361" ht="15" spans="1:3">
-      <c r="A361" s="29"/>
-      <c r="B361" s="27"/>
+      <c r="A361" s="30"/>
+      <c r="B361" s="28"/>
       <c r="C361" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
-      <c r="A362" s="29"/>
-      <c r="B362" s="27"/>
+      <c r="A362" s="30"/>
+      <c r="B362" s="28"/>
       <c r="C362" s="11" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:3">
-      <c r="A363" s="29"/>
-      <c r="B363" s="27"/>
+      <c r="A363" s="30"/>
+      <c r="B363" s="28"/>
       <c r="C363" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
-      <c r="A364" s="29"/>
-      <c r="B364" s="27"/>
+      <c r="A364" s="30"/>
+      <c r="B364" s="28"/>
       <c r="C364" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="29"/>
-      <c r="B365" s="27"/>
+      <c r="A365" s="30"/>
+      <c r="B365" s="28"/>
       <c r="C365" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="366" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A366" s="29"/>
-      <c r="B366" s="27"/>
+      <c r="A366" s="30"/>
+      <c r="B366" s="28"/>
     </row>
     <row r="367" ht="15" spans="1:3">
-      <c r="A367" s="29"/>
-      <c r="B367" s="26" t="s">
+      <c r="A367" s="30"/>
+      <c r="B367" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C367" s="23" t="s">
+      <c r="C367" s="21" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="29"/>
-      <c r="B368" s="26"/>
+      <c r="A368" s="30"/>
+      <c r="B368" s="27"/>
       <c r="C368" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="370" ht="15" spans="1:3">
-      <c r="A370" s="30" t="s">
+      <c r="A370" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="B370" s="31" t="s">
+      <c r="B370" s="32" t="s">
         <v>348</v>
       </c>
       <c r="C370" s="11" t="s">
@@ -6658,216 +6928,216 @@
       </c>
     </row>
     <row r="371" ht="15" spans="1:3">
-      <c r="A371" s="32"/>
-      <c r="B371" s="31"/>
+      <c r="A371" s="33"/>
+      <c r="B371" s="32"/>
       <c r="C371" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
-      <c r="A372" s="32"/>
-      <c r="B372" s="31"/>
+      <c r="A372" s="33"/>
+      <c r="B372" s="32"/>
       <c r="C372" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="373" ht="15" spans="1:3">
-      <c r="A373" s="32"/>
-      <c r="B373" s="31"/>
+      <c r="A373" s="33"/>
+      <c r="B373" s="32"/>
       <c r="C373" s="11" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
-      <c r="A374" s="32"/>
-      <c r="B374" s="31"/>
+      <c r="A374" s="33"/>
+      <c r="B374" s="32"/>
       <c r="C374" s="11" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="375" ht="15" spans="1:3">
-      <c r="A375" s="32"/>
-      <c r="B375" s="31"/>
-      <c r="C375" s="33" t="s">
+      <c r="A375" s="33"/>
+      <c r="B375" s="32"/>
+      <c r="C375" s="34" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="376" ht="15" spans="1:3">
-      <c r="A376" s="32"/>
-      <c r="B376" s="31"/>
+      <c r="A376" s="33"/>
+      <c r="B376" s="32"/>
       <c r="C376" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="377" ht="15" spans="1:3">
-      <c r="A377" s="32"/>
-      <c r="B377" s="31"/>
-      <c r="C377" s="33" t="s">
+      <c r="A377" s="33"/>
+      <c r="B377" s="32"/>
+      <c r="C377" s="34" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:3">
-      <c r="A378" s="32"/>
-      <c r="B378" s="31"/>
+      <c r="A378" s="33"/>
+      <c r="B378" s="32"/>
       <c r="C378" s="11" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="379" ht="15" spans="1:3">
-      <c r="A379" s="32"/>
-      <c r="B379" s="31"/>
-      <c r="C379" s="33" t="s">
+      <c r="A379" s="33"/>
+      <c r="B379" s="32"/>
+      <c r="C379" s="34" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:3">
-      <c r="A380" s="32"/>
-      <c r="B380" s="31"/>
+      <c r="A380" s="33"/>
+      <c r="B380" s="32"/>
       <c r="C380" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="381" ht="15" spans="1:3">
-      <c r="A381" s="32"/>
-      <c r="B381" s="31"/>
-      <c r="C381" s="33" t="s">
+      <c r="A381" s="33"/>
+      <c r="B381" s="32"/>
+      <c r="C381" s="34" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:3">
-      <c r="A382" s="32"/>
-      <c r="B382" s="31"/>
+      <c r="A382" s="33"/>
+      <c r="B382" s="32"/>
       <c r="C382" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="383" ht="15" spans="1:3">
-      <c r="A383" s="32"/>
-      <c r="B383" s="31"/>
+      <c r="A383" s="33"/>
+      <c r="B383" s="32"/>
       <c r="C383" s="11" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
-      <c r="A384" s="32"/>
-      <c r="B384" s="31"/>
+      <c r="A384" s="33"/>
+      <c r="B384" s="32"/>
       <c r="C384" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="385" ht="15" spans="1:3">
-      <c r="A385" s="32"/>
-      <c r="B385" s="31"/>
+      <c r="A385" s="33"/>
+      <c r="B385" s="32"/>
       <c r="C385" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
-      <c r="A386" s="32"/>
-      <c r="B386" s="31"/>
+      <c r="A386" s="33"/>
+      <c r="B386" s="32"/>
       <c r="C386" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="387" ht="15" spans="1:3">
-      <c r="A387" s="32"/>
-      <c r="B387" s="31"/>
+      <c r="A387" s="33"/>
+      <c r="B387" s="32"/>
       <c r="C387" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
-      <c r="A388" s="32"/>
-      <c r="B388" s="31"/>
+      <c r="A388" s="33"/>
+      <c r="B388" s="32"/>
       <c r="C388" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:3">
-      <c r="A389" s="32"/>
-      <c r="B389" s="31"/>
+      <c r="A389" s="33"/>
+      <c r="B389" s="32"/>
       <c r="C389" s="11" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="32"/>
-      <c r="B390" s="31"/>
+      <c r="A390" s="33"/>
+      <c r="B390" s="32"/>
       <c r="C390" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="32"/>
-      <c r="B391" s="31"/>
+      <c r="A391" s="33"/>
+      <c r="B391" s="32"/>
       <c r="C391" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="32"/>
-      <c r="B392" s="31"/>
+      <c r="A392" s="33"/>
+      <c r="B392" s="32"/>
       <c r="C392" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="32"/>
-      <c r="B393" s="31"/>
+      <c r="A393" s="33"/>
+      <c r="B393" s="32"/>
       <c r="C393" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="394" customFormat="1" spans="1:1">
-      <c r="A394" s="32"/>
+      <c r="A394" s="33"/>
     </row>
     <row r="395" ht="15" spans="1:3">
-      <c r="A395" s="32"/>
-      <c r="B395" s="26" t="s">
+      <c r="A395" s="33"/>
+      <c r="B395" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C395" s="23" t="s">
+      <c r="C395" s="21" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
-      <c r="A396" s="32"/>
-      <c r="B396" s="26"/>
+      <c r="A396" s="33"/>
+      <c r="B396" s="27"/>
       <c r="C396" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:3">
-      <c r="A397" s="32"/>
-      <c r="B397" s="26"/>
+      <c r="A397" s="33"/>
+      <c r="B397" s="27"/>
       <c r="C397" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
-      <c r="A398" s="32"/>
-      <c r="B398" s="26"/>
+      <c r="A398" s="33"/>
+      <c r="B398" s="27"/>
       <c r="C398" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:3">
-      <c r="A399" s="32"/>
-      <c r="B399" s="26"/>
+      <c r="A399" s="33"/>
+      <c r="B399" s="27"/>
       <c r="C399" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
-      <c r="A400" s="32"/>
-      <c r="B400" s="26"/>
+      <c r="A400" s="33"/>
+      <c r="B400" s="27"/>
       <c r="C400" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:3">
-      <c r="A401" s="32"/>
-      <c r="B401" s="26"/>
+      <c r="A401" s="33"/>
+      <c r="B401" s="27"/>
       <c r="C401" s="10" t="s">
         <v>378</v>
       </c>
@@ -6885,10 +7155,10 @@
       <c r="C403" s="2"/>
     </row>
     <row r="404" ht="15" spans="1:3">
-      <c r="A404" s="34" t="s">
+      <c r="A404" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="B404" s="31" t="s">
+      <c r="B404" s="32" t="s">
         <v>381</v>
       </c>
       <c r="C404" s="11" t="s">
@@ -6896,132 +7166,132 @@
       </c>
     </row>
     <row r="405" ht="15" spans="1:3">
-      <c r="A405" s="34"/>
-      <c r="B405" s="31"/>
+      <c r="A405" s="35"/>
+      <c r="B405" s="32"/>
       <c r="C405" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
-      <c r="A406" s="34"/>
-      <c r="B406" s="31"/>
+      <c r="A406" s="35"/>
+      <c r="B406" s="32"/>
       <c r="C406" s="11" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:3">
-      <c r="A407" s="34"/>
-      <c r="B407" s="31"/>
+      <c r="A407" s="35"/>
+      <c r="B407" s="32"/>
       <c r="C407" s="11" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="408" ht="15" spans="1:3">
-      <c r="A408" s="34"/>
-      <c r="B408" s="31"/>
+      <c r="A408" s="35"/>
+      <c r="B408" s="32"/>
       <c r="C408" s="11" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:3">
-      <c r="A409" s="34"/>
-      <c r="B409" s="31"/>
+      <c r="A409" s="35"/>
+      <c r="B409" s="32"/>
       <c r="C409" s="11" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:3">
-      <c r="A410" s="34"/>
-      <c r="B410" s="31"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="32"/>
       <c r="C410" s="11" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:3">
-      <c r="A411" s="34"/>
-      <c r="B411" s="31"/>
+      <c r="A411" s="35"/>
+      <c r="B411" s="32"/>
       <c r="C411" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
-      <c r="A412" s="34"/>
-      <c r="B412" s="31"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="32"/>
       <c r="C412" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:3">
-      <c r="A413" s="34"/>
-      <c r="B413" s="31"/>
+      <c r="A413" s="35"/>
+      <c r="B413" s="32"/>
       <c r="C413" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
-      <c r="A414" s="34"/>
-      <c r="B414" s="31"/>
+      <c r="A414" s="35"/>
+      <c r="B414" s="32"/>
       <c r="C414" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:3">
-      <c r="A415" s="34"/>
-      <c r="B415" s="31"/>
+      <c r="A415" s="35"/>
+      <c r="B415" s="32"/>
       <c r="C415" s="11" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
-      <c r="A416" s="34"/>
-      <c r="B416" s="31"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="32"/>
       <c r="C416" s="11" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:3">
-      <c r="A417" s="34"/>
-      <c r="B417" s="31"/>
+      <c r="A417" s="35"/>
+      <c r="B417" s="32"/>
       <c r="C417" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
-      <c r="A418" s="34"/>
-      <c r="B418" s="31"/>
+      <c r="A418" s="35"/>
+      <c r="B418" s="32"/>
       <c r="C418" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="419" ht="15" spans="1:3">
-      <c r="A419" s="34"/>
-      <c r="B419" s="31"/>
+      <c r="A419" s="35"/>
+      <c r="B419" s="32"/>
       <c r="C419" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
-      <c r="A420" s="34"/>
-      <c r="B420" s="31"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="32"/>
       <c r="C420" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="421" ht="15" spans="1:3">
-      <c r="A421" s="34"/>
-      <c r="B421" s="31"/>
+      <c r="A421" s="35"/>
+      <c r="B421" s="32"/>
       <c r="C421" s="11" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="422" ht="18" spans="1:3">
-      <c r="A422" s="34"/>
-      <c r="B422" s="31"/>
+      <c r="A422" s="35"/>
+      <c r="B422" s="32"/>
       <c r="C422" s="11"/>
     </row>
     <row r="423" ht="15" spans="1:3">
-      <c r="A423" s="34"/>
-      <c r="B423" s="31" t="s">
+      <c r="A423" s="35"/>
+      <c r="B423" s="32" t="s">
         <v>399</v>
       </c>
       <c r="C423" s="11" t="s">
@@ -7029,125 +7299,125 @@
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
-      <c r="A424" s="34"/>
-      <c r="B424" s="31"/>
+      <c r="A424" s="35"/>
+      <c r="B424" s="32"/>
       <c r="C424" s="11" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="425" ht="15" spans="1:3">
-      <c r="A425" s="34"/>
-      <c r="B425" s="31"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="32"/>
       <c r="C425" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
-      <c r="A426" s="34"/>
-      <c r="B426" s="31"/>
+      <c r="A426" s="35"/>
+      <c r="B426" s="32"/>
       <c r="C426" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="427" ht="15" spans="1:3">
-      <c r="A427" s="34"/>
-      <c r="B427" s="31"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="32"/>
       <c r="C427" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
-      <c r="A428" s="34"/>
-      <c r="B428" s="31"/>
+      <c r="A428" s="35"/>
+      <c r="B428" s="32"/>
       <c r="C428" s="11" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:3">
-      <c r="A429" s="34"/>
-      <c r="B429" s="31"/>
+      <c r="A429" s="35"/>
+      <c r="B429" s="32"/>
       <c r="C429" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
-      <c r="A430" s="34"/>
-      <c r="B430" s="31"/>
+      <c r="A430" s="35"/>
+      <c r="B430" s="32"/>
       <c r="C430" s="11" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:3">
-      <c r="A431" s="34"/>
-      <c r="B431" s="31"/>
+      <c r="A431" s="35"/>
+      <c r="B431" s="32"/>
       <c r="C431" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
-      <c r="A432" s="34"/>
-      <c r="B432" s="31"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="32"/>
       <c r="C432" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:3">
-      <c r="A433" s="34"/>
-      <c r="B433" s="31"/>
+      <c r="A433" s="35"/>
+      <c r="B433" s="32"/>
       <c r="C433" s="11" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
-      <c r="A434" s="34"/>
-      <c r="B434" s="31"/>
+      <c r="A434" s="35"/>
+      <c r="B434" s="32"/>
       <c r="C434" s="11" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="435" ht="15" spans="1:3">
-      <c r="A435" s="34"/>
-      <c r="B435" s="31"/>
+      <c r="A435" s="35"/>
+      <c r="B435" s="32"/>
       <c r="C435" s="11" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="436" ht="15" spans="1:3">
-      <c r="A436" s="34"/>
-      <c r="B436" s="31"/>
+      <c r="A436" s="35"/>
+      <c r="B436" s="32"/>
       <c r="C436" s="11" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="437" ht="15" spans="1:3">
-      <c r="A437" s="34"/>
-      <c r="B437" s="31"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="32"/>
       <c r="C437" s="11" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:3">
-      <c r="A438" s="34"/>
-      <c r="B438" s="31"/>
+      <c r="A438" s="35"/>
+      <c r="B438" s="32"/>
       <c r="C438" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="439" ht="15" spans="1:3">
-      <c r="A439" s="34"/>
-      <c r="B439" s="31"/>
+      <c r="A439" s="35"/>
+      <c r="B439" s="32"/>
       <c r="C439" s="11" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="440" ht="18" spans="1:3">
-      <c r="A440" s="34"/>
-      <c r="B440" s="31"/>
+      <c r="A440" s="35"/>
+      <c r="B440" s="32"/>
       <c r="C440" s="11"/>
     </row>
     <row r="441" ht="15" spans="1:3">
-      <c r="A441" s="34"/>
-      <c r="B441" s="31" t="s">
+      <c r="A441" s="35"/>
+      <c r="B441" s="32" t="s">
         <v>416</v>
       </c>
       <c r="C441" s="11" t="s">
@@ -7155,121 +7425,121 @@
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
-      <c r="A442" s="34"/>
-      <c r="B442" s="31"/>
+      <c r="A442" s="35"/>
+      <c r="B442" s="32"/>
       <c r="C442" s="11" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="443" ht="15" spans="1:3">
-      <c r="A443" s="34"/>
-      <c r="B443" s="31"/>
+      <c r="A443" s="35"/>
+      <c r="B443" s="32"/>
       <c r="C443" s="11" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
-      <c r="A444" s="34"/>
-      <c r="B444" s="31"/>
+      <c r="A444" s="35"/>
+      <c r="B444" s="32"/>
       <c r="C444" s="11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="445" ht="15" spans="1:3">
-      <c r="A445" s="34"/>
-      <c r="B445" s="31"/>
+      <c r="A445" s="35"/>
+      <c r="B445" s="32"/>
       <c r="C445" s="11" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:3">
-      <c r="A446" s="34"/>
-      <c r="B446" s="31"/>
+      <c r="A446" s="35"/>
+      <c r="B446" s="32"/>
       <c r="C446" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="447" ht="15" spans="1:3">
-      <c r="A447" s="34"/>
-      <c r="B447" s="31"/>
+      <c r="A447" s="35"/>
+      <c r="B447" s="32"/>
       <c r="C447" s="11" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
-      <c r="A448" s="34"/>
-      <c r="B448" s="31"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="32"/>
       <c r="C448" s="11" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:3">
-      <c r="A449" s="34"/>
-      <c r="B449" s="31"/>
+      <c r="A449" s="35"/>
+      <c r="B449" s="32"/>
       <c r="C449" s="11" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
-      <c r="A450" s="34"/>
-      <c r="B450" s="31"/>
+      <c r="A450" s="35"/>
+      <c r="B450" s="32"/>
       <c r="C450" s="11" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:3">
-      <c r="A451" s="34"/>
-      <c r="B451" s="35"/>
+      <c r="A451" s="35"/>
+      <c r="B451" s="36"/>
       <c r="C451" s="11"/>
     </row>
     <row r="452" ht="15" spans="1:3">
-      <c r="A452" s="34"/>
-      <c r="B452" s="26" t="s">
+      <c r="A452" s="35"/>
+      <c r="B452" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C452" s="23" t="s">
+      <c r="C452" s="21" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="453" ht="15" spans="1:3">
-      <c r="A453" s="34"/>
-      <c r="B453" s="26"/>
+      <c r="A453" s="35"/>
+      <c r="B453" s="27"/>
       <c r="C453" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
-      <c r="A454" s="34"/>
-      <c r="B454" s="26"/>
-      <c r="C454" s="23" t="s">
+      <c r="A454" s="35"/>
+      <c r="B454" s="27"/>
+      <c r="C454" s="21" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="455" ht="15" spans="1:3">
-      <c r="A455" s="34"/>
-      <c r="B455" s="26"/>
+      <c r="A455" s="35"/>
+      <c r="B455" s="27"/>
       <c r="C455" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
-      <c r="A456" s="34"/>
-      <c r="B456" s="26"/>
-      <c r="C456" s="23" t="s">
+      <c r="A456" s="35"/>
+      <c r="B456" s="27"/>
+      <c r="C456" s="21" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="457" ht="15" spans="1:3">
-      <c r="A457" s="34"/>
-      <c r="B457" s="26"/>
+      <c r="A457" s="35"/>
+      <c r="B457" s="27"/>
       <c r="C457" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="36"/>
-      <c r="B458" s="36"/>
-      <c r="C458" s="36"/>
+      <c r="A458" s="37"/>
+      <c r="B458" s="37"/>
+      <c r="C458" s="37"/>
     </row>
     <row r="459" ht="24.75" spans="1:3">
       <c r="A459" s="2" t="s">
@@ -7279,23 +7549,23 @@
       <c r="C459" s="2"/>
     </row>
     <row r="460" ht="15.75" spans="1:3">
-      <c r="A460" s="16" t="s">
+      <c r="A460" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B460" s="17" t="s">
+      <c r="B460" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C460" s="18" t="s">
+      <c r="C460" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="461" ht="12" customHeight="1" spans="1:3">
-      <c r="A461" s="16"/>
-      <c r="B461" s="17"/>
-      <c r="C461" s="18"/>
+      <c r="A461" s="14"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="16"/>
     </row>
     <row r="462" ht="16" customHeight="1" spans="1:3">
-      <c r="A462" s="16"/>
+      <c r="A462" s="14"/>
       <c r="B462" s="4" t="s">
         <v>433</v>
       </c>
@@ -7304,252 +7574,252 @@
       </c>
     </row>
     <row r="463" ht="20" customHeight="1" spans="1:3">
-      <c r="A463" s="16"/>
+      <c r="A463" s="14"/>
       <c r="B463" s="4"/>
       <c r="C463" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
-      <c r="A464" s="16"/>
+      <c r="A464" s="14"/>
       <c r="B464" s="4"/>
       <c r="C464" s="10" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="465" ht="21" customHeight="1" spans="1:3">
-      <c r="A465" s="16"/>
+      <c r="A465" s="14"/>
       <c r="B465" s="4"/>
       <c r="C465" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="466" ht="15" customHeight="1" spans="1:3">
-      <c r="A466" s="16"/>
+      <c r="A466" s="14"/>
       <c r="B466" s="4"/>
       <c r="C466" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="467" ht="15" spans="1:3">
-      <c r="A467" s="16"/>
+      <c r="A467" s="14"/>
       <c r="B467" s="4"/>
       <c r="C467" s="10" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="468" ht="17" customHeight="1" spans="1:3">
-      <c r="A468" s="16"/>
+      <c r="A468" s="14"/>
       <c r="B468" s="4"/>
       <c r="C468" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="469" ht="13" customHeight="1" spans="1:3">
-      <c r="A469" s="16"/>
+      <c r="A469" s="14"/>
       <c r="B469" s="4"/>
       <c r="C469" s="10" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="470" ht="13" customHeight="1" spans="1:3">
-      <c r="A470" s="16"/>
+      <c r="A470" s="14"/>
       <c r="B470" s="4"/>
       <c r="C470" s="10" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="471" ht="15" spans="1:3">
-      <c r="A471" s="16"/>
+      <c r="A471" s="14"/>
       <c r="B471" s="4"/>
       <c r="C471" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
-      <c r="A472" s="16"/>
+      <c r="A472" s="14"/>
       <c r="B472" s="4"/>
       <c r="C472" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="473" ht="15" spans="1:3">
-      <c r="A473" s="16"/>
+      <c r="A473" s="14"/>
       <c r="B473" s="4"/>
       <c r="C473" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
-      <c r="A474" s="16"/>
+      <c r="A474" s="14"/>
       <c r="B474" s="4"/>
       <c r="C474" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="475" ht="15" spans="1:3">
-      <c r="A475" s="16"/>
+      <c r="A475" s="14"/>
       <c r="B475" s="4"/>
       <c r="C475" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
-      <c r="A476" s="16"/>
+      <c r="A476" s="14"/>
       <c r="B476" s="4"/>
       <c r="C476" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="477" ht="15" customHeight="1" spans="1:3">
-      <c r="A477" s="16"/>
+      <c r="A477" s="14"/>
       <c r="B477" s="4"/>
       <c r="C477" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
-      <c r="A478" s="16"/>
+      <c r="A478" s="14"/>
       <c r="B478" s="4"/>
       <c r="C478" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="479" ht="15" spans="1:3">
-      <c r="A479" s="16"/>
+      <c r="A479" s="14"/>
       <c r="B479" s="4"/>
       <c r="C479" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
-      <c r="A480" s="16"/>
+      <c r="A480" s="14"/>
       <c r="B480" s="4"/>
       <c r="C480" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="481" ht="18" customHeight="1" spans="1:3">
-      <c r="A481" s="16"/>
+      <c r="A481" s="14"/>
       <c r="B481" s="4"/>
       <c r="C481" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="482" ht="18" customHeight="1" spans="1:3">
-      <c r="A482" s="16"/>
+      <c r="A482" s="14"/>
       <c r="B482" s="4"/>
       <c r="C482" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="483" ht="18" customHeight="1" spans="1:3">
-      <c r="A483" s="16"/>
+      <c r="A483" s="14"/>
       <c r="B483" s="4"/>
       <c r="C483" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="484" ht="16" customHeight="1" spans="1:3">
-      <c r="A484" s="16"/>
+      <c r="A484" s="14"/>
       <c r="B484" s="4"/>
       <c r="C484" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="485" ht="16" customHeight="1" spans="1:3">
-      <c r="A485" s="16"/>
+      <c r="A485" s="14"/>
       <c r="B485" s="4"/>
       <c r="C485" s="10" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="486" ht="16" customHeight="1" spans="1:3">
-      <c r="A486" s="16"/>
+      <c r="A486" s="14"/>
       <c r="B486" s="4"/>
       <c r="C486" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="487" ht="16" customHeight="1" spans="1:3">
-      <c r="A487" s="16"/>
+      <c r="A487" s="14"/>
       <c r="B487" s="4"/>
       <c r="C487" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="488" ht="16" customHeight="1" spans="1:3">
-      <c r="A488" s="16"/>
+      <c r="A488" s="14"/>
       <c r="B488" s="4"/>
       <c r="C488" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="489" ht="16" customHeight="1" spans="1:3">
-      <c r="A489" s="16"/>
+      <c r="A489" s="14"/>
       <c r="B489" s="4"/>
       <c r="C489" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="490" ht="16" customHeight="1" spans="1:3">
-      <c r="A490" s="16"/>
+      <c r="A490" s="14"/>
       <c r="B490" s="4"/>
       <c r="C490" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="491" ht="16" customHeight="1" spans="1:3">
-      <c r="A491" s="16"/>
+      <c r="A491" s="14"/>
       <c r="B491" s="4"/>
       <c r="C491" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="492" ht="16" customHeight="1" spans="1:3">
-      <c r="A492" s="16"/>
+      <c r="A492" s="14"/>
       <c r="B492" s="4"/>
       <c r="C492" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="493" ht="16" customHeight="1" spans="1:3">
-      <c r="A493" s="16"/>
+      <c r="A493" s="14"/>
       <c r="B493" s="4"/>
       <c r="C493" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="494" ht="16" customHeight="1" spans="1:3">
-      <c r="A494" s="16"/>
+      <c r="A494" s="14"/>
       <c r="B494" s="4"/>
       <c r="C494" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="495" ht="16" customHeight="1" spans="1:3">
-      <c r="A495" s="16"/>
+      <c r="A495" s="14"/>
       <c r="B495" s="4"/>
       <c r="C495" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="496" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A496" s="16"/>
+      <c r="A496" s="14"/>
       <c r="B496" s="4"/>
     </row>
     <row r="497" ht="15" spans="1:3">
-      <c r="A497" s="16"/>
-      <c r="B497" s="26" t="s">
+      <c r="A497" s="14"/>
+      <c r="B497" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C497" s="23" t="s">
+      <c r="C497" s="21" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="498" ht="15" spans="1:3">
-      <c r="A498" s="16"/>
-      <c r="B498" s="26"/>
+      <c r="A498" s="14"/>
+      <c r="B498" s="27"/>
       <c r="C498" s="10" t="s">
         <v>469</v>
       </c>
@@ -7567,24 +7837,24 @@
       <c r="C500" s="2"/>
     </row>
     <row r="501" ht="15.75" spans="1:3">
-      <c r="A501" s="16" t="s">
+      <c r="A501" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B501" s="17" t="s">
+      <c r="B501" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C501" s="18" t="s">
+      <c r="C501" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="502" ht="15.75" spans="1:3">
-      <c r="A502" s="16"/>
-      <c r="B502" s="17"/>
-      <c r="C502" s="18"/>
+      <c r="A502" s="14"/>
+      <c r="B502" s="15"/>
+      <c r="C502" s="16"/>
     </row>
     <row r="503" ht="15" spans="1:3">
-      <c r="A503" s="16"/>
-      <c r="B503" s="31" t="s">
+      <c r="A503" s="14"/>
+      <c r="B503" s="32" t="s">
         <v>472</v>
       </c>
       <c r="C503" s="11" t="s">
@@ -7592,183 +7862,183 @@
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" s="16"/>
-      <c r="B504" s="31"/>
+      <c r="A504" s="14"/>
+      <c r="B504" s="32"/>
       <c r="C504" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="505" ht="15" spans="1:3">
-      <c r="A505" s="16"/>
-      <c r="B505" s="31"/>
+      <c r="A505" s="14"/>
+      <c r="B505" s="32"/>
       <c r="C505" s="11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="506" ht="15" spans="1:3">
-      <c r="A506" s="16"/>
-      <c r="B506" s="31"/>
+      <c r="A506" s="14"/>
+      <c r="B506" s="32"/>
       <c r="C506" s="11" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="507" ht="15" spans="1:3">
-      <c r="A507" s="16"/>
-      <c r="B507" s="31"/>
+      <c r="A507" s="14"/>
+      <c r="B507" s="32"/>
       <c r="C507" s="11" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="508" ht="15" spans="1:3">
-      <c r="A508" s="16"/>
-      <c r="B508" s="31"/>
+      <c r="A508" s="14"/>
+      <c r="B508" s="32"/>
       <c r="C508" s="11" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="509" ht="18" spans="1:3">
-      <c r="A509" s="16"/>
-      <c r="B509" s="31"/>
+      <c r="A509" s="14"/>
+      <c r="B509" s="32"/>
       <c r="C509" s="11"/>
     </row>
     <row r="510" ht="15" spans="1:3">
-      <c r="A510" s="16"/>
-      <c r="B510" s="31" t="s">
+      <c r="A510" s="14"/>
+      <c r="B510" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="C510" s="24" t="s">
+      <c r="C510" s="19" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="511" ht="15" spans="1:3">
-      <c r="A511" s="16"/>
-      <c r="B511" s="31"/>
+      <c r="A511" s="14"/>
+      <c r="B511" s="32"/>
       <c r="C511" s="11" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="512" ht="15" spans="1:3">
-      <c r="A512" s="16"/>
-      <c r="B512" s="31"/>
+      <c r="A512" s="14"/>
+      <c r="B512" s="32"/>
       <c r="C512" s="11" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="513" ht="15" spans="1:3">
-      <c r="A513" s="16"/>
-      <c r="B513" s="31"/>
+      <c r="A513" s="14"/>
+      <c r="B513" s="32"/>
       <c r="C513" s="11" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="514" ht="15" spans="1:3">
-      <c r="A514" s="16"/>
-      <c r="B514" s="31"/>
+      <c r="A514" s="14"/>
+      <c r="B514" s="32"/>
       <c r="C514" s="11" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="515" ht="15" spans="1:3">
-      <c r="A515" s="16"/>
-      <c r="B515" s="31"/>
+      <c r="A515" s="14"/>
+      <c r="B515" s="32"/>
       <c r="C515" s="11" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="516" ht="15" spans="1:3">
-      <c r="A516" s="16"/>
-      <c r="B516" s="31"/>
+      <c r="A516" s="14"/>
+      <c r="B516" s="32"/>
       <c r="C516" s="11" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="517" ht="15" spans="1:3">
-      <c r="A517" s="16"/>
-      <c r="B517" s="31"/>
+      <c r="A517" s="14"/>
+      <c r="B517" s="32"/>
       <c r="C517" s="11" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="518" ht="18" spans="1:3">
-      <c r="A518" s="16"/>
-      <c r="B518" s="31"/>
+      <c r="A518" s="14"/>
+      <c r="B518" s="32"/>
       <c r="C518" s="11"/>
     </row>
     <row r="519" ht="15" spans="1:3">
-      <c r="A519" s="16"/>
+      <c r="A519" s="14"/>
       <c r="B519" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C519" s="18" t="s">
+      <c r="C519" s="16" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="520" ht="15" spans="1:3">
-      <c r="A520" s="16"/>
+      <c r="A520" s="14"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="521" ht="15" spans="1:3">
-      <c r="A521" s="16"/>
+      <c r="A521" s="14"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="522" ht="15" spans="1:3">
-      <c r="A522" s="16"/>
+      <c r="A522" s="14"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="523" ht="18" spans="1:3">
-      <c r="A523" s="16"/>
-      <c r="B523" s="28"/>
+      <c r="A523" s="14"/>
+      <c r="B523" s="29"/>
       <c r="C523" s="11"/>
     </row>
     <row r="524" ht="15" spans="1:3">
-      <c r="A524" s="16"/>
-      <c r="B524" s="22" t="s">
+      <c r="A524" s="14"/>
+      <c r="B524" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C524" s="23" t="s">
+      <c r="C524" s="21" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="525" ht="15" spans="1:3">
-      <c r="A525" s="16"/>
-      <c r="B525" s="22"/>
+      <c r="A525" s="14"/>
+      <c r="B525" s="20"/>
       <c r="C525" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="526" ht="9" customHeight="1" spans="1:3">
-      <c r="A526" s="20"/>
-      <c r="B526" s="20"/>
-      <c r="C526" s="20"/>
+      <c r="A526" s="18"/>
+      <c r="B526" s="18"/>
+      <c r="C526" s="18"/>
     </row>
     <row r="527" ht="15.75" spans="1:3">
-      <c r="A527" s="16" t="s">
+      <c r="A527" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B527" s="17" t="s">
+      <c r="B527" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C527" s="18" t="s">
+      <c r="C527" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="528" ht="15.75" spans="1:3">
-      <c r="A528" s="16"/>
-      <c r="B528" s="17"/>
-      <c r="C528" s="18"/>
+      <c r="A528" s="14"/>
+      <c r="B528" s="15"/>
+      <c r="C528" s="16"/>
     </row>
     <row r="529" ht="15" spans="1:3">
-      <c r="A529" s="16"/>
-      <c r="B529" s="31" t="s">
+      <c r="A529" s="14"/>
+      <c r="B529" s="32" t="s">
         <v>495</v>
       </c>
       <c r="C529" s="11" t="s">
@@ -7776,162 +8046,162 @@
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="A530" s="16"/>
-      <c r="B530" s="31"/>
+      <c r="A530" s="14"/>
+      <c r="B530" s="32"/>
       <c r="C530" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="531" ht="15" spans="1:3">
-      <c r="A531" s="16"/>
-      <c r="B531" s="31"/>
+      <c r="A531" s="14"/>
+      <c r="B531" s="32"/>
       <c r="C531" s="11" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="532" ht="15" spans="1:3">
-      <c r="A532" s="16"/>
-      <c r="B532" s="31"/>
+      <c r="A532" s="14"/>
+      <c r="B532" s="32"/>
       <c r="C532" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="533" ht="15" spans="1:3">
-      <c r="A533" s="16"/>
-      <c r="B533" s="31"/>
+      <c r="A533" s="14"/>
+      <c r="B533" s="32"/>
       <c r="C533" s="11" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="534" ht="12" customHeight="1" spans="1:3">
-      <c r="A534" s="16"/>
-      <c r="B534" s="31"/>
+      <c r="A534" s="14"/>
+      <c r="B534" s="32"/>
       <c r="C534" s="11"/>
     </row>
     <row r="535" ht="15" spans="1:3">
-      <c r="A535" s="16"/>
-      <c r="B535" s="31" t="s">
+      <c r="A535" s="14"/>
+      <c r="B535" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="C535" s="24" t="s">
+      <c r="C535" s="19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="536" ht="15" spans="1:3">
-      <c r="A536" s="16"/>
-      <c r="B536" s="31"/>
+      <c r="A536" s="14"/>
+      <c r="B536" s="32"/>
       <c r="C536" s="11" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="537" ht="15" spans="1:3">
-      <c r="A537" s="16"/>
-      <c r="B537" s="31"/>
+      <c r="A537" s="14"/>
+      <c r="B537" s="32"/>
       <c r="C537" s="11" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="538" ht="11" customHeight="1" spans="1:3">
-      <c r="A538" s="16"/>
-      <c r="B538" s="31"/>
+      <c r="A538" s="14"/>
+      <c r="B538" s="32"/>
       <c r="C538" s="11"/>
     </row>
     <row r="539" ht="15" spans="1:3">
-      <c r="A539" s="16"/>
-      <c r="B539" s="31" t="s">
+      <c r="A539" s="14"/>
+      <c r="B539" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="C539" s="18" t="s">
+      <c r="C539" s="16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="540" ht="15" spans="1:3">
-      <c r="A540" s="16"/>
-      <c r="B540" s="31"/>
+      <c r="A540" s="14"/>
+      <c r="B540" s="32"/>
       <c r="C540" s="11" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="541" ht="15" spans="1:3">
-      <c r="A541" s="16"/>
-      <c r="B541" s="31"/>
+      <c r="A541" s="14"/>
+      <c r="B541" s="32"/>
       <c r="C541" s="11" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="542" ht="15" spans="1:3">
-      <c r="A542" s="16"/>
-      <c r="B542" s="31"/>
+      <c r="A542" s="14"/>
+      <c r="B542" s="32"/>
       <c r="C542" s="11" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="543" ht="15" spans="1:3">
-      <c r="A543" s="16"/>
-      <c r="B543" s="31"/>
+      <c r="A543" s="14"/>
+      <c r="B543" s="32"/>
       <c r="C543" s="11" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="544" ht="15" spans="1:3">
-      <c r="A544" s="16"/>
-      <c r="B544" s="31"/>
+      <c r="A544" s="14"/>
+      <c r="B544" s="32"/>
       <c r="C544" s="11" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="545" ht="15.75" spans="1:3">
-      <c r="A545" s="16"/>
+      <c r="A545" s="14"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
     </row>
     <row r="546" ht="15" spans="1:3">
-      <c r="A546" s="16"/>
-      <c r="B546" s="31" t="s">
+      <c r="A546" s="14"/>
+      <c r="B546" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="C546" s="18" t="s">
+      <c r="C546" s="16" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="547" ht="15" spans="1:3">
-      <c r="A547" s="16"/>
-      <c r="B547" s="31"/>
+      <c r="A547" s="14"/>
+      <c r="B547" s="32"/>
       <c r="C547" s="11" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="548" ht="15" spans="1:3">
-      <c r="A548" s="16"/>
-      <c r="B548" s="31"/>
+      <c r="A548" s="14"/>
+      <c r="B548" s="32"/>
       <c r="C548" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="549" ht="15" spans="1:3">
-      <c r="A549" s="16"/>
-      <c r="B549" s="31"/>
+      <c r="A549" s="14"/>
+      <c r="B549" s="32"/>
       <c r="C549" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="550" ht="18" spans="1:3">
-      <c r="A550" s="16"/>
-      <c r="B550" s="28"/>
+      <c r="A550" s="14"/>
+      <c r="B550" s="29"/>
       <c r="C550" s="11"/>
     </row>
     <row r="551" ht="15" spans="1:3">
-      <c r="A551" s="16"/>
-      <c r="B551" s="22" t="s">
+      <c r="A551" s="14"/>
+      <c r="B551" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C551" s="23" t="s">
+      <c r="C551" s="21" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="552" ht="15" spans="1:3">
-      <c r="A552" s="16"/>
-      <c r="B552" s="22"/>
+      <c r="A552" s="14"/>
+      <c r="B552" s="20"/>
       <c r="C552" s="10" t="s">
         <v>518</v>
       </c>
@@ -7942,18 +8212,18 @@
       <c r="C553" s="13"/>
     </row>
     <row r="555" ht="18.75" spans="1:2">
-      <c r="A555" s="14" t="s">
+      <c r="A555" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="B555" s="15">
+      <c r="B555" s="24">
         <v>10.5</v>
       </c>
     </row>
     <row r="556" ht="18.75" spans="1:2">
-      <c r="A556" s="14" t="s">
+      <c r="A556" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="B556" s="15">
+      <c r="B556" s="24">
         <v>84</v>
       </c>
     </row>
@@ -8066,7 +8336,7 @@
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
@@ -8097,58 +8367,58 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>528</v>
       </c>
@@ -8157,40 +8427,40 @@
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>532</v>
       </c>
@@ -8199,61 +8469,61 @@
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="4" t="s">
         <v>540</v>
       </c>
@@ -8262,61 +8532,61 @@
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="4" t="s">
         <v>547</v>
       </c>
@@ -8325,41 +8595,41 @@
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="4"/>
       <c r="C36" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="4"/>
       <c r="C37" s="9" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="21"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" ht="15.75" spans="1:3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -8367,35 +8637,35 @@
       </c>
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="10" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="22"/>
+    <row r="44" spans="1:3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="20"/>
       <c r="C44" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="45" ht="18.75" spans="1:3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="22"/>
+    <row r="45" spans="1:3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="20"/>
       <c r="C45" t="s">
         <v>555</v>
       </c>
@@ -8413,58 +8683,58 @@
       <c r="C47" s="2"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="14" t="s">
         <v>557</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="4"/>
       <c r="C50" s="9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="4"/>
       <c r="C51" s="9" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="4"/>
       <c r="C52" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="4"/>
       <c r="C53" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="4"/>
       <c r="C54" s="10"/>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="4" t="s">
         <v>564</v>
       </c>
@@ -8473,54 +8743,54 @@
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="4" t="s">
         <v>570</v>
       </c>
@@ -8529,155 +8799,155 @@
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="19" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="19" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="19" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="19" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="19" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="19" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="19" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="19" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="19" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="24"/>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="22" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="21" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="16"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="10" t="s">
         <v>590</v>
       </c>
@@ -8688,34 +8958,34 @@
       <c r="C86" s="13"/>
     </row>
     <row r="88" ht="18.75" spans="1:2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="24">
         <v>16</v>
       </c>
     </row>
     <row r="161" ht="18.75" spans="1:2">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="162" ht="18.75" spans="1:2">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="B162" s="15">
+      <c r="B162" s="24">
         <v>16</v>
       </c>
     </row>
@@ -8745,12 +9015,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -8878,27 +9148,550 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="118" ht="18.75" spans="1:2">
-      <c r="A118" s="14" t="s">
+    <row r="17" ht="24.75" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:3">
+      <c r="A18" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="10" customHeight="1" spans="1:3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" ht="19" customHeight="1" spans="1:3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" ht="12" customHeight="1" spans="1:3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" ht="14" customHeight="1" spans="1:3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" spans="1:3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="1" spans="1:3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1" spans="1:3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="1:3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="54" ht="21" customHeight="1" spans="1:3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="55" ht="21" customHeight="1" spans="1:3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="56" ht="21" customHeight="1" spans="1:3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" ht="21" customHeight="1" spans="1:3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" ht="21" customHeight="1" spans="1:3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59" ht="21" customHeight="1" spans="1:3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="60" ht="21" customHeight="1" spans="1:3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="20"/>
+      <c r="C60" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="61" ht="9" customHeight="1" spans="1:3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" ht="24.75" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="22"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="65" ht="18" customHeight="1" spans="1:3">
+      <c r="A65" s="22"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" ht="17" customHeight="1" spans="1:3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="67" ht="14" customHeight="1" spans="1:3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="68" ht="18" customHeight="1" spans="1:3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1" spans="1:3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="1" spans="3:3">
+      <c r="C70" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="71" ht="9" customHeight="1" spans="1:3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" ht="15.75" spans="1:3">
+      <c r="A72" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" ht="10" customHeight="1" spans="1:3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="17"/>
+    </row>
+    <row r="74" ht="19" customHeight="1" spans="1:3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="76" ht="18" customHeight="1" spans="1:3">
+      <c r="A76" s="22"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="77" ht="12" customHeight="1" spans="1:3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="78" ht="14" customHeight="1" spans="1:3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="79" ht="18" customHeight="1" spans="1:3">
+      <c r="A79" s="22"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="80" ht="18" customHeight="1" spans="1:3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" spans="1:3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" ht="15" spans="1:3">
+      <c r="A82" s="22"/>
+      <c r="B82" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="86" ht="12" customHeight="1" spans="1:3">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" customFormat="1" ht="12" customHeight="1"/>
+    <row r="88" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A88" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="B88" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A89" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="B89" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" ht="18.75" spans="1:2">
+      <c r="A191" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B118" s="15">
+      <c r="B191" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="119" ht="18.75" spans="1:2">
-      <c r="A119" s="14" t="s">
+    <row r="192" ht="18.75" spans="1:2">
+      <c r="A192" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="B119" s="15">
+      <c r="B192" s="24">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A18:A60"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A72:A85"/>
     <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
     <sheet name="Core Java 8" sheetId="25" r:id="rId2"/>
     <sheet name="Database Using PostgreSQL" sheetId="26" r:id="rId3"/>
     <sheet name="DevOps and CI CD concepts" sheetId="27" r:id="rId4"/>
+    <sheet name="JPA with Hibernate" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="721">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2528,6 +2529,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Gradle is a Java tool that manages your build environment. It lets you build test and run your code. Through plugins it is easily extendable.  </t>
     </r>
     <r>
@@ -2583,6 +2592,198 @@
   <si>
     <t>Total # of Hours for DevOps and CI/CD</t>
   </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Learn to interact with database applications from Java programs using the Hibernate framework.                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore object-relational mapping (ORM) and its problems.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                           </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Introducing ORM and Its Problems</t>
+  </si>
+  <si>
+    <t>1. Introducing ORM and Its Problems</t>
+  </si>
+  <si>
+    <t>2. The Granularity Problem</t>
+  </si>
+  <si>
+    <t>3. The Inheritance Problem</t>
+  </si>
+  <si>
+    <t>5. The Associations Problem</t>
+  </si>
+  <si>
+    <t>6. The Data Navigation Problem</t>
+  </si>
+  <si>
+    <t>7. A Simple Hibernate Application</t>
+  </si>
+  <si>
+    <t>3. Working with Entities</t>
+  </si>
+  <si>
+    <t>1. Introducing Working with Entities</t>
+  </si>
+  <si>
+    <t>2. Demo: A Secondary Table with One Field</t>
+  </si>
+  <si>
+    <t>3. Demo: A Secondary Table with Multiple Fields</t>
+  </si>
+  <si>
+    <t>4. Demo: Multiple Secondary Tables</t>
+  </si>
+  <si>
+    <t>5. Entity Access Types</t>
+  </si>
+  <si>
+    <t>6. Entity Primary Keys and Entity Identity</t>
+  </si>
+  <si>
+    <t>7. Demo: Primary Keys with @GeneratedValue</t>
+  </si>
+  <si>
+    <t>8. Demo: Embeddable Primary Key and Embedded ID</t>
+  </si>
+  <si>
+    <t>9. Demo: Embeddable Primary Key and ID Class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Discover entities, entity relationships, and inheritance.                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work with the EntityManager API.                                When you’re finished with this course, you’ll have the skills and knowledge needed to quickly and efficiently develop Java database applications using Hibernate.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Entity Relationships</t>
+  </si>
+  <si>
+    <t>1. Introducing Entity Relationships</t>
+  </si>
+  <si>
+    <t>2. Demo: Define One-to-many and Many-to-one Relationships</t>
+  </si>
+  <si>
+    <t>3. Demo: Define Many-to-many Relationships</t>
+  </si>
+  <si>
+    <t>4.Annotations for Relationship Definition</t>
+  </si>
+  <si>
+    <t>5. Demo: Join Tables on One Column</t>
+  </si>
+  <si>
+    <t>6. Demo: Join Tables on Multiple Columns</t>
+  </si>
+  <si>
+    <t>7. Embeddable Classes</t>
+  </si>
+  <si>
+    <t>8. Demo: Embedding Classes in Entities</t>
+  </si>
+  <si>
+    <t>9. Demo: Embedding Collections of Classes in Entities</t>
+  </si>
+  <si>
+    <t>10. Demo: Embedding Maps of Classes in Entities</t>
+  </si>
+  <si>
+    <t>5. Entity Inheritance</t>
+  </si>
+  <si>
+    <t>1. Introducing Entity Inheritance</t>
+  </si>
+  <si>
+    <t>2. Demo: Extend One Entity</t>
+  </si>
+  <si>
+    <t>3. Demo: Extend One Non-entity</t>
+  </si>
+  <si>
+    <t>4. Mapping Strategies</t>
+  </si>
+  <si>
+    <t>5. Demo: Single Table per Class Hierarchy</t>
+  </si>
+  <si>
+    <t>6. Demo: Joined Subclass Strategy</t>
+  </si>
+  <si>
+    <t>7. Demo: Table per Concrete Class Strategy</t>
+  </si>
+  <si>
+    <t>8. Demo: Conversion</t>
+  </si>
+  <si>
+    <t>6. The EntityManager API</t>
+  </si>
+  <si>
+    <t>1. Introducing the EntityManager API</t>
+  </si>
+  <si>
+    <t>2. Demo: Application-managed EntityManager</t>
+  </si>
+  <si>
+    <t>3. Demo: Container-managed EntityManager</t>
+  </si>
+  <si>
+    <t>4. Finding Entities Using the EntityManager</t>
+  </si>
+  <si>
+    <t>JPA Using Hibernate And  PostgreSQL</t>
+  </si>
+  <si>
+    <t>jpa-hibernate-exercises.zip</t>
+  </si>
 </sst>
 </file>
 
@@ -2590,8 +2791,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="43">
@@ -2617,7 +2818,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2638,6 +2839,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14.05"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
@@ -2646,6 +2855,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2661,32 +2884,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2730,11 +2931,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2752,6 +3007,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2759,32 +3015,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2799,21 +3053,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2822,67 +3061,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2940,13 +3141,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,25 +3171,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2994,7 +3213,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3006,103 +3303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3115,12 +3322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,24 +3426,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3251,32 +3439,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3311,16 +3473,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3332,130 +3533,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3471,7 +3672,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3485,59 +3722,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3546,7 +3747,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3555,10 +3756,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3937,7 +4138,7 @@
   <dimension ref="A7:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4262,13 +4463,13 @@
       <c r="A37" s="51">
         <v>1</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A38" s="55">
@@ -4360,103 +4561,103 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -4464,244 +4665,244 @@
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="11" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="11" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="27" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" ht="9" customHeight="1" spans="1:3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" ht="24.75" spans="1:3">
       <c r="A51" s="2" t="s">
@@ -4711,339 +4912,339 @@
       <c r="C51" s="2"/>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="18" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1" spans="1:3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" spans="1:3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" spans="1:3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="11" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="3"/>
+      <c r="B64" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="7"/>
       <c r="C65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="7"/>
       <c r="C66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="4"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="7"/>
       <c r="C69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="7"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="25" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="11" t="s">
+      <c r="A73" s="3"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="14"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="3"/>
+      <c r="B75" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="7"/>
       <c r="C76" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="4"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="7"/>
       <c r="C77" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="1:3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="25" t="s">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="25" t="s">
+      <c r="A79" s="3"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1" spans="1:3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="7"/>
       <c r="C80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1" spans="1:3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="4"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="7"/>
       <c r="C81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1" spans="1:3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="25" t="s">
+      <c r="A82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="1:3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="25" t="s">
+      <c r="A83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="1:3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="11" t="s">
+      <c r="A84" s="3"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1" spans="1:3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="11"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="23"/>
     </row>
     <row r="86" ht="16" customHeight="1" spans="1:3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="3"/>
+      <c r="B86" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" ht="16" customHeight="1" spans="1:3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="4"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="7"/>
       <c r="C87" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1" spans="1:3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="4"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="7"/>
       <c r="C88" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1" spans="1:3">
-      <c r="A89" s="14"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="3"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1" spans="1:3">
-      <c r="A90" s="14"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="25" t="s">
+      <c r="A90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1" spans="1:3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="7"/>
       <c r="C91" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" ht="16" customHeight="1" spans="1:3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="25" t="s">
+      <c r="A92" s="3"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1" spans="1:3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="25" t="s">
+      <c r="A93" s="3"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1" spans="1:3">
-      <c r="A94" s="14"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="25" t="s">
+      <c r="A94" s="3"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
-      <c r="A95" s="14"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="11" t="s">
+      <c r="A95" s="3"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="1:2">
-      <c r="A96" s="14"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" ht="15" spans="1:3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="27" t="s">
+      <c r="A97" s="3"/>
+      <c r="B97" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
-      <c r="A98" s="14"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="99" ht="9" customHeight="1" spans="1:3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" ht="24.75" spans="1:3">
       <c r="A100" s="2" t="s">
@@ -5053,311 +5254,311 @@
       <c r="C100" s="2"/>
     </row>
     <row r="101" ht="15.75" spans="1:3">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:3">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" ht="16" customHeight="1" spans="1:3">
-      <c r="A103" s="14"/>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="3"/>
+      <c r="B103" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:3">
-      <c r="A107" s="14"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="18" t="s">
+      <c r="A107" s="3"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="109" ht="17" customHeight="1" spans="1:3">
-      <c r="A109" s="14"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="110" ht="13" customHeight="1" spans="1:3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="111" ht="13" customHeight="1" spans="1:3">
-      <c r="A111" s="14"/>
-      <c r="B111" s="4"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
-      <c r="A112" s="14"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="11" t="s">
+      <c r="A112" s="3"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:3">
-      <c r="A113" s="14"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="25"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="12"/>
     </row>
     <row r="114" ht="15" spans="1:3">
-      <c r="A114" s="14"/>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="3"/>
+      <c r="B114" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="14"/>
-      <c r="B115" s="4"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="7"/>
       <c r="C115" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="14"/>
-      <c r="B116" s="4"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="7"/>
       <c r="C116" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="14"/>
-      <c r="B117" s="4"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="7"/>
       <c r="C117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="14"/>
-      <c r="B118" s="4"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="7"/>
       <c r="C118" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="14"/>
-      <c r="B119" s="4"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="7"/>
       <c r="C119" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="14"/>
-      <c r="B120" s="4"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="7"/>
       <c r="C120" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="14"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="25" t="s">
+      <c r="A121" s="3"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="14"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="25" t="s">
+      <c r="A122" s="3"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:1">
-      <c r="A123" s="14"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:3">
-      <c r="A124" s="14"/>
-      <c r="B124" s="4" t="s">
+      <c r="A124" s="3"/>
+      <c r="B124" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="7"/>
       <c r="C125" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="4"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="7"/>
       <c r="C126" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" ht="16" customHeight="1" spans="1:3">
-      <c r="A127" s="14"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="25" t="s">
+      <c r="A127" s="3"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:3">
-      <c r="A128" s="14"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="25" t="s">
+      <c r="A128" s="3"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" ht="16" customHeight="1" spans="1:3">
-      <c r="A129" s="14"/>
-      <c r="B129" s="4"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="7"/>
       <c r="C129" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" ht="16" customHeight="1" spans="1:3">
-      <c r="A130" s="14"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="11" t="s">
+      <c r="A130" s="3"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1" spans="1:3">
-      <c r="A131" s="14"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="11"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="23"/>
     </row>
     <row r="132" ht="16" customHeight="1" spans="1:3">
-      <c r="A132" s="14"/>
-      <c r="B132" s="4" t="s">
+      <c r="A132" s="3"/>
+      <c r="B132" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="133" ht="16" customHeight="1" spans="1:3">
-      <c r="A133" s="14"/>
-      <c r="B133" s="4"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="7"/>
       <c r="C133" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" ht="16" customHeight="1" spans="1:3">
-      <c r="A134" s="14"/>
-      <c r="B134" s="4"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="7"/>
       <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" ht="16" customHeight="1" spans="1:3">
-      <c r="A135" s="14"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="25" t="s">
+      <c r="A135" s="3"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1" spans="1:3">
-      <c r="A136" s="14"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="25" t="s">
+      <c r="A136" s="3"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" ht="16" customHeight="1" spans="1:3">
-      <c r="A137" s="14"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="7"/>
       <c r="C137" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="138" ht="16" customHeight="1" spans="1:3">
-      <c r="A138" s="14"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="25" t="s">
+      <c r="A138" s="3"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" ht="16" customHeight="1" spans="1:3">
-      <c r="A139" s="14"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="25" t="s">
+      <c r="A139" s="3"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
-      <c r="A140" s="14"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="11" t="s">
+      <c r="A140" s="3"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A141" s="14"/>
-      <c r="B141" s="4"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="7"/>
     </row>
     <row r="142" ht="15" spans="1:3">
-      <c r="A142" s="14"/>
-      <c r="B142" s="27" t="s">
+      <c r="A142" s="3"/>
+      <c r="B142" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="143" ht="15" spans="1:3">
-      <c r="A143" s="14"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="144" ht="9" customHeight="1" spans="1:3">
-      <c r="A144" s="12"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" ht="24.75" spans="1:3">
       <c r="A145" s="2" t="s">
@@ -5367,368 +5568,368 @@
       <c r="C145" s="2"/>
     </row>
     <row r="146" ht="16" customHeight="1" spans="1:3">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:3">
-      <c r="A147" s="14"/>
-      <c r="B147" s="4"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
-      <c r="A148" s="14"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="149" ht="21" customHeight="1" spans="1:3">
-      <c r="A149" s="14"/>
-      <c r="B149" s="4"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" spans="1:3">
-      <c r="A150" s="14"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="18" t="s">
+      <c r="A150" s="3"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
-      <c r="A151" s="14"/>
-      <c r="B151" s="4"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="152" ht="17" customHeight="1" spans="1:3">
-      <c r="A152" s="14"/>
-      <c r="B152" s="4"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:3">
-      <c r="A153" s="14"/>
-      <c r="B153" s="4"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="154" ht="13" customHeight="1" spans="1:3">
-      <c r="A154" s="14"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
-      <c r="A155" s="14"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="11" t="s">
+      <c r="A155" s="3"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
-      <c r="A156" s="14"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="11" t="s">
+      <c r="A156" s="3"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="157" ht="15.75" spans="1:3">
-      <c r="A157" s="14"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="25"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="12"/>
     </row>
     <row r="158" ht="15" spans="1:3">
-      <c r="A158" s="14"/>
-      <c r="B158" s="4" t="s">
+      <c r="A158" s="3"/>
+      <c r="B158" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="14"/>
-      <c r="B159" s="4"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="7"/>
       <c r="C159" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="14"/>
-      <c r="B160" s="4"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="7"/>
       <c r="C160" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="14"/>
-      <c r="B161" s="4"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="7"/>
       <c r="C161" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="14"/>
-      <c r="B162" s="4"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="7"/>
       <c r="C162" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="14"/>
-      <c r="B163" s="4"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="7"/>
       <c r="C163" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="14"/>
-      <c r="B164" s="4"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="7"/>
       <c r="C164" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="14"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="25" t="s">
+      <c r="A165" s="3"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="1:1">
-      <c r="A166" s="14"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:3">
-      <c r="A167" s="14"/>
-      <c r="B167" s="4" t="s">
+      <c r="A167" s="3"/>
+      <c r="B167" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:3">
-      <c r="A168" s="14"/>
-      <c r="B168" s="4"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="7"/>
       <c r="C168" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:3">
-      <c r="A169" s="14"/>
-      <c r="B169" s="4"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="7"/>
       <c r="C169" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="170" ht="16" customHeight="1" spans="1:3">
-      <c r="A170" s="14"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="25" t="s">
+      <c r="A170" s="3"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="1" spans="1:3">
-      <c r="A171" s="14"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="25" t="s">
+      <c r="A171" s="3"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="172" ht="16" customHeight="1" spans="1:3">
-      <c r="A172" s="14"/>
-      <c r="B172" s="4"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="7"/>
       <c r="C172" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="173" ht="16" customHeight="1" spans="1:3">
-      <c r="A173" s="14"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="11" t="s">
+      <c r="A173" s="3"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="1" spans="1:3">
-      <c r="A174" s="14"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="11"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="23"/>
     </row>
     <row r="175" ht="16" customHeight="1" spans="1:3">
-      <c r="A175" s="14"/>
-      <c r="B175" s="4" t="s">
+      <c r="A175" s="3"/>
+      <c r="B175" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="176" ht="16" customHeight="1" spans="1:3">
-      <c r="A176" s="14"/>
-      <c r="B176" s="4"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="7"/>
       <c r="C176" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" ht="16" customHeight="1" spans="1:3">
-      <c r="A177" s="14"/>
-      <c r="B177" s="4"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="7"/>
       <c r="C177" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" ht="16" customHeight="1" spans="1:3">
-      <c r="A178" s="14"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="25" t="s">
+      <c r="A178" s="3"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="1" spans="1:3">
-      <c r="A179" s="14"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="25" t="s">
+      <c r="A179" s="3"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="180" ht="16" customHeight="1" spans="1:3">
-      <c r="A180" s="14"/>
-      <c r="B180" s="4"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="7"/>
       <c r="C180" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="181" ht="16" customHeight="1" spans="1:3">
-      <c r="A181" s="14"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="25" t="s">
+      <c r="A181" s="3"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="182" ht="16" customHeight="1" spans="1:3">
-      <c r="A182" s="14"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="25" t="s">
+      <c r="A182" s="3"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
-      <c r="A183" s="14"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="11" t="s">
+      <c r="A183" s="3"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" customFormat="1" ht="15" spans="1:3">
-      <c r="A184" s="14"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="11" t="s">
+      <c r="A184" s="3"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="1" ht="15" spans="1:3">
-      <c r="A185" s="14"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="11" t="s">
+      <c r="A185" s="3"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A186" s="14"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="11"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="23"/>
     </row>
     <row r="187" customFormat="1" ht="15" spans="1:3">
-      <c r="A187" s="14"/>
-      <c r="B187" s="4" t="s">
+      <c r="A187" s="3"/>
+      <c r="B187" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="188" customFormat="1" spans="1:3">
-      <c r="A188" s="14"/>
-      <c r="B188" s="4"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="7"/>
       <c r="C188" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:3">
-      <c r="A189" s="14"/>
-      <c r="B189" s="4"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="7"/>
       <c r="C189" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
-      <c r="A190" s="14"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="25" t="s">
+      <c r="A190" s="3"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:3">
-      <c r="A191" s="14"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="25" t="s">
+      <c r="A191" s="3"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="192" customFormat="1" spans="1:3">
-      <c r="A192" s="14"/>
-      <c r="B192" s="4"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="7"/>
       <c r="C192" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="193" customFormat="1" ht="15" spans="1:3">
-      <c r="A193" s="14"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="11" t="s">
+      <c r="A193" s="3"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="194" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A194" s="14"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="11"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="23"/>
     </row>
     <row r="195" ht="15" spans="1:3">
-      <c r="A195" s="14"/>
-      <c r="B195" s="27" t="s">
+      <c r="A195" s="3"/>
+      <c r="B195" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
-      <c r="A196" s="14"/>
-      <c r="B196" s="27"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="13"/>
       <c r="C196" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="197" ht="9" customHeight="1" spans="1:3">
-      <c r="A197" s="12"/>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" ht="24.75" spans="1:3">
       <c r="A198" s="2" t="s">
@@ -5738,241 +5939,241 @@
       <c r="C198" s="2"/>
     </row>
     <row r="199" ht="15.75" spans="1:3">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C199" s="16" t="s">
+      <c r="C199" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" ht="15.75" spans="1:3">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="16"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" ht="16" customHeight="1" spans="1:3">
-      <c r="A201" s="14"/>
-      <c r="B201" s="4" t="s">
+      <c r="A201" s="3"/>
+      <c r="B201" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:3">
-      <c r="A202" s="14"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="11" t="s">
+      <c r="A202" s="3"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
-      <c r="A203" s="14"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="11" t="s">
+      <c r="A203" s="3"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1" spans="1:3">
-      <c r="A204" s="14"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="11" t="s">
+      <c r="A204" s="3"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:3">
-      <c r="A205" s="14"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="11" t="s">
+      <c r="A205" s="3"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
-      <c r="A206" s="14"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="11" t="s">
+      <c r="A206" s="3"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:3">
-      <c r="A207" s="14"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="11" t="s">
+      <c r="A207" s="3"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:3">
-      <c r="A208" s="14"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="25"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="12"/>
     </row>
     <row r="209" ht="15" spans="1:3">
-      <c r="A209" s="14"/>
+      <c r="A209" s="3"/>
       <c r="B209" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
-      <c r="A210" s="14"/>
+      <c r="A210" s="3"/>
       <c r="B210" s="28"/>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" ht="15" spans="1:3">
-      <c r="A211" s="14"/>
+      <c r="A211" s="3"/>
       <c r="B211" s="28"/>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
-      <c r="A212" s="14"/>
+      <c r="A212" s="3"/>
       <c r="B212" s="28"/>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="23" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" ht="15" spans="1:3">
-      <c r="A213" s="14"/>
+      <c r="A213" s="3"/>
       <c r="B213" s="28"/>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="23" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="214" ht="15" spans="1:3">
-      <c r="A214" s="14"/>
+      <c r="A214" s="3"/>
       <c r="B214" s="28"/>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="23" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="215" ht="15" spans="1:3">
-      <c r="A215" s="14"/>
+      <c r="A215" s="3"/>
       <c r="B215" s="28"/>
-      <c r="C215" s="11" t="s">
+      <c r="C215" s="23" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="216" ht="15" spans="1:3">
-      <c r="A216" s="14"/>
+      <c r="A216" s="3"/>
       <c r="B216" s="28"/>
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="217" customFormat="1" spans="1:1">
-      <c r="A217" s="14"/>
+      <c r="A217" s="3"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:3">
-      <c r="A218" s="14"/>
-      <c r="B218" s="4" t="s">
+      <c r="A218" s="3"/>
+      <c r="B218" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C218" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:3">
-      <c r="A219" s="14"/>
-      <c r="B219" s="4"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="7"/>
       <c r="C219" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:3">
-      <c r="A220" s="14"/>
-      <c r="B220" s="4"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="7"/>
       <c r="C220" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" ht="16" customHeight="1" spans="1:3">
-      <c r="A221" s="14"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="25" t="s">
+      <c r="A221" s="3"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" ht="16" customHeight="1" spans="1:3">
-      <c r="A222" s="14"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="25" t="s">
+      <c r="A222" s="3"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="223" ht="16" customHeight="1" spans="1:3">
-      <c r="A223" s="14"/>
-      <c r="B223" s="4"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="7"/>
       <c r="C223" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="224" ht="16" customHeight="1" spans="1:3">
-      <c r="A224" s="14"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="11" t="s">
+      <c r="A224" s="3"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="23" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" ht="16" customHeight="1" spans="1:3">
-      <c r="A225" s="14"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="25" t="s">
+      <c r="A225" s="3"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" ht="16" customHeight="1" spans="1:3">
-      <c r="A226" s="14"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="11" t="s">
+      <c r="A226" s="3"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="23" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" ht="16" customHeight="1" spans="1:3">
-      <c r="A227" s="14"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="11" t="s">
+      <c r="A227" s="3"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="228" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A228" s="14"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="11"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="23"/>
     </row>
     <row r="229" ht="15" spans="1:3">
-      <c r="A229" s="14"/>
-      <c r="B229" s="27" t="s">
+      <c r="A229" s="3"/>
+      <c r="B229" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="230" ht="15" spans="1:3">
-      <c r="A230" s="14"/>
-      <c r="B230" s="27"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="13"/>
       <c r="C230" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
-      <c r="A231" s="14"/>
-      <c r="B231" s="27"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="13"/>
       <c r="C231" s="10"/>
     </row>
     <row r="232" ht="14" customHeight="1" spans="1:3">
-      <c r="A232" s="14" t="s">
+      <c r="A232" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C232" s="10" t="s">
@@ -5980,154 +6181,154 @@
       </c>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:3">
-      <c r="A233" s="14"/>
-      <c r="B233" s="4"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" ht="19" customHeight="1" spans="1:3">
-      <c r="A234" s="14"/>
-      <c r="B234" s="4"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:3">
-      <c r="A235" s="14"/>
-      <c r="B235" s="4"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="7"/>
       <c r="C235" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" ht="17" customHeight="1" spans="1:3">
-      <c r="A236" s="14"/>
-      <c r="B236" s="4"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="7"/>
       <c r="C236" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="237" ht="9" customHeight="1" spans="1:3">
-      <c r="A237" s="14"/>
+      <c r="A237" s="3"/>
       <c r="B237" s="29"/>
-      <c r="C237" s="11"/>
+      <c r="C237" s="23"/>
     </row>
     <row r="238" ht="21" customHeight="1" spans="1:3">
-      <c r="A238" s="14"/>
-      <c r="B238" s="4" t="s">
+      <c r="A238" s="3"/>
+      <c r="B238" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C238" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="239" ht="13" customHeight="1" spans="1:3">
-      <c r="A239" s="14"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="11" t="s">
+      <c r="A239" s="3"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="23" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:3">
-      <c r="A240" s="14"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="11" t="s">
+      <c r="A240" s="3"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:3">
-      <c r="A241" s="14"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="11" t="s">
+      <c r="A241" s="3"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="23" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
-      <c r="A242" s="14"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="11" t="s">
+      <c r="A242" s="3"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="23" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" ht="15" spans="1:3">
-      <c r="A243" s="14"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="11" t="s">
+      <c r="A243" s="3"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="23" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="14"/>
+      <c r="A244" s="3"/>
     </row>
     <row r="245" ht="15" spans="1:3">
-      <c r="A245" s="14"/>
-      <c r="B245" s="4" t="s">
+      <c r="A245" s="3"/>
+      <c r="B245" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C245" s="23" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="246" ht="15" spans="1:3">
-      <c r="A246" s="14"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="11" t="s">
+      <c r="A246" s="3"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" ht="15" spans="1:3">
-      <c r="A247" s="14"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="11" t="s">
+      <c r="A247" s="3"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="23" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
-      <c r="A248" s="14"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="11" t="s">
+      <c r="A248" s="3"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="23" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="249" ht="15" spans="1:3">
-      <c r="A249" s="14"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="11" t="s">
+      <c r="A249" s="3"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="23" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
-      <c r="A250" s="14"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="11" t="s">
+      <c r="A250" s="3"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="23" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:3">
-      <c r="A251" s="14"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="11"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="23"/>
     </row>
     <row r="252" ht="15" spans="1:3">
-      <c r="A252" s="14"/>
-      <c r="B252" s="27" t="s">
+      <c r="A252" s="3"/>
+      <c r="B252" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="253" ht="15" spans="1:3">
-      <c r="A253" s="14"/>
-      <c r="B253" s="27"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="13"/>
       <c r="C253" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="254" ht="10" customHeight="1" spans="1:3">
-      <c r="A254" s="12"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
+      <c r="A254" s="15"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255" ht="24.75" spans="1:3">
       <c r="A255" s="2" t="s">
@@ -6137,19 +6338,19 @@
       <c r="C255" s="2"/>
     </row>
     <row r="256" ht="15.75" spans="1:3">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C256" s="16" t="s">
+      <c r="C256" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="257" ht="15" spans="1:3">
-      <c r="A257" s="14"/>
-      <c r="B257" s="4" t="s">
+      <c r="A257" s="3"/>
+      <c r="B257" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="10" t="s">
@@ -6157,81 +6358,81 @@
       </c>
     </row>
     <row r="258" ht="15" spans="1:3">
-      <c r="A258" s="14"/>
-      <c r="B258" s="4"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="7"/>
       <c r="C258" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="259" ht="15" spans="1:3">
-      <c r="A259" s="14"/>
-      <c r="B259" s="4"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="7"/>
       <c r="C259" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
-      <c r="A260" s="14"/>
-      <c r="B260" s="4"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="7"/>
       <c r="C260" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="261" ht="15" spans="1:3">
-      <c r="A261" s="14"/>
-      <c r="B261" s="4"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="7"/>
       <c r="C261" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="262" ht="15" spans="1:3">
-      <c r="A262" s="14"/>
-      <c r="B262" s="4"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="7"/>
       <c r="C262" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="263" ht="15" spans="1:3">
-      <c r="A263" s="14"/>
-      <c r="B263" s="4"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="7"/>
       <c r="C263" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="264" ht="20" customHeight="1" spans="1:3">
-      <c r="A264" s="14"/>
-      <c r="B264" s="4"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="7"/>
       <c r="C264" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="265" ht="21" customHeight="1" spans="1:3">
-      <c r="A265" s="14"/>
-      <c r="B265" s="4"/>
+      <c r="A265" s="3"/>
+      <c r="B265" s="7"/>
       <c r="C265" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:3">
-      <c r="A266" s="14"/>
-      <c r="B266" s="4"/>
+      <c r="A266" s="3"/>
+      <c r="B266" s="7"/>
       <c r="C266" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="267" ht="15" customHeight="1" spans="1:3">
-      <c r="A267" s="14"/>
-      <c r="B267" s="4"/>
+      <c r="A267" s="3"/>
+      <c r="B267" s="7"/>
       <c r="C267" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="14"/>
+      <c r="A268" s="3"/>
     </row>
     <row r="269" ht="15" spans="1:3">
-      <c r="A269" s="14"/>
-      <c r="B269" s="4" t="s">
+      <c r="A269" s="3"/>
+      <c r="B269" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C269" s="10" t="s">
@@ -6239,53 +6440,53 @@
       </c>
     </row>
     <row r="270" ht="15" spans="1:3">
-      <c r="A270" s="14"/>
-      <c r="B270" s="4"/>
+      <c r="A270" s="3"/>
+      <c r="B270" s="7"/>
       <c r="C270" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="271" ht="15" spans="1:3">
-      <c r="A271" s="14"/>
-      <c r="B271" s="4"/>
+      <c r="A271" s="3"/>
+      <c r="B271" s="7"/>
       <c r="C271" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="272" ht="15" spans="1:3">
-      <c r="A272" s="14"/>
-      <c r="B272" s="4"/>
+      <c r="A272" s="3"/>
+      <c r="B272" s="7"/>
       <c r="C272" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="273" ht="15" spans="1:3">
-      <c r="A273" s="14"/>
-      <c r="B273" s="4"/>
+      <c r="A273" s="3"/>
+      <c r="B273" s="7"/>
       <c r="C273" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
-      <c r="A274" s="14"/>
-      <c r="B274" s="4"/>
+      <c r="A274" s="3"/>
+      <c r="B274" s="7"/>
       <c r="C274" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="275" ht="15" spans="1:3">
-      <c r="A275" s="14"/>
-      <c r="B275" s="4"/>
+      <c r="A275" s="3"/>
+      <c r="B275" s="7"/>
       <c r="C275" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="14"/>
+      <c r="A276" s="3"/>
     </row>
     <row r="277" ht="15" spans="1:3">
-      <c r="A277" s="14"/>
-      <c r="B277" s="4" t="s">
+      <c r="A277" s="3"/>
+      <c r="B277" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="10" t="s">
@@ -6293,53 +6494,53 @@
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
-      <c r="A278" s="14"/>
-      <c r="B278" s="4"/>
+      <c r="A278" s="3"/>
+      <c r="B278" s="7"/>
       <c r="C278" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:3">
-      <c r="A279" s="14"/>
-      <c r="B279" s="4"/>
+      <c r="A279" s="3"/>
+      <c r="B279" s="7"/>
       <c r="C279" s="10" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
-      <c r="A280" s="14"/>
-      <c r="B280" s="4"/>
+      <c r="A280" s="3"/>
+      <c r="B280" s="7"/>
       <c r="C280" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="281" ht="15" spans="1:3">
-      <c r="A281" s="14"/>
-      <c r="B281" s="4"/>
+      <c r="A281" s="3"/>
+      <c r="B281" s="7"/>
       <c r="C281" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
-      <c r="A282" s="14"/>
-      <c r="B282" s="4"/>
+      <c r="A282" s="3"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="283" ht="15" spans="1:3">
-      <c r="A283" s="14"/>
-      <c r="B283" s="4"/>
+      <c r="A283" s="3"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="14"/>
+      <c r="A284" s="3"/>
     </row>
     <row r="285" ht="15" spans="1:3">
-      <c r="A285" s="14"/>
-      <c r="B285" s="4" t="s">
+      <c r="A285" s="3"/>
+      <c r="B285" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C285" s="10" t="s">
@@ -6347,74 +6548,74 @@
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
-      <c r="A286" s="14"/>
-      <c r="B286" s="4"/>
+      <c r="A286" s="3"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:3">
-      <c r="A287" s="14"/>
-      <c r="B287" s="4"/>
+      <c r="A287" s="3"/>
+      <c r="B287" s="7"/>
       <c r="C287" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
-      <c r="A288" s="14"/>
-      <c r="B288" s="4"/>
+      <c r="A288" s="3"/>
+      <c r="B288" s="7"/>
       <c r="C288" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:3">
-      <c r="A289" s="14"/>
-      <c r="B289" s="4"/>
+      <c r="A289" s="3"/>
+      <c r="B289" s="7"/>
       <c r="C289" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
-      <c r="A290" s="14"/>
-      <c r="B290" s="4"/>
+      <c r="A290" s="3"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:3">
-      <c r="A291" s="14"/>
-      <c r="B291" s="4"/>
+      <c r="A291" s="3"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
-      <c r="A292" s="14"/>
-      <c r="B292" s="4"/>
+      <c r="A292" s="3"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:3">
-      <c r="A293" s="14"/>
-      <c r="B293" s="4"/>
+      <c r="A293" s="3"/>
+      <c r="B293" s="7"/>
       <c r="C293" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
-      <c r="A294" s="14"/>
-      <c r="B294" s="4"/>
+      <c r="A294" s="3"/>
+      <c r="B294" s="7"/>
       <c r="C294" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="14"/>
+      <c r="A295" s="3"/>
     </row>
     <row r="296" ht="15" spans="1:3">
-      <c r="A296" s="14"/>
-      <c r="B296" s="4" t="s">
+      <c r="A296" s="3"/>
+      <c r="B296" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C296" s="10" t="s">
@@ -6422,70 +6623,70 @@
       </c>
     </row>
     <row r="297" ht="15" spans="1:3">
-      <c r="A297" s="14"/>
-      <c r="B297" s="4"/>
+      <c r="A297" s="3"/>
+      <c r="B297" s="7"/>
       <c r="C297" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
-      <c r="A298" s="14"/>
-      <c r="B298" s="4"/>
+      <c r="A298" s="3"/>
+      <c r="B298" s="7"/>
       <c r="C298" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:3">
-      <c r="A299" s="14"/>
-      <c r="B299" s="4"/>
+      <c r="A299" s="3"/>
+      <c r="B299" s="7"/>
       <c r="C299" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="14"/>
+      <c r="A300" s="3"/>
     </row>
     <row r="301" ht="15" spans="1:3">
-      <c r="A301" s="14"/>
-      <c r="B301" s="27" t="s">
+      <c r="A301" s="3"/>
+      <c r="B301" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C301" s="21" t="s">
+      <c r="C301" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="14"/>
-      <c r="B302" s="27"/>
+      <c r="A302" s="3"/>
+      <c r="B302" s="13"/>
       <c r="C302" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="303" ht="15" customHeight="1" spans="1:3">
-      <c r="A303" s="14"/>
-      <c r="B303" s="27"/>
+      <c r="A303" s="3"/>
+      <c r="B303" s="13"/>
       <c r="C303" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" ht="12" customHeight="1" spans="1:3">
-      <c r="A304" s="14"/>
-      <c r="B304" s="27"/>
+      <c r="A304" s="3"/>
+      <c r="B304" s="13"/>
       <c r="C304" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:3">
-      <c r="A305" s="14"/>
-      <c r="B305" s="27"/>
+      <c r="A305" s="3"/>
+      <c r="B305" s="13"/>
       <c r="C305" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="306" ht="9" customHeight="1" spans="1:3">
-      <c r="A306" s="12"/>
-      <c r="B306" s="13"/>
-      <c r="C306" s="13"/>
+      <c r="A306" s="15"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
     </row>
     <row r="307" ht="24.75" spans="1:3">
       <c r="A307" s="2" t="s">
@@ -6495,24 +6696,24 @@
       <c r="C307" s="2"/>
     </row>
     <row r="308" ht="15.75" spans="1:3">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B308" s="15" t="s">
+      <c r="B308" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C308" s="16" t="s">
+      <c r="C308" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="309" ht="15.75" spans="1:3">
-      <c r="A309" s="14"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="16"/>
+      <c r="A309" s="3"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" ht="15" spans="1:3">
-      <c r="A310" s="14"/>
-      <c r="B310" s="4" t="s">
+      <c r="A310" s="3"/>
+      <c r="B310" s="7" t="s">
         <v>296</v>
       </c>
       <c r="C310" s="10" t="s">
@@ -6520,32 +6721,32 @@
       </c>
     </row>
     <row r="311" ht="15" spans="1:3">
-      <c r="A311" s="14"/>
-      <c r="B311" s="4"/>
+      <c r="A311" s="3"/>
+      <c r="B311" s="7"/>
       <c r="C311" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
-      <c r="A312" s="14"/>
-      <c r="B312" s="4"/>
+      <c r="A312" s="3"/>
+      <c r="B312" s="7"/>
       <c r="C312" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:3">
-      <c r="A313" s="14"/>
-      <c r="B313" s="4"/>
+      <c r="A313" s="3"/>
+      <c r="B313" s="7"/>
       <c r="C313" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:1">
-      <c r="A314" s="14"/>
+      <c r="A314" s="3"/>
     </row>
     <row r="315" ht="15" spans="1:3">
-      <c r="A315" s="14"/>
-      <c r="B315" s="4" t="s">
+      <c r="A315" s="3"/>
+      <c r="B315" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C315" s="10" t="s">
@@ -6553,88 +6754,88 @@
       </c>
     </row>
     <row r="316" ht="15" spans="1:3">
-      <c r="A316" s="14"/>
-      <c r="B316" s="4"/>
+      <c r="A316" s="3"/>
+      <c r="B316" s="7"/>
       <c r="C316" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:3">
-      <c r="A317" s="14"/>
-      <c r="B317" s="4"/>
+      <c r="A317" s="3"/>
+      <c r="B317" s="7"/>
       <c r="C317" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
-      <c r="A318" s="14"/>
-      <c r="B318" s="4"/>
+      <c r="A318" s="3"/>
+      <c r="B318" s="7"/>
       <c r="C318" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A319" s="14"/>
-      <c r="B319" s="4"/>
+      <c r="A319" s="3"/>
+      <c r="B319" s="7"/>
       <c r="C319" s="10"/>
     </row>
     <row r="320" customFormat="1" ht="15" spans="1:3">
-      <c r="A320" s="14"/>
-      <c r="B320" s="4" t="s">
+      <c r="A320" s="3"/>
+      <c r="B320" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="321" customFormat="1" ht="15" spans="1:3">
-      <c r="A321" s="14"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="8" t="s">
+      <c r="A321" s="3"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="322" customFormat="1" ht="15" spans="1:3">
-      <c r="A322" s="14"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="8" t="s">
+      <c r="A322" s="3"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="22" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" customFormat="1" ht="15" spans="1:3">
-      <c r="A323" s="14"/>
-      <c r="B323" s="4"/>
-      <c r="C323" s="8" t="s">
+      <c r="A323" s="3"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="22" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="324" customFormat="1" ht="15" spans="1:3">
-      <c r="A324" s="14"/>
-      <c r="B324" s="4"/>
-      <c r="C324" s="8" t="s">
+      <c r="A324" s="3"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="325" customFormat="1" ht="15" spans="1:3">
-      <c r="A325" s="14"/>
-      <c r="B325" s="4"/>
-      <c r="C325" s="8" t="s">
+      <c r="A325" s="3"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="22" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="326" customFormat="1" ht="15" spans="1:3">
-      <c r="A326" s="14"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="8" t="s">
+      <c r="A326" s="3"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:1">
-      <c r="A327" s="14"/>
+      <c r="A327" s="3"/>
     </row>
     <row r="328" ht="15" spans="1:3">
-      <c r="A328" s="14"/>
-      <c r="B328" s="4" t="s">
+      <c r="A328" s="3"/>
+      <c r="B328" s="7" t="s">
         <v>311</v>
       </c>
       <c r="C328" s="10" t="s">
@@ -6642,56 +6843,56 @@
       </c>
     </row>
     <row r="329" ht="15" spans="1:3">
-      <c r="A329" s="14"/>
-      <c r="B329" s="4"/>
+      <c r="A329" s="3"/>
+      <c r="B329" s="7"/>
       <c r="C329" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
-      <c r="A330" s="14"/>
-      <c r="B330" s="4"/>
+      <c r="A330" s="3"/>
+      <c r="B330" s="7"/>
       <c r="C330" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:3">
-      <c r="A331" s="14"/>
-      <c r="B331" s="4"/>
+      <c r="A331" s="3"/>
+      <c r="B331" s="7"/>
       <c r="C331" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="332" customFormat="1" spans="1:1">
-      <c r="A332" s="14"/>
+      <c r="A332" s="3"/>
     </row>
     <row r="333" ht="15" spans="1:3">
-      <c r="A333" s="14"/>
-      <c r="B333" s="27" t="s">
+      <c r="A333" s="3"/>
+      <c r="B333" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="14"/>
-      <c r="B334" s="27"/>
+      <c r="A334" s="3"/>
+      <c r="B334" s="13"/>
       <c r="C334" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="14"/>
-      <c r="B335" s="27"/>
+      <c r="A335" s="3"/>
+      <c r="B335" s="13"/>
       <c r="C335" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="336" ht="9" customHeight="1" spans="1:3">
-      <c r="A336" s="12"/>
-      <c r="B336" s="13"/>
-      <c r="C336" s="13"/>
+      <c r="A336" s="15"/>
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
     </row>
     <row r="337" ht="24.75" spans="1:3">
       <c r="A337" s="2" t="s">
@@ -6707,7 +6908,7 @@
       <c r="B338" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C338" s="11" t="s">
+      <c r="C338" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6721,84 +6922,84 @@
     <row r="340" ht="15" spans="1:3">
       <c r="A340" s="30"/>
       <c r="B340" s="28"/>
-      <c r="C340" s="11" t="s">
+      <c r="C340" s="23" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="341" ht="15" spans="1:3">
       <c r="A341" s="30"/>
       <c r="B341" s="28"/>
-      <c r="C341" s="11" t="s">
+      <c r="C341" s="23" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="342" ht="15" spans="1:3">
       <c r="A342" s="30"/>
       <c r="B342" s="28"/>
-      <c r="C342" s="11" t="s">
+      <c r="C342" s="23" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:3">
       <c r="A343" s="30"/>
       <c r="B343" s="28"/>
-      <c r="C343" s="11" t="s">
+      <c r="C343" s="23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="344" ht="15" spans="1:3">
       <c r="A344" s="30"/>
       <c r="B344" s="28"/>
-      <c r="C344" s="11" t="s">
+      <c r="C344" s="23" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="345" ht="15" spans="1:3">
       <c r="A345" s="30"/>
       <c r="B345" s="28"/>
-      <c r="C345" s="11" t="s">
+      <c r="C345" s="23" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" ht="15" spans="1:3">
       <c r="A346" s="30"/>
       <c r="B346" s="28"/>
-      <c r="C346" s="11" t="s">
+      <c r="C346" s="23" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:3">
       <c r="A347" s="30"/>
       <c r="B347" s="28"/>
-      <c r="C347" s="11" t="s">
+      <c r="C347" s="23" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:3">
       <c r="A348" s="30"/>
       <c r="B348" s="28"/>
-      <c r="C348" s="11" t="s">
+      <c r="C348" s="23" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:3">
       <c r="A349" s="30"/>
       <c r="B349" s="28"/>
-      <c r="C349" s="11" t="s">
+      <c r="C349" s="23" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:3">
       <c r="A350" s="30"/>
       <c r="B350" s="28"/>
-      <c r="C350" s="11" t="s">
+      <c r="C350" s="23" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:3">
       <c r="A351" s="30"/>
       <c r="B351" s="28"/>
-      <c r="C351" s="11" t="s">
+      <c r="C351" s="23" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6829,16 +7030,16 @@
     </row>
     <row r="356" ht="15" spans="1:3">
       <c r="A356" s="30"/>
-      <c r="B356" s="27" t="s">
+      <c r="B356" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C356" s="21" t="s">
+      <c r="C356" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="30"/>
-      <c r="B357" s="27"/>
+      <c r="B357" s="13"/>
       <c r="C357" t="s">
         <v>338</v>
       </c>
@@ -6850,7 +7051,7 @@
       <c r="B359" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="C359" s="11" t="s">
+      <c r="C359" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6864,28 +7065,28 @@
     <row r="361" ht="15" spans="1:3">
       <c r="A361" s="30"/>
       <c r="B361" s="28"/>
-      <c r="C361" s="11" t="s">
+      <c r="C361" s="23" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:3">
       <c r="A362" s="30"/>
       <c r="B362" s="28"/>
-      <c r="C362" s="11" t="s">
+      <c r="C362" s="23" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:3">
       <c r="A363" s="30"/>
       <c r="B363" s="28"/>
-      <c r="C363" s="11" t="s">
+      <c r="C363" s="23" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:3">
       <c r="A364" s="30"/>
       <c r="B364" s="28"/>
-      <c r="C364" s="11" t="s">
+      <c r="C364" s="23" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6902,16 +7103,16 @@
     </row>
     <row r="367" ht="15" spans="1:3">
       <c r="A367" s="30"/>
-      <c r="B367" s="27" t="s">
+      <c r="B367" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C367" s="21" t="s">
+      <c r="C367" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="30"/>
-      <c r="B368" s="27"/>
+      <c r="B368" s="13"/>
       <c r="C368" t="s">
         <v>346</v>
       </c>
@@ -6923,35 +7124,35 @@
       <c r="B370" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="C370" s="11" t="s">
+      <c r="C370" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="371" ht="15" spans="1:3">
       <c r="A371" s="33"/>
       <c r="B371" s="32"/>
-      <c r="C371" s="11" t="s">
+      <c r="C371" s="23" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="372" ht="15" spans="1:3">
       <c r="A372" s="33"/>
       <c r="B372" s="32"/>
-      <c r="C372" s="11" t="s">
+      <c r="C372" s="23" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="373" ht="15" spans="1:3">
       <c r="A373" s="33"/>
       <c r="B373" s="32"/>
-      <c r="C373" s="11" t="s">
+      <c r="C373" s="23" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="374" ht="15" spans="1:3">
       <c r="A374" s="33"/>
       <c r="B374" s="32"/>
-      <c r="C374" s="11" t="s">
+      <c r="C374" s="23" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6965,7 +7166,7 @@
     <row r="376" ht="15" spans="1:3">
       <c r="A376" s="33"/>
       <c r="B376" s="32"/>
-      <c r="C376" s="11" t="s">
+      <c r="C376" s="23" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6979,7 +7180,7 @@
     <row r="378" ht="15" spans="1:3">
       <c r="A378" s="33"/>
       <c r="B378" s="32"/>
-      <c r="C378" s="11" t="s">
+      <c r="C378" s="23" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6993,7 +7194,7 @@
     <row r="380" ht="15" spans="1:3">
       <c r="A380" s="33"/>
       <c r="B380" s="32"/>
-      <c r="C380" s="11" t="s">
+      <c r="C380" s="23" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7007,56 +7208,56 @@
     <row r="382" ht="15" spans="1:3">
       <c r="A382" s="33"/>
       <c r="B382" s="32"/>
-      <c r="C382" s="11" t="s">
+      <c r="C382" s="23" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="383" ht="15" spans="1:3">
       <c r="A383" s="33"/>
       <c r="B383" s="32"/>
-      <c r="C383" s="11" t="s">
+      <c r="C383" s="23" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="384" ht="15" spans="1:3">
       <c r="A384" s="33"/>
       <c r="B384" s="32"/>
-      <c r="C384" s="11" t="s">
+      <c r="C384" s="23" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="385" ht="15" spans="1:3">
       <c r="A385" s="33"/>
       <c r="B385" s="32"/>
-      <c r="C385" s="11" t="s">
+      <c r="C385" s="23" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="386" ht="15" spans="1:3">
       <c r="A386" s="33"/>
       <c r="B386" s="32"/>
-      <c r="C386" s="11" t="s">
+      <c r="C386" s="23" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="387" ht="15" spans="1:3">
       <c r="A387" s="33"/>
       <c r="B387" s="32"/>
-      <c r="C387" s="11" t="s">
+      <c r="C387" s="23" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:3">
       <c r="A388" s="33"/>
       <c r="B388" s="32"/>
-      <c r="C388" s="11" t="s">
+      <c r="C388" s="23" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:3">
       <c r="A389" s="33"/>
       <c r="B389" s="32"/>
-      <c r="C389" s="11" t="s">
+      <c r="C389" s="23" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7093,59 +7294,59 @@
     </row>
     <row r="395" ht="15" spans="1:3">
       <c r="A395" s="33"/>
-      <c r="B395" s="27" t="s">
+      <c r="B395" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C395" s="21" t="s">
+      <c r="C395" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:3">
       <c r="A396" s="33"/>
-      <c r="B396" s="27"/>
+      <c r="B396" s="13"/>
       <c r="C396" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:3">
       <c r="A397" s="33"/>
-      <c r="B397" s="27"/>
+      <c r="B397" s="13"/>
       <c r="C397" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
       <c r="A398" s="33"/>
-      <c r="B398" s="27"/>
+      <c r="B398" s="13"/>
       <c r="C398" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:3">
       <c r="A399" s="33"/>
-      <c r="B399" s="27"/>
+      <c r="B399" s="13"/>
       <c r="C399" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
       <c r="A400" s="33"/>
-      <c r="B400" s="27"/>
+      <c r="B400" s="13"/>
       <c r="C400" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:3">
       <c r="A401" s="33"/>
-      <c r="B401" s="27"/>
+      <c r="B401" s="13"/>
       <c r="C401" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="402" ht="9" customHeight="1" spans="1:3">
-      <c r="A402" s="12"/>
-      <c r="B402" s="13"/>
-      <c r="C402" s="13"/>
+      <c r="A402" s="15"/>
+      <c r="B402" s="11"/>
+      <c r="C402" s="11"/>
     </row>
     <row r="403" ht="24.75" spans="1:3">
       <c r="A403" s="2" t="s">
@@ -7161,377 +7362,377 @@
       <c r="B404" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="C404" s="11" t="s">
+      <c r="C404" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="405" ht="15" spans="1:3">
       <c r="A405" s="35"/>
       <c r="B405" s="32"/>
-      <c r="C405" s="11" t="s">
+      <c r="C405" s="23" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:3">
       <c r="A406" s="35"/>
       <c r="B406" s="32"/>
-      <c r="C406" s="11" t="s">
+      <c r="C406" s="23" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:3">
       <c r="A407" s="35"/>
       <c r="B407" s="32"/>
-      <c r="C407" s="11" t="s">
+      <c r="C407" s="23" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="408" ht="15" spans="1:3">
       <c r="A408" s="35"/>
       <c r="B408" s="32"/>
-      <c r="C408" s="11" t="s">
+      <c r="C408" s="23" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:3">
       <c r="A409" s="35"/>
       <c r="B409" s="32"/>
-      <c r="C409" s="11" t="s">
+      <c r="C409" s="23" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:3">
       <c r="A410" s="35"/>
       <c r="B410" s="32"/>
-      <c r="C410" s="11" t="s">
+      <c r="C410" s="23" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:3">
       <c r="A411" s="35"/>
       <c r="B411" s="32"/>
-      <c r="C411" s="11" t="s">
+      <c r="C411" s="23" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="412" ht="15" spans="1:3">
       <c r="A412" s="35"/>
       <c r="B412" s="32"/>
-      <c r="C412" s="11" t="s">
+      <c r="C412" s="23" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:3">
       <c r="A413" s="35"/>
       <c r="B413" s="32"/>
-      <c r="C413" s="11" t="s">
+      <c r="C413" s="23" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:3">
       <c r="A414" s="35"/>
       <c r="B414" s="32"/>
-      <c r="C414" s="11" t="s">
+      <c r="C414" s="23" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:3">
       <c r="A415" s="35"/>
       <c r="B415" s="32"/>
-      <c r="C415" s="11" t="s">
+      <c r="C415" s="23" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:3">
       <c r="A416" s="35"/>
       <c r="B416" s="32"/>
-      <c r="C416" s="11" t="s">
+      <c r="C416" s="23" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:3">
       <c r="A417" s="35"/>
       <c r="B417" s="32"/>
-      <c r="C417" s="11" t="s">
+      <c r="C417" s="23" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="418" ht="15" spans="1:3">
       <c r="A418" s="35"/>
       <c r="B418" s="32"/>
-      <c r="C418" s="11" t="s">
+      <c r="C418" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="419" ht="15" spans="1:3">
       <c r="A419" s="35"/>
       <c r="B419" s="32"/>
-      <c r="C419" s="11" t="s">
+      <c r="C419" s="23" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="420" ht="15" spans="1:3">
       <c r="A420" s="35"/>
       <c r="B420" s="32"/>
-      <c r="C420" s="11" t="s">
+      <c r="C420" s="23" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="421" ht="15" spans="1:3">
       <c r="A421" s="35"/>
       <c r="B421" s="32"/>
-      <c r="C421" s="11" t="s">
+      <c r="C421" s="23" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="422" ht="18" spans="1:3">
       <c r="A422" s="35"/>
       <c r="B422" s="32"/>
-      <c r="C422" s="11"/>
+      <c r="C422" s="23"/>
     </row>
     <row r="423" ht="15" spans="1:3">
       <c r="A423" s="35"/>
       <c r="B423" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="C423" s="11" t="s">
+      <c r="C423" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="424" ht="15" spans="1:3">
       <c r="A424" s="35"/>
       <c r="B424" s="32"/>
-      <c r="C424" s="11" t="s">
+      <c r="C424" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="425" ht="15" spans="1:3">
       <c r="A425" s="35"/>
       <c r="B425" s="32"/>
-      <c r="C425" s="11" t="s">
+      <c r="C425" s="23" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="426" ht="15" spans="1:3">
       <c r="A426" s="35"/>
       <c r="B426" s="32"/>
-      <c r="C426" s="11" t="s">
+      <c r="C426" s="23" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="427" ht="15" spans="1:3">
       <c r="A427" s="35"/>
       <c r="B427" s="32"/>
-      <c r="C427" s="11" t="s">
+      <c r="C427" s="23" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:3">
       <c r="A428" s="35"/>
       <c r="B428" s="32"/>
-      <c r="C428" s="11" t="s">
+      <c r="C428" s="23" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:3">
       <c r="A429" s="35"/>
       <c r="B429" s="32"/>
-      <c r="C429" s="11" t="s">
+      <c r="C429" s="23" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="430" ht="15" spans="1:3">
       <c r="A430" s="35"/>
       <c r="B430" s="32"/>
-      <c r="C430" s="11" t="s">
+      <c r="C430" s="23" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:3">
       <c r="A431" s="35"/>
       <c r="B431" s="32"/>
-      <c r="C431" s="11" t="s">
+      <c r="C431" s="23" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:3">
       <c r="A432" s="35"/>
       <c r="B432" s="32"/>
-      <c r="C432" s="11" t="s">
+      <c r="C432" s="23" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:3">
       <c r="A433" s="35"/>
       <c r="B433" s="32"/>
-      <c r="C433" s="11" t="s">
+      <c r="C433" s="23" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="434" ht="15" spans="1:3">
       <c r="A434" s="35"/>
       <c r="B434" s="32"/>
-      <c r="C434" s="11" t="s">
+      <c r="C434" s="23" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="435" ht="15" spans="1:3">
       <c r="A435" s="35"/>
       <c r="B435" s="32"/>
-      <c r="C435" s="11" t="s">
+      <c r="C435" s="23" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="436" ht="15" spans="1:3">
       <c r="A436" s="35"/>
       <c r="B436" s="32"/>
-      <c r="C436" s="11" t="s">
+      <c r="C436" s="23" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="437" ht="15" spans="1:3">
       <c r="A437" s="35"/>
       <c r="B437" s="32"/>
-      <c r="C437" s="11" t="s">
+      <c r="C437" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="438" ht="15" spans="1:3">
       <c r="A438" s="35"/>
       <c r="B438" s="32"/>
-      <c r="C438" s="11" t="s">
+      <c r="C438" s="23" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="439" ht="15" spans="1:3">
       <c r="A439" s="35"/>
       <c r="B439" s="32"/>
-      <c r="C439" s="11" t="s">
+      <c r="C439" s="23" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="440" ht="18" spans="1:3">
       <c r="A440" s="35"/>
       <c r="B440" s="32"/>
-      <c r="C440" s="11"/>
+      <c r="C440" s="23"/>
     </row>
     <row r="441" ht="15" spans="1:3">
       <c r="A441" s="35"/>
       <c r="B441" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="C441" s="11" t="s">
+      <c r="C441" s="23" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:3">
       <c r="A442" s="35"/>
       <c r="B442" s="32"/>
-      <c r="C442" s="11" t="s">
+      <c r="C442" s="23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="443" ht="15" spans="1:3">
       <c r="A443" s="35"/>
       <c r="B443" s="32"/>
-      <c r="C443" s="11" t="s">
+      <c r="C443" s="23" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="444" ht="15" spans="1:3">
       <c r="A444" s="35"/>
       <c r="B444" s="32"/>
-      <c r="C444" s="11" t="s">
+      <c r="C444" s="23" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="445" ht="15" spans="1:3">
       <c r="A445" s="35"/>
       <c r="B445" s="32"/>
-      <c r="C445" s="11" t="s">
+      <c r="C445" s="23" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="446" ht="15" spans="1:3">
       <c r="A446" s="35"/>
       <c r="B446" s="32"/>
-      <c r="C446" s="11" t="s">
+      <c r="C446" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="447" ht="15" spans="1:3">
       <c r="A447" s="35"/>
       <c r="B447" s="32"/>
-      <c r="C447" s="11" t="s">
+      <c r="C447" s="23" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:3">
       <c r="A448" s="35"/>
       <c r="B448" s="32"/>
-      <c r="C448" s="11" t="s">
+      <c r="C448" s="23" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:3">
       <c r="A449" s="35"/>
       <c r="B449" s="32"/>
-      <c r="C449" s="11" t="s">
+      <c r="C449" s="23" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="450" ht="15" spans="1:3">
       <c r="A450" s="35"/>
       <c r="B450" s="32"/>
-      <c r="C450" s="11" t="s">
+      <c r="C450" s="23" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="451" ht="18" spans="1:3">
       <c r="A451" s="35"/>
       <c r="B451" s="36"/>
-      <c r="C451" s="11"/>
+      <c r="C451" s="23"/>
     </row>
     <row r="452" ht="15" spans="1:3">
       <c r="A452" s="35"/>
-      <c r="B452" s="27" t="s">
+      <c r="B452" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C452" s="21" t="s">
+      <c r="C452" s="14" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="453" ht="15" spans="1:3">
       <c r="A453" s="35"/>
-      <c r="B453" s="27"/>
+      <c r="B453" s="13"/>
       <c r="C453" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="454" ht="15" spans="1:3">
       <c r="A454" s="35"/>
-      <c r="B454" s="27"/>
-      <c r="C454" s="21" t="s">
+      <c r="B454" s="13"/>
+      <c r="C454" s="14" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="455" ht="15" spans="1:3">
       <c r="A455" s="35"/>
-      <c r="B455" s="27"/>
+      <c r="B455" s="13"/>
       <c r="C455" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="456" ht="15" spans="1:3">
       <c r="A456" s="35"/>
-      <c r="B456" s="27"/>
-      <c r="C456" s="21" t="s">
+      <c r="B456" s="13"/>
+      <c r="C456" s="14" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="457" ht="15" spans="1:3">
       <c r="A457" s="35"/>
-      <c r="B457" s="27"/>
+      <c r="B457" s="13"/>
       <c r="C457" s="10" t="s">
         <v>430</v>
       </c>
@@ -7549,24 +7750,24 @@
       <c r="C459" s="2"/>
     </row>
     <row r="460" ht="15.75" spans="1:3">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B460" s="15" t="s">
+      <c r="B460" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C460" s="16" t="s">
+      <c r="C460" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="461" ht="12" customHeight="1" spans="1:3">
-      <c r="A461" s="14"/>
-      <c r="B461" s="15"/>
-      <c r="C461" s="16"/>
+      <c r="A461" s="3"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="5"/>
     </row>
     <row r="462" ht="16" customHeight="1" spans="1:3">
-      <c r="A462" s="14"/>
-      <c r="B462" s="4" t="s">
+      <c r="A462" s="3"/>
+      <c r="B462" s="7" t="s">
         <v>433</v>
       </c>
       <c r="C462" s="10" t="s">
@@ -7574,260 +7775,260 @@
       </c>
     </row>
     <row r="463" ht="20" customHeight="1" spans="1:3">
-      <c r="A463" s="14"/>
-      <c r="B463" s="4"/>
+      <c r="A463" s="3"/>
+      <c r="B463" s="7"/>
       <c r="C463" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
-      <c r="A464" s="14"/>
-      <c r="B464" s="4"/>
+      <c r="A464" s="3"/>
+      <c r="B464" s="7"/>
       <c r="C464" s="10" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="465" ht="21" customHeight="1" spans="1:3">
-      <c r="A465" s="14"/>
-      <c r="B465" s="4"/>
+      <c r="A465" s="3"/>
+      <c r="B465" s="7"/>
       <c r="C465" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="466" ht="15" customHeight="1" spans="1:3">
-      <c r="A466" s="14"/>
-      <c r="B466" s="4"/>
+      <c r="A466" s="3"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="467" ht="15" spans="1:3">
-      <c r="A467" s="14"/>
-      <c r="B467" s="4"/>
+      <c r="A467" s="3"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="10" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="468" ht="17" customHeight="1" spans="1:3">
-      <c r="A468" s="14"/>
-      <c r="B468" s="4"/>
+      <c r="A468" s="3"/>
+      <c r="B468" s="7"/>
       <c r="C468" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="469" ht="13" customHeight="1" spans="1:3">
-      <c r="A469" s="14"/>
-      <c r="B469" s="4"/>
+      <c r="A469" s="3"/>
+      <c r="B469" s="7"/>
       <c r="C469" s="10" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="470" ht="13" customHeight="1" spans="1:3">
-      <c r="A470" s="14"/>
-      <c r="B470" s="4"/>
+      <c r="A470" s="3"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="10" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="471" ht="15" spans="1:3">
-      <c r="A471" s="14"/>
-      <c r="B471" s="4"/>
+      <c r="A471" s="3"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
-      <c r="A472" s="14"/>
-      <c r="B472" s="4"/>
+      <c r="A472" s="3"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="473" ht="15" spans="1:3">
-      <c r="A473" s="14"/>
-      <c r="B473" s="4"/>
+      <c r="A473" s="3"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
-      <c r="A474" s="14"/>
-      <c r="B474" s="4"/>
+      <c r="A474" s="3"/>
+      <c r="B474" s="7"/>
       <c r="C474" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="475" ht="15" spans="1:3">
-      <c r="A475" s="14"/>
-      <c r="B475" s="4"/>
+      <c r="A475" s="3"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
-      <c r="A476" s="14"/>
-      <c r="B476" s="4"/>
+      <c r="A476" s="3"/>
+      <c r="B476" s="7"/>
       <c r="C476" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="477" ht="15" customHeight="1" spans="1:3">
-      <c r="A477" s="14"/>
-      <c r="B477" s="4"/>
+      <c r="A477" s="3"/>
+      <c r="B477" s="7"/>
       <c r="C477" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
-      <c r="A478" s="14"/>
-      <c r="B478" s="4"/>
+      <c r="A478" s="3"/>
+      <c r="B478" s="7"/>
       <c r="C478" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="479" ht="15" spans="1:3">
-      <c r="A479" s="14"/>
-      <c r="B479" s="4"/>
+      <c r="A479" s="3"/>
+      <c r="B479" s="7"/>
       <c r="C479" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
-      <c r="A480" s="14"/>
-      <c r="B480" s="4"/>
+      <c r="A480" s="3"/>
+      <c r="B480" s="7"/>
       <c r="C480" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="481" ht="18" customHeight="1" spans="1:3">
-      <c r="A481" s="14"/>
-      <c r="B481" s="4"/>
+      <c r="A481" s="3"/>
+      <c r="B481" s="7"/>
       <c r="C481" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="482" ht="18" customHeight="1" spans="1:3">
-      <c r="A482" s="14"/>
-      <c r="B482" s="4"/>
+      <c r="A482" s="3"/>
+      <c r="B482" s="7"/>
       <c r="C482" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="483" ht="18" customHeight="1" spans="1:3">
-      <c r="A483" s="14"/>
-      <c r="B483" s="4"/>
+      <c r="A483" s="3"/>
+      <c r="B483" s="7"/>
       <c r="C483" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="484" ht="16" customHeight="1" spans="1:3">
-      <c r="A484" s="14"/>
-      <c r="B484" s="4"/>
+      <c r="A484" s="3"/>
+      <c r="B484" s="7"/>
       <c r="C484" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="485" ht="16" customHeight="1" spans="1:3">
-      <c r="A485" s="14"/>
-      <c r="B485" s="4"/>
+      <c r="A485" s="3"/>
+      <c r="B485" s="7"/>
       <c r="C485" s="10" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="486" ht="16" customHeight="1" spans="1:3">
-      <c r="A486" s="14"/>
-      <c r="B486" s="4"/>
+      <c r="A486" s="3"/>
+      <c r="B486" s="7"/>
       <c r="C486" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="487" ht="16" customHeight="1" spans="1:3">
-      <c r="A487" s="14"/>
-      <c r="B487" s="4"/>
+      <c r="A487" s="3"/>
+      <c r="B487" s="7"/>
       <c r="C487" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="488" ht="16" customHeight="1" spans="1:3">
-      <c r="A488" s="14"/>
-      <c r="B488" s="4"/>
+      <c r="A488" s="3"/>
+      <c r="B488" s="7"/>
       <c r="C488" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="489" ht="16" customHeight="1" spans="1:3">
-      <c r="A489" s="14"/>
-      <c r="B489" s="4"/>
+      <c r="A489" s="3"/>
+      <c r="B489" s="7"/>
       <c r="C489" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="490" ht="16" customHeight="1" spans="1:3">
-      <c r="A490" s="14"/>
-      <c r="B490" s="4"/>
+      <c r="A490" s="3"/>
+      <c r="B490" s="7"/>
       <c r="C490" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="491" ht="16" customHeight="1" spans="1:3">
-      <c r="A491" s="14"/>
-      <c r="B491" s="4"/>
+      <c r="A491" s="3"/>
+      <c r="B491" s="7"/>
       <c r="C491" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="492" ht="16" customHeight="1" spans="1:3">
-      <c r="A492" s="14"/>
-      <c r="B492" s="4"/>
+      <c r="A492" s="3"/>
+      <c r="B492" s="7"/>
       <c r="C492" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="493" ht="16" customHeight="1" spans="1:3">
-      <c r="A493" s="14"/>
-      <c r="B493" s="4"/>
+      <c r="A493" s="3"/>
+      <c r="B493" s="7"/>
       <c r="C493" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="494" ht="16" customHeight="1" spans="1:3">
-      <c r="A494" s="14"/>
-      <c r="B494" s="4"/>
+      <c r="A494" s="3"/>
+      <c r="B494" s="7"/>
       <c r="C494" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="495" ht="16" customHeight="1" spans="1:3">
-      <c r="A495" s="14"/>
-      <c r="B495" s="4"/>
+      <c r="A495" s="3"/>
+      <c r="B495" s="7"/>
       <c r="C495" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="496" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A496" s="14"/>
-      <c r="B496" s="4"/>
+      <c r="A496" s="3"/>
+      <c r="B496" s="7"/>
     </row>
     <row r="497" ht="15" spans="1:3">
-      <c r="A497" s="14"/>
-      <c r="B497" s="27" t="s">
+      <c r="A497" s="3"/>
+      <c r="B497" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C497" s="21" t="s">
+      <c r="C497" s="14" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="498" ht="15" spans="1:3">
-      <c r="A498" s="14"/>
-      <c r="B498" s="27"/>
+      <c r="A498" s="3"/>
+      <c r="B498" s="13"/>
       <c r="C498" s="10" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="499" ht="9" customHeight="1" spans="1:3">
-      <c r="A499" s="12"/>
-      <c r="B499" s="13"/>
-      <c r="C499" s="13"/>
+      <c r="A499" s="15"/>
+      <c r="B499" s="11"/>
+      <c r="C499" s="11"/>
     </row>
     <row r="500" ht="24.75" spans="1:3">
       <c r="A500" s="2" t="s">
@@ -7837,393 +8038,393 @@
       <c r="C500" s="2"/>
     </row>
     <row r="501" ht="15.75" spans="1:3">
-      <c r="A501" s="14" t="s">
+      <c r="A501" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B501" s="15" t="s">
+      <c r="B501" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C501" s="16" t="s">
+      <c r="C501" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="502" ht="15.75" spans="1:3">
-      <c r="A502" s="14"/>
-      <c r="B502" s="15"/>
-      <c r="C502" s="16"/>
+      <c r="A502" s="3"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="5"/>
     </row>
     <row r="503" ht="15" spans="1:3">
-      <c r="A503" s="14"/>
+      <c r="A503" s="3"/>
       <c r="B503" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="C503" s="11" t="s">
+      <c r="C503" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" s="14"/>
+      <c r="A504" s="3"/>
       <c r="B504" s="32"/>
       <c r="C504" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="505" ht="15" spans="1:3">
-      <c r="A505" s="14"/>
+      <c r="A505" s="3"/>
       <c r="B505" s="32"/>
-      <c r="C505" s="11" t="s">
+      <c r="C505" s="23" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="506" ht="15" spans="1:3">
-      <c r="A506" s="14"/>
+      <c r="A506" s="3"/>
       <c r="B506" s="32"/>
-      <c r="C506" s="11" t="s">
+      <c r="C506" s="23" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="507" ht="15" spans="1:3">
-      <c r="A507" s="14"/>
+      <c r="A507" s="3"/>
       <c r="B507" s="32"/>
-      <c r="C507" s="11" t="s">
+      <c r="C507" s="23" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="508" ht="15" spans="1:3">
-      <c r="A508" s="14"/>
+      <c r="A508" s="3"/>
       <c r="B508" s="32"/>
-      <c r="C508" s="11" t="s">
+      <c r="C508" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="509" ht="18" spans="1:3">
-      <c r="A509" s="14"/>
+      <c r="A509" s="3"/>
       <c r="B509" s="32"/>
-      <c r="C509" s="11"/>
+      <c r="C509" s="23"/>
     </row>
     <row r="510" ht="15" spans="1:3">
-      <c r="A510" s="14"/>
+      <c r="A510" s="3"/>
       <c r="B510" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="C510" s="19" t="s">
+      <c r="C510" s="24" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="511" ht="15" spans="1:3">
-      <c r="A511" s="14"/>
+      <c r="A511" s="3"/>
       <c r="B511" s="32"/>
-      <c r="C511" s="11" t="s">
+      <c r="C511" s="23" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="512" ht="15" spans="1:3">
-      <c r="A512" s="14"/>
+      <c r="A512" s="3"/>
       <c r="B512" s="32"/>
-      <c r="C512" s="11" t="s">
+      <c r="C512" s="23" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="513" ht="15" spans="1:3">
-      <c r="A513" s="14"/>
+      <c r="A513" s="3"/>
       <c r="B513" s="32"/>
-      <c r="C513" s="11" t="s">
+      <c r="C513" s="23" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="514" ht="15" spans="1:3">
-      <c r="A514" s="14"/>
+      <c r="A514" s="3"/>
       <c r="B514" s="32"/>
-      <c r="C514" s="11" t="s">
+      <c r="C514" s="23" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="515" ht="15" spans="1:3">
-      <c r="A515" s="14"/>
+      <c r="A515" s="3"/>
       <c r="B515" s="32"/>
-      <c r="C515" s="11" t="s">
+      <c r="C515" s="23" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="516" ht="15" spans="1:3">
-      <c r="A516" s="14"/>
+      <c r="A516" s="3"/>
       <c r="B516" s="32"/>
-      <c r="C516" s="11" t="s">
+      <c r="C516" s="23" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="517" ht="15" spans="1:3">
-      <c r="A517" s="14"/>
+      <c r="A517" s="3"/>
       <c r="B517" s="32"/>
-      <c r="C517" s="11" t="s">
+      <c r="C517" s="23" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="518" ht="18" spans="1:3">
-      <c r="A518" s="14"/>
+      <c r="A518" s="3"/>
       <c r="B518" s="32"/>
-      <c r="C518" s="11"/>
+      <c r="C518" s="23"/>
     </row>
     <row r="519" ht="15" spans="1:3">
-      <c r="A519" s="14"/>
-      <c r="B519" s="4" t="s">
+      <c r="A519" s="3"/>
+      <c r="B519" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C519" s="16" t="s">
+      <c r="C519" s="5" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="520" ht="15" spans="1:3">
-      <c r="A520" s="14"/>
-      <c r="B520" s="4"/>
-      <c r="C520" s="11" t="s">
+      <c r="A520" s="3"/>
+      <c r="B520" s="7"/>
+      <c r="C520" s="23" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="521" ht="15" spans="1:3">
-      <c r="A521" s="14"/>
-      <c r="B521" s="4"/>
-      <c r="C521" s="11" t="s">
+      <c r="A521" s="3"/>
+      <c r="B521" s="7"/>
+      <c r="C521" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="522" ht="15" spans="1:3">
-      <c r="A522" s="14"/>
-      <c r="B522" s="4"/>
-      <c r="C522" s="11" t="s">
+      <c r="A522" s="3"/>
+      <c r="B522" s="7"/>
+      <c r="C522" s="23" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="523" ht="18" spans="1:3">
-      <c r="A523" s="14"/>
+      <c r="A523" s="3"/>
       <c r="B523" s="29"/>
-      <c r="C523" s="11"/>
+      <c r="C523" s="23"/>
     </row>
     <row r="524" ht="15" spans="1:3">
-      <c r="A524" s="14"/>
-      <c r="B524" s="20" t="s">
+      <c r="A524" s="3"/>
+      <c r="B524" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C524" s="21" t="s">
+      <c r="C524" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="525" ht="15" spans="1:3">
-      <c r="A525" s="14"/>
-      <c r="B525" s="20"/>
+      <c r="A525" s="3"/>
+      <c r="B525" s="25"/>
       <c r="C525" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="526" ht="9" customHeight="1" spans="1:3">
-      <c r="A526" s="18"/>
-      <c r="B526" s="18"/>
-      <c r="C526" s="18"/>
+      <c r="A526" s="8"/>
+      <c r="B526" s="8"/>
+      <c r="C526" s="8"/>
     </row>
     <row r="527" ht="15.75" spans="1:3">
-      <c r="A527" s="14" t="s">
+      <c r="A527" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B527" s="15" t="s">
+      <c r="B527" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C527" s="16" t="s">
+      <c r="C527" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="528" ht="15.75" spans="1:3">
-      <c r="A528" s="14"/>
-      <c r="B528" s="15"/>
-      <c r="C528" s="16"/>
+      <c r="A528" s="3"/>
+      <c r="B528" s="4"/>
+      <c r="C528" s="5"/>
     </row>
     <row r="529" ht="15" spans="1:3">
-      <c r="A529" s="14"/>
+      <c r="A529" s="3"/>
       <c r="B529" s="32" t="s">
         <v>495</v>
       </c>
-      <c r="C529" s="11" t="s">
+      <c r="C529" s="23" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="A530" s="14"/>
+      <c r="A530" s="3"/>
       <c r="B530" s="32"/>
       <c r="C530" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="531" ht="15" spans="1:3">
-      <c r="A531" s="14"/>
+      <c r="A531" s="3"/>
       <c r="B531" s="32"/>
-      <c r="C531" s="11" t="s">
+      <c r="C531" s="23" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="532" ht="15" spans="1:3">
-      <c r="A532" s="14"/>
+      <c r="A532" s="3"/>
       <c r="B532" s="32"/>
-      <c r="C532" s="11" t="s">
+      <c r="C532" s="23" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="533" ht="15" spans="1:3">
-      <c r="A533" s="14"/>
+      <c r="A533" s="3"/>
       <c r="B533" s="32"/>
-      <c r="C533" s="11" t="s">
+      <c r="C533" s="23" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="534" ht="12" customHeight="1" spans="1:3">
-      <c r="A534" s="14"/>
+      <c r="A534" s="3"/>
       <c r="B534" s="32"/>
-      <c r="C534" s="11"/>
+      <c r="C534" s="23"/>
     </row>
     <row r="535" ht="15" spans="1:3">
-      <c r="A535" s="14"/>
+      <c r="A535" s="3"/>
       <c r="B535" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="C535" s="19" t="s">
+      <c r="C535" s="24" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="536" ht="15" spans="1:3">
-      <c r="A536" s="14"/>
+      <c r="A536" s="3"/>
       <c r="B536" s="32"/>
-      <c r="C536" s="11" t="s">
+      <c r="C536" s="23" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="537" ht="15" spans="1:3">
-      <c r="A537" s="14"/>
+      <c r="A537" s="3"/>
       <c r="B537" s="32"/>
-      <c r="C537" s="11" t="s">
+      <c r="C537" s="23" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="538" ht="11" customHeight="1" spans="1:3">
-      <c r="A538" s="14"/>
+      <c r="A538" s="3"/>
       <c r="B538" s="32"/>
-      <c r="C538" s="11"/>
+      <c r="C538" s="23"/>
     </row>
     <row r="539" ht="15" spans="1:3">
-      <c r="A539" s="14"/>
+      <c r="A539" s="3"/>
       <c r="B539" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="C539" s="16" t="s">
+      <c r="C539" s="5" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="540" ht="15" spans="1:3">
-      <c r="A540" s="14"/>
+      <c r="A540" s="3"/>
       <c r="B540" s="32"/>
-      <c r="C540" s="11" t="s">
+      <c r="C540" s="23" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="541" ht="15" spans="1:3">
-      <c r="A541" s="14"/>
+      <c r="A541" s="3"/>
       <c r="B541" s="32"/>
-      <c r="C541" s="11" t="s">
+      <c r="C541" s="23" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="542" ht="15" spans="1:3">
-      <c r="A542" s="14"/>
+      <c r="A542" s="3"/>
       <c r="B542" s="32"/>
-      <c r="C542" s="11" t="s">
+      <c r="C542" s="23" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="543" ht="15" spans="1:3">
-      <c r="A543" s="14"/>
+      <c r="A543" s="3"/>
       <c r="B543" s="32"/>
-      <c r="C543" s="11" t="s">
+      <c r="C543" s="23" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="544" ht="15" spans="1:3">
-      <c r="A544" s="14"/>
+      <c r="A544" s="3"/>
       <c r="B544" s="32"/>
-      <c r="C544" s="11" t="s">
+      <c r="C544" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="545" ht="15.75" spans="1:3">
-      <c r="A545" s="14"/>
-      <c r="B545" s="4"/>
-      <c r="C545" s="11"/>
+      <c r="A545" s="3"/>
+      <c r="B545" s="7"/>
+      <c r="C545" s="23"/>
     </row>
     <row r="546" ht="15" spans="1:3">
-      <c r="A546" s="14"/>
+      <c r="A546" s="3"/>
       <c r="B546" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="C546" s="16" t="s">
+      <c r="C546" s="5" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="547" ht="15" spans="1:3">
-      <c r="A547" s="14"/>
+      <c r="A547" s="3"/>
       <c r="B547" s="32"/>
-      <c r="C547" s="11" t="s">
+      <c r="C547" s="23" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="548" ht="15" spans="1:3">
-      <c r="A548" s="14"/>
+      <c r="A548" s="3"/>
       <c r="B548" s="32"/>
-      <c r="C548" s="11" t="s">
+      <c r="C548" s="23" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="549" ht="15" spans="1:3">
-      <c r="A549" s="14"/>
+      <c r="A549" s="3"/>
       <c r="B549" s="32"/>
-      <c r="C549" s="11" t="s">
+      <c r="C549" s="23" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="550" ht="18" spans="1:3">
-      <c r="A550" s="14"/>
+      <c r="A550" s="3"/>
       <c r="B550" s="29"/>
-      <c r="C550" s="11"/>
+      <c r="C550" s="23"/>
     </row>
     <row r="551" ht="15" spans="1:3">
-      <c r="A551" s="14"/>
-      <c r="B551" s="20" t="s">
+      <c r="A551" s="3"/>
+      <c r="B551" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C551" s="21" t="s">
+      <c r="C551" s="14" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="552" ht="15" spans="1:3">
-      <c r="A552" s="14"/>
-      <c r="B552" s="20"/>
+      <c r="A552" s="3"/>
+      <c r="B552" s="25"/>
       <c r="C552" s="10" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="553" ht="9" customHeight="1" spans="1:3">
-      <c r="A553" s="12"/>
-      <c r="B553" s="13"/>
-      <c r="C553" s="13"/>
+      <c r="A553" s="15"/>
+      <c r="B553" s="11"/>
+      <c r="C553" s="11"/>
     </row>
     <row r="555" ht="18.75" spans="1:2">
-      <c r="A555" s="23" t="s">
+      <c r="A555" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="B555" s="24">
+      <c r="B555" s="17">
         <v>10.5</v>
       </c>
     </row>
     <row r="556" ht="18.75" spans="1:2">
-      <c r="A556" s="23" t="s">
+      <c r="A556" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="B556" s="24">
+      <c r="B556" s="17">
         <v>84</v>
       </c>
     </row>
@@ -8367,59 +8568,59 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="5" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
         <v>528</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -8427,253 +8628,253 @@
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="10" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="22" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="23" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="23" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="23" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="23" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="23" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="11" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="23" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="23" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="23" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="23" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="23" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="23" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="23" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="23" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="23" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="23" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="23" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="9" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="18" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" ht="15.75" spans="1:3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="23" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="14" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="25"/>
       <c r="C44" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="25"/>
       <c r="C45" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="46" ht="9" customHeight="1" spans="1:3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" ht="24.75" spans="1:3">
       <c r="A47" s="2" t="s">
@@ -8683,309 +8884,309 @@
       <c r="C47" s="2"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="5" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="9" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="10"/>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="23" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="11" t="s">
+      <c r="A57" s="3"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="23" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="11" t="s">
+      <c r="A58" s="3"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="23" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="11" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="23" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="11" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="23" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="11" t="s">
+      <c r="A61" s="3"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="23" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="3"/>
+      <c r="B63" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="23" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="11" t="s">
+      <c r="A64" s="3"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="23" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="11" t="s">
+      <c r="A65" s="3"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="23" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="11" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="23" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="11"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="23"/>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="24" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="11" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="11" t="s">
+      <c r="A70" s="3"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="23" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="11" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="23" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="11" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="23" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="11" t="s">
+      <c r="A73" s="3"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="23" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="11" t="s">
+      <c r="A74" s="3"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="23" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="19" t="s">
+      <c r="A75" s="3"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="24" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="19" t="s">
+      <c r="A76" s="3"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="19" t="s">
+      <c r="A77" s="3"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="24" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="19" t="s">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="24" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="19" t="s">
+      <c r="A79" s="3"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="24" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="3"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="19" t="s">
+      <c r="A81" s="3"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="24" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="19" t="s">
+      <c r="A82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="24" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="19"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="20" t="s">
+      <c r="A84" s="3"/>
+      <c r="B84" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="14" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="86" ht="10" customHeight="1" spans="1:3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="88" ht="18.75" spans="1:2">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B88" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B89" s="17">
         <v>16</v>
       </c>
     </row>
     <row r="161" ht="18.75" spans="1:2">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B161" s="24">
+      <c r="B161" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="162" ht="18.75" spans="1:2">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="B162" s="24">
+      <c r="B162" s="17">
         <v>16</v>
       </c>
     </row>
@@ -9017,7 +9218,7 @@
   <sheetPr/>
   <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
@@ -9049,104 +9250,104 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="20" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="21" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="21" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="22" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="22" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="22" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="22" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="10" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="23" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="23" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="16" ht="9" customHeight="1" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" ht="24.75" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -9156,314 +9357,314 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" ht="10" customHeight="1" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="9" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="9" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="9" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="9" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="9" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="9" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="9" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="9" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="9" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="9" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="9" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="23" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="23" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="23" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="23" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="11" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="23" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="11" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="23" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="23" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="23" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="23" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="23" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="11" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="23" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1" spans="1:3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="24" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="11" t="s">
+      <c r="A52" s="3"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="23" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="23" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="23" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="3"/>
+      <c r="B58" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="61" ht="9" customHeight="1" spans="1:3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" ht="24.75" spans="1:3">
       <c r="A62" s="2" t="s">
@@ -9473,205 +9674,205 @@
       <c r="C62" s="2"/>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="19" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="6" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="20" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="7" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="21" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1" spans="1:3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="7" t="s">
+      <c r="A66" s="26"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="21" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1" spans="1:3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="8" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="22" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="4"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="9" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="69" ht="16" customHeight="1" spans="1:3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="8" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="22" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="70" ht="16" customHeight="1" spans="3:3">
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="22" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="71" ht="9" customHeight="1" spans="1:3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" ht="15.75" spans="1:3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" ht="10" customHeight="1" spans="1:3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74" ht="19" customHeight="1" spans="1:3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="18" t="s">
+      <c r="A75" s="26"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="9" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="4"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="9" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1" spans="1:3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="10" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="9" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="9" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="1:3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="4"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="10"/>
     </row>
     <row r="82" ht="15" spans="1:3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="26"/>
+      <c r="B82" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="23" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="83" ht="15" spans="1:3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="11" t="s">
+      <c r="A83" s="26"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="23" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="11" t="s">
+      <c r="A84" s="26"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="23" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="11" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="23" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="86" ht="12" customHeight="1" spans="1:3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87" customFormat="1" ht="12" customHeight="1"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+    </row>
+    <row r="87" ht="12" customHeight="1"/>
     <row r="88" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B88" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B89" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="191" ht="18.75" spans="1:2">
-      <c r="A191" s="23" t="s">
+      <c r="A191" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B191" s="24">
+      <c r="B191" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="192" ht="18.75" spans="1:2">
-      <c r="A192" s="23" t="s">
+      <c r="A192" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="B192" s="24">
+      <c r="B192" s="17">
         <v>16</v>
       </c>
     </row>
@@ -9696,4 +9897,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="10" customHeight="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" ht="52" customHeight="1" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" ht="12" customHeight="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="1" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" ht="9" customHeight="1" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" ht="24.75" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" ht="38" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="1" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="30" ht="13" customHeight="1" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C34" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C43" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" ht="9" customHeight="1" spans="1:3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:2">
+      <c r="A53" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B53" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="1:2">
+      <c r="A54" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B54" s="17">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="A23:A49"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B48:B49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="722">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -2681,6 +2681,9 @@
     <t>9. Demo: Embeddable Primary Key and ID Class</t>
   </si>
   <si>
+    <t>Day 17</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2790,10 +2793,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2931,55 +2934,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2990,6 +2947,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3009,21 +3004,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3037,18 +3041,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3060,16 +3057,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3141,25 +3144,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,7 +3186,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3183,79 +3234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3279,13 +3264,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3297,31 +3312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3418,26 +3421,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3460,16 +3443,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3489,17 +3472,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3515,13 +3518,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3533,130 +3536,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9219,7 +9222,7 @@
   <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
@@ -9905,9 +9908,9 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -10072,83 +10075,83 @@
     </row>
     <row r="22" ht="24.75" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>693</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
       <c r="C30" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
@@ -10159,59 +10162,59 @@
     <row r="34" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C34" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
       <c r="C41" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10220,31 +10223,31 @@
     <row r="43" ht="18" customHeight="1" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C43" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="7"/>
       <c r="C44" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
       <c r="C45" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -10256,14 +10259,14 @@
         <v>22</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="3"/>
       <c r="B49" s="13"/>
       <c r="C49" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" ht="9" customHeight="1" spans="1:3">

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4021,9 +4021,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="54">
@@ -4237,18 +4237,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4261,38 +4269,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4314,8 +4291,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4330,20 +4352,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -4352,28 +4360,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4460,25 +4460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4490,31 +4478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4532,19 +4508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4562,37 +4538,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4610,7 +4610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4622,25 +4622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4749,37 +4749,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4802,8 +4776,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4825,37 +4829,33 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4867,130 +4867,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6366,9 +6366,9 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -6813,9 +6813,9 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -3803,7 +3803,7 @@
     <t>Next, you’ll learn how to automate tasks with both Freestyle and Pipeline job types.                                             Finally, you’ll explore practical examples of compiling, testing, packaging, and deploying software.                                                When you’re finished with this course, you’ll have the skills and knowledge of Jenkins needed to markedly boost your productivity!</t>
   </si>
   <si>
-    <t>4. Building Applications with Freestyle Jobs</t>
+    <t>3. Building Applications with Freestyle Jobs</t>
   </si>
   <si>
     <t>1. Anatomy of the Build</t>
@@ -3917,7 +3917,7 @@
     <t>Demonstrate passing test cases in IDE.</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>4th-5th May, 2022</t>
   </si>
   <si>
     <t>Write correct code to pass JUnit test cases for various modules in Spring Data JPA.</t>
@@ -4021,10 +4021,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -4237,8 +4237,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4253,25 +4289,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4292,23 +4330,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4329,8 +4352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4343,9 +4367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4353,29 +4376,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4460,13 +4460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4478,13 +4478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4496,7 +4514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4508,13 +4526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4532,13 +4556,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4550,97 +4628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4749,11 +4749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4797,36 +4818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4834,6 +4825,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4867,130 +4867,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5543,7 +5543,7 @@
   <dimension ref="A7:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A16:$XFD17"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5935,7 +5935,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A57" sqref="A57:B58"/>
     </sheetView>
@@ -6366,9 +6366,9 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -6813,9 +6813,9 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1086">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -3887,6 +3887,9 @@
     <t>Total # of Hours for Jenkins</t>
   </si>
   <si>
+    <t>Day 28</t>
+  </si>
+  <si>
     <t>Serial Number</t>
   </si>
   <si>
@@ -4021,10 +4024,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -4237,21 +4240,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4260,38 +4248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4306,22 +4263,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -4329,9 +4270,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4345,8 +4302,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4355,6 +4328,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4374,8 +4376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4460,13 +4463,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4478,13 +4517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4496,31 +4553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4532,31 +4583,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4568,73 +4625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4750,16 +4753,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4779,6 +4782,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4794,37 +4806,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4846,10 +4838,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4867,130 +4870,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6366,7 +6369,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20:B42"/>
     </sheetView>
@@ -6815,7 +6818,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -6830,29 +6833,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>1059</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:6">
@@ -6860,19 +6865,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="5" spans="6:6">
@@ -6883,19 +6888,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>1070</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -6906,24 +6911,24 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6937,37 +6942,37 @@
     </row>
     <row r="19" ht="18" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:1">
       <c r="A22" s="14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24" ht="25.5" spans="1:1">
       <c r="A24" s="14" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:1">
       <c r="A25" s="16" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="27" ht="38.25" spans="1:1">
       <c r="A27" s="17" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="Spring Data REST" sheetId="33" r:id="rId10"/>
     <sheet name="Jenkins" sheetId="36" r:id="rId11"/>
     <sheet name="API Development" sheetId="37" r:id="rId12"/>
-    <sheet name="Sprint 1" sheetId="35" r:id="rId13"/>
+    <sheet name="HTML 5" sheetId="38" r:id="rId13"/>
+    <sheet name="Sprint 1" sheetId="35" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1155">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -3968,6 +3969,168 @@
     <t>Day 28</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">At the core of web development is a thorough knowledge of HTML.                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In this course, HTML 5, you’ll learn how to build web pages. First, you’ll cover the basics of HTML markup.                                  Next, you’ll explore lists, tables, and text.                           Finally, you’ll discover how to add images to your web pages. When you’re finished with this course, you’ll have a foundational knowledge of HTML that will help you as you move forward to web development.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Working with HTML Documents</t>
+  </si>
+  <si>
+    <t>1. Understanding HTML</t>
+  </si>
+  <si>
+    <t>2. HTML Documents</t>
+  </si>
+  <si>
+    <t>3. Demo: An HTML Document</t>
+  </si>
+  <si>
+    <t>4. The Head Element</t>
+  </si>
+  <si>
+    <t>5. Demo: Working with the Head</t>
+  </si>
+  <si>
+    <t>6. The Body Element</t>
+  </si>
+  <si>
+    <t>7. Demo: Working with the Body</t>
+  </si>
+  <si>
+    <t>3. Displaying Text</t>
+  </si>
+  <si>
+    <t>1. Displaying Text</t>
+  </si>
+  <si>
+    <t>2. Demo: Headings and Block Elements</t>
+  </si>
+  <si>
+    <t>3. Demo: Block vs. Inline Elements</t>
+  </si>
+  <si>
+    <t>4. Text Breaking and Whitespace</t>
+  </si>
+  <si>
+    <t>5. Demo: Breaking and Whitespace</t>
+  </si>
+  <si>
+    <t>6. Reference Text</t>
+  </si>
+  <si>
+    <t>7. Demo: Reference Text</t>
+  </si>
+  <si>
+    <t>8. Semantic Meaning</t>
+  </si>
+  <si>
+    <t>9. Demo: Using Semantically Meaningful Elements</t>
+  </si>
+  <si>
+    <t>4. Creating Lists</t>
+  </si>
+  <si>
+    <t>1. Understanding Lists</t>
+  </si>
+  <si>
+    <t>2. Demo: Creating Lists</t>
+  </si>
+  <si>
+    <t>3. Demo: Definition Lists</t>
+  </si>
+  <si>
+    <t>4. Modern Lists</t>
+  </si>
+  <si>
+    <t>5. Demo: Modern Lists</t>
+  </si>
+  <si>
+    <t>5. Linking Documents</t>
+  </si>
+  <si>
+    <t>2. Link concepts</t>
+  </si>
+  <si>
+    <t>3. Demo: Linking Documents</t>
+  </si>
+  <si>
+    <t>4. Understanding Targets</t>
+  </si>
+  <si>
+    <t>5. Demo: Linking to Targets</t>
+  </si>
+  <si>
+    <t>6. Additional Link Attributes</t>
+  </si>
+  <si>
+    <t>6. Displaying Data with Tables</t>
+  </si>
+  <si>
+    <t>1. Understanding HTML Tables</t>
+  </si>
+  <si>
+    <t>2. Defining HTML Tables</t>
+  </si>
+  <si>
+    <t>3. Demo: Creating Tables</t>
+  </si>
+  <si>
+    <t>4. Demo: Spanning Columns and Rows</t>
+  </si>
+  <si>
+    <t>5. Formatting Tables</t>
+  </si>
+  <si>
+    <t>6. Demo: Using Styles to Format Tables</t>
+  </si>
+  <si>
+    <t>7. Demo: Aligning Tables</t>
+  </si>
+  <si>
+    <t>7. Including Images</t>
+  </si>
+  <si>
+    <t>1. Understanding Images in HTML</t>
+  </si>
+  <si>
+    <t>2. Demo: Adding Images to a Document</t>
+  </si>
+  <si>
+    <t>3. Defining Alternate Images</t>
+  </si>
+  <si>
+    <t>4. Demo: Alternate Images with ImageSet</t>
+  </si>
+  <si>
+    <t>5. Using the Picture Element</t>
+  </si>
+  <si>
+    <t>6. Demo: Picture</t>
+  </si>
+  <si>
+    <t>8. Planning for Accessibility</t>
+  </si>
+  <si>
+    <t>1. Planning for Accessibility</t>
+  </si>
+  <si>
+    <t>2. Course Summary</t>
+  </si>
+  <si>
+    <t>Day 31</t>
+  </si>
+  <si>
     <t>Serial Number</t>
   </si>
   <si>
@@ -4102,10 +4265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -4318,8 +4481,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4332,8 +4518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4348,15 +4535,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4370,16 +4587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4387,46 +4597,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4440,14 +4611,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4456,7 +4619,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4541,7 +4704,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4553,13 +4770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4571,55 +4788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4631,7 +4800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4649,13 +4824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4667,37 +4842,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4709,13 +4872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4832,9 +4995,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4854,17 +5034,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4884,16 +5058,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4911,26 +5085,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4948,130 +5111,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5133,22 +5296,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6051,332 +6214,332 @@
       <c r="A3" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="22" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>979</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="22" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="22" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="22" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="15.75" spans="1:2">
       <c r="A26" s="19"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="29"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="22" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="29"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="22" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="29"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="22" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="29"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="22" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="29"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="29"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="22" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="29"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="22" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="29"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="22" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="29"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
       <c r="A37" s="29"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="23"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="29"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="29"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="22" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="29"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="22" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="29"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="22" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="29"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="22" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="29"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="22" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="29"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="23" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="22" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="29"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="22" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="29"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="23" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="22" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="29"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="30" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="29"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="30" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="29"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="30" t="s">
         <v>894</v>
       </c>
@@ -6393,21 +6556,21 @@
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="29"/>
       <c r="B51" s="32"/>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="21" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="15.75" spans="1:3">
       <c r="A52" s="29"/>
       <c r="B52" s="32"/>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="21" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="57" customFormat="1" ht="37.5" spans="1:2">
       <c r="A57" s="27" t="s">
@@ -6447,7 +6610,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20:B42"/>
     </sheetView>
@@ -6482,115 +6645,115 @@
       <c r="A3" s="19" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="21" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="21" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="21" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="21" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="21" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="21" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="21" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="21" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="21" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="21" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="21" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" customFormat="1" ht="24.75" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -6603,164 +6766,164 @@
       <c r="A20" s="29" t="s">
         <v>1030</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>1031</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:3">
       <c r="A21" s="29"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:3">
       <c r="A22" s="29"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="22" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:3">
       <c r="A23" s="29"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:3">
       <c r="A24" s="29"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15" spans="1:3">
       <c r="A25" s="29"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="22" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
       <c r="A26" s="29"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="30" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:3">
       <c r="A27" s="29"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="30" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:3">
       <c r="A28" s="29"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="30" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:3">
       <c r="A29" s="29"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="30" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="25.5" spans="1:3">
       <c r="A30" s="29"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="31" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:3">
       <c r="A31" s="29"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="31" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A32" s="29"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="25" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A33" s="29"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A34" s="29"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="21" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A35" s="29"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="21" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A36" s="29"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="21" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A37" s="29"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="21" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A38" s="29"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A39" s="29"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="21" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A40" s="29"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A41" s="29"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="21" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A42" s="29"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="21" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -6776,14 +6939,14 @@
     <row r="44" customFormat="1" ht="15" spans="1:3">
       <c r="A44" s="29"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="21" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" customFormat="1" ht="18.75" spans="1:1">
       <c r="A46" s="19"/>
@@ -6893,8 +7056,8 @@
   <sheetPr/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
@@ -6929,119 +7092,119 @@
       <c r="A3" s="19" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="25" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="25" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>1066</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="25" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="25" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="25" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="25" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="25" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>1072</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="25" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="21" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="21" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" customFormat="1" ht="18.75" spans="1:1">
       <c r="A20" s="19"/>
@@ -7164,12 +7327,531 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="21" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="21" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="21" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="21" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" ht="15" spans="1:3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="15" spans="1:3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="21" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="15" spans="1:3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="21" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="15" spans="1:3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="15" spans="1:3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="15" spans="1:3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="21" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="15" spans="1:3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="21" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="15" spans="1:3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="15" spans="1:3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="21" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="15" spans="1:3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" ht="15" spans="1:3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15" spans="1:3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="15" spans="1:3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="21" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15" spans="1:3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="21" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="15" spans="1:3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="21" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="15" spans="1:3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" customFormat="1" ht="15" spans="1:3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="15" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="15" spans="1:3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="21" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="15" spans="1:3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="21" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="15" spans="1:3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="21" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="15" spans="1:3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="15" spans="1:3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" customFormat="1" ht="15" spans="1:3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="15" spans="1:3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="15" spans="1:3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="15" spans="1:3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="15" spans="1:3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="21" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="15" spans="1:3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="15" spans="1:3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="15" spans="1:3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" customFormat="1" ht="15" spans="1:3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="15" spans="1:3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="15" spans="1:3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="21" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="15" spans="1:3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="21" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="15" spans="1:3">
+      <c r="A53" s="19"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="21" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="15" spans="1:3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="21" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="15" spans="1:3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="21"/>
+    </row>
+    <row r="57" customFormat="1" ht="15" spans="1:3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="23" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="15" spans="1:3">
+      <c r="A58" s="19"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="21" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="8" customHeight="1" spans="1:3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+    </row>
+    <row r="60" ht="18.75" spans="1:1">
+      <c r="A60" s="19"/>
+    </row>
+    <row r="61" ht="18.75" spans="1:1">
+      <c r="A61" s="19"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:3">
+      <c r="A62" s="19"/>
+      <c r="C62" s="21"/>
+    </row>
+    <row r="63" ht="18.75" spans="1:1">
+      <c r="A63" s="19"/>
+    </row>
+    <row r="64" ht="18.75" spans="1:1">
+      <c r="A64" s="19"/>
+    </row>
+    <row r="65" ht="18.75" spans="1:1">
+      <c r="A65" s="19"/>
+    </row>
+    <row r="66" ht="18.75" spans="1:1">
+      <c r="A66" s="19"/>
+    </row>
+    <row r="67" ht="18.75" spans="1:1">
+      <c r="A67" s="19"/>
+    </row>
+    <row r="68" ht="18.75" spans="1:1">
+      <c r="A68" s="19"/>
+    </row>
+    <row r="69" ht="18.75" spans="1:1">
+      <c r="A69" s="19"/>
+    </row>
+    <row r="70" ht="18.75" spans="1:1">
+      <c r="A70" s="19"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:1">
+      <c r="A71" s="19"/>
+    </row>
+    <row r="72" ht="18.75" spans="1:1">
+      <c r="A72" s="19"/>
+    </row>
+    <row r="73" ht="18.75" spans="1:1">
+      <c r="A73" s="19"/>
+    </row>
+    <row r="74" ht="18.75" spans="1:1">
+      <c r="A74" s="19"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:1">
+      <c r="A75" s="19"/>
+    </row>
+    <row r="76" ht="18.75" spans="1:1">
+      <c r="A76" s="19"/>
+    </row>
+    <row r="77" ht="18.75" spans="1:1">
+      <c r="A77" s="19"/>
+    </row>
+    <row r="78" ht="18.75" spans="1:1">
+      <c r="A78" s="19"/>
+    </row>
+    <row r="79" ht="18.75" spans="1:1">
+      <c r="A79" s="19"/>
+    </row>
+    <row r="80" ht="18.75" spans="1:1">
+      <c r="A80" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A58"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B57:B58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -7185,7 +7867,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1078</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7193,22 +7875,22 @@
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1079</v>
+        <v>1129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1080</v>
+        <v>1130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1081</v>
+        <v>1131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1082</v>
+        <v>1132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1084</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:6">
@@ -7216,19 +7898,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1085</v>
+        <v>1135</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1086</v>
+        <v>1136</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1087</v>
+        <v>1137</v>
       </c>
       <c r="E4" t="s">
-        <v>1088</v>
+        <v>1138</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1089</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="6:6">
@@ -7239,19 +7921,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1090</v>
+        <v>1140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1091</v>
+        <v>1141</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1092</v>
+        <v>1142</v>
       </c>
       <c r="E6" t="s">
-        <v>1088</v>
+        <v>1138</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1089</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -7262,24 +7944,24 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1093</v>
+        <v>1143</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1094</v>
+        <v>1144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1095</v>
+        <v>1145</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1096</v>
+        <v>1146</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1089</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>1097</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -7293,37 +7975,37 @@
     </row>
     <row r="19" ht="18" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>1098</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>1099</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:1">
       <c r="A22" s="14" t="s">
-        <v>1100</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>1101</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="24" ht="25.5" spans="1:1">
       <c r="A24" s="14" t="s">
-        <v>1102</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:1">
       <c r="A25" s="16" t="s">
-        <v>1103</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="27" ht="38.25" spans="1:1">
       <c r="A27" s="17" t="s">
-        <v>1104</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -7376,7 +8058,7 @@
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -7390,7 +8072,7 @@
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -7399,149 +8081,149 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:3">
       <c r="A15" s="56"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="53" t="s">
@@ -7550,77 +8232,77 @@
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="53" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="53" t="s">
@@ -7629,70 +8311,70 @@
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="53" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="53" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:3">
       <c r="A47" s="56"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="53"/>
     </row>
     <row r="48" ht="15" spans="1:3">
@@ -7707,7 +8389,7 @@
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="19"/>
       <c r="B49" s="32"/>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7727,7 +8409,7 @@
       <c r="A52" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="53" t="s">
@@ -7736,82 +8418,82 @@
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="23" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="24" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" spans="1:3">
       <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="23" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" spans="1:3">
       <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
       <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
       <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="4"/>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="19"/>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="53" t="s">
@@ -7820,63 +8502,63 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="23"/>
       <c r="C67" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="23"/>
       <c r="C68" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="23"/>
       <c r="C69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="23"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="53" t="s">
         <v>70</v>
       </c>
@@ -7886,7 +8568,7 @@
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:3">
       <c r="A75" s="19"/>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -7895,75 +8577,75 @@
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
       <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="23"/>
       <c r="C76" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:3">
       <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="23"/>
       <c r="C77" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="1:3">
       <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:3">
       <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1" spans="1:3">
       <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="23"/>
       <c r="C80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1" spans="1:3">
       <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="23"/>
       <c r="C81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1" spans="1:3">
       <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="1:3">
       <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="1:3">
       <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1" spans="1:3">
       <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="53"/>
     </row>
     <row r="86" ht="16" customHeight="1" spans="1:3">
       <c r="A86" s="19"/>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C86" s="53" t="s">
@@ -7972,70 +8654,70 @@
     </row>
     <row r="87" ht="16" customHeight="1" spans="1:3">
       <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="23"/>
       <c r="C87" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1" spans="1:3">
       <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="23"/>
       <c r="C88" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1" spans="1:3">
       <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1" spans="1:3">
       <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1" spans="1:3">
       <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="23"/>
       <c r="C91" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" ht="16" customHeight="1" spans="1:3">
       <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1" spans="1:3">
       <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1" spans="1:3">
       <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
       <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="1:2">
       <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="23"/>
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="19"/>
@@ -8049,7 +8731,7 @@
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="19"/>
       <c r="B98" s="32"/>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8069,7 +8751,7 @@
       <c r="A101" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="49" t="s">
@@ -8078,12 +8760,12 @@
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:3">
       <c r="A102" s="19"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="49"/>
     </row>
     <row r="103" ht="16" customHeight="1" spans="1:3">
       <c r="A103" s="19"/>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C103" s="53" t="s">
@@ -8092,75 +8774,75 @@
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:3">
       <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="23" t="s">
+      <c r="B104" s="23"/>
+      <c r="C104" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
       <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="23" t="s">
+      <c r="B105" s="23"/>
+      <c r="C105" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:3">
       <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="24" t="s">
+      <c r="B106" s="23"/>
+      <c r="C106" s="26" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:3">
       <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
       <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="24" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="109" ht="17" customHeight="1" spans="1:3">
       <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="23" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="110" ht="13" customHeight="1" spans="1:3">
       <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="23" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="111" ht="13" customHeight="1" spans="1:3">
       <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="23" t="s">
+      <c r="B111" s="23"/>
+      <c r="C111" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
       <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:3">
       <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="4"/>
     </row>
     <row r="114" ht="15" spans="1:3">
       <c r="A114" s="19"/>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="23" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="53" t="s">
@@ -8169,56 +8851,56 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="23"/>
       <c r="C115" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="23"/>
       <c r="C116" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="B117" s="23"/>
       <c r="C117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
+      <c r="B118" s="23"/>
       <c r="C118" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="B119" s="23"/>
       <c r="C119" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="B120" s="23"/>
       <c r="C120" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="4" t="s">
         <v>58</v>
       </c>
@@ -8228,7 +8910,7 @@
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:3">
       <c r="A124" s="19"/>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C124" s="53" t="s">
@@ -8237,54 +8919,54 @@
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:3">
       <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="B125" s="23"/>
       <c r="C125" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:3">
       <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="23"/>
       <c r="C126" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" ht="16" customHeight="1" spans="1:3">
       <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:3">
       <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" ht="16" customHeight="1" spans="1:3">
       <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
+      <c r="B129" s="23"/>
       <c r="C129" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" ht="16" customHeight="1" spans="1:3">
       <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1" spans="1:3">
       <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="53"/>
     </row>
     <row r="132" ht="16" customHeight="1" spans="1:3">
       <c r="A132" s="19"/>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C132" s="53" t="s">
@@ -8293,63 +8975,63 @@
     </row>
     <row r="133" ht="16" customHeight="1" spans="1:3">
       <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="23"/>
       <c r="C133" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" ht="16" customHeight="1" spans="1:3">
       <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
+      <c r="B134" s="23"/>
       <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" ht="16" customHeight="1" spans="1:3">
       <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1" spans="1:3">
       <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" ht="16" customHeight="1" spans="1:3">
       <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
+      <c r="B137" s="23"/>
       <c r="C137" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="138" ht="16" customHeight="1" spans="1:3">
       <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" ht="16" customHeight="1" spans="1:3">
       <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
       <c r="A140" s="19"/>
-      <c r="B140" s="20"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141" customFormat="1" ht="15.75" spans="1:2">
       <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
+      <c r="B141" s="23"/>
     </row>
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="19"/>
@@ -8363,7 +9045,7 @@
     <row r="143" ht="15" spans="1:3">
       <c r="A143" s="19"/>
       <c r="B143" s="32"/>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="22" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8383,7 +9065,7 @@
       <c r="A146" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="23" t="s">
         <v>162</v>
       </c>
       <c r="C146" s="53" t="s">
@@ -8392,82 +9074,82 @@
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:3">
       <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="23" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
       <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="23" t="s">
+      <c r="B148" s="23"/>
+      <c r="C148" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="149" ht="21" customHeight="1" spans="1:3">
       <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="24" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="26" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" spans="1:3">
       <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
       <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="24" t="s">
+      <c r="B151" s="23"/>
+      <c r="C151" s="26" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="152" ht="17" customHeight="1" spans="1:3">
       <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="23" t="s">
+      <c r="B152" s="23"/>
+      <c r="C152" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:3">
       <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="23" t="s">
+      <c r="B153" s="23"/>
+      <c r="C153" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="154" ht="13" customHeight="1" spans="1:3">
       <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="23" t="s">
+      <c r="B154" s="23"/>
+      <c r="C154" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
       <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="53" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
       <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="157" ht="15.75" spans="1:3">
       <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="4"/>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="19"/>
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="23" t="s">
         <v>172</v>
       </c>
       <c r="C158" s="53" t="s">
@@ -8476,49 +9158,49 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="23"/>
       <c r="C159" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="23"/>
       <c r="C160" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="23"/>
       <c r="C161" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="23"/>
       <c r="C162" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="23"/>
       <c r="C163" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="23"/>
       <c r="C164" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="4" t="s">
         <v>58</v>
       </c>
@@ -8528,7 +9210,7 @@
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:3">
       <c r="A167" s="19"/>
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="23" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="53" t="s">
@@ -8537,54 +9219,54 @@
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:3">
       <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="23"/>
       <c r="C168" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:3">
       <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="23"/>
       <c r="C169" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="170" ht="16" customHeight="1" spans="1:3">
       <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="1" spans="1:3">
       <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="172" ht="16" customHeight="1" spans="1:3">
       <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="23"/>
       <c r="C172" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="173" ht="16" customHeight="1" spans="1:3">
       <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="1" spans="1:3">
       <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="53"/>
     </row>
     <row r="175" ht="16" customHeight="1" spans="1:3">
       <c r="A175" s="19"/>
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="23" t="s">
         <v>185</v>
       </c>
       <c r="C175" s="53" t="s">
@@ -8593,82 +9275,82 @@
     </row>
     <row r="176" ht="16" customHeight="1" spans="1:3">
       <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
+      <c r="B176" s="23"/>
       <c r="C176" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" ht="16" customHeight="1" spans="1:3">
       <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
+      <c r="B177" s="23"/>
       <c r="C177" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" ht="16" customHeight="1" spans="1:3">
       <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="1" spans="1:3">
       <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="180" ht="16" customHeight="1" spans="1:3">
       <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
+      <c r="B180" s="23"/>
       <c r="C180" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="181" ht="16" customHeight="1" spans="1:3">
       <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="182" ht="16" customHeight="1" spans="1:3">
       <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
       <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="53" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" customFormat="1" ht="15" spans="1:3">
       <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="1" ht="15" spans="1:3">
       <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="15.75" spans="1:3">
       <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="53"/>
     </row>
     <row r="187" customFormat="1" ht="15" spans="1:3">
       <c r="A187" s="19"/>
-      <c r="B187" s="20" t="s">
+      <c r="B187" s="23" t="s">
         <v>195</v>
       </c>
       <c r="C187" s="53" t="s">
@@ -8677,49 +9359,49 @@
     </row>
     <row r="188" customFormat="1" spans="1:3">
       <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
+      <c r="B188" s="23"/>
       <c r="C188" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:3">
       <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
+      <c r="B189" s="23"/>
       <c r="C189" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
       <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:3">
       <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="192" customFormat="1" spans="1:3">
       <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
+      <c r="B192" s="23"/>
       <c r="C192" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="193" customFormat="1" ht="15" spans="1:3">
       <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="194" customFormat="1" ht="15.75" spans="1:3">
       <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="53"/>
     </row>
     <row r="195" ht="15" spans="1:3">
@@ -8734,7 +9416,7 @@
     <row r="196" ht="15" spans="1:3">
       <c r="A196" s="19"/>
       <c r="B196" s="32"/>
-      <c r="C196" s="23" t="s">
+      <c r="C196" s="22" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8754,7 +9436,7 @@
       <c r="A199" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="22" t="s">
+      <c r="B199" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C199" s="49" t="s">
@@ -8763,12 +9445,12 @@
     </row>
     <row r="200" ht="15.75" spans="1:3">
       <c r="A200" s="19"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="49"/>
     </row>
     <row r="201" ht="16" customHeight="1" spans="1:3">
       <c r="A201" s="19"/>
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C201" s="53" t="s">
@@ -8777,49 +9459,49 @@
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:3">
       <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="23"/>
       <c r="C202" s="53" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
       <c r="A203" s="19"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="23"/>
       <c r="C203" s="53" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1" spans="1:3">
       <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
+      <c r="B204" s="23"/>
       <c r="C204" s="53" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:3">
       <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
+      <c r="B205" s="23"/>
       <c r="C205" s="53" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="19"/>
-      <c r="B206" s="20"/>
+      <c r="B206" s="23"/>
       <c r="C206" s="53" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:3">
       <c r="A207" s="19"/>
-      <c r="B207" s="20"/>
+      <c r="B207" s="23"/>
       <c r="C207" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:3">
       <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="23"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="15" spans="1:3">
@@ -8885,7 +9567,7 @@
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:3">
       <c r="A218" s="19"/>
-      <c r="B218" s="20" t="s">
+      <c r="B218" s="23" t="s">
         <v>218</v>
       </c>
       <c r="C218" s="53" t="s">
@@ -8894,70 +9576,70 @@
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:3">
       <c r="A219" s="19"/>
-      <c r="B219" s="20"/>
+      <c r="B219" s="23"/>
       <c r="C219" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:3">
       <c r="A220" s="19"/>
-      <c r="B220" s="20"/>
+      <c r="B220" s="23"/>
       <c r="C220" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" ht="16" customHeight="1" spans="1:3">
       <c r="A221" s="19"/>
-      <c r="B221" s="20"/>
+      <c r="B221" s="23"/>
       <c r="C221" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" ht="16" customHeight="1" spans="1:3">
       <c r="A222" s="19"/>
-      <c r="B222" s="20"/>
+      <c r="B222" s="23"/>
       <c r="C222" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="223" ht="16" customHeight="1" spans="1:3">
       <c r="A223" s="19"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="23"/>
       <c r="C223" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="224" ht="16" customHeight="1" spans="1:3">
       <c r="A224" s="19"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="23"/>
       <c r="C224" s="53" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" ht="16" customHeight="1" spans="1:3">
       <c r="A225" s="19"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="23"/>
       <c r="C225" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" ht="16" customHeight="1" spans="1:3">
       <c r="A226" s="19"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="23"/>
       <c r="C226" s="53" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" ht="16" customHeight="1" spans="1:3">
       <c r="A227" s="19"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="23"/>
       <c r="C227" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="228" customFormat="1" ht="15.75" spans="1:3">
       <c r="A228" s="19"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="23"/>
       <c r="C228" s="53"/>
     </row>
     <row r="229" ht="15" spans="1:3">
@@ -8972,51 +9654,51 @@
     <row r="230" ht="15" spans="1:3">
       <c r="A230" s="19"/>
       <c r="B230" s="32"/>
-      <c r="C230" s="23" t="s">
+      <c r="C230" s="22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
       <c r="A231" s="19"/>
       <c r="B231" s="32"/>
-      <c r="C231" s="23"/>
+      <c r="C231" s="22"/>
     </row>
     <row r="232" ht="14" customHeight="1" spans="1:3">
       <c r="A232" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B232" s="20" t="s">
+      <c r="B232" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C232" s="23" t="s">
+      <c r="C232" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:3">
       <c r="A233" s="19"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="23" t="s">
+      <c r="B233" s="23"/>
+      <c r="C233" s="22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" ht="19" customHeight="1" spans="1:3">
       <c r="A234" s="19"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="23" t="s">
+      <c r="B234" s="23"/>
+      <c r="C234" s="22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:3">
       <c r="A235" s="19"/>
-      <c r="B235" s="20"/>
-      <c r="C235" s="23" t="s">
+      <c r="B235" s="23"/>
+      <c r="C235" s="22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" ht="17" customHeight="1" spans="1:3">
       <c r="A236" s="19"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="23" t="s">
+      <c r="B236" s="23"/>
+      <c r="C236" s="22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9027,7 +9709,7 @@
     </row>
     <row r="238" ht="21" customHeight="1" spans="1:3">
       <c r="A238" s="19"/>
-      <c r="B238" s="20" t="s">
+      <c r="B238" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C238" s="53" t="s">
@@ -9036,35 +9718,35 @@
     </row>
     <row r="239" ht="13" customHeight="1" spans="1:3">
       <c r="A239" s="19"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:3">
       <c r="A240" s="19"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:3">
       <c r="A241" s="19"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
       <c r="A242" s="19"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="23"/>
       <c r="C242" s="53" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" ht="15" spans="1:3">
       <c r="A243" s="19"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="23"/>
       <c r="C243" s="53" t="s">
         <v>240</v>
       </c>
@@ -9074,7 +9756,7 @@
     </row>
     <row r="245" ht="15" spans="1:3">
       <c r="A245" s="19"/>
-      <c r="B245" s="20" t="s">
+      <c r="B245" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C245" s="53" t="s">
@@ -9083,42 +9765,42 @@
     </row>
     <row r="246" ht="15" spans="1:3">
       <c r="A246" s="19"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="23"/>
       <c r="C246" s="53" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" ht="15" spans="1:3">
       <c r="A247" s="19"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="23"/>
       <c r="C247" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
       <c r="A248" s="19"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="23"/>
       <c r="C248" s="53" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="249" ht="15" spans="1:3">
       <c r="A249" s="19"/>
-      <c r="B249" s="20"/>
+      <c r="B249" s="23"/>
       <c r="C249" s="53" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
       <c r="A250" s="19"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="23"/>
       <c r="C250" s="53" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:3">
       <c r="A251" s="19"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="23"/>
       <c r="C251" s="53"/>
     </row>
     <row r="252" ht="15" spans="1:3">
@@ -9133,7 +9815,7 @@
     <row r="253" ht="15" spans="1:3">
       <c r="A253" s="19"/>
       <c r="B253" s="32"/>
-      <c r="C253" s="23" t="s">
+      <c r="C253" s="22" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9153,7 +9835,7 @@
       <c r="A256" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B256" s="22" t="s">
+      <c r="B256" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C256" s="49" t="s">
@@ -9162,80 +9844,80 @@
     </row>
     <row r="257" ht="15" spans="1:3">
       <c r="A257" s="19"/>
-      <c r="B257" s="20" t="s">
+      <c r="B257" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C257" s="23" t="s">
+      <c r="C257" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="258" ht="15" spans="1:3">
       <c r="A258" s="19"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="23" t="s">
+      <c r="B258" s="23"/>
+      <c r="C258" s="22" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="259" ht="15" spans="1:3">
       <c r="A259" s="19"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="23" t="s">
+      <c r="B259" s="23"/>
+      <c r="C259" s="22" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
       <c r="A260" s="19"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="23" t="s">
+      <c r="B260" s="23"/>
+      <c r="C260" s="22" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="261" ht="15" spans="1:3">
       <c r="A261" s="19"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="23" t="s">
+      <c r="B261" s="23"/>
+      <c r="C261" s="22" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="262" ht="15" spans="1:3">
       <c r="A262" s="19"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="23" t="s">
+      <c r="B262" s="23"/>
+      <c r="C262" s="22" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="263" ht="15" spans="1:3">
       <c r="A263" s="19"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="23" t="s">
+      <c r="B263" s="23"/>
+      <c r="C263" s="22" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="264" ht="20" customHeight="1" spans="1:3">
       <c r="A264" s="19"/>
-      <c r="B264" s="20"/>
-      <c r="C264" s="23" t="s">
+      <c r="B264" s="23"/>
+      <c r="C264" s="22" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="265" ht="21" customHeight="1" spans="1:3">
       <c r="A265" s="19"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="23" t="s">
+      <c r="B265" s="23"/>
+      <c r="C265" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:3">
       <c r="A266" s="19"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="23" t="s">
+      <c r="B266" s="23"/>
+      <c r="C266" s="22" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="267" ht="15" customHeight="1" spans="1:3">
       <c r="A267" s="19"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="23" t="s">
+      <c r="B267" s="23"/>
+      <c r="C267" s="22" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9244,52 +9926,52 @@
     </row>
     <row r="269" ht="15" spans="1:3">
       <c r="A269" s="19"/>
-      <c r="B269" s="20" t="s">
+      <c r="B269" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="23" t="s">
+      <c r="C269" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="270" ht="15" spans="1:3">
       <c r="A270" s="19"/>
-      <c r="B270" s="20"/>
-      <c r="C270" s="23" t="s">
+      <c r="B270" s="23"/>
+      <c r="C270" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="271" ht="15" spans="1:3">
       <c r="A271" s="19"/>
-      <c r="B271" s="20"/>
-      <c r="C271" s="23" t="s">
+      <c r="B271" s="23"/>
+      <c r="C271" s="22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="272" ht="15" spans="1:3">
       <c r="A272" s="19"/>
-      <c r="B272" s="20"/>
-      <c r="C272" s="23" t="s">
+      <c r="B272" s="23"/>
+      <c r="C272" s="22" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="273" ht="15" spans="1:3">
       <c r="A273" s="19"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="23" t="s">
+      <c r="B273" s="23"/>
+      <c r="C273" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
       <c r="A274" s="19"/>
-      <c r="B274" s="20"/>
-      <c r="C274" s="23" t="s">
+      <c r="B274" s="23"/>
+      <c r="C274" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="275" ht="15" spans="1:3">
       <c r="A275" s="19"/>
-      <c r="B275" s="20"/>
-      <c r="C275" s="23" t="s">
+      <c r="B275" s="23"/>
+      <c r="C275" s="22" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9298,52 +9980,52 @@
     </row>
     <row r="277" ht="15" spans="1:3">
       <c r="A277" s="19"/>
-      <c r="B277" s="20" t="s">
+      <c r="B277" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C277" s="23" t="s">
+      <c r="C277" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="278" ht="15" spans="1:3">
       <c r="A278" s="19"/>
-      <c r="B278" s="20"/>
-      <c r="C278" s="23" t="s">
+      <c r="B278" s="23"/>
+      <c r="C278" s="22" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:3">
       <c r="A279" s="19"/>
-      <c r="B279" s="20"/>
-      <c r="C279" s="23" t="s">
+      <c r="B279" s="23"/>
+      <c r="C279" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
       <c r="A280" s="19"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="23" t="s">
+      <c r="B280" s="23"/>
+      <c r="C280" s="22" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="281" ht="15" spans="1:3">
       <c r="A281" s="19"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="23" t="s">
+      <c r="B281" s="23"/>
+      <c r="C281" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
       <c r="A282" s="19"/>
-      <c r="B282" s="20"/>
-      <c r="C282" s="23" t="s">
+      <c r="B282" s="23"/>
+      <c r="C282" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="283" ht="15" spans="1:3">
       <c r="A283" s="19"/>
-      <c r="B283" s="20"/>
-      <c r="C283" s="23" t="s">
+      <c r="B283" s="23"/>
+      <c r="C283" s="22" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9352,73 +10034,73 @@
     </row>
     <row r="285" ht="15" spans="1:3">
       <c r="A285" s="19"/>
-      <c r="B285" s="20" t="s">
+      <c r="B285" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C285" s="23" t="s">
+      <c r="C285" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="286" ht="15" spans="1:3">
       <c r="A286" s="19"/>
-      <c r="B286" s="20"/>
-      <c r="C286" s="23" t="s">
+      <c r="B286" s="23"/>
+      <c r="C286" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:3">
       <c r="A287" s="19"/>
-      <c r="B287" s="20"/>
-      <c r="C287" s="23" t="s">
+      <c r="B287" s="23"/>
+      <c r="C287" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
       <c r="A288" s="19"/>
-      <c r="B288" s="20"/>
-      <c r="C288" s="23" t="s">
+      <c r="B288" s="23"/>
+      <c r="C288" s="22" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:3">
       <c r="A289" s="19"/>
-      <c r="B289" s="20"/>
-      <c r="C289" s="23" t="s">
+      <c r="B289" s="23"/>
+      <c r="C289" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
       <c r="A290" s="19"/>
-      <c r="B290" s="20"/>
-      <c r="C290" s="23" t="s">
+      <c r="B290" s="23"/>
+      <c r="C290" s="22" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:3">
       <c r="A291" s="19"/>
-      <c r="B291" s="20"/>
-      <c r="C291" s="23" t="s">
+      <c r="B291" s="23"/>
+      <c r="C291" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
       <c r="A292" s="19"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="23" t="s">
+      <c r="B292" s="23"/>
+      <c r="C292" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:3">
       <c r="A293" s="19"/>
-      <c r="B293" s="20"/>
-      <c r="C293" s="23" t="s">
+      <c r="B293" s="23"/>
+      <c r="C293" s="22" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
       <c r="A294" s="19"/>
-      <c r="B294" s="20"/>
-      <c r="C294" s="23" t="s">
+      <c r="B294" s="23"/>
+      <c r="C294" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9427,31 +10109,31 @@
     </row>
     <row r="296" ht="15" spans="1:3">
       <c r="A296" s="19"/>
-      <c r="B296" s="20" t="s">
+      <c r="B296" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="C296" s="23" t="s">
+      <c r="C296" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="297" ht="15" spans="1:3">
       <c r="A297" s="19"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="23" t="s">
+      <c r="B297" s="23"/>
+      <c r="C297" s="22" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
       <c r="A298" s="19"/>
-      <c r="B298" s="20"/>
-      <c r="C298" s="23" t="s">
+      <c r="B298" s="23"/>
+      <c r="C298" s="22" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:3">
       <c r="A299" s="19"/>
-      <c r="B299" s="20"/>
-      <c r="C299" s="23" t="s">
+      <c r="B299" s="23"/>
+      <c r="C299" s="22" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9477,21 +10159,21 @@
     <row r="303" ht="15" customHeight="1" spans="1:3">
       <c r="A303" s="19"/>
       <c r="B303" s="32"/>
-      <c r="C303" s="23" t="s">
+      <c r="C303" s="22" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" ht="12" customHeight="1" spans="1:3">
       <c r="A304" s="19"/>
       <c r="B304" s="32"/>
-      <c r="C304" s="23" t="s">
+      <c r="C304" s="22" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" ht="15" customHeight="1" spans="1:3">
       <c r="A305" s="19"/>
       <c r="B305" s="32"/>
-      <c r="C305" s="23" t="s">
+      <c r="C305" s="22" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9511,7 +10193,7 @@
       <c r="A308" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B308" s="22" t="s">
+      <c r="B308" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C308" s="49" t="s">
@@ -9520,36 +10202,36 @@
     </row>
     <row r="309" ht="15.75" spans="1:3">
       <c r="A309" s="19"/>
-      <c r="B309" s="22"/>
+      <c r="B309" s="20"/>
       <c r="C309" s="49"/>
     </row>
     <row r="310" ht="15" spans="1:3">
       <c r="A310" s="19"/>
-      <c r="B310" s="20" t="s">
+      <c r="B310" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C310" s="23" t="s">
+      <c r="C310" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="311" ht="15" spans="1:3">
       <c r="A311" s="19"/>
-      <c r="B311" s="20"/>
-      <c r="C311" s="23" t="s">
+      <c r="B311" s="23"/>
+      <c r="C311" s="22" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
       <c r="A312" s="19"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="23" t="s">
+      <c r="B312" s="23"/>
+      <c r="C312" s="22" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:3">
       <c r="A313" s="19"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="23" t="s">
+      <c r="B313" s="23"/>
+      <c r="C313" s="22" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9558,87 +10240,87 @@
     </row>
     <row r="315" ht="15" spans="1:3">
       <c r="A315" s="19"/>
-      <c r="B315" s="20" t="s">
+      <c r="B315" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="C315" s="23" t="s">
+      <c r="C315" s="22" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="316" ht="15" spans="1:3">
       <c r="A316" s="19"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="23" t="s">
+      <c r="B316" s="23"/>
+      <c r="C316" s="22" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:3">
       <c r="A317" s="19"/>
-      <c r="B317" s="20"/>
-      <c r="C317" s="23" t="s">
+      <c r="B317" s="23"/>
+      <c r="C317" s="22" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
       <c r="A318" s="19"/>
-      <c r="B318" s="20"/>
-      <c r="C318" s="23" t="s">
+      <c r="B318" s="23"/>
+      <c r="C318" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" customFormat="1" ht="15.75" spans="1:3">
       <c r="A319" s="19"/>
-      <c r="B319" s="20"/>
-      <c r="C319" s="23"/>
+      <c r="B319" s="23"/>
+      <c r="C319" s="22"/>
     </row>
     <row r="320" customFormat="1" ht="15" spans="1:3">
       <c r="A320" s="19"/>
-      <c r="B320" s="20" t="s">
+      <c r="B320" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="C320" s="25" t="s">
+      <c r="C320" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="321" customFormat="1" ht="15" spans="1:3">
       <c r="A321" s="19"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="25" t="s">
+      <c r="B321" s="23"/>
+      <c r="C321" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="322" customFormat="1" ht="15" spans="1:3">
       <c r="A322" s="19"/>
-      <c r="B322" s="20"/>
-      <c r="C322" s="25" t="s">
+      <c r="B322" s="23"/>
+      <c r="C322" s="21" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" customFormat="1" ht="15" spans="1:3">
       <c r="A323" s="19"/>
-      <c r="B323" s="20"/>
-      <c r="C323" s="25" t="s">
+      <c r="B323" s="23"/>
+      <c r="C323" s="21" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="324" customFormat="1" ht="15" spans="1:3">
       <c r="A324" s="19"/>
-      <c r="B324" s="20"/>
-      <c r="C324" s="25" t="s">
+      <c r="B324" s="23"/>
+      <c r="C324" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="325" customFormat="1" ht="15" spans="1:3">
       <c r="A325" s="19"/>
-      <c r="B325" s="20"/>
-      <c r="C325" s="25" t="s">
+      <c r="B325" s="23"/>
+      <c r="C325" s="21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="326" customFormat="1" ht="15" spans="1:3">
       <c r="A326" s="19"/>
-      <c r="B326" s="20"/>
-      <c r="C326" s="25" t="s">
+      <c r="B326" s="23"/>
+      <c r="C326" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9647,31 +10329,31 @@
     </row>
     <row r="328" ht="15" spans="1:3">
       <c r="A328" s="19"/>
-      <c r="B328" s="20" t="s">
+      <c r="B328" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C328" s="23" t="s">
+      <c r="C328" s="22" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="329" ht="15" spans="1:3">
       <c r="A329" s="19"/>
-      <c r="B329" s="20"/>
-      <c r="C329" s="23" t="s">
+      <c r="B329" s="23"/>
+      <c r="C329" s="22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
       <c r="A330" s="19"/>
-      <c r="B330" s="20"/>
-      <c r="C330" s="23" t="s">
+      <c r="B330" s="23"/>
+      <c r="C330" s="22" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:3">
       <c r="A331" s="19"/>
-      <c r="B331" s="20"/>
-      <c r="C331" s="23" t="s">
+      <c r="B331" s="23"/>
+      <c r="C331" s="22" t="s">
         <v>315</v>
       </c>
     </row>
@@ -10116,42 +10798,42 @@
     <row r="396" ht="15" spans="1:3">
       <c r="A396" s="60"/>
       <c r="B396" s="32"/>
-      <c r="C396" s="23" t="s">
+      <c r="C396" s="22" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:3">
       <c r="A397" s="60"/>
       <c r="B397" s="32"/>
-      <c r="C397" s="23" t="s">
+      <c r="C397" s="22" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:3">
       <c r="A398" s="60"/>
       <c r="B398" s="32"/>
-      <c r="C398" s="23" t="s">
+      <c r="C398" s="22" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="399" ht="15" spans="1:3">
       <c r="A399" s="60"/>
       <c r="B399" s="32"/>
-      <c r="C399" s="23" t="s">
+      <c r="C399" s="22" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="400" ht="15" spans="1:3">
       <c r="A400" s="60"/>
       <c r="B400" s="32"/>
-      <c r="C400" s="23" t="s">
+      <c r="C400" s="22" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:3">
       <c r="A401" s="60"/>
       <c r="B401" s="32"/>
-      <c r="C401" s="23" t="s">
+      <c r="C401" s="22" t="s">
         <v>378</v>
       </c>
     </row>
@@ -10517,7 +11199,7 @@
     <row r="453" ht="15" spans="1:3">
       <c r="A453" s="62"/>
       <c r="B453" s="32"/>
-      <c r="C453" s="23" t="s">
+      <c r="C453" s="22" t="s">
         <v>428</v>
       </c>
     </row>
@@ -10531,7 +11213,7 @@
     <row r="455" ht="15" spans="1:3">
       <c r="A455" s="62"/>
       <c r="B455" s="32"/>
-      <c r="C455" s="23" t="s">
+      <c r="C455" s="22" t="s">
         <v>429</v>
       </c>
     </row>
@@ -10545,14 +11227,14 @@
     <row r="457" ht="15" spans="1:3">
       <c r="A457" s="62"/>
       <c r="B457" s="32"/>
-      <c r="C457" s="23" t="s">
+      <c r="C457" s="22" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="26"/>
-      <c r="B458" s="26"/>
-      <c r="C458" s="26"/>
+      <c r="A458" s="24"/>
+      <c r="B458" s="24"/>
+      <c r="C458" s="24"/>
     </row>
     <row r="459" ht="24.75" spans="1:3">
       <c r="A459" s="1" t="s">
@@ -10565,7 +11247,7 @@
       <c r="A460" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="B460" s="22" t="s">
+      <c r="B460" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C460" s="49" t="s">
@@ -10574,252 +11256,252 @@
     </row>
     <row r="461" ht="12" customHeight="1" spans="1:3">
       <c r="A461" s="19"/>
-      <c r="B461" s="22"/>
+      <c r="B461" s="20"/>
       <c r="C461" s="49"/>
     </row>
     <row r="462" ht="16" customHeight="1" spans="1:3">
       <c r="A462" s="19"/>
-      <c r="B462" s="20" t="s">
+      <c r="B462" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="C462" s="23" t="s">
+      <c r="C462" s="22" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="463" ht="20" customHeight="1" spans="1:3">
       <c r="A463" s="19"/>
-      <c r="B463" s="20"/>
-      <c r="C463" s="23" t="s">
+      <c r="B463" s="23"/>
+      <c r="C463" s="22" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
       <c r="A464" s="19"/>
-      <c r="B464" s="20"/>
-      <c r="C464" s="23" t="s">
+      <c r="B464" s="23"/>
+      <c r="C464" s="22" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="465" ht="21" customHeight="1" spans="1:3">
       <c r="A465" s="19"/>
-      <c r="B465" s="20"/>
-      <c r="C465" s="23" t="s">
+      <c r="B465" s="23"/>
+      <c r="C465" s="22" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="466" ht="15" customHeight="1" spans="1:3">
       <c r="A466" s="19"/>
-      <c r="B466" s="20"/>
-      <c r="C466" s="23" t="s">
+      <c r="B466" s="23"/>
+      <c r="C466" s="22" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="467" ht="15" spans="1:3">
       <c r="A467" s="19"/>
-      <c r="B467" s="20"/>
-      <c r="C467" s="23" t="s">
+      <c r="B467" s="23"/>
+      <c r="C467" s="22" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="468" ht="17" customHeight="1" spans="1:3">
       <c r="A468" s="19"/>
-      <c r="B468" s="20"/>
-      <c r="C468" s="23" t="s">
+      <c r="B468" s="23"/>
+      <c r="C468" s="22" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="469" ht="13" customHeight="1" spans="1:3">
       <c r="A469" s="19"/>
-      <c r="B469" s="20"/>
-      <c r="C469" s="23" t="s">
+      <c r="B469" s="23"/>
+      <c r="C469" s="22" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="470" ht="13" customHeight="1" spans="1:3">
       <c r="A470" s="19"/>
-      <c r="B470" s="20"/>
-      <c r="C470" s="23" t="s">
+      <c r="B470" s="23"/>
+      <c r="C470" s="22" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="471" ht="15" spans="1:3">
       <c r="A471" s="19"/>
-      <c r="B471" s="20"/>
-      <c r="C471" s="23" t="s">
+      <c r="B471" s="23"/>
+      <c r="C471" s="22" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
       <c r="A472" s="19"/>
-      <c r="B472" s="20"/>
-      <c r="C472" s="23" t="s">
+      <c r="B472" s="23"/>
+      <c r="C472" s="22" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="473" ht="15" spans="1:3">
       <c r="A473" s="19"/>
-      <c r="B473" s="20"/>
-      <c r="C473" s="23" t="s">
+      <c r="B473" s="23"/>
+      <c r="C473" s="22" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
       <c r="A474" s="19"/>
-      <c r="B474" s="20"/>
-      <c r="C474" s="23" t="s">
+      <c r="B474" s="23"/>
+      <c r="C474" s="22" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="475" ht="15" spans="1:3">
       <c r="A475" s="19"/>
-      <c r="B475" s="20"/>
-      <c r="C475" s="23" t="s">
+      <c r="B475" s="23"/>
+      <c r="C475" s="22" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
       <c r="A476" s="19"/>
-      <c r="B476" s="20"/>
-      <c r="C476" s="23" t="s">
+      <c r="B476" s="23"/>
+      <c r="C476" s="22" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="477" ht="15" customHeight="1" spans="1:3">
       <c r="A477" s="19"/>
-      <c r="B477" s="20"/>
-      <c r="C477" s="23" t="s">
+      <c r="B477" s="23"/>
+      <c r="C477" s="22" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
       <c r="A478" s="19"/>
-      <c r="B478" s="20"/>
-      <c r="C478" s="23" t="s">
+      <c r="B478" s="23"/>
+      <c r="C478" s="22" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="479" ht="15" spans="1:3">
       <c r="A479" s="19"/>
-      <c r="B479" s="20"/>
-      <c r="C479" s="23" t="s">
+      <c r="B479" s="23"/>
+      <c r="C479" s="22" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
       <c r="A480" s="19"/>
-      <c r="B480" s="20"/>
-      <c r="C480" s="23" t="s">
+      <c r="B480" s="23"/>
+      <c r="C480" s="22" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="481" ht="18" customHeight="1" spans="1:3">
       <c r="A481" s="19"/>
-      <c r="B481" s="20"/>
-      <c r="C481" s="23" t="s">
+      <c r="B481" s="23"/>
+      <c r="C481" s="22" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="482" ht="18" customHeight="1" spans="1:3">
       <c r="A482" s="19"/>
-      <c r="B482" s="20"/>
-      <c r="C482" s="23" t="s">
+      <c r="B482" s="23"/>
+      <c r="C482" s="22" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="483" ht="18" customHeight="1" spans="1:3">
       <c r="A483" s="19"/>
-      <c r="B483" s="20"/>
-      <c r="C483" s="23" t="s">
+      <c r="B483" s="23"/>
+      <c r="C483" s="22" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="484" ht="16" customHeight="1" spans="1:3">
       <c r="A484" s="19"/>
-      <c r="B484" s="20"/>
-      <c r="C484" s="23" t="s">
+      <c r="B484" s="23"/>
+      <c r="C484" s="22" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="485" ht="16" customHeight="1" spans="1:3">
       <c r="A485" s="19"/>
-      <c r="B485" s="20"/>
-      <c r="C485" s="23" t="s">
+      <c r="B485" s="23"/>
+      <c r="C485" s="22" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="486" ht="16" customHeight="1" spans="1:3">
       <c r="A486" s="19"/>
-      <c r="B486" s="20"/>
-      <c r="C486" s="23" t="s">
+      <c r="B486" s="23"/>
+      <c r="C486" s="22" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="487" ht="16" customHeight="1" spans="1:3">
       <c r="A487" s="19"/>
-      <c r="B487" s="20"/>
-      <c r="C487" s="23" t="s">
+      <c r="B487" s="23"/>
+      <c r="C487" s="22" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="488" ht="16" customHeight="1" spans="1:3">
       <c r="A488" s="19"/>
-      <c r="B488" s="20"/>
-      <c r="C488" s="23" t="s">
+      <c r="B488" s="23"/>
+      <c r="C488" s="22" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="489" ht="16" customHeight="1" spans="1:3">
       <c r="A489" s="19"/>
-      <c r="B489" s="20"/>
-      <c r="C489" s="23" t="s">
+      <c r="B489" s="23"/>
+      <c r="C489" s="22" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="490" ht="16" customHeight="1" spans="1:3">
       <c r="A490" s="19"/>
-      <c r="B490" s="20"/>
-      <c r="C490" s="23" t="s">
+      <c r="B490" s="23"/>
+      <c r="C490" s="22" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="491" ht="16" customHeight="1" spans="1:3">
       <c r="A491" s="19"/>
-      <c r="B491" s="20"/>
-      <c r="C491" s="23" t="s">
+      <c r="B491" s="23"/>
+      <c r="C491" s="22" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="492" ht="16" customHeight="1" spans="1:3">
       <c r="A492" s="19"/>
-      <c r="B492" s="20"/>
-      <c r="C492" s="23" t="s">
+      <c r="B492" s="23"/>
+      <c r="C492" s="22" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="493" ht="16" customHeight="1" spans="1:3">
       <c r="A493" s="19"/>
-      <c r="B493" s="20"/>
-      <c r="C493" s="23" t="s">
+      <c r="B493" s="23"/>
+      <c r="C493" s="22" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="494" ht="16" customHeight="1" spans="1:3">
       <c r="A494" s="19"/>
-      <c r="B494" s="20"/>
-      <c r="C494" s="23" t="s">
+      <c r="B494" s="23"/>
+      <c r="C494" s="22" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="495" ht="16" customHeight="1" spans="1:3">
       <c r="A495" s="19"/>
-      <c r="B495" s="20"/>
-      <c r="C495" s="23" t="s">
+      <c r="B495" s="23"/>
+      <c r="C495" s="22" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="496" customFormat="1" ht="15.75" spans="1:2">
       <c r="A496" s="19"/>
-      <c r="B496" s="20"/>
+      <c r="B496" s="23"/>
     </row>
     <row r="497" ht="15" spans="1:3">
       <c r="A497" s="19"/>
@@ -10833,7 +11515,7 @@
     <row r="498" ht="15" spans="1:3">
       <c r="A498" s="19"/>
       <c r="B498" s="32"/>
-      <c r="C498" s="23" t="s">
+      <c r="C498" s="22" t="s">
         <v>469</v>
       </c>
     </row>
@@ -10853,7 +11535,7 @@
       <c r="A501" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="B501" s="22" t="s">
+      <c r="B501" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C501" s="49" t="s">
@@ -10862,7 +11544,7 @@
     </row>
     <row r="502" ht="15.75" spans="1:3">
       <c r="A502" s="19"/>
-      <c r="B502" s="22"/>
+      <c r="B502" s="20"/>
       <c r="C502" s="49"/>
     </row>
     <row r="503" ht="15" spans="1:3">
@@ -10979,7 +11661,7 @@
     </row>
     <row r="519" ht="15" spans="1:3">
       <c r="A519" s="19"/>
-      <c r="B519" s="20" t="s">
+      <c r="B519" s="23" t="s">
         <v>487</v>
       </c>
       <c r="C519" s="49" t="s">
@@ -10988,21 +11670,21 @@
     </row>
     <row r="520" ht="15" spans="1:3">
       <c r="A520" s="19"/>
-      <c r="B520" s="20"/>
+      <c r="B520" s="23"/>
       <c r="C520" s="53" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="521" ht="15" spans="1:3">
       <c r="A521" s="19"/>
-      <c r="B521" s="20"/>
+      <c r="B521" s="23"/>
       <c r="C521" s="53" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="522" ht="15" spans="1:3">
       <c r="A522" s="19"/>
-      <c r="B522" s="20"/>
+      <c r="B522" s="23"/>
       <c r="C522" s="53" t="s">
         <v>491</v>
       </c>
@@ -11024,7 +11706,7 @@
     <row r="525" ht="15" spans="1:3">
       <c r="A525" s="19"/>
       <c r="B525" s="39"/>
-      <c r="C525" s="23" t="s">
+      <c r="C525" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -11037,7 +11719,7 @@
       <c r="A527" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B527" s="22" t="s">
+      <c r="B527" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C527" s="49" t="s">
@@ -11046,7 +11728,7 @@
     </row>
     <row r="528" ht="15.75" spans="1:3">
       <c r="A528" s="19"/>
-      <c r="B528" s="22"/>
+      <c r="B528" s="20"/>
       <c r="C528" s="49"/>
     </row>
     <row r="529" ht="15" spans="1:3">
@@ -11165,7 +11847,7 @@
     </row>
     <row r="545" ht="15.75" spans="1:3">
       <c r="A545" s="19"/>
-      <c r="B545" s="20"/>
+      <c r="B545" s="23"/>
       <c r="C545" s="53"/>
     </row>
     <row r="546" ht="15" spans="1:3">
@@ -11215,7 +11897,7 @@
     <row r="552" ht="15" spans="1:3">
       <c r="A552" s="19"/>
       <c r="B552" s="39"/>
-      <c r="C552" s="23" t="s">
+      <c r="C552" s="22" t="s">
         <v>518</v>
       </c>
     </row>
@@ -11383,7 +12065,7 @@
       <c r="A3" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -11397,7 +12079,7 @@
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>523</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -11406,75 +12088,75 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="30" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="26" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="22" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="21" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="21" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -11483,61 +12165,61 @@
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="53" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="53" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="53" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="53" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="53" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="53" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="53" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="53"/>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>540</v>
       </c>
       <c r="C25" s="53" t="s">
@@ -11546,61 +12228,61 @@
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="53" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="53" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="53" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="53" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="53" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="53" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="53" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>547</v>
       </c>
       <c r="C34" s="53" t="s">
@@ -11609,40 +12291,40 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="22" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="22" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="26" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="4"/>
     </row>
     <row r="40" ht="15.75" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C40" s="53" t="s">
@@ -11651,7 +12333,7 @@
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="1:2">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="19"/>
@@ -11665,7 +12347,7 @@
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="19"/>
       <c r="B43" s="39"/>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>553</v>
       </c>
     </row>
@@ -11699,7 +12381,7 @@
       <c r="A48" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="23" t="s">
         <v>558</v>
       </c>
       <c r="C48" s="49" t="s">
@@ -11708,47 +12390,47 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="30" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="24" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="26" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="24" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="26" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="23" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="22" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="26" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="23" t="s">
         <v>564</v>
       </c>
       <c r="C55" s="53" t="s">
@@ -11757,54 +12439,54 @@
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="53" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="53" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="53" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="53" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="53" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="53" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
       <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="53"/>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="19"/>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="23" t="s">
         <v>570</v>
       </c>
       <c r="C63" s="53" t="s">
@@ -11813,33 +12495,33 @@
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="53" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="53" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="53" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
       <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="53"/>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="19"/>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="23" t="s">
         <v>574</v>
       </c>
       <c r="C68" s="54" t="s">
@@ -11848,105 +12530,105 @@
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="53" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="53" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="53" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="53" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="53" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
       <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="53" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:3">
       <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="54" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
       <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="54" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
       <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="54" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="54" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="54" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="54" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="54" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="54" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:3">
       <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="54"/>
     </row>
     <row r="84" ht="15" spans="1:3">
@@ -11961,7 +12643,7 @@
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="19"/>
       <c r="B85" s="39"/>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>590</v>
       </c>
     </row>
@@ -12065,7 +12747,7 @@
       <c r="A3" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>596</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -12074,84 +12756,84 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="51"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="31" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="51"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="25" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:3">
       <c r="A6" s="51"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:3">
       <c r="A7" s="51"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="21" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="51"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:3">
       <c r="A9" s="51"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="21" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:3">
       <c r="A10" s="51"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
       <c r="A11" s="51"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="21" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="51"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="21" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="51"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="51"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="53" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="51"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="53" t="s">
         <v>609</v>
       </c>
@@ -12172,7 +12854,7 @@
       <c r="A18" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -12181,12 +12863,12 @@
     </row>
     <row r="19" ht="10" customHeight="1" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="50"/>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>612</v>
       </c>
       <c r="C20" s="49" t="s">
@@ -12195,103 +12877,103 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="30" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="26" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="26" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="26" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="26" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="26" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="26" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="26" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="26" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="26" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="24" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="26" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="26" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="23" t="s">
         <v>626</v>
       </c>
       <c r="C35" s="53" t="s">
@@ -12300,75 +12982,75 @@
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="53" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="53" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="53" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="53" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="53" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="53" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="53" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="53" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="53"/>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="23" t="s">
         <v>635</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -12377,77 +13059,77 @@
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="53" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="53" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="53" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:3">
       <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="53" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1" spans="1:3">
       <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="54" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:3">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="53" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="53" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="53" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="53" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="53"/>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:3">
@@ -12462,7 +13144,7 @@
     <row r="59" ht="21" customHeight="1" spans="1:3">
       <c r="A59" s="19"/>
       <c r="B59" s="39"/>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>646</v>
       </c>
     </row>
@@ -12489,7 +13171,7 @@
       <c r="A63" s="55" t="s">
         <v>649</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="23" t="s">
         <v>650</v>
       </c>
       <c r="C63" s="52" t="s">
@@ -12498,48 +13180,48 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="55"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="31" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:3">
       <c r="A65" s="55"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1" spans="1:3">
       <c r="A66" s="55"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="25" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1" spans="1:3">
       <c r="A67" s="55"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="21" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:3">
       <c r="A68" s="55"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="26" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="69" ht="16" customHeight="1" spans="1:3">
       <c r="A69" s="55"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="23"/>
+      <c r="C69" s="21" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="70" ht="16" customHeight="1" spans="3:3">
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="21" t="s">
         <v>658</v>
       </c>
     </row>
@@ -12552,7 +13234,7 @@
       <c r="A72" s="55" t="s">
         <v>659</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="49" t="s">
@@ -12561,12 +13243,12 @@
     </row>
     <row r="73" ht="10" customHeight="1" spans="1:3">
       <c r="A73" s="55"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="50"/>
     </row>
     <row r="74" ht="19" customHeight="1" spans="1:3">
       <c r="A74" s="55"/>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="23" t="s">
         <v>660</v>
       </c>
       <c r="C74" s="49" t="s">
@@ -12575,54 +13257,54 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="55"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="30" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
       <c r="A76" s="55"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="24" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="26" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:3">
       <c r="A77" s="55"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="26" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1" spans="1:3">
       <c r="A78" s="55"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="23" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="22" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:3">
       <c r="A79" s="55"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="24" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="26" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:3">
       <c r="A80" s="55"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="24" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="26" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="1:3">
       <c r="A81" s="55"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="55"/>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="23" t="s">
         <v>667</v>
       </c>
       <c r="C82" s="53" t="s">
@@ -12631,21 +13313,21 @@
     </row>
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="55"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="53" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
       <c r="A84" s="55"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="53" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="55"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="53" t="s">
         <v>671</v>
       </c>
@@ -12751,7 +13433,7 @@
       <c r="A3" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -12765,7 +13447,7 @@
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>676</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -12774,106 +13456,106 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="30" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="26" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="26" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="22" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="26" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="22" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="22" t="s">
         <v>692</v>
       </c>
     </row>
@@ -12893,84 +13575,84 @@
       <c r="A23" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="22" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="26" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="30" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="26" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="22" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="22" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="26" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="4" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>706</v>
       </c>
       <c r="C34" t="s">
@@ -12979,49 +13661,49 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="23"/>
       <c r="C35" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="23"/>
       <c r="C36" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="23"/>
       <c r="C37" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="23"/>
       <c r="C38" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="23"/>
       <c r="C40" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" t="s">
         <v>714</v>
       </c>
@@ -13031,7 +13713,7 @@
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="23" t="s">
         <v>715</v>
       </c>
       <c r="C43" t="s">
@@ -13040,21 +13722,21 @@
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="23"/>
       <c r="C44" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="23"/>
       <c r="C46" t="s">
         <v>719</v>
       </c>
@@ -13074,7 +13756,7 @@
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="19"/>
       <c r="B49" s="32"/>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>721</v>
       </c>
     </row>
@@ -13094,7 +13776,7 @@
       <c r="A52" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>724</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -13103,33 +13785,33 @@
     </row>
     <row r="53" ht="20" hidden="1" customHeight="1" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" ht="15.75" hidden="1" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
     </row>
     <row r="55" ht="8" hidden="1" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" ht="20" hidden="1" customHeight="1" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" ht="15.75" hidden="1" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" ht="17" hidden="1" customHeight="1" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
     </row>
     <row r="59" ht="9" customHeight="1" spans="1:3">
       <c r="A59" s="47"/>
@@ -13212,87 +13894,87 @@
       <c r="A3" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="45"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="45"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="45"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="45"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="45"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="45"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="45"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="45"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="22" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="45"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="45"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="45"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13302,94 +13984,94 @@
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="45"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>735</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="45"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="45"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="45"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="22" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="45"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="22" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="45"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="45"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="22" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="45"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="45"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="45"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="22" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="45"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="22" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="45"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="22" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="45"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="22" t="s">
         <v>748</v>
       </c>
     </row>
@@ -13399,281 +14081,281 @@
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="45"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="45"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="22" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="45"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="45"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="22" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="45"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="22" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="45"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="22" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="45"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="22" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
       <c r="A37" s="45"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="45"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="45"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="22" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="45"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="22" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="45"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="22" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="45"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="22" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="45"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="22" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="45"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="23" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="22" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="45"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="22" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="45"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="23" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
       <c r="A47" s="45"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="45"/>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="45"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="23" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="22" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="45"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="23" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="22" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="45"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="23" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="22" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="45"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="23" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="22" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="45"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="23" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="22" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="45"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="22" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="45"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="23" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="22" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="45"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="23" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="22" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="45"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="23" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="45"/>
-      <c r="C58" s="23"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="45"/>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="45"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="22" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="45"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="23" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="22" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="45"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="22" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="45"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="23" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="22" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="45"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="22" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="45"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="23" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="22" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="45"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="23" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="22" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
       <c r="A67" s="45"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="21" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="45"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="23" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="22" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="45"/>
-      <c r="C69" s="23"/>
+      <c r="C69" s="22"/>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="45"/>
@@ -13687,14 +14369,14 @@
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="45"/>
       <c r="B71" s="32"/>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="45"/>
       <c r="B72" s="32"/>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>784</v>
       </c>
     </row>
@@ -13797,115 +14479,115 @@
       <c r="A3" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="35"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="35"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="35"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="35"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="35"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="35"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="35"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="35"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="35"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="35"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="35"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="35"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="22" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="35"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="35"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="35"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22" t="s">
         <v>149</v>
       </c>
     </row>
@@ -13915,166 +14597,166 @@
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="35"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="35"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="35"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="22" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="35"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="22" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="35"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="35"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="35"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="35"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="22" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="35"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="22" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="35"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="22" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="35"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="22" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="35"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="22" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="35"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="35"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="22" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:3">
       <c r="A34" s="35"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="22" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="1:3">
       <c r="A35" s="35"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="35"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="35" t="s">
         <v>815</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="35"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="22" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="35"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="22" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="35"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="22" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="35"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="22" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="35"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="22" t="s">
         <v>247</v>
       </c>
     </row>
@@ -14084,7 +14766,7 @@
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="35"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="23" t="s">
         <v>821</v>
       </c>
       <c r="C44" s="43" t="s">
@@ -14093,40 +14775,40 @@
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="35"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="22" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="35"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="23" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="22" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="35"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="23" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="22" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="35"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="23" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:3">
       <c r="A49" s="35"/>
       <c r="B49" s="44"/>
-      <c r="C49" s="23"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="35"/>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="23" t="s">
         <v>825</v>
       </c>
       <c r="C50" s="43" t="s">
@@ -14135,99 +14817,99 @@
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="35"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="23" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="22" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="35"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="23" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="22" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="35"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="23" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="22" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="35"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="22" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="35"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="23" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="35"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="35"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="35"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="22" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="35"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="23" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="22" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="35"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="22" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="35"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="23" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="22" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="35"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="22" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="35"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="23" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="35"/>
       <c r="B64" s="38"/>
-      <c r="C64" s="23"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="35"/>
@@ -14241,7 +14923,7 @@
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="35"/>
       <c r="B66" s="32"/>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="21" t="s">
         <v>837</v>
       </c>
     </row>
@@ -14253,9 +14935,9 @@
       </c>
     </row>
     <row r="68" ht="9" customHeight="1" spans="1:3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
     </row>
     <row r="71" ht="18.75" spans="1:2">
       <c r="A71" s="40" t="s">
@@ -14334,108 +15016,108 @@
       <c r="A3" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="36"/>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
       <c r="A14" s="19"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
         <v>853</v>
       </c>
     </row>
@@ -14446,24 +15128,24 @@
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="22" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>857</v>
       </c>
     </row>
@@ -14479,19 +15161,19 @@
     <row r="23" ht="20" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="25" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
       <c r="A28" s="40" t="s">
@@ -14565,7 +15247,7 @@
       <c r="A3" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -14574,12 +15256,12 @@
     </row>
     <row r="4" ht="18.75" spans="1:3">
       <c r="A4" s="35"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="36"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
       <c r="A5" s="35"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>864</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -14588,54 +15270,54 @@
     </row>
     <row r="6" ht="18.75" spans="1:3">
       <c r="A6" s="35"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="36" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:3">
       <c r="A7" s="35"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="36" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:3">
       <c r="A8" s="35"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="36" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:3">
       <c r="A9" s="35"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="36" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
       <c r="A10" s="35"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="36" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:3">
       <c r="A11" s="35"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:3">
       <c r="A12" s="35"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="36"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
       <c r="A13" s="35"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>869</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -14644,56 +15326,56 @@
     </row>
     <row r="14" ht="18.75" spans="1:3">
       <c r="A14" s="35"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="36" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
       <c r="A15" s="35"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="36" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
       <c r="A16" s="35"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="36" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
       <c r="A17" s="35"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="36" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
       <c r="A18" s="35"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="36" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
       <c r="A19" s="35"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="36" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
       <c r="A20" s="35"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="36" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
       <c r="A21" s="35"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="36" t="s">
         <v>58</v>
       </c>
@@ -14704,7 +15386,7 @@
     </row>
     <row r="23" ht="18.75" spans="1:3">
       <c r="A23" s="35"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>876</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -14713,68 +15395,68 @@
     </row>
     <row r="24" ht="18.75" spans="1:3">
       <c r="A24" s="35"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="36" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
       <c r="A25" s="35"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="36" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
       <c r="A26" s="35"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="36" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
       <c r="A27" s="35"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="36" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
       <c r="A28" s="35"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="36" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
       <c r="A29" s="35"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="36" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
       <c r="A30" s="35"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="36" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
       <c r="A31" s="35"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="35"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="30"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
       <c r="A33" s="35"/>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>883</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -14783,77 +15465,77 @@
     </row>
     <row r="34" ht="18.75" spans="1:3">
       <c r="A34" s="35"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="36" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
       <c r="A35" s="35"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="36" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="35"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="36" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
       <c r="A37" s="35"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="36" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
       <c r="A38" s="35"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="36" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
       <c r="A39" s="35"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="36" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
       <c r="A40" s="35"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="36" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
       <c r="A41" s="35"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="36" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="35"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="36" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
       <c r="A43" s="35"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="36" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
       <c r="A44" s="35"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="36" t="s">
         <v>894</v>
       </c>
@@ -14864,7 +15546,7 @@
     </row>
     <row r="46" ht="18.75" spans="1:3">
       <c r="A46" s="35"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="23" t="s">
         <v>895</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -14873,98 +15555,98 @@
     </row>
     <row r="47" ht="18.75" spans="1:3">
       <c r="A47" s="35"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="36" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
       <c r="A48" s="35"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="36" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
       <c r="A49" s="35"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="36" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
       <c r="A50" s="35"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="36" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
       <c r="A51" s="35"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="36" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
       <c r="A52" s="35"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="36" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
       <c r="A53" s="35"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="36" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
       <c r="A54" s="35"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="36" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
       <c r="A55" s="35"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="36" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
       <c r="A56" s="35"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="36" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
       <c r="A57" s="35"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="36" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
       <c r="A58" s="35"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="36" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
       <c r="A59" s="35"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="36" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
       <c r="A60" s="35"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="36" t="s">
         <v>909</v>
       </c>
@@ -14975,7 +15657,7 @@
     </row>
     <row r="62" ht="18.75" spans="1:3">
       <c r="A62" s="35"/>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="23" t="s">
         <v>910</v>
       </c>
       <c r="C62" s="36" t="s">
@@ -14984,49 +15666,49 @@
     </row>
     <row r="63" ht="18.75" spans="1:3">
       <c r="A63" s="35"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="36" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
       <c r="A64" s="35"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="36" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
       <c r="A65" s="35"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="36" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
       <c r="A66" s="35"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="36" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
       <c r="A67" s="35"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="36" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
       <c r="A68" s="35"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="36" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
       <c r="A69" s="35"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="36" t="s">
         <v>539</v>
       </c>
@@ -15037,7 +15719,7 @@
     </row>
     <row r="71" ht="18.75" spans="1:3">
       <c r="A71" s="35"/>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C71" s="36" t="s">
@@ -15046,119 +15728,119 @@
     </row>
     <row r="72" ht="18.75" spans="1:3">
       <c r="A72" s="35"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="36" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
       <c r="A73" s="35"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="36" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
       <c r="A74" s="35"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="36" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
       <c r="A75" s="35"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="36" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
       <c r="A76" s="35"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="36" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
       <c r="A77" s="35"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="36" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
       <c r="A78" s="35"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="36" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
       <c r="A79" s="35"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="36" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
       <c r="A80" s="35"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="36" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
       <c r="A81" s="35"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="36" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
       <c r="A82" s="35"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="36" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
       <c r="A83" s="35"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="36" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
       <c r="A84" s="35"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="36" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
       <c r="A85" s="35"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="36" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
       <c r="A86" s="35"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="36" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
       <c r="A87" s="35"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="36" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
       <c r="A88" s="35"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="36"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">
@@ -15185,9 +15867,9 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -15389,9 +16071,9 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
     </row>
     <row r="125" ht="18.75" spans="1:2">
       <c r="A125" s="40" t="s">

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1170">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -3970,6 +3970,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">At the core of web development is a thorough knowledge of HTML.                                </t>
     </r>
     <r>
@@ -4126,6 +4134,63 @@
   </si>
   <si>
     <t>2. Course Summary</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A big part of HTML development involves creating forms for user input.                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Learn the skills you need to create useful input forms on your web pages.                                           First, you will discover how HTML forms work and how to configure your form.                           Then, you will explore the various types of form inputs and how to best apply them. </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Understanding HTML Forms</t>
+  </si>
+  <si>
+    <t>1. Understanding HTML Forms</t>
+  </si>
+  <si>
+    <t>2. Demo: Setting up Your Editor</t>
+  </si>
+  <si>
+    <t>3. Demo: Creating the First Form</t>
+  </si>
+  <si>
+    <t>3. Using Form Input</t>
+  </si>
+  <si>
+    <t>1. Using Form Inputs</t>
+  </si>
+  <si>
+    <t>2. Demo: Text Inputs</t>
+  </si>
+  <si>
+    <t>3. Additional Data Types</t>
+  </si>
+  <si>
+    <t>4. Selection Inputs</t>
+  </si>
+  <si>
+    <t>5. Demo: Select List</t>
+  </si>
+  <si>
+    <t>6. Demo: Checkboxes and Radio Buttons</t>
+  </si>
+  <si>
+    <t>Total # of Days for HTML 5</t>
+  </si>
+  <si>
+    <t>Total # of Hours for HTML 5</t>
   </si>
   <si>
     <t>Day 31</t>
@@ -4265,10 +4330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -4481,16 +4546,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4503,87 +4582,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4603,8 +4612,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4619,7 +4684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4704,7 +4769,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4716,37 +4823,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4758,25 +4859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4794,19 +4883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4818,31 +4919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4854,37 +4949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4995,41 +5060,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5058,21 +5106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5084,22 +5117,54 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5111,130 +5176,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5306,17 +5371,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6573,18 +6638,18 @@
       <c r="C53" s="24"/>
     </row>
     <row r="57" customFormat="1" ht="37.5" spans="1:2">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="37.5" spans="1:2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="26">
         <v>8</v>
       </c>
     </row>
@@ -6853,7 +6918,7 @@
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A32" s="29"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="27" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -6952,18 +7017,18 @@
       <c r="A46" s="19"/>
     </row>
     <row r="47" ht="18.75" spans="1:2">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>1057</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:2">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="25" t="s">
         <v>1058</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="26">
         <v>16</v>
       </c>
     </row>
@@ -7059,7 +7124,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7095,21 +7160,21 @@
       <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -7123,14 +7188,14 @@
       <c r="B7" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
@@ -7141,49 +7206,49 @@
       <c r="B10" s="23" t="s">
         <v>1066</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
       <c r="B16" s="23" t="s">
         <v>1072</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -7216,18 +7281,18 @@
       <c r="A22" s="19"/>
     </row>
     <row r="23" customFormat="1" ht="37.5" spans="1:2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="25" t="s">
         <v>1076</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="37.5" spans="1:2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
         <v>1077</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="26">
         <v>8</v>
       </c>
     </row>
@@ -7327,12 +7392,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7762,74 +7827,215 @@
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="19"/>
-    </row>
-    <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="19"/>
-    </row>
-    <row r="62" ht="18.75" spans="1:3">
+    <row r="60" customFormat="1" ht="24.75" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A61" s="19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" ht="15.75" spans="1:3">
       <c r="A62" s="19"/>
-      <c r="C62" s="21"/>
-    </row>
-    <row r="63" ht="18.75" spans="1:1">
+      <c r="B62" s="20"/>
+      <c r="C62" s="22"/>
+    </row>
+    <row r="63" customFormat="1" ht="15" spans="1:3">
       <c r="A63" s="19"/>
-    </row>
-    <row r="64" ht="18.75" spans="1:1">
+      <c r="B63" s="23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" ht="15" spans="1:3">
       <c r="A64" s="19"/>
-    </row>
-    <row r="65" ht="18.75" spans="1:1">
+      <c r="B64" s="23"/>
+      <c r="C64" s="21" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" ht="15" spans="1:3">
       <c r="A65" s="19"/>
-    </row>
-    <row r="66" ht="18.75" spans="1:1">
+      <c r="B65" s="23"/>
+      <c r="C65" s="21" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="15" spans="1:3">
       <c r="A66" s="19"/>
-    </row>
-    <row r="67" ht="18.75" spans="1:1">
+      <c r="B66" s="23"/>
+      <c r="C66" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="15.75" spans="1:3">
       <c r="A67" s="19"/>
-    </row>
-    <row r="68" ht="18.75" spans="1:1">
+      <c r="B67" s="23"/>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" customFormat="1" ht="15" spans="1:3">
       <c r="A68" s="19"/>
-    </row>
-    <row r="69" ht="18.75" spans="1:1">
+      <c r="B68" s="23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="21" customHeight="1" spans="1:3">
       <c r="A69" s="19"/>
-    </row>
-    <row r="70" ht="18.75" spans="1:1">
+      <c r="B69" s="23"/>
+      <c r="C69" s="21" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="21" customHeight="1" spans="1:3">
       <c r="A70" s="19"/>
-    </row>
-    <row r="71" ht="18.75" spans="1:1">
+      <c r="B70" s="23"/>
+      <c r="C70" s="21" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="19" customHeight="1" spans="1:3">
       <c r="A71" s="19"/>
-    </row>
-    <row r="72" ht="18.75" spans="1:1">
+      <c r="B71" s="23"/>
+      <c r="C71" s="21" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="15" spans="1:3">
       <c r="A72" s="19"/>
-    </row>
-    <row r="73" ht="18.75" spans="1:1">
+      <c r="B72" s="23"/>
+      <c r="C72" s="21" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="22" customHeight="1" spans="1:3">
       <c r="A73" s="19"/>
-    </row>
-    <row r="74" ht="18.75" spans="1:1">
+      <c r="B73" s="23"/>
+      <c r="C73" s="21" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="16" customHeight="1" spans="1:3">
       <c r="A74" s="19"/>
-    </row>
-    <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="19"/>
-    </row>
-    <row r="76" ht="18.75" spans="1:1">
+      <c r="B74" s="23"/>
+      <c r="C74" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="8" customHeight="1" spans="1:3">
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+    </row>
+    <row r="76" customFormat="1" ht="18.75" spans="1:1">
       <c r="A76" s="19"/>
     </row>
-    <row r="77" ht="18.75" spans="1:1">
+    <row r="77" customFormat="1" ht="18.75" spans="1:1">
       <c r="A77" s="19"/>
     </row>
-    <row r="78" ht="18.75" spans="1:1">
+    <row r="78" customFormat="1" ht="18.75" spans="1:1">
       <c r="A78" s="19"/>
     </row>
-    <row r="79" ht="18.75" spans="1:1">
-      <c r="A79" s="19"/>
-    </row>
-    <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="19"/>
+    <row r="79" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A79" s="25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B79" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A80" s="25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B80" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" spans="1:1">
+      <c r="A81" s="19"/>
+    </row>
+    <row r="82" ht="18.75" spans="1:1">
+      <c r="A82" s="19"/>
+    </row>
+    <row r="83" ht="18.75" spans="1:3">
+      <c r="A83" s="19"/>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" ht="18.75" spans="1:1">
+      <c r="A84" s="19"/>
+    </row>
+    <row r="85" ht="18.75" spans="1:1">
+      <c r="A85" s="19"/>
+    </row>
+    <row r="86" ht="18.75" spans="1:1">
+      <c r="A86" s="19"/>
+    </row>
+    <row r="87" ht="18.75" spans="1:1">
+      <c r="A87" s="19"/>
+    </row>
+    <row r="88" ht="18.75" spans="1:1">
+      <c r="A88" s="19"/>
+    </row>
+    <row r="89" ht="18.75" spans="1:1">
+      <c r="A89" s="19"/>
+    </row>
+    <row r="90" ht="18.75" spans="1:1">
+      <c r="A90" s="19"/>
+    </row>
+    <row r="91" ht="18.75" spans="1:1">
+      <c r="A91" s="19"/>
+    </row>
+    <row r="92" ht="18.75" spans="1:1">
+      <c r="A92" s="19"/>
+    </row>
+    <row r="93" ht="18.75" spans="1:1">
+      <c r="A93" s="19"/>
+    </row>
+    <row r="94" ht="18.75" spans="1:1">
+      <c r="A94" s="19"/>
+    </row>
+    <row r="95" ht="18.75" spans="1:1">
+      <c r="A95" s="19"/>
+    </row>
+    <row r="96" ht="18.75" spans="1:1">
+      <c r="A96" s="19"/>
+    </row>
+    <row r="97" ht="18.75" spans="1:1">
+      <c r="A97" s="19"/>
+    </row>
+    <row r="98" ht="18.75" spans="1:1">
+      <c r="A98" s="19"/>
+    </row>
+    <row r="99" ht="18.75" spans="1:1">
+      <c r="A99" s="19"/>
+    </row>
+    <row r="100" ht="18.75" spans="1:1">
+      <c r="A100" s="19"/>
+    </row>
+    <row r="101" ht="18.75" spans="1:1">
+      <c r="A101" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A3:A58"/>
+    <mergeCell ref="A61:A74"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="B14:B23"/>
     <mergeCell ref="B25:B30"/>
@@ -7837,6 +8043,8 @@
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B68:B74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -7867,7 +8075,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7875,22 +8083,22 @@
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1129</v>
+        <v>1144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1133</v>
+        <v>1148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1134</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:6">
@@ -7898,19 +8106,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1137</v>
+        <v>1152</v>
       </c>
       <c r="E4" t="s">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" spans="6:6">
@@ -7921,19 +8129,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1140</v>
+        <v>1155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1141</v>
+        <v>1156</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1142</v>
+        <v>1157</v>
       </c>
       <c r="E6" t="s">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -7944,24 +8152,24 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -7975,37 +8183,37 @@
     </row>
     <row r="19" ht="18" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>1149</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:1">
       <c r="A22" s="14" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="24" ht="25.5" spans="1:1">
       <c r="A24" s="14" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:1">
       <c r="A25" s="16" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="27" ht="38.25" spans="1:1">
       <c r="A27" s="17" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -8089,21 +8297,21 @@
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8154,7 +8362,7 @@
       <c r="B16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8196,7 +8404,7 @@
     <row r="22" ht="14" customHeight="1" spans="1:3">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8433,7 +8641,7 @@
     <row r="55" ht="21" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="28" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8447,7 +8655,7 @@
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="19"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="28" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8475,7 +8683,7 @@
     <row r="61" ht="21" customHeight="1" spans="1:3">
       <c r="A61" s="19"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8789,7 +8997,7 @@
     <row r="106" ht="21" customHeight="1" spans="1:3">
       <c r="A106" s="19"/>
       <c r="B106" s="23"/>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="28" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8803,7 +9011,7 @@
     <row r="108" ht="15" spans="1:3">
       <c r="A108" s="19"/>
       <c r="B108" s="23"/>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="28" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9089,7 +9297,7 @@
     <row r="149" ht="21" customHeight="1" spans="1:3">
       <c r="A149" s="19"/>
       <c r="B149" s="23"/>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="28" t="s">
         <v>165</v>
       </c>
     </row>
@@ -9103,7 +9311,7 @@
     <row r="151" ht="15" spans="1:3">
       <c r="A151" s="19"/>
       <c r="B151" s="23"/>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="28" t="s">
         <v>167</v>
       </c>
     </row>
@@ -12096,14 +12304,14 @@
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>527</v>
       </c>
     </row>
@@ -12117,7 +12325,7 @@
       <c r="B10" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>524</v>
       </c>
     </row>
@@ -12306,7 +12514,7 @@
     <row r="37" ht="21" customHeight="1" spans="1:3">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="28" t="s">
         <v>550</v>
       </c>
     </row>
@@ -12398,14 +12606,14 @@
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="19"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="28" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="19"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="28" t="s">
         <v>562</v>
       </c>
     </row>
@@ -12419,7 +12627,7 @@
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="19"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="28" t="s">
         <v>247</v>
       </c>
     </row>
@@ -12764,14 +12972,14 @@
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="51"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:3">
       <c r="A6" s="51"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>600</v>
       </c>
     </row>
@@ -12785,7 +12993,7 @@
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="51"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>602</v>
       </c>
     </row>
@@ -12885,14 +13093,14 @@
     <row r="22" ht="18" customHeight="1" spans="1:3">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>615</v>
       </c>
     </row>
@@ -12906,63 +13114,63 @@
     <row r="25" ht="18" customHeight="1" spans="1:3">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="28" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="28" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="28" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="28" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="28" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:3">
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="28" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:3">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="28" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:3">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="28" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:3">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="28" t="s">
         <v>625</v>
       </c>
     </row>
@@ -13188,14 +13396,14 @@
     <row r="65" ht="18" customHeight="1" spans="1:3">
       <c r="A65" s="55"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="27" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1" spans="1:3">
       <c r="A66" s="55"/>
       <c r="B66" s="23"/>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="27" t="s">
         <v>654</v>
       </c>
     </row>
@@ -13209,7 +13417,7 @@
     <row r="68" ht="18" customHeight="1" spans="1:3">
       <c r="A68" s="55"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="28" t="s">
         <v>656</v>
       </c>
     </row>
@@ -13265,14 +13473,14 @@
     <row r="76" ht="18" customHeight="1" spans="1:3">
       <c r="A76" s="55"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="28" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:3">
       <c r="A77" s="55"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="28" t="s">
         <v>663</v>
       </c>
     </row>
@@ -13286,14 +13494,14 @@
     <row r="79" ht="18" customHeight="1" spans="1:3">
       <c r="A79" s="55"/>
       <c r="B79" s="23"/>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="28" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:3">
       <c r="A80" s="55"/>
       <c r="B80" s="23"/>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="28" t="s">
         <v>666</v>
       </c>
     </row>
@@ -13464,21 +13672,21 @@
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>681</v>
       </c>
     </row>
@@ -13499,7 +13707,7 @@
       <c r="B12" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>684</v>
       </c>
     </row>
@@ -13541,7 +13749,7 @@
     <row r="18" ht="22" customHeight="1" spans="1:3">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="28" t="s">
         <v>690</v>
       </c>
     </row>
@@ -13578,7 +13786,7 @@
       <c r="B23" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>696</v>
       </c>
     </row>
@@ -13599,7 +13807,7 @@
     <row r="26" ht="21" customHeight="1" spans="1:3">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="28" t="s">
         <v>699</v>
       </c>
     </row>
@@ -13613,7 +13821,7 @@
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="28" t="s">
         <v>701</v>
       </c>
     </row>
@@ -13634,7 +13842,7 @@
     <row r="31" ht="21" customHeight="1" spans="1:3">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="28" t="s">
         <v>704</v>
       </c>
     </row>
@@ -15161,14 +15369,14 @@
     <row r="23" ht="20" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="25"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
       <c r="A25" s="24"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Jenkins" sheetId="36" r:id="rId11"/>
     <sheet name="API Development" sheetId="37" r:id="rId12"/>
     <sheet name="HTML 5" sheetId="38" r:id="rId13"/>
-    <sheet name="Sprint 1" sheetId="35" r:id="rId14"/>
+    <sheet name="CSS3" sheetId="39" r:id="rId14"/>
+    <sheet name="Sprint 1" sheetId="35" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1253">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -4140,6 +4141,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A big part of HTML development involves creating forms for user input.                                  </t>
     </r>
     <r>
@@ -4191,6 +4200,267 @@
   </si>
   <si>
     <t>Total # of Hours for HTML 5</t>
+  </si>
+  <si>
+    <t>Day 30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This course is a discovery of the many new features found in CSS3.                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn tips and tricks on how to target content for styling, enhance text, understand colors, provide smooth corners, add dimension with shadows, adapt to sizing, transform and animate, and manipulate style with script !</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Introduction to CSS3</t>
+  </si>
+  <si>
+    <t>2. Course Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Topics Covered  </t>
+  </si>
+  <si>
+    <t>4. Accelerated Introduction to CSS</t>
+  </si>
+  <si>
+    <t>5.CSS Syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. DEMO: Getting Started with Visual Studio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. DEMO: Examining the HTML Source </t>
+  </si>
+  <si>
+    <t>8. DEMO: Adding Style to HTML</t>
+  </si>
+  <si>
+    <t>9. DEMO: Simple CSS Syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Content </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introduction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Fonts  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Text Shadow </t>
+  </si>
+  <si>
+    <t>4. DEMO: Font Face</t>
+  </si>
+  <si>
+    <t>5. DEMO: Text Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Selectors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. DEMO: Positional Selectors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. DEMO: Target Selector </t>
+  </si>
+  <si>
+    <t>9. DEMO: Selection Selector</t>
+  </si>
+  <si>
+    <t>10. Styling Form Inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. DEMO: Stateful Selectors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Summary </t>
+  </si>
+  <si>
+    <t>3. Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Layouts  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Box Layout  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Vendor Prefixes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Columns  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. DEMO: Columns  </t>
+  </si>
+  <si>
+    <t>7. DEMO: Box Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Background  </t>
+  </si>
+  <si>
+    <t>9. DEMO: Multiple Image Background</t>
+  </si>
+  <si>
+    <t>4. Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Opacity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. DEMO: Opacity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. RGBA and HSLA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Alpha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. currentColor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. DEMO: Colors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Gradients  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. DEMO: Gradients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Summary  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Borders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Resizable Borders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Rounded Corners </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. DEMO: Borders  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Shadowing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Complex Box Shadows  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. DEMO: Shadowing </t>
+  </si>
+  <si>
+    <t>6. Transforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Rotate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Skew  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Scale  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Translate  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. DEMO: Transforms </t>
+  </si>
+  <si>
+    <t>7. Animations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Animations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. KeyFrames  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. KeyFrames and Animations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. DEMO: Animations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Transitions </t>
+  </si>
+  <si>
+    <t>7. DEMO: Transitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Media Queries  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Brief Overview of Responsive Design  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Responding to Viewing Dimensions    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Responding to Device Constraints </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. DEMO: Site before changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. DEMO: Applying Media Queries  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Script  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Managing Styles in Script </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Supporting Multiple Browsers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. DEMO: Adding Scripts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. DEMO: Viewing with Multiple Browsers </t>
+  </si>
+  <si>
+    <t>6. DEMO: Using Modernizr, No Support</t>
+  </si>
+  <si>
+    <t>7. DEMO: Using Modernizr, Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. DEMO: Script for Feature Detection </t>
+  </si>
+  <si>
+    <t>9. DEMO: Using jQuery to Change Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Module Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Resources  </t>
+  </si>
+  <si>
+    <t>12. Course Summary</t>
+  </si>
+  <si>
+    <t>Total # of Days for CSS3</t>
+  </si>
+  <si>
+    <t>Total # of Hours for CSS3</t>
   </si>
   <si>
     <t>Day 31</t>
@@ -4546,10 +4816,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4567,30 +4846,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4613,34 +4887,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4654,7 +4919,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4667,15 +4932,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4685,6 +4948,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4775,25 +5045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4805,49 +5069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4859,7 +5081,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4877,7 +5129,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4889,19 +5183,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4913,43 +5219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5061,8 +5331,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5082,15 +5352,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5102,26 +5363,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5141,6 +5382,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5155,10 +5416,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5176,130 +5446,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5361,14 +5631,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5851,7 +6121,7 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:H24"/>
     </sheetView>
   </sheetViews>
@@ -6279,7 +6549,7 @@
       <c r="A3" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -6288,12 +6558,12 @@
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>969</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -6302,82 +6572,82 @@
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="22" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="22" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="22" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="22" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="22" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="22"/>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>979</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -6386,69 +6656,69 @@
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="22" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="22" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="22" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="22" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="22" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="22" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="15.75" spans="1:2">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="23"/>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>988</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -6457,63 +6727,63 @@
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="29"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="22" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="29"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="22" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="29"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="22" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="29"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="22" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="29"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="22" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="29"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="22" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="29"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="22" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="29"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="22" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="29"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="22" t="s">
         <v>70</v>
       </c>
@@ -6525,7 +6795,7 @@
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="29"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="20" t="s">
         <v>997</v>
       </c>
       <c r="C38" s="22" t="s">
@@ -6534,77 +6804,77 @@
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="29"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="22" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="29"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="22" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="29"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="22" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="29"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="22" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="29"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="22" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="29"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="22" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="29"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="22" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="29"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="22" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="29"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="30" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="29"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="30" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="29"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="30" t="s">
         <v>894</v>
       </c>
@@ -6710,7 +6980,7 @@
       <c r="A3" s="19" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -6719,12 +6989,12 @@
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>1015</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -6733,84 +7003,84 @@
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
         <v>1028</v>
       </c>
@@ -6831,7 +7101,7 @@
       <c r="A20" s="29" t="s">
         <v>1030</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>1031</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -6840,154 +7110,154 @@
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:3">
       <c r="A21" s="29"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="22" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:3">
       <c r="A22" s="29"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="22" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:3">
       <c r="A23" s="29"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="22" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:3">
       <c r="A24" s="29"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15" spans="1:3">
       <c r="A25" s="29"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
       <c r="A26" s="29"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="30" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:3">
       <c r="A27" s="29"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="30" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:3">
       <c r="A28" s="29"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="30" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:3">
       <c r="A29" s="29"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="30" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="25.5" spans="1:3">
       <c r="A30" s="29"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="31" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:3">
       <c r="A31" s="29"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="31" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A32" s="29"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="27" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A33" s="29"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A34" s="29"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A35" s="29"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A36" s="29"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A37" s="29"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A38" s="29"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A39" s="29"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A40" s="29"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="21" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A41" s="29"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A42" s="29"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
         <v>1054</v>
       </c>
@@ -7157,7 +7427,7 @@
       <c r="A3" s="19" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -7166,26 +7436,26 @@
     </row>
     <row r="4" ht="30" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="22"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>1064</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -7194,7 +7464,7 @@
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="28"/>
     </row>
     <row r="9" ht="15" spans="1:3">
@@ -7203,7 +7473,7 @@
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>1066</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -7212,40 +7482,40 @@
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="27" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="27" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="27" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="27"/>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>1072</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -7254,14 +7524,14 @@
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
         <v>1075</v>
       </c>
@@ -7394,7 +7664,7 @@
   <sheetPr/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B61" sqref="B61:C74"/>
@@ -7430,7 +7700,7 @@
       <c r="A3" s="19" t="s">
         <v>1079</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -7439,12 +7709,12 @@
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>1080</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -7453,61 +7723,61 @@
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.75" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="21"/>
     </row>
     <row r="14" customFormat="1" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>1088</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -7516,75 +7786,75 @@
     </row>
     <row r="15" customFormat="1" ht="15" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="21"/>
     </row>
     <row r="25" customFormat="1" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>1098</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -7593,47 +7863,47 @@
     </row>
     <row r="26" customFormat="1" ht="15" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="15" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="15" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="15.75" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="21"/>
     </row>
     <row r="32" customFormat="1" ht="15" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="20" t="s">
         <v>1104</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -7642,54 +7912,54 @@
     </row>
     <row r="33" customFormat="1" ht="15" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="15" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="15" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="15" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="15" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="15" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="15.75" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="21"/>
     </row>
     <row r="40" customFormat="1" ht="15" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="20" t="s">
         <v>1110</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -7698,61 +7968,61 @@
     </row>
     <row r="41" customFormat="1" ht="15" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="15" spans="1:3">
       <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="15" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="15" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="15" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="15" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="15" spans="1:3">
       <c r="A47" s="19"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="15.75" spans="1:3">
       <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="21"/>
     </row>
     <row r="49" customFormat="1" ht="15" spans="1:3">
       <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="20" t="s">
         <v>1118</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -7761,54 +8031,54 @@
     </row>
     <row r="50" customFormat="1" ht="15" spans="1:3">
       <c r="A50" s="19"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="15" spans="1:3">
       <c r="A51" s="19"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="15" spans="1:3">
       <c r="A52" s="19"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="15" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="54" customFormat="1" ht="15" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="21" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="15" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="15.75" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="21"/>
     </row>
     <row r="57" customFormat="1" ht="15" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>1125</v>
       </c>
       <c r="C57" s="21" t="s">
@@ -7817,7 +8087,7 @@
     </row>
     <row r="58" customFormat="1" ht="15" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="21" t="s">
         <v>1127</v>
       </c>
@@ -7838,7 +8108,7 @@
       <c r="A61" s="19" t="s">
         <v>1129</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -7847,12 +8117,12 @@
     </row>
     <row r="62" customFormat="1" ht="15.75" spans="1:3">
       <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="22"/>
     </row>
     <row r="63" customFormat="1" ht="15" spans="1:3">
       <c r="A63" s="19"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="20" t="s">
         <v>1130</v>
       </c>
       <c r="C63" s="22" t="s">
@@ -7861,33 +8131,33 @@
     </row>
     <row r="64" customFormat="1" ht="15" spans="1:3">
       <c r="A64" s="19"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="21" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="65" customFormat="1" ht="15" spans="1:3">
       <c r="A65" s="19"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="21" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="66" customFormat="1" ht="15" spans="1:3">
       <c r="A66" s="19"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="67" customFormat="1" ht="15.75" spans="1:3">
       <c r="A67" s="19"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="21"/>
     </row>
     <row r="68" customFormat="1" ht="15" spans="1:3">
       <c r="A68" s="19"/>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="20" t="s">
         <v>1134</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -7896,42 +8166,42 @@
     </row>
     <row r="69" customFormat="1" ht="21" customHeight="1" spans="1:3">
       <c r="A69" s="19"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="21" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="70" customFormat="1" ht="21" customHeight="1" spans="1:3">
       <c r="A70" s="19"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="21" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="19" customHeight="1" spans="1:3">
       <c r="A71" s="19"/>
-      <c r="B71" s="23"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="21" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="72" customFormat="1" ht="15" spans="1:3">
       <c r="A72" s="19"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="21" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="73" customFormat="1" ht="22" customHeight="1" spans="1:3">
       <c r="A73" s="19"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="21" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="16" customHeight="1" spans="1:3">
       <c r="A74" s="19"/>
-      <c r="B74" s="23"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="21" t="s">
         <v>149</v>
       </c>
@@ -8054,6 +8324,747 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" ht="15" spans="1:3">
+      <c r="A3" s="19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="15" spans="1:3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" spans="1:3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" ht="15" spans="1:3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="15" spans="1:3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="15" spans="1:3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="15" spans="1:3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="15" spans="1:3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="15" spans="1:3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="15" spans="1:3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="15" spans="1:3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="15" spans="1:3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="15" spans="1:3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="15" spans="1:3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="15" spans="1:3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" ht="15" spans="1:3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15" spans="1:3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="15" spans="1:3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="15" spans="1:3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15" spans="1:3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="15" spans="1:3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="15" spans="1:3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="15" spans="1:3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="15" spans="1:3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="15" spans="1:3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" customFormat="1" ht="15" spans="1:3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="15" spans="1:3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="15" spans="1:3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="15" spans="1:3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="15" spans="1:3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="15" spans="1:3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="15" spans="1:3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="15" spans="1:3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="15" spans="1:3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="15" spans="1:3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" customFormat="1" ht="15" spans="1:3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="15" spans="1:3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="15" spans="1:3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="15" spans="1:3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="15" spans="1:3">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="15" spans="1:3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="15" spans="1:3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" ht="15" spans="1:3">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" customFormat="1" ht="15" spans="1:3">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" ht="15" spans="1:3">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" ht="15" spans="1:3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" ht="15" spans="1:3">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" ht="15" spans="1:3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" ht="15" spans="1:3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" ht="15" spans="1:3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" ht="15" spans="1:3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" customFormat="1" ht="15" spans="1:3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="15" spans="1:3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="15" spans="1:3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="15" spans="1:3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="15" spans="1:3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="15" spans="1:3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="15" spans="1:3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="15" spans="1:3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" ht="16" customHeight="1" spans="1:3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" ht="15" spans="1:3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" ht="15" spans="1:3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" ht="15" spans="1:3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="19"/>
+    </row>
+    <row r="83" ht="15" spans="1:3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="1:3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:3">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" ht="8" customHeight="1" spans="1:3">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+    </row>
+    <row r="96" ht="18.75" spans="1:1">
+      <c r="A96" s="19"/>
+    </row>
+    <row r="97" ht="18.75" spans="1:1">
+      <c r="A97" s="19"/>
+    </row>
+    <row r="98" ht="18.75" spans="1:1">
+      <c r="A98" s="19"/>
+    </row>
+    <row r="99" ht="18.75" spans="1:2">
+      <c r="A99" s="25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B99" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" spans="1:2">
+      <c r="A100" s="25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B100" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" spans="1:1">
+      <c r="A101" s="19"/>
+    </row>
+    <row r="102" ht="18.75" spans="1:1">
+      <c r="A102" s="19"/>
+    </row>
+    <row r="103" ht="18.75" spans="1:1">
+      <c r="A103" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A94"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B83:B94"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8075,7 +9086,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1143</v>
+        <v>1226</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8083,22 +9094,22 @@
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1144</v>
+        <v>1227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1145</v>
+        <v>1228</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1146</v>
+        <v>1229</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1147</v>
+        <v>1230</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1148</v>
+        <v>1231</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1149</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:6">
@@ -8106,19 +9117,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1150</v>
+        <v>1233</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1151</v>
+        <v>1234</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1152</v>
+        <v>1235</v>
       </c>
       <c r="E4" t="s">
-        <v>1153</v>
+        <v>1236</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1154</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="5" spans="6:6">
@@ -8129,19 +9140,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1155</v>
+        <v>1238</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1156</v>
+        <v>1239</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1157</v>
+        <v>1240</v>
       </c>
       <c r="E6" t="s">
-        <v>1153</v>
+        <v>1236</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1154</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -8152,24 +9163,24 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1158</v>
+        <v>1241</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1159</v>
+        <v>1242</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1160</v>
+        <v>1243</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1161</v>
+        <v>1244</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1154</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>1162</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -8183,37 +9194,37 @@
     </row>
     <row r="19" ht="18" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>1163</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>1164</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:1">
       <c r="A22" s="14" t="s">
-        <v>1165</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>1166</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" ht="25.5" spans="1:1">
       <c r="A24" s="14" t="s">
-        <v>1167</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:1">
       <c r="A25" s="16" t="s">
-        <v>1168</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="27" ht="38.25" spans="1:1">
       <c r="A27" s="17" t="s">
-        <v>1169</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -8266,7 +9277,7 @@
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -8280,7 +9291,7 @@
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -8289,77 +9300,77 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:3">
       <c r="A15" s="56"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="22"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -8368,70 +9379,70 @@
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22"/>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="53" t="s">
@@ -8440,77 +9451,77 @@
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="53" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="53"/>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="53" t="s">
@@ -8519,70 +9530,70 @@
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="53" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="53" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:3">
       <c r="A47" s="56"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="53"/>
     </row>
     <row r="48" ht="15" spans="1:3">
@@ -8617,7 +9628,7 @@
       <c r="A52" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="53" t="s">
@@ -8626,82 +9637,82 @@
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="23"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" spans="1:3">
       <c r="A59" s="19"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" spans="1:3">
       <c r="A60" s="19"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
       <c r="A61" s="19"/>
-      <c r="B61" s="23"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="19"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
       <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="4"/>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="19"/>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="53" t="s">
@@ -8710,63 +9721,63 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="19"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="19"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="19"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="20"/>
       <c r="C67" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="19"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="20"/>
       <c r="C68" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="19"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="20"/>
       <c r="C69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="19"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="19"/>
-      <c r="B71" s="23"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="19"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="19"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="53" t="s">
         <v>70</v>
       </c>
@@ -8776,7 +9787,7 @@
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:3">
       <c r="A75" s="19"/>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -8785,75 +9796,75 @@
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
       <c r="A76" s="19"/>
-      <c r="B76" s="23"/>
+      <c r="B76" s="20"/>
       <c r="C76" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:3">
       <c r="A77" s="19"/>
-      <c r="B77" s="23"/>
+      <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="1:3">
       <c r="A78" s="19"/>
-      <c r="B78" s="23"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:3">
       <c r="A79" s="19"/>
-      <c r="B79" s="23"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1" spans="1:3">
       <c r="A80" s="19"/>
-      <c r="B80" s="23"/>
+      <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1" spans="1:3">
       <c r="A81" s="19"/>
-      <c r="B81" s="23"/>
+      <c r="B81" s="20"/>
       <c r="C81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1" spans="1:3">
       <c r="A82" s="19"/>
-      <c r="B82" s="23"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="1:3">
       <c r="A83" s="19"/>
-      <c r="B83" s="23"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="1:3">
       <c r="A84" s="19"/>
-      <c r="B84" s="23"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1" spans="1:3">
       <c r="A85" s="19"/>
-      <c r="B85" s="23"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="53"/>
     </row>
     <row r="86" ht="16" customHeight="1" spans="1:3">
       <c r="A86" s="19"/>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C86" s="53" t="s">
@@ -8862,70 +9873,70 @@
     </row>
     <row r="87" ht="16" customHeight="1" spans="1:3">
       <c r="A87" s="19"/>
-      <c r="B87" s="23"/>
+      <c r="B87" s="20"/>
       <c r="C87" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1" spans="1:3">
       <c r="A88" s="19"/>
-      <c r="B88" s="23"/>
+      <c r="B88" s="20"/>
       <c r="C88" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1" spans="1:3">
       <c r="A89" s="19"/>
-      <c r="B89" s="23"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1" spans="1:3">
       <c r="A90" s="19"/>
-      <c r="B90" s="23"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1" spans="1:3">
       <c r="A91" s="19"/>
-      <c r="B91" s="23"/>
+      <c r="B91" s="20"/>
       <c r="C91" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" ht="16" customHeight="1" spans="1:3">
       <c r="A92" s="19"/>
-      <c r="B92" s="23"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="93" ht="16" customHeight="1" spans="1:3">
       <c r="A93" s="19"/>
-      <c r="B93" s="23"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="94" ht="16" customHeight="1" spans="1:3">
       <c r="A94" s="19"/>
-      <c r="B94" s="23"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
       <c r="A95" s="19"/>
-      <c r="B95" s="23"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="1:2">
       <c r="A96" s="19"/>
-      <c r="B96" s="23"/>
+      <c r="B96" s="20"/>
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="19"/>
@@ -8959,7 +9970,7 @@
       <c r="A101" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="49" t="s">
@@ -8968,12 +9979,12 @@
     </row>
     <row r="102" ht="12" customHeight="1" spans="1:3">
       <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="49"/>
     </row>
     <row r="103" ht="16" customHeight="1" spans="1:3">
       <c r="A103" s="19"/>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C103" s="53" t="s">
@@ -8982,75 +9993,75 @@
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:3">
       <c r="A104" s="19"/>
-      <c r="B104" s="23"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
       <c r="A105" s="19"/>
-      <c r="B105" s="23"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" ht="21" customHeight="1" spans="1:3">
       <c r="A106" s="19"/>
-      <c r="B106" s="23"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:3">
       <c r="A107" s="19"/>
-      <c r="B107" s="23"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
       <c r="A108" s="19"/>
-      <c r="B108" s="23"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="109" ht="17" customHeight="1" spans="1:3">
       <c r="A109" s="19"/>
-      <c r="B109" s="23"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="110" ht="13" customHeight="1" spans="1:3">
       <c r="A110" s="19"/>
-      <c r="B110" s="23"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="111" ht="13" customHeight="1" spans="1:3">
       <c r="A111" s="19"/>
-      <c r="B111" s="23"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
       <c r="A112" s="19"/>
-      <c r="B112" s="23"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:3">
       <c r="A113" s="19"/>
-      <c r="B113" s="23"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="4"/>
     </row>
     <row r="114" ht="15" spans="1:3">
       <c r="A114" s="19"/>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="53" t="s">
@@ -9059,56 +10070,56 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="19"/>
-      <c r="B115" s="23"/>
+      <c r="B115" s="20"/>
       <c r="C115" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="19"/>
-      <c r="B116" s="23"/>
+      <c r="B116" s="20"/>
       <c r="C116" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="19"/>
-      <c r="B117" s="23"/>
+      <c r="B117" s="20"/>
       <c r="C117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="19"/>
-      <c r="B118" s="23"/>
+      <c r="B118" s="20"/>
       <c r="C118" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="19"/>
-      <c r="B119" s="23"/>
+      <c r="B119" s="20"/>
       <c r="C119" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="19"/>
-      <c r="B120" s="23"/>
+      <c r="B120" s="20"/>
       <c r="C120" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="19"/>
-      <c r="B121" s="23"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="19"/>
-      <c r="B122" s="23"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4" t="s">
         <v>58</v>
       </c>
@@ -9118,7 +10129,7 @@
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:3">
       <c r="A124" s="19"/>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C124" s="53" t="s">
@@ -9127,54 +10138,54 @@
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:3">
       <c r="A125" s="19"/>
-      <c r="B125" s="23"/>
+      <c r="B125" s="20"/>
       <c r="C125" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:3">
       <c r="A126" s="19"/>
-      <c r="B126" s="23"/>
+      <c r="B126" s="20"/>
       <c r="C126" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="127" ht="16" customHeight="1" spans="1:3">
       <c r="A127" s="19"/>
-      <c r="B127" s="23"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="128" ht="16" customHeight="1" spans="1:3">
       <c r="A128" s="19"/>
-      <c r="B128" s="23"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" ht="16" customHeight="1" spans="1:3">
       <c r="A129" s="19"/>
-      <c r="B129" s="23"/>
+      <c r="B129" s="20"/>
       <c r="C129" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" ht="16" customHeight="1" spans="1:3">
       <c r="A130" s="19"/>
-      <c r="B130" s="23"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" ht="16" customHeight="1" spans="1:3">
       <c r="A131" s="19"/>
-      <c r="B131" s="23"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="53"/>
     </row>
     <row r="132" ht="16" customHeight="1" spans="1:3">
       <c r="A132" s="19"/>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C132" s="53" t="s">
@@ -9183,63 +10194,63 @@
     </row>
     <row r="133" ht="16" customHeight="1" spans="1:3">
       <c r="A133" s="19"/>
-      <c r="B133" s="23"/>
+      <c r="B133" s="20"/>
       <c r="C133" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="134" ht="16" customHeight="1" spans="1:3">
       <c r="A134" s="19"/>
-      <c r="B134" s="23"/>
+      <c r="B134" s="20"/>
       <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="135" ht="16" customHeight="1" spans="1:3">
       <c r="A135" s="19"/>
-      <c r="B135" s="23"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="136" ht="16" customHeight="1" spans="1:3">
       <c r="A136" s="19"/>
-      <c r="B136" s="23"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" ht="16" customHeight="1" spans="1:3">
       <c r="A137" s="19"/>
-      <c r="B137" s="23"/>
+      <c r="B137" s="20"/>
       <c r="C137" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="138" ht="16" customHeight="1" spans="1:3">
       <c r="A138" s="19"/>
-      <c r="B138" s="23"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="139" ht="16" customHeight="1" spans="1:3">
       <c r="A139" s="19"/>
-      <c r="B139" s="23"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
       <c r="A140" s="19"/>
-      <c r="B140" s="23"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141" customFormat="1" ht="15.75" spans="1:2">
       <c r="A141" s="19"/>
-      <c r="B141" s="23"/>
+      <c r="B141" s="20"/>
     </row>
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="19"/>
@@ -9273,7 +10284,7 @@
       <c r="A146" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C146" s="53" t="s">
@@ -9282,82 +10293,82 @@
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:3">
       <c r="A147" s="19"/>
-      <c r="B147" s="23"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
       <c r="A148" s="19"/>
-      <c r="B148" s="23"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="149" ht="21" customHeight="1" spans="1:3">
       <c r="A149" s="19"/>
-      <c r="B149" s="23"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="28" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" spans="1:3">
       <c r="A150" s="19"/>
-      <c r="B150" s="23"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
       <c r="A151" s="19"/>
-      <c r="B151" s="23"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="28" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="152" ht="17" customHeight="1" spans="1:3">
       <c r="A152" s="19"/>
-      <c r="B152" s="23"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="153" ht="13" customHeight="1" spans="1:3">
       <c r="A153" s="19"/>
-      <c r="B153" s="23"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="154" ht="13" customHeight="1" spans="1:3">
       <c r="A154" s="19"/>
-      <c r="B154" s="23"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
       <c r="A155" s="19"/>
-      <c r="B155" s="23"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="53" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
       <c r="A156" s="19"/>
-      <c r="B156" s="23"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="157" ht="15.75" spans="1:3">
       <c r="A157" s="19"/>
-      <c r="B157" s="23"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="4"/>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="19"/>
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C158" s="53" t="s">
@@ -9366,49 +10377,49 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="19"/>
-      <c r="B159" s="23"/>
+      <c r="B159" s="20"/>
       <c r="C159" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="19"/>
-      <c r="B160" s="23"/>
+      <c r="B160" s="20"/>
       <c r="C160" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="19"/>
-      <c r="B161" s="23"/>
+      <c r="B161" s="20"/>
       <c r="C161" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="19"/>
-      <c r="B162" s="23"/>
+      <c r="B162" s="20"/>
       <c r="C162" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="19"/>
-      <c r="B163" s="23"/>
+      <c r="B163" s="20"/>
       <c r="C163" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="19"/>
-      <c r="B164" s="23"/>
+      <c r="B164" s="20"/>
       <c r="C164" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="19"/>
-      <c r="B165" s="23"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="4" t="s">
         <v>58</v>
       </c>
@@ -9418,7 +10429,7 @@
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:3">
       <c r="A167" s="19"/>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="20" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="53" t="s">
@@ -9427,54 +10438,54 @@
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:3">
       <c r="A168" s="19"/>
-      <c r="B168" s="23"/>
+      <c r="B168" s="20"/>
       <c r="C168" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:3">
       <c r="A169" s="19"/>
-      <c r="B169" s="23"/>
+      <c r="B169" s="20"/>
       <c r="C169" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="170" ht="16" customHeight="1" spans="1:3">
       <c r="A170" s="19"/>
-      <c r="B170" s="23"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="1" spans="1:3">
       <c r="A171" s="19"/>
-      <c r="B171" s="23"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="172" ht="16" customHeight="1" spans="1:3">
       <c r="A172" s="19"/>
-      <c r="B172" s="23"/>
+      <c r="B172" s="20"/>
       <c r="C172" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="173" ht="16" customHeight="1" spans="1:3">
       <c r="A173" s="19"/>
-      <c r="B173" s="23"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="1" spans="1:3">
       <c r="A174" s="19"/>
-      <c r="B174" s="23"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="53"/>
     </row>
     <row r="175" ht="16" customHeight="1" spans="1:3">
       <c r="A175" s="19"/>
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C175" s="53" t="s">
@@ -9483,82 +10494,82 @@
     </row>
     <row r="176" ht="16" customHeight="1" spans="1:3">
       <c r="A176" s="19"/>
-      <c r="B176" s="23"/>
+      <c r="B176" s="20"/>
       <c r="C176" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" ht="16" customHeight="1" spans="1:3">
       <c r="A177" s="19"/>
-      <c r="B177" s="23"/>
+      <c r="B177" s="20"/>
       <c r="C177" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" ht="16" customHeight="1" spans="1:3">
       <c r="A178" s="19"/>
-      <c r="B178" s="23"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="1" spans="1:3">
       <c r="A179" s="19"/>
-      <c r="B179" s="23"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="180" ht="16" customHeight="1" spans="1:3">
       <c r="A180" s="19"/>
-      <c r="B180" s="23"/>
+      <c r="B180" s="20"/>
       <c r="C180" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="181" ht="16" customHeight="1" spans="1:3">
       <c r="A181" s="19"/>
-      <c r="B181" s="23"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="182" ht="16" customHeight="1" spans="1:3">
       <c r="A182" s="19"/>
-      <c r="B182" s="23"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
       <c r="A183" s="19"/>
-      <c r="B183" s="23"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="53" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" customFormat="1" ht="15" spans="1:3">
       <c r="A184" s="19"/>
-      <c r="B184" s="23"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="1" ht="15" spans="1:3">
       <c r="A185" s="19"/>
-      <c r="B185" s="23"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="15.75" spans="1:3">
       <c r="A186" s="19"/>
-      <c r="B186" s="23"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="53"/>
     </row>
     <row r="187" customFormat="1" ht="15" spans="1:3">
       <c r="A187" s="19"/>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="20" t="s">
         <v>195</v>
       </c>
       <c r="C187" s="53" t="s">
@@ -9567,49 +10578,49 @@
     </row>
     <row r="188" customFormat="1" spans="1:3">
       <c r="A188" s="19"/>
-      <c r="B188" s="23"/>
+      <c r="B188" s="20"/>
       <c r="C188" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:3">
       <c r="A189" s="19"/>
-      <c r="B189" s="23"/>
+      <c r="B189" s="20"/>
       <c r="C189" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:3">
       <c r="A190" s="19"/>
-      <c r="B190" s="23"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:3">
       <c r="A191" s="19"/>
-      <c r="B191" s="23"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="192" customFormat="1" spans="1:3">
       <c r="A192" s="19"/>
-      <c r="B192" s="23"/>
+      <c r="B192" s="20"/>
       <c r="C192" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="193" customFormat="1" ht="15" spans="1:3">
       <c r="A193" s="19"/>
-      <c r="B193" s="23"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="194" customFormat="1" ht="15.75" spans="1:3">
       <c r="A194" s="19"/>
-      <c r="B194" s="23"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="53"/>
     </row>
     <row r="195" ht="15" spans="1:3">
@@ -9644,7 +10655,7 @@
       <c r="A199" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="20" t="s">
+      <c r="B199" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C199" s="49" t="s">
@@ -9653,12 +10664,12 @@
     </row>
     <row r="200" ht="15.75" spans="1:3">
       <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
+      <c r="B200" s="23"/>
       <c r="C200" s="49"/>
     </row>
     <row r="201" ht="16" customHeight="1" spans="1:3">
       <c r="A201" s="19"/>
-      <c r="B201" s="23" t="s">
+      <c r="B201" s="20" t="s">
         <v>205</v>
       </c>
       <c r="C201" s="53" t="s">
@@ -9667,49 +10678,49 @@
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:3">
       <c r="A202" s="19"/>
-      <c r="B202" s="23"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="53" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
       <c r="A203" s="19"/>
-      <c r="B203" s="23"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="53" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="204" ht="21" customHeight="1" spans="1:3">
       <c r="A204" s="19"/>
-      <c r="B204" s="23"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="53" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1" spans="1:3">
       <c r="A205" s="19"/>
-      <c r="B205" s="23"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="53" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="19"/>
-      <c r="B206" s="23"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="53" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:3">
       <c r="A207" s="19"/>
-      <c r="B207" s="23"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:3">
       <c r="A208" s="19"/>
-      <c r="B208" s="23"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="15" spans="1:3">
@@ -9775,7 +10786,7 @@
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:3">
       <c r="A218" s="19"/>
-      <c r="B218" s="23" t="s">
+      <c r="B218" s="20" t="s">
         <v>218</v>
       </c>
       <c r="C218" s="53" t="s">
@@ -9784,70 +10795,70 @@
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:3">
       <c r="A219" s="19"/>
-      <c r="B219" s="23"/>
+      <c r="B219" s="20"/>
       <c r="C219" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:3">
       <c r="A220" s="19"/>
-      <c r="B220" s="23"/>
+      <c r="B220" s="20"/>
       <c r="C220" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" ht="16" customHeight="1" spans="1:3">
       <c r="A221" s="19"/>
-      <c r="B221" s="23"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" ht="16" customHeight="1" spans="1:3">
       <c r="A222" s="19"/>
-      <c r="B222" s="23"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="223" ht="16" customHeight="1" spans="1:3">
       <c r="A223" s="19"/>
-      <c r="B223" s="23"/>
+      <c r="B223" s="20"/>
       <c r="C223" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="224" ht="16" customHeight="1" spans="1:3">
       <c r="A224" s="19"/>
-      <c r="B224" s="23"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="53" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" ht="16" customHeight="1" spans="1:3">
       <c r="A225" s="19"/>
-      <c r="B225" s="23"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" ht="16" customHeight="1" spans="1:3">
       <c r="A226" s="19"/>
-      <c r="B226" s="23"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="53" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" ht="16" customHeight="1" spans="1:3">
       <c r="A227" s="19"/>
-      <c r="B227" s="23"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="228" customFormat="1" ht="15.75" spans="1:3">
       <c r="A228" s="19"/>
-      <c r="B228" s="23"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="53"/>
     </row>
     <row r="229" ht="15" spans="1:3">
@@ -9875,7 +10886,7 @@
       <c r="A232" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B232" s="23" t="s">
+      <c r="B232" s="20" t="s">
         <v>230</v>
       </c>
       <c r="C232" s="22" t="s">
@@ -9884,28 +10895,28 @@
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:3">
       <c r="A233" s="19"/>
-      <c r="B233" s="23"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" ht="19" customHeight="1" spans="1:3">
       <c r="A234" s="19"/>
-      <c r="B234" s="23"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1" spans="1:3">
       <c r="A235" s="19"/>
-      <c r="B235" s="23"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" ht="17" customHeight="1" spans="1:3">
       <c r="A236" s="19"/>
-      <c r="B236" s="23"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="22" t="s">
         <v>234</v>
       </c>
@@ -9917,7 +10928,7 @@
     </row>
     <row r="238" ht="21" customHeight="1" spans="1:3">
       <c r="A238" s="19"/>
-      <c r="B238" s="23" t="s">
+      <c r="B238" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C238" s="53" t="s">
@@ -9926,35 +10937,35 @@
     </row>
     <row r="239" ht="13" customHeight="1" spans="1:3">
       <c r="A239" s="19"/>
-      <c r="B239" s="23"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:3">
       <c r="A240" s="19"/>
-      <c r="B240" s="23"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:3">
       <c r="A241" s="19"/>
-      <c r="B241" s="23"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" ht="15" spans="1:3">
       <c r="A242" s="19"/>
-      <c r="B242" s="23"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="53" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" ht="15" spans="1:3">
       <c r="A243" s="19"/>
-      <c r="B243" s="23"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="53" t="s">
         <v>240</v>
       </c>
@@ -9964,7 +10975,7 @@
     </row>
     <row r="245" ht="15" spans="1:3">
       <c r="A245" s="19"/>
-      <c r="B245" s="23" t="s">
+      <c r="B245" s="20" t="s">
         <v>241</v>
       </c>
       <c r="C245" s="53" t="s">
@@ -9973,42 +10984,42 @@
     </row>
     <row r="246" ht="15" spans="1:3">
       <c r="A246" s="19"/>
-      <c r="B246" s="23"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="53" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" ht="15" spans="1:3">
       <c r="A247" s="19"/>
-      <c r="B247" s="23"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="248" ht="15" spans="1:3">
       <c r="A248" s="19"/>
-      <c r="B248" s="23"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="53" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="249" ht="15" spans="1:3">
       <c r="A249" s="19"/>
-      <c r="B249" s="23"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="53" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="250" ht="15" spans="1:3">
       <c r="A250" s="19"/>
-      <c r="B250" s="23"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="53" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:3">
       <c r="A251" s="19"/>
-      <c r="B251" s="23"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="53"/>
     </row>
     <row r="252" ht="15" spans="1:3">
@@ -10043,7 +11054,7 @@
       <c r="A256" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B256" s="20" t="s">
+      <c r="B256" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C256" s="49" t="s">
@@ -10052,7 +11063,7 @@
     </row>
     <row r="257" ht="15" spans="1:3">
       <c r="A257" s="19"/>
-      <c r="B257" s="23" t="s">
+      <c r="B257" s="20" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="22" t="s">
@@ -10061,70 +11072,70 @@
     </row>
     <row r="258" ht="15" spans="1:3">
       <c r="A258" s="19"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="22" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="259" ht="15" spans="1:3">
       <c r="A259" s="19"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="22" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="260" ht="15" spans="1:3">
       <c r="A260" s="19"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="22" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="261" ht="15" spans="1:3">
       <c r="A261" s="19"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="22" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="262" ht="15" spans="1:3">
       <c r="A262" s="19"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="22" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="263" ht="15" spans="1:3">
       <c r="A263" s="19"/>
-      <c r="B263" s="23"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="22" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="264" ht="20" customHeight="1" spans="1:3">
       <c r="A264" s="19"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="22" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="265" ht="21" customHeight="1" spans="1:3">
       <c r="A265" s="19"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:3">
       <c r="A266" s="19"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="22" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="267" ht="15" customHeight="1" spans="1:3">
       <c r="A267" s="19"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="22" t="s">
         <v>47</v>
       </c>
@@ -10134,7 +11145,7 @@
     </row>
     <row r="269" ht="15" spans="1:3">
       <c r="A269" s="19"/>
-      <c r="B269" s="23" t="s">
+      <c r="B269" s="20" t="s">
         <v>262</v>
       </c>
       <c r="C269" s="22" t="s">
@@ -10143,42 +11154,42 @@
     </row>
     <row r="270" ht="15" spans="1:3">
       <c r="A270" s="19"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="271" ht="15" spans="1:3">
       <c r="A271" s="19"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="272" ht="15" spans="1:3">
       <c r="A272" s="19"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="22" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="273" ht="15" spans="1:3">
       <c r="A273" s="19"/>
-      <c r="B273" s="23"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="274" ht="15" spans="1:3">
       <c r="A274" s="19"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="275" ht="15" spans="1:3">
       <c r="A275" s="19"/>
-      <c r="B275" s="23"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="22" t="s">
         <v>269</v>
       </c>
@@ -10188,7 +11199,7 @@
     </row>
     <row r="277" ht="15" spans="1:3">
       <c r="A277" s="19"/>
-      <c r="B277" s="23" t="s">
+      <c r="B277" s="20" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="22" t="s">
@@ -10197,42 +11208,42 @@
     </row>
     <row r="278" ht="15" spans="1:3">
       <c r="A278" s="19"/>
-      <c r="B278" s="23"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="22" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:3">
       <c r="A279" s="19"/>
-      <c r="B279" s="23"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="280" ht="15" spans="1:3">
       <c r="A280" s="19"/>
-      <c r="B280" s="23"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="22" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="281" ht="15" spans="1:3">
       <c r="A281" s="19"/>
-      <c r="B281" s="23"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="282" ht="15" spans="1:3">
       <c r="A282" s="19"/>
-      <c r="B282" s="23"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="283" ht="15" spans="1:3">
       <c r="A283" s="19"/>
-      <c r="B283" s="23"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="22" t="s">
         <v>274</v>
       </c>
@@ -10242,7 +11253,7 @@
     </row>
     <row r="285" ht="15" spans="1:3">
       <c r="A285" s="19"/>
-      <c r="B285" s="23" t="s">
+      <c r="B285" s="20" t="s">
         <v>275</v>
       </c>
       <c r="C285" s="22" t="s">
@@ -10251,63 +11262,63 @@
     </row>
     <row r="286" ht="15" spans="1:3">
       <c r="A286" s="19"/>
-      <c r="B286" s="23"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:3">
       <c r="A287" s="19"/>
-      <c r="B287" s="23"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:3">
       <c r="A288" s="19"/>
-      <c r="B288" s="23"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="22" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" ht="15" spans="1:3">
       <c r="A289" s="19"/>
-      <c r="B289" s="23"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" ht="15" spans="1:3">
       <c r="A290" s="19"/>
-      <c r="B290" s="23"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="22" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" ht="15" spans="1:3">
       <c r="A291" s="19"/>
-      <c r="B291" s="23"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" ht="15" spans="1:3">
       <c r="A292" s="19"/>
-      <c r="B292" s="23"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:3">
       <c r="A293" s="19"/>
-      <c r="B293" s="23"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="22" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:3">
       <c r="A294" s="19"/>
-      <c r="B294" s="23"/>
+      <c r="B294" s="20"/>
       <c r="C294" s="22" t="s">
         <v>70</v>
       </c>
@@ -10317,7 +11328,7 @@
     </row>
     <row r="296" ht="15" spans="1:3">
       <c r="A296" s="19"/>
-      <c r="B296" s="23" t="s">
+      <c r="B296" s="20" t="s">
         <v>284</v>
       </c>
       <c r="C296" s="22" t="s">
@@ -10326,21 +11337,21 @@
     </row>
     <row r="297" ht="15" spans="1:3">
       <c r="A297" s="19"/>
-      <c r="B297" s="23"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="22" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="298" ht="15" spans="1:3">
       <c r="A298" s="19"/>
-      <c r="B298" s="23"/>
+      <c r="B298" s="20"/>
       <c r="C298" s="22" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:3">
       <c r="A299" s="19"/>
-      <c r="B299" s="23"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="22" t="s">
         <v>288</v>
       </c>
@@ -10401,7 +11412,7 @@
       <c r="A308" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B308" s="20" t="s">
+      <c r="B308" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C308" s="49" t="s">
@@ -10410,12 +11421,12 @@
     </row>
     <row r="309" ht="15.75" spans="1:3">
       <c r="A309" s="19"/>
-      <c r="B309" s="20"/>
+      <c r="B309" s="23"/>
       <c r="C309" s="49"/>
     </row>
     <row r="310" ht="15" spans="1:3">
       <c r="A310" s="19"/>
-      <c r="B310" s="23" t="s">
+      <c r="B310" s="20" t="s">
         <v>296</v>
       </c>
       <c r="C310" s="22" t="s">
@@ -10424,21 +11435,21 @@
     </row>
     <row r="311" ht="15" spans="1:3">
       <c r="A311" s="19"/>
-      <c r="B311" s="23"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="22" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="312" ht="15" spans="1:3">
       <c r="A312" s="19"/>
-      <c r="B312" s="23"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="22" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:3">
       <c r="A313" s="19"/>
-      <c r="B313" s="23"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="22" t="s">
         <v>299</v>
       </c>
@@ -10448,7 +11459,7 @@
     </row>
     <row r="315" ht="15" spans="1:3">
       <c r="A315" s="19"/>
-      <c r="B315" s="23" t="s">
+      <c r="B315" s="20" t="s">
         <v>300</v>
       </c>
       <c r="C315" s="22" t="s">
@@ -10457,33 +11468,33 @@
     </row>
     <row r="316" ht="15" spans="1:3">
       <c r="A316" s="19"/>
-      <c r="B316" s="23"/>
+      <c r="B316" s="20"/>
       <c r="C316" s="22" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:3">
       <c r="A317" s="19"/>
-      <c r="B317" s="23"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="22" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:3">
       <c r="A318" s="19"/>
-      <c r="B318" s="23"/>
+      <c r="B318" s="20"/>
       <c r="C318" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" customFormat="1" ht="15.75" spans="1:3">
       <c r="A319" s="19"/>
-      <c r="B319" s="23"/>
+      <c r="B319" s="20"/>
       <c r="C319" s="22"/>
     </row>
     <row r="320" customFormat="1" ht="15" spans="1:3">
       <c r="A320" s="19"/>
-      <c r="B320" s="23" t="s">
+      <c r="B320" s="20" t="s">
         <v>305</v>
       </c>
       <c r="C320" s="21" t="s">
@@ -10492,42 +11503,42 @@
     </row>
     <row r="321" customFormat="1" ht="15" spans="1:3">
       <c r="A321" s="19"/>
-      <c r="B321" s="23"/>
+      <c r="B321" s="20"/>
       <c r="C321" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="322" customFormat="1" ht="15" spans="1:3">
       <c r="A322" s="19"/>
-      <c r="B322" s="23"/>
+      <c r="B322" s="20"/>
       <c r="C322" s="21" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" customFormat="1" ht="15" spans="1:3">
       <c r="A323" s="19"/>
-      <c r="B323" s="23"/>
+      <c r="B323" s="20"/>
       <c r="C323" s="21" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="324" customFormat="1" ht="15" spans="1:3">
       <c r="A324" s="19"/>
-      <c r="B324" s="23"/>
+      <c r="B324" s="20"/>
       <c r="C324" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="325" customFormat="1" ht="15" spans="1:3">
       <c r="A325" s="19"/>
-      <c r="B325" s="23"/>
+      <c r="B325" s="20"/>
       <c r="C325" s="21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="326" customFormat="1" ht="15" spans="1:3">
       <c r="A326" s="19"/>
-      <c r="B326" s="23"/>
+      <c r="B326" s="20"/>
       <c r="C326" s="21" t="s">
         <v>70</v>
       </c>
@@ -10537,7 +11548,7 @@
     </row>
     <row r="328" ht="15" spans="1:3">
       <c r="A328" s="19"/>
-      <c r="B328" s="23" t="s">
+      <c r="B328" s="20" t="s">
         <v>311</v>
       </c>
       <c r="C328" s="22" t="s">
@@ -10546,21 +11557,21 @@
     </row>
     <row r="329" ht="15" spans="1:3">
       <c r="A329" s="19"/>
-      <c r="B329" s="23"/>
+      <c r="B329" s="20"/>
       <c r="C329" s="22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="330" ht="15" spans="1:3">
       <c r="A330" s="19"/>
-      <c r="B330" s="23"/>
+      <c r="B330" s="20"/>
       <c r="C330" s="22" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:3">
       <c r="A331" s="19"/>
-      <c r="B331" s="23"/>
+      <c r="B331" s="20"/>
       <c r="C331" s="22" t="s">
         <v>315</v>
       </c>
@@ -11455,7 +12466,7 @@
       <c r="A460" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="B460" s="20" t="s">
+      <c r="B460" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C460" s="49" t="s">
@@ -11464,12 +12475,12 @@
     </row>
     <row r="461" ht="12" customHeight="1" spans="1:3">
       <c r="A461" s="19"/>
-      <c r="B461" s="20"/>
+      <c r="B461" s="23"/>
       <c r="C461" s="49"/>
     </row>
     <row r="462" ht="16" customHeight="1" spans="1:3">
       <c r="A462" s="19"/>
-      <c r="B462" s="23" t="s">
+      <c r="B462" s="20" t="s">
         <v>433</v>
       </c>
       <c r="C462" s="22" t="s">
@@ -11478,238 +12489,238 @@
     </row>
     <row r="463" ht="20" customHeight="1" spans="1:3">
       <c r="A463" s="19"/>
-      <c r="B463" s="23"/>
+      <c r="B463" s="20"/>
       <c r="C463" s="22" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="464" ht="15" spans="1:3">
       <c r="A464" s="19"/>
-      <c r="B464" s="23"/>
+      <c r="B464" s="20"/>
       <c r="C464" s="22" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="465" ht="21" customHeight="1" spans="1:3">
       <c r="A465" s="19"/>
-      <c r="B465" s="23"/>
+      <c r="B465" s="20"/>
       <c r="C465" s="22" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="466" ht="15" customHeight="1" spans="1:3">
       <c r="A466" s="19"/>
-      <c r="B466" s="23"/>
+      <c r="B466" s="20"/>
       <c r="C466" s="22" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="467" ht="15" spans="1:3">
       <c r="A467" s="19"/>
-      <c r="B467" s="23"/>
+      <c r="B467" s="20"/>
       <c r="C467" s="22" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="468" ht="17" customHeight="1" spans="1:3">
       <c r="A468" s="19"/>
-      <c r="B468" s="23"/>
+      <c r="B468" s="20"/>
       <c r="C468" s="22" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="469" ht="13" customHeight="1" spans="1:3">
       <c r="A469" s="19"/>
-      <c r="B469" s="23"/>
+      <c r="B469" s="20"/>
       <c r="C469" s="22" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="470" ht="13" customHeight="1" spans="1:3">
       <c r="A470" s="19"/>
-      <c r="B470" s="23"/>
+      <c r="B470" s="20"/>
       <c r="C470" s="22" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="471" ht="15" spans="1:3">
       <c r="A471" s="19"/>
-      <c r="B471" s="23"/>
+      <c r="B471" s="20"/>
       <c r="C471" s="22" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="472" ht="15" spans="1:3">
       <c r="A472" s="19"/>
-      <c r="B472" s="23"/>
+      <c r="B472" s="20"/>
       <c r="C472" s="22" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="473" ht="15" spans="1:3">
       <c r="A473" s="19"/>
-      <c r="B473" s="23"/>
+      <c r="B473" s="20"/>
       <c r="C473" s="22" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="474" ht="15" spans="1:3">
       <c r="A474" s="19"/>
-      <c r="B474" s="23"/>
+      <c r="B474" s="20"/>
       <c r="C474" s="22" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="475" ht="15" spans="1:3">
       <c r="A475" s="19"/>
-      <c r="B475" s="23"/>
+      <c r="B475" s="20"/>
       <c r="C475" s="22" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="476" ht="15" spans="1:3">
       <c r="A476" s="19"/>
-      <c r="B476" s="23"/>
+      <c r="B476" s="20"/>
       <c r="C476" s="22" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="477" ht="15" customHeight="1" spans="1:3">
       <c r="A477" s="19"/>
-      <c r="B477" s="23"/>
+      <c r="B477" s="20"/>
       <c r="C477" s="22" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="478" ht="15" spans="1:3">
       <c r="A478" s="19"/>
-      <c r="B478" s="23"/>
+      <c r="B478" s="20"/>
       <c r="C478" s="22" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="479" ht="15" spans="1:3">
       <c r="A479" s="19"/>
-      <c r="B479" s="23"/>
+      <c r="B479" s="20"/>
       <c r="C479" s="22" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="480" ht="15" spans="1:3">
       <c r="A480" s="19"/>
-      <c r="B480" s="23"/>
+      <c r="B480" s="20"/>
       <c r="C480" s="22" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="481" ht="18" customHeight="1" spans="1:3">
       <c r="A481" s="19"/>
-      <c r="B481" s="23"/>
+      <c r="B481" s="20"/>
       <c r="C481" s="22" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="482" ht="18" customHeight="1" spans="1:3">
       <c r="A482" s="19"/>
-      <c r="B482" s="23"/>
+      <c r="B482" s="20"/>
       <c r="C482" s="22" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="483" ht="18" customHeight="1" spans="1:3">
       <c r="A483" s="19"/>
-      <c r="B483" s="23"/>
+      <c r="B483" s="20"/>
       <c r="C483" s="22" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="484" ht="16" customHeight="1" spans="1:3">
       <c r="A484" s="19"/>
-      <c r="B484" s="23"/>
+      <c r="B484" s="20"/>
       <c r="C484" s="22" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="485" ht="16" customHeight="1" spans="1:3">
       <c r="A485" s="19"/>
-      <c r="B485" s="23"/>
+      <c r="B485" s="20"/>
       <c r="C485" s="22" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="486" ht="16" customHeight="1" spans="1:3">
       <c r="A486" s="19"/>
-      <c r="B486" s="23"/>
+      <c r="B486" s="20"/>
       <c r="C486" s="22" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="487" ht="16" customHeight="1" spans="1:3">
       <c r="A487" s="19"/>
-      <c r="B487" s="23"/>
+      <c r="B487" s="20"/>
       <c r="C487" s="22" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="488" ht="16" customHeight="1" spans="1:3">
       <c r="A488" s="19"/>
-      <c r="B488" s="23"/>
+      <c r="B488" s="20"/>
       <c r="C488" s="22" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="489" ht="16" customHeight="1" spans="1:3">
       <c r="A489" s="19"/>
-      <c r="B489" s="23"/>
+      <c r="B489" s="20"/>
       <c r="C489" s="22" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="490" ht="16" customHeight="1" spans="1:3">
       <c r="A490" s="19"/>
-      <c r="B490" s="23"/>
+      <c r="B490" s="20"/>
       <c r="C490" s="22" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="491" ht="16" customHeight="1" spans="1:3">
       <c r="A491" s="19"/>
-      <c r="B491" s="23"/>
+      <c r="B491" s="20"/>
       <c r="C491" s="22" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="492" ht="16" customHeight="1" spans="1:3">
       <c r="A492" s="19"/>
-      <c r="B492" s="23"/>
+      <c r="B492" s="20"/>
       <c r="C492" s="22" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="493" ht="16" customHeight="1" spans="1:3">
       <c r="A493" s="19"/>
-      <c r="B493" s="23"/>
+      <c r="B493" s="20"/>
       <c r="C493" s="22" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="494" ht="16" customHeight="1" spans="1:3">
       <c r="A494" s="19"/>
-      <c r="B494" s="23"/>
+      <c r="B494" s="20"/>
       <c r="C494" s="22" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="495" ht="16" customHeight="1" spans="1:3">
       <c r="A495" s="19"/>
-      <c r="B495" s="23"/>
+      <c r="B495" s="20"/>
       <c r="C495" s="22" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="496" customFormat="1" ht="15.75" spans="1:2">
       <c r="A496" s="19"/>
-      <c r="B496" s="23"/>
+      <c r="B496" s="20"/>
     </row>
     <row r="497" ht="15" spans="1:3">
       <c r="A497" s="19"/>
@@ -11743,7 +12754,7 @@
       <c r="A501" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="B501" s="20" t="s">
+      <c r="B501" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C501" s="49" t="s">
@@ -11752,7 +12763,7 @@
     </row>
     <row r="502" ht="15.75" spans="1:3">
       <c r="A502" s="19"/>
-      <c r="B502" s="20"/>
+      <c r="B502" s="23"/>
       <c r="C502" s="49"/>
     </row>
     <row r="503" ht="15" spans="1:3">
@@ -11869,7 +12880,7 @@
     </row>
     <row r="519" ht="15" spans="1:3">
       <c r="A519" s="19"/>
-      <c r="B519" s="23" t="s">
+      <c r="B519" s="20" t="s">
         <v>487</v>
       </c>
       <c r="C519" s="49" t="s">
@@ -11878,21 +12889,21 @@
     </row>
     <row r="520" ht="15" spans="1:3">
       <c r="A520" s="19"/>
-      <c r="B520" s="23"/>
+      <c r="B520" s="20"/>
       <c r="C520" s="53" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="521" ht="15" spans="1:3">
       <c r="A521" s="19"/>
-      <c r="B521" s="23"/>
+      <c r="B521" s="20"/>
       <c r="C521" s="53" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="522" ht="15" spans="1:3">
       <c r="A522" s="19"/>
-      <c r="B522" s="23"/>
+      <c r="B522" s="20"/>
       <c r="C522" s="53" t="s">
         <v>491</v>
       </c>
@@ -11927,7 +12938,7 @@
       <c r="A527" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B527" s="20" t="s">
+      <c r="B527" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C527" s="49" t="s">
@@ -11936,7 +12947,7 @@
     </row>
     <row r="528" ht="15.75" spans="1:3">
       <c r="A528" s="19"/>
-      <c r="B528" s="20"/>
+      <c r="B528" s="23"/>
       <c r="C528" s="49"/>
     </row>
     <row r="529" ht="15" spans="1:3">
@@ -12055,7 +13066,7 @@
     </row>
     <row r="545" ht="15.75" spans="1:3">
       <c r="A545" s="19"/>
-      <c r="B545" s="23"/>
+      <c r="B545" s="20"/>
       <c r="C545" s="53"/>
     </row>
     <row r="546" ht="15" spans="1:3">
@@ -12273,7 +13284,7 @@
       <c r="A3" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -12287,7 +13298,7 @@
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>523</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -12296,33 +13307,33 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="30" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="28" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="28" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="22"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>528</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -12331,40 +13342,40 @@
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="22" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="22"/>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>532</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -12373,61 +13384,61 @@
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="53" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="53" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="53" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="53" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="53" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="53" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="53" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="53"/>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>540</v>
       </c>
       <c r="C25" s="53" t="s">
@@ -12436,61 +13447,61 @@
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="53" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="53" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="53" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="53" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="53" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="53" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="53" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>547</v>
       </c>
       <c r="C34" s="53" t="s">
@@ -12499,40 +13510,40 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="22" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="22" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="28" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4"/>
     </row>
     <row r="40" ht="15.75" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C40" s="53" t="s">
@@ -12541,7 +13552,7 @@
     </row>
     <row r="41" customFormat="1" ht="15.75" spans="1:2">
       <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="19"/>
@@ -12589,7 +13600,7 @@
       <c r="A48" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="20" t="s">
         <v>558</v>
       </c>
       <c r="C48" s="49" t="s">
@@ -12598,47 +13609,47 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="19"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="30" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="19"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="28" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="19"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="28" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="19"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="22" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="28" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="22"/>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="20" t="s">
         <v>564</v>
       </c>
       <c r="C55" s="53" t="s">
@@ -12647,54 +13658,54 @@
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="53" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="23"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="53" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="53" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="19"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="53" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="19"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="53" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="19"/>
-      <c r="B61" s="23"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="53" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
       <c r="A62" s="19"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="53"/>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="19"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="20" t="s">
         <v>570</v>
       </c>
       <c r="C63" s="53" t="s">
@@ -12703,33 +13714,33 @@
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="19"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="53" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="19"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="53" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="19"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="53" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
       <c r="A67" s="19"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="53"/>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="19"/>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="20" t="s">
         <v>574</v>
       </c>
       <c r="C68" s="54" t="s">
@@ -12738,105 +13749,105 @@
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="19"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="53" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="19"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="53" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="19"/>
-      <c r="B71" s="23"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="53" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="19"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="53" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="19"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="53" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
       <c r="A74" s="19"/>
-      <c r="B74" s="23"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="53" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:3">
       <c r="A75" s="19"/>
-      <c r="B75" s="23"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="54" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
       <c r="A76" s="19"/>
-      <c r="B76" s="23"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="54" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
       <c r="A77" s="19"/>
-      <c r="B77" s="23"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="54" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="19"/>
-      <c r="B78" s="23"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="54" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="19"/>
-      <c r="B79" s="23"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="54" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="19"/>
-      <c r="B80" s="23"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="54" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="19"/>
-      <c r="B81" s="23"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="54" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="19"/>
-      <c r="B82" s="23"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="54" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:3">
       <c r="A83" s="19"/>
-      <c r="B83" s="23"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="54"/>
     </row>
     <row r="84" ht="15" spans="1:3">
@@ -12955,7 +13966,7 @@
       <c r="A3" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>596</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -12964,84 +13975,84 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="51"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="31" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="51"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:3">
       <c r="A6" s="51"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="27" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:3">
       <c r="A7" s="51"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="51"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="28" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:3">
       <c r="A9" s="51"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:3">
       <c r="A10" s="51"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
       <c r="A11" s="51"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="51"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="51"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="51"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="53" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="51"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="53" t="s">
         <v>609</v>
       </c>
@@ -13062,7 +14073,7 @@
       <c r="A18" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -13071,12 +14082,12 @@
     </row>
     <row r="19" ht="10" customHeight="1" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="50"/>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>612</v>
       </c>
       <c r="C20" s="49" t="s">
@@ -13085,103 +14096,103 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="30" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
       <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="28" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:3">
       <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="28" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="28" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="28" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="28" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="28" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="28" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="28" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="28" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="28" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="28" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="22"/>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="20" t="s">
         <v>626</v>
       </c>
       <c r="C35" s="53" t="s">
@@ -13190,75 +14201,75 @@
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="53" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="53" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="53" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="53" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="53" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="53" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="53" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="53" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="53"/>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>635</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -13267,77 +14278,77 @@
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="19"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="53" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="53" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="19"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="53" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:3">
       <c r="A50" s="19"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="53" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1" spans="1:3">
       <c r="A51" s="19"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="54" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:3">
       <c r="A52" s="19"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="53" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="53" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="53" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="53" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="53"/>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:3">
@@ -13379,7 +14390,7 @@
       <c r="A63" s="55" t="s">
         <v>649</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="20" t="s">
         <v>650</v>
       </c>
       <c r="C63" s="52" t="s">
@@ -13388,42 +14399,42 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="55"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="31" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:3">
       <c r="A65" s="55"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="27" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1" spans="1:3">
       <c r="A66" s="55"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="27" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1" spans="1:3">
       <c r="A67" s="55"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="21" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:3">
       <c r="A68" s="55"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="28" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="69" ht="16" customHeight="1" spans="1:3">
       <c r="A69" s="55"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="21" t="s">
         <v>657</v>
       </c>
@@ -13442,7 +14453,7 @@
       <c r="A72" s="55" t="s">
         <v>659</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="49" t="s">
@@ -13451,12 +14462,12 @@
     </row>
     <row r="73" ht="10" customHeight="1" spans="1:3">
       <c r="A73" s="55"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="50"/>
     </row>
     <row r="74" ht="19" customHeight="1" spans="1:3">
       <c r="A74" s="55"/>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="20" t="s">
         <v>660</v>
       </c>
       <c r="C74" s="49" t="s">
@@ -13465,54 +14476,54 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="55"/>
-      <c r="B75" s="23"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="30" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:3">
       <c r="A76" s="55"/>
-      <c r="B76" s="23"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="28" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:3">
       <c r="A77" s="55"/>
-      <c r="B77" s="23"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="28" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1" spans="1:3">
       <c r="A78" s="55"/>
-      <c r="B78" s="23"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="22" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:3">
       <c r="A79" s="55"/>
-      <c r="B79" s="23"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="28" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:3">
       <c r="A80" s="55"/>
-      <c r="B80" s="23"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="28" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="1:3">
       <c r="A81" s="55"/>
-      <c r="B81" s="23"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="22"/>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="55"/>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="20" t="s">
         <v>667</v>
       </c>
       <c r="C82" s="53" t="s">
@@ -13521,21 +14532,21 @@
     </row>
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="55"/>
-      <c r="B83" s="23"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="53" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
       <c r="A84" s="55"/>
-      <c r="B84" s="23"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="53" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="55"/>
-      <c r="B85" s="23"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="53" t="s">
         <v>671</v>
       </c>
@@ -13641,7 +14652,7 @@
       <c r="A3" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -13655,7 +14666,7 @@
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>676</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -13664,47 +14675,47 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="30" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="28" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="28" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="28" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="22"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>683</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -13713,56 +14724,56 @@
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
       <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="22" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="22" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
       <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="28" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="22" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="22" t="s">
         <v>692</v>
       </c>
@@ -13783,7 +14794,7 @@
       <c r="A23" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>695</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -13792,75 +14803,75 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
       <c r="A26" s="19"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="28" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="30" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="28" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
       <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="22" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
       <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="22" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
       <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="28" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
       <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="19"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>706</v>
       </c>
       <c r="C34" t="s">
@@ -13869,49 +14880,49 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" t="s">
         <v>714</v>
       </c>
@@ -13921,7 +14932,7 @@
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
       <c r="A43" s="19"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>715</v>
       </c>
       <c r="C43" t="s">
@@ -13930,21 +14941,21 @@
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
       <c r="A44" s="19"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
       <c r="A45" s="19"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
       <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" t="s">
         <v>719</v>
       </c>
@@ -13984,7 +14995,7 @@
       <c r="A52" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="23" t="s">
         <v>724</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -13993,33 +15004,33 @@
     </row>
     <row r="53" ht="20" hidden="1" customHeight="1" spans="1:3">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" ht="15.75" hidden="1" spans="1:3">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55" ht="8" hidden="1" customHeight="1" spans="1:3">
       <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" ht="20" hidden="1" customHeight="1" spans="1:3">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" ht="15.75" hidden="1" spans="1:3">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" ht="17" hidden="1" customHeight="1" spans="1:3">
       <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" ht="9" customHeight="1" spans="1:3">
       <c r="A59" s="47"/>
@@ -14102,7 +15113,7 @@
       <c r="A3" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -14111,12 +15122,12 @@
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="45"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="45"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>727</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -14125,63 +15136,63 @@
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="45"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="22" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="45"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="22" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="45"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="22" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="45"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="22" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="45"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="45"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="22" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="45"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="45"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="45"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22" t="s">
         <v>70</v>
       </c>
@@ -14192,7 +15203,7 @@
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="45"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>735</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -14201,84 +15212,84 @@
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="45"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="45"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="22" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="45"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="22" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="45"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="22" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="45"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="22" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="45"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="22" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="45"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="22" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="45"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="45"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="45"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="22" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="45"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="22" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="45"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="22" t="s">
         <v>748</v>
       </c>
@@ -14289,7 +15300,7 @@
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="45"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>749</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -14298,54 +15309,54 @@
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="45"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="22" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="45"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="22" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="45"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="22" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="45"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="22" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="45"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="22" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="45"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="22" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
       <c r="A37" s="45"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="22"/>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="45"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="20" t="s">
         <v>757</v>
       </c>
       <c r="C38" s="22" t="s">
@@ -14354,68 +15365,68 @@
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="45"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="22" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="45"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="22" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="45"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="22" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="45"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="22" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="45"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="22" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="45"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="22" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="45"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="22" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="45"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
       <c r="A47" s="45"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="22"/>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="45"/>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="20" t="s">
         <v>766</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -14424,63 +15435,63 @@
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="45"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="22" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="45"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="22" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="45"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="22" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="45"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="22" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="45"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="22" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="45"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="22" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="45"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="22" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="45"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="22" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="45"/>
-      <c r="B57" s="23"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="22" t="s">
         <v>70</v>
       </c>
@@ -14491,7 +15502,7 @@
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="45"/>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="20" t="s">
         <v>773</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -14500,63 +15511,63 @@
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="45"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="22" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="45"/>
-      <c r="B61" s="23"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="22" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="45"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="22" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="45"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="22" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="45"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="22" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="45"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="22" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="45"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="22" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
       <c r="A67" s="45"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="21" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="45"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="22" t="s">
         <v>539</v>
       </c>
@@ -14687,7 +15698,7 @@
       <c r="A3" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -14696,12 +15707,12 @@
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="35"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="35"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>791</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -14710,47 +15721,47 @@
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="35"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="22" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="35"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="22" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="35"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="22" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="35"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="22" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="35"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="35"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="22"/>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="35"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>796</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -14759,42 +15770,42 @@
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="35"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="35"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="35"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="22" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="35"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="22" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="35"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="35"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="22" t="s">
         <v>149</v>
       </c>
@@ -14805,7 +15816,7 @@
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="35"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>802</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -14814,28 +15825,28 @@
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="35"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="22" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="35"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="22" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="35"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="22" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="35"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22" t="s">
         <v>234</v>
       </c>
@@ -14847,7 +15858,7 @@
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="35"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -14856,63 +15867,63 @@
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="35"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="22" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="35"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="22" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="35"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="22" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="35"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="22" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="35"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="22" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="35"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="22" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="35"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="22" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:3">
       <c r="A34" s="35"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="22" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="1:3">
       <c r="A35" s="35"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="22" t="s">
         <v>70</v>
       </c>
@@ -14926,7 +15937,7 @@
       <c r="A37" s="35" t="s">
         <v>815</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>816</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -14935,35 +15946,35 @@
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="35"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="22" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="35"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="22" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="35"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="22" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="35"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="22" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="35"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="22" t="s">
         <v>247</v>
       </c>
@@ -14974,7 +15985,7 @@
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="35"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>821</v>
       </c>
       <c r="C44" s="43" t="s">
@@ -14983,28 +15994,28 @@
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="35"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="22" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="35"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="22" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="35"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="22" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="35"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="22" t="s">
         <v>234</v>
       </c>
@@ -15016,7 +16027,7 @@
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="35"/>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="20" t="s">
         <v>825</v>
       </c>
       <c r="C50" s="43" t="s">
@@ -15025,47 +16036,47 @@
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="35"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="22" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="35"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="22" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="35"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="22" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="35"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="22" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="35"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="35"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="22"/>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="35"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>830</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -15074,42 +16085,42 @@
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="35"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="22" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="35"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="22" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="35"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="22" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="35"/>
-      <c r="B61" s="23"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="22" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="35"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="22" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="35"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="22" t="s">
         <v>149</v>
       </c>
@@ -15224,7 +16235,7 @@
       <c r="A3" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -15233,12 +16244,12 @@
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>472</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -15247,12 +16258,12 @@
     </row>
     <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="19"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="22"/>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>844</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -15261,26 +16272,26 @@
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="22" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="22" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="36"/>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>848</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -15289,14 +16300,14 @@
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22" t="s">
         <v>850</v>
       </c>
@@ -15308,7 +16319,7 @@
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>851</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -15317,14 +16328,14 @@
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="22" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="22" t="s">
         <v>853</v>
       </c>
@@ -15336,7 +16347,7 @@
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>854</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -15345,14 +16356,14 @@
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="22" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="22" t="s">
         <v>857</v>
       </c>
@@ -15455,7 +16466,7 @@
       <c r="A3" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -15464,12 +16475,12 @@
     </row>
     <row r="4" ht="18.75" spans="1:3">
       <c r="A4" s="35"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="36"/>
     </row>
     <row r="5" ht="18.75" spans="1:3">
       <c r="A5" s="35"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>864</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -15478,54 +16489,54 @@
     </row>
     <row r="6" ht="18.75" spans="1:3">
       <c r="A6" s="35"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="36" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:3">
       <c r="A7" s="35"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="36" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:3">
       <c r="A8" s="35"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="36" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:3">
       <c r="A9" s="35"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="36" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
       <c r="A10" s="35"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="36" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:3">
       <c r="A11" s="35"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:3">
       <c r="A12" s="35"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="36"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
       <c r="A13" s="35"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>869</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -15534,56 +16545,56 @@
     </row>
     <row r="14" ht="18.75" spans="1:3">
       <c r="A14" s="35"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="36" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
       <c r="A15" s="35"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="36" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
       <c r="A16" s="35"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="36" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
       <c r="A17" s="35"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="36" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
       <c r="A18" s="35"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="36" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
       <c r="A19" s="35"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="36" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
       <c r="A20" s="35"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="36" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
       <c r="A21" s="35"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="36" t="s">
         <v>58</v>
       </c>
@@ -15594,7 +16605,7 @@
     </row>
     <row r="23" ht="18.75" spans="1:3">
       <c r="A23" s="35"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>876</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -15603,68 +16614,68 @@
     </row>
     <row r="24" ht="18.75" spans="1:3">
       <c r="A24" s="35"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="36" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
       <c r="A25" s="35"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="36" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
       <c r="A26" s="35"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="36" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
       <c r="A27" s="35"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="36" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
       <c r="A28" s="35"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="36" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
       <c r="A29" s="35"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="36" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
       <c r="A30" s="35"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="36" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
       <c r="A31" s="35"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="35"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="30"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
       <c r="A33" s="35"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="20" t="s">
         <v>883</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -15673,77 +16684,77 @@
     </row>
     <row r="34" ht="18.75" spans="1:3">
       <c r="A34" s="35"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="36" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
       <c r="A35" s="35"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="36" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="35"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="36" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
       <c r="A37" s="35"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="36" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
       <c r="A38" s="35"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="36" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
       <c r="A39" s="35"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="36" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
       <c r="A40" s="35"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="36" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
       <c r="A41" s="35"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="36" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="35"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="36" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
       <c r="A43" s="35"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="36" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
       <c r="A44" s="35"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="36" t="s">
         <v>894</v>
       </c>
@@ -15754,7 +16765,7 @@
     </row>
     <row r="46" ht="18.75" spans="1:3">
       <c r="A46" s="35"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>895</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -15763,98 +16774,98 @@
     </row>
     <row r="47" ht="18.75" spans="1:3">
       <c r="A47" s="35"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="36" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
       <c r="A48" s="35"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="36" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
       <c r="A49" s="35"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="36" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
       <c r="A50" s="35"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="36" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
       <c r="A51" s="35"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="36" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
       <c r="A52" s="35"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="36" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
       <c r="A53" s="35"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="36" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
       <c r="A54" s="35"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="36" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
       <c r="A55" s="35"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="36" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
       <c r="A56" s="35"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="36" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
       <c r="A57" s="35"/>
-      <c r="B57" s="23"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="36" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
       <c r="A58" s="35"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="36" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
       <c r="A59" s="35"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="36" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
       <c r="A60" s="35"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="36" t="s">
         <v>909</v>
       </c>
@@ -15865,7 +16876,7 @@
     </row>
     <row r="62" ht="18.75" spans="1:3">
       <c r="A62" s="35"/>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="20" t="s">
         <v>910</v>
       </c>
       <c r="C62" s="36" t="s">
@@ -15874,49 +16885,49 @@
     </row>
     <row r="63" ht="18.75" spans="1:3">
       <c r="A63" s="35"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="36" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
       <c r="A64" s="35"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="36" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
       <c r="A65" s="35"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="36" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
       <c r="A66" s="35"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="36" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
       <c r="A67" s="35"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="36" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
       <c r="A68" s="35"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="36" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
       <c r="A69" s="35"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="36" t="s">
         <v>539</v>
       </c>
@@ -15927,7 +16938,7 @@
     </row>
     <row r="71" ht="18.75" spans="1:3">
       <c r="A71" s="35"/>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="20" t="s">
         <v>917</v>
       </c>
       <c r="C71" s="36" t="s">
@@ -15936,119 +16947,119 @@
     </row>
     <row r="72" ht="18.75" spans="1:3">
       <c r="A72" s="35"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="36" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
       <c r="A73" s="35"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="36" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
       <c r="A74" s="35"/>
-      <c r="B74" s="23"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="36" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
       <c r="A75" s="35"/>
-      <c r="B75" s="23"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="36" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
       <c r="A76" s="35"/>
-      <c r="B76" s="23"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="36" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
       <c r="A77" s="35"/>
-      <c r="B77" s="23"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="36" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
       <c r="A78" s="35"/>
-      <c r="B78" s="23"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="36" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
       <c r="A79" s="35"/>
-      <c r="B79" s="23"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="36" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
       <c r="A80" s="35"/>
-      <c r="B80" s="23"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="36" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
       <c r="A81" s="35"/>
-      <c r="B81" s="23"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="36" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
       <c r="A82" s="35"/>
-      <c r="B82" s="23"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="36" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
       <c r="A83" s="35"/>
-      <c r="B83" s="23"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="36" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
       <c r="A84" s="35"/>
-      <c r="B84" s="23"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="36" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
       <c r="A85" s="35"/>
-      <c r="B85" s="23"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="36" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
       <c r="A86" s="35"/>
-      <c r="B86" s="23"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="36" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
       <c r="A87" s="35"/>
-      <c r="B87" s="23"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="36" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
       <c r="A88" s="35"/>
-      <c r="B88" s="23"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="36"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -4206,6 +4206,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">This course is a discovery of the many new features found in CSS3.                                                    </t>
     </r>
     <r>
@@ -4496,7 +4504,7 @@
     <t>Demonstrate passing test cases in IDE.</t>
   </si>
   <si>
-    <t>4th-5th May, 2022</t>
+    <t>7th May, 2022</t>
   </si>
   <si>
     <t>Write correct code to pass JUnit test cases for various modules in Spring Data JPA.</t>
@@ -4601,9 +4609,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -4816,16 +4824,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4839,6 +4846,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -4847,32 +4862,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4887,10 +4893,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4903,17 +4939,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4926,35 +4954,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5039,25 +5047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5075,7 +5083,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5087,7 +5137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5099,7 +5149,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5111,79 +5197,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5195,31 +5227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5331,8 +5339,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5352,6 +5360,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5363,6 +5380,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5382,26 +5419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5416,19 +5433,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5446,130 +5454,130 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6121,8 +6129,8 @@
   <sheetPr/>
   <dimension ref="A7:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9067,10 +9075,10 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="14" activeTab="19"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1491">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -5032,7 +5032,10 @@
     <t>1. TypeScript</t>
   </si>
   <si>
-    <t>Hands On Exercises - TypeScript Basics</t>
+    <t>TypeScript Exercises</t>
+  </si>
+  <si>
+    <t>TypeScript Lab</t>
   </si>
   <si>
     <t>Total # of Days for TypeScript</t>
@@ -5501,10 +5504,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -5724,7 +5727,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5738,14 +5741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5764,14 +5760,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5822,8 +5810,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5836,16 +5840,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5859,9 +5856,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5953,7 +5956,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5965,19 +6040,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5989,91 +6106,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6085,55 +6130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6242,26 +6245,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6290,26 +6293,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6329,6 +6317,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6342,7 +6345,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6360,130 +6363,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10972,12 +10975,12 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -11359,15 +11362,19 @@
       </c>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" ht="8" customHeight="1" spans="1:4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" ht="18" spans="1:2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
+    <row r="53" ht="18.75" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" ht="8" customHeight="1" spans="1:4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" ht="18" spans="1:2">
       <c r="A55" s="13"/>
@@ -11377,41 +11384,45 @@
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
     </row>
-    <row r="57" ht="18.75" spans="1:2">
-      <c r="A57" s="12" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B57" s="13">
-        <v>1</v>
-      </c>
+    <row r="57" ht="18" spans="1:2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" ht="18.75" spans="1:2">
       <c r="A58" s="12" t="s">
         <v>1376</v>
       </c>
       <c r="B58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" spans="1:2">
+      <c r="A59" s="12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B59" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="3"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
       <c r="A60" s="3"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
       <c r="A61" s="3"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:1">
+      <c r="A62" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A3:A52"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B15:B24"/>
     <mergeCell ref="B26:B35"/>
     <mergeCell ref="B37:B49"/>
-    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B51:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -11424,7 +11435,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
@@ -11450,14 +11461,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="18" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
@@ -11477,35 +11488,35 @@
       <c r="A5" s="3"/>
       <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="15"/>
       <c r="C8" s="7" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="1:3">
@@ -11516,7 +11527,7 @@
     <row r="11" customFormat="1" ht="15" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>73</v>
@@ -11526,56 +11537,56 @@
       <c r="A12" s="3"/>
       <c r="B12" s="15"/>
       <c r="C12" s="7" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="15"/>
       <c r="C14" s="7" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="7" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="15" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="15"/>
       <c r="C16" s="7" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="15"/>
       <c r="C17" s="7" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="7" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="15"/>
       <c r="C19" s="7" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:3">
@@ -11585,45 +11596,45 @@
     <row r="21" customFormat="1" ht="15" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="15" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="18" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="15"/>
       <c r="C22" s="7" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="15"/>
       <c r="C23" s="7" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="15"/>
       <c r="C24" s="7" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="15"/>
       <c r="C25" s="7" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="15"/>
       <c r="C26" s="7" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:3">
@@ -11634,7 +11645,7 @@
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="15" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>73</v>
@@ -11644,35 +11655,35 @@
       <c r="A29" s="3"/>
       <c r="B29" s="15"/>
       <c r="C29" s="7" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="15"/>
       <c r="C30" s="7" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="15"/>
       <c r="C31" s="7" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="15"/>
       <c r="C32" s="7" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="15"/>
       <c r="C33" s="7" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="34" ht="18" spans="1:3">
@@ -11686,21 +11697,21 @@
         <v>22</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="7" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="38" ht="8" customHeight="1" spans="1:4">
@@ -11723,7 +11734,7 @@
     </row>
     <row r="42" ht="18.75" spans="1:2">
       <c r="A42" s="12" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B42" s="13">
         <v>1</v>
@@ -11731,7 +11742,7 @@
     </row>
     <row r="43" ht="18.75" spans="1:2">
       <c r="A43" s="12" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B43" s="13">
         <v>8</v>
@@ -15774,10 +15785,10 @@
   <sheetPr/>
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A88"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -15801,14 +15812,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
@@ -15825,80 +15836,80 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="15" spans="1:3">
@@ -15916,52 +15927,52 @@
     <row r="18" customFormat="1" ht="15" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
@@ -15979,59 +15990,59 @@
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
@@ -16048,129 +16059,129 @@
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" s="6" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="3"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="3"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="3"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="3"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="3"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="3"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="3"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="3"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="3"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="3"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -16179,59 +16190,59 @@
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="3"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="3"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="3"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="3"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="3"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="3"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
@@ -16250,161 +16261,161 @@
         <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="7" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="7" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="7" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="5" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="7" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:3">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="7" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:3">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="7" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="7" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="7" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="7" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="7" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="7" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="7" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="7" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="7" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="7" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="89" ht="8" customHeight="1" spans="1:4">
@@ -16415,7 +16426,7 @@
     </row>
     <row r="93" ht="37.5" spans="1:2">
       <c r="A93" s="12" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B93" s="13">
         <v>1</v>
@@ -16423,7 +16434,7 @@
     </row>
     <row r="94" ht="37.5" spans="1:2">
       <c r="A94" s="12" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B94" s="13">
         <v>8</v>

--- a/JEE Full Stack 2.0 with React - TOC.xlsx
+++ b/JEE Full Stack 2.0 with React - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="14" activeTab="17"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="17" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="22" r:id="rId1"/>
@@ -27,13 +27,16 @@
     <sheet name="TypeScript" sheetId="42" r:id="rId18"/>
     <sheet name="Node.js" sheetId="43" r:id="rId19"/>
     <sheet name="React Introduction" sheetId="44" r:id="rId20"/>
+    <sheet name="React with Redux" sheetId="45" r:id="rId21"/>
+    <sheet name="TDD with Jest" sheetId="46" r:id="rId22"/>
+    <sheet name="Material UI" sheetId="47" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1689">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -5242,7 +5245,7 @@
     <t>Total # of Hours for Node.js</t>
   </si>
   <si>
-    <t>Day 37</t>
+    <t>Day 37-38</t>
   </si>
   <si>
     <r>
@@ -5498,16 +5501,650 @@
   <si>
     <t>Total # of Hours for React Introduction</t>
   </si>
+  <si>
+    <t>Day 39-41</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">React is a library with so much power, but so few strong opinions.                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So building something significant requires a large number of decisions and work to build the foundation.                                             Learn how to use React, Redux, React Router, and modern JavaScript to build powerful and fast React applications from the ground up.                                                                Use Webpack, Babel, ESLint, npm scripts, Jest, React Testing Library, Enzyme, and more.                                                     Create a rapid feedback development environment that runs linting and tests, transpiles modern JavaScript, runs a local webserver, opens the application, and reloads changes when you hit save. Deploy with a single command.                                           This course lays out a clear path for building robust, scalable React applications using today's modern and popular technologies.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Intro</t>
+  </si>
+  <si>
+    <t>1. Course Outline</t>
+  </si>
+  <si>
+    <t>2. Why Redux?</t>
+  </si>
+  <si>
+    <t>3. Environment Build</t>
+  </si>
+  <si>
+    <t>1. Intro</t>
+  </si>
+  <si>
+    <t>2. Install Node</t>
+  </si>
+  <si>
+    <t>3. Open Initial Exercise Files</t>
+  </si>
+  <si>
+    <t>4. Visual Studio Code Intro</t>
+  </si>
+  <si>
+    <t>5. Prettier Intro</t>
+  </si>
+  <si>
+    <t>6. Configure Prettier</t>
+  </si>
+  <si>
+    <t>7. Review Initial Project Setup</t>
+  </si>
+  <si>
+    <t>8. Create Initial App Structure</t>
+  </si>
+  <si>
+    <t>9. Webpack: Intro</t>
+  </si>
+  <si>
+    <t>10. Webpack: Core Config Settings</t>
+  </si>
+  <si>
+    <t>11. Webpack: Dev Server</t>
+  </si>
+  <si>
+    <t>12. Webpack: Plugins</t>
+  </si>
+  <si>
+    <t>13. Webpack: Loaders</t>
+  </si>
+  <si>
+    <t>14. Babel Intro</t>
+  </si>
+  <si>
+    <t>15. Configure Babel</t>
+  </si>
+  <si>
+    <t>16. Start Webpack via npm Script</t>
+  </si>
+  <si>
+    <t>17. Debugging and Sourcemaps</t>
+  </si>
+  <si>
+    <t>18.Handling EADDRINUSE Error</t>
+  </si>
+  <si>
+    <t>19. ESLint Intro</t>
+  </si>
+  <si>
+    <t>20. Configure ESLint</t>
+  </si>
+  <si>
+    <t>21. Summary</t>
+  </si>
+  <si>
+    <t>4. React Component Approaches</t>
+  </si>
+  <si>
+    <t>2. Four Ways to Create React Components</t>
+  </si>
+  <si>
+    <t>3. createClass Component</t>
+  </si>
+  <si>
+    <t>4. Class Component</t>
+  </si>
+  <si>
+    <t>5. Function Component</t>
+  </si>
+  <si>
+    <t>6. Arrow Function Component</t>
+  </si>
+  <si>
+    <t>7. Functional Component Benefits</t>
+  </si>
+  <si>
+    <t>8. When to Use Class vs. Function Components</t>
+  </si>
+  <si>
+    <t>9. Container vs. Presentation Components</t>
+  </si>
+  <si>
+    <t>5. Initial App Structure</t>
+  </si>
+  <si>
+    <t>2. Create Home Page</t>
+  </si>
+  <si>
+    <t>3. Create About Page</t>
+  </si>
+  <si>
+    <t>4. Configure App Entry Point</t>
+  </si>
+  <si>
+    <t>5. Create App Layout</t>
+  </si>
+  <si>
+    <t>6. Create Header</t>
+  </si>
+  <si>
+    <t>7. Create 404 Page</t>
+  </si>
+  <si>
+    <t>9. Create Course Page</t>
+  </si>
+  <si>
+    <t>6. Intro to Redux</t>
+  </si>
+  <si>
+    <t>2. Do I Need Redux?</t>
+  </si>
+  <si>
+    <t>3. When Is Redux Helpful?</t>
+  </si>
+  <si>
+    <t>4. Three Core Redux Principles</t>
+  </si>
+  <si>
+    <t>5. Flux vs. Redux</t>
+  </si>
+  <si>
+    <t>6. Redux Flow Overview</t>
+  </si>
+  <si>
+    <t>7. Actions, Stores, and Reducers</t>
+  </si>
+  <si>
+    <t>2. Actions</t>
+  </si>
+  <si>
+    <t>3. Store</t>
+  </si>
+  <si>
+    <t>4. What Is Immutability?</t>
+  </si>
+  <si>
+    <t>5. Why Immutability?</t>
+  </si>
+  <si>
+    <t>6. Handling Immutability</t>
+  </si>
+  <si>
+    <t>7. Reducers</t>
+  </si>
+  <si>
+    <t>8. Connecting React to Redux</t>
+  </si>
+  <si>
+    <t>2. Container vs. Presentational Components</t>
+  </si>
+  <si>
+    <t>3. mapStateToProps</t>
+  </si>
+  <si>
+    <t>4. mapDispatchToProps</t>
+  </si>
+  <si>
+    <t>5. A Chat with Redux</t>
+  </si>
+  <si>
+    <t>9. Redux Flow</t>
+  </si>
+  <si>
+    <t>2. Create Simple Add Course Form</t>
+  </si>
+  <si>
+    <t>3. Handle Submit</t>
+  </si>
+  <si>
+    <t>4. Create Course Action</t>
+  </si>
+  <si>
+    <t>5. Create Course Reducer and Root Reducer</t>
+  </si>
+  <si>
+    <t>6. Create Store</t>
+  </si>
+  <si>
+    <t>7. Instantiate Store and Provider</t>
+  </si>
+  <si>
+    <t>8. Connect Container Component</t>
+  </si>
+  <si>
+    <t>9. Step through Redux Flow and Try Redux DevTools</t>
+  </si>
+  <si>
+    <t>10. mapDispatchToProps: Manual Mapping</t>
+  </si>
+  <si>
+    <t>11. mapDispatchToProps: bindActionCreators</t>
+  </si>
+  <si>
+    <t>12. mapDispatchToProps: Object Form</t>
+  </si>
+  <si>
+    <t>13. Action Type Constants</t>
+  </si>
+  <si>
+    <t>10. Async in Redux</t>
+  </si>
+  <si>
+    <t>2. Why a Mock API?</t>
+  </si>
+  <si>
+    <t>3. Mock API Setup</t>
+  </si>
+  <si>
+    <t>4. Middleware and Async Library Options</t>
+  </si>
+  <si>
+    <t>5. Thunk Introduction</t>
+  </si>
+  <si>
+    <t>6. Remove Inline Manage Course Form</t>
+  </si>
+  <si>
+    <t>7. Add First Thunk</t>
+  </si>
+  <si>
+    <t>8. Handle Loading Courses in Reducer</t>
+  </si>
+  <si>
+    <t>9. Dispatch Actions on Load</t>
+  </si>
+  <si>
+    <t>10. Create CourseList</t>
+  </si>
+  <si>
+    <t>11. Practice Redux Flow - Load and Display Author Data</t>
+  </si>
+  <si>
+    <t>12. Centralize Initial Redux State</t>
+  </si>
+  <si>
+    <t>12. Async Status and Error Handling</t>
+  </si>
+  <si>
+    <t>2. Create Spinner Component</t>
+  </si>
+  <si>
+    <t>3. Create API Status Actions</t>
+  </si>
+  <si>
+    <t>4. Call Begin API in Thunks</t>
+  </si>
+  <si>
+    <t>5. Add Spinner to Course Pages</t>
+  </si>
+  <si>
+    <t>6. Add Form Submission Loading Indicator</t>
+  </si>
+  <si>
+    <t>7. Handle Server-side Validation and API Errors</t>
+  </si>
+  <si>
+    <t>8. Implement Client-side Validation</t>
+  </si>
+  <si>
+    <t>9. Optimistic Deletes</t>
+  </si>
+  <si>
+    <t>10. Async/Await</t>
+  </si>
+  <si>
+    <t>13. Testing React</t>
+  </si>
+  <si>
+    <t>2. Testing Frameworks and Libraries</t>
+  </si>
+  <si>
+    <t>3. Configure Jest</t>
+  </si>
+  <si>
+    <t>4. Test React with Jest Snapshot Tests</t>
+  </si>
+  <si>
+    <t>5. Test React with Enyzme</t>
+  </si>
+  <si>
+    <t>6. Test React with React Testing Library</t>
+  </si>
+  <si>
+    <t>14. Testing Redux</t>
+  </si>
+  <si>
+    <t>2. Overview: Testing Connected React Components</t>
+  </si>
+  <si>
+    <t>3. Testing Connected React Components</t>
+  </si>
+  <si>
+    <t>4. Testing Action Creators</t>
+  </si>
+  <si>
+    <t>5. Testing Thunks</t>
+  </si>
+  <si>
+    <t>6. Testing Reducers</t>
+  </si>
+  <si>
+    <t>7. Testing the Store</t>
+  </si>
+  <si>
+    <t>15. Production Builds</t>
+  </si>
+  <si>
+    <t>2. Production Build Plan Overview</t>
+  </si>
+  <si>
+    <t>3. Set up Production Redux Store</t>
+  </si>
+  <si>
+    <t>4. Set up Webpack</t>
+  </si>
+  <si>
+    <t>5. Set up npm Scripts</t>
+  </si>
+  <si>
+    <t>6. Run Production Build and Review Bundle Content</t>
+  </si>
+  <si>
+    <t>7. Run Production App Locally</t>
+  </si>
+  <si>
+    <t>8. Final Challenges</t>
+  </si>
+  <si>
+    <t>1. React with Redux</t>
+  </si>
+  <si>
+    <t>Lab 23 - Redux Installation &amp; Configuration</t>
+  </si>
+  <si>
+    <t>Lab 24 - Redux  Actions and Reducer</t>
+  </si>
+  <si>
+    <t>Lab 25 - Redux with React</t>
+  </si>
+  <si>
+    <t>Total # of Days for React with Redux</t>
+  </si>
+  <si>
+    <t>Total # of Hours for React with Redux</t>
+  </si>
+  <si>
+    <t>Day 42</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">At the core of being able to write clean code that you can depend on is a thorough knowledge of unit testing.                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn how to use the TDD cycle to create real-world user interfaces with the popular JavaScript library that was created by Facebook, React. First, you will discover how to use TDD to write JavaScript functions.                                    Next, you will explore the syntax and ideas behind React. Finally, you will learn how to combine React and TDD by using the Jest testing framework.                                   When you are finished with this course, you will have a foundational knowledge of both Test-driven Development and React that will help you as you move forward with using TDD in any programming language as well as with learning advanced React and React Native development.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Course Introduction</t>
+  </si>
+  <si>
+    <t>2.The Scenario</t>
+  </si>
+  <si>
+    <t>3.The Prototype</t>
+  </si>
+  <si>
+    <t>3. Introducing TDD with React</t>
+  </si>
+  <si>
+    <t>2. TDD: Write Clean Code That Works</t>
+  </si>
+  <si>
+    <t>3. React: A Library for Building UIs</t>
+  </si>
+  <si>
+    <t>4. Welcome to Front-end Development</t>
+  </si>
+  <si>
+    <t>5. Demo: Introducing Create React App</t>
+  </si>
+  <si>
+    <t>6. Demo: Hello, Component</t>
+  </si>
+  <si>
+    <t>7. Demo: Refactoring</t>
+  </si>
+  <si>
+    <t>4. Discovering the Need for TDD</t>
+  </si>
+  <si>
+    <t>2. What Is Software Testing?</t>
+  </si>
+  <si>
+    <t>3. The TDD Cycle</t>
+  </si>
+  <si>
+    <t>4. Demo: From Requirement to Test</t>
+  </si>
+  <si>
+    <t>5. Demo: From Test to Code</t>
+  </si>
+  <si>
+    <t>6. Demo: Refactor and Repeat</t>
+  </si>
+  <si>
+    <t>5. Discovering the Need for React</t>
+  </si>
+  <si>
+    <t>2. Understanding the Virtual DOM</t>
+  </si>
+  <si>
+    <t>3. Demo: Building It up with Components</t>
+  </si>
+  <si>
+    <t>4. Demo: Adding Styles</t>
+  </si>
+  <si>
+    <t>5. Demo: Passing Data Between Components</t>
+  </si>
+  <si>
+    <t>6. Refactoring with React</t>
+  </si>
+  <si>
+    <t>1. Understanding State and Events</t>
+  </si>
+  <si>
+    <t>2. Refactoring with State</t>
+  </si>
+  <si>
+    <t>3. Adding Inverse Data Flow</t>
+  </si>
+  <si>
+    <t>7.Testing React Components</t>
+  </si>
+  <si>
+    <t>2. Demo: Creating a Manual Mock</t>
+  </si>
+  <si>
+    <t>3. Demo: Writing an Asynchronous Test</t>
+  </si>
+  <si>
+    <t>4. Demo: Test for State Updates in Response to AJAX Requests</t>
+  </si>
+  <si>
+    <t>8. Wrapping up and What Is Next</t>
+  </si>
+  <si>
+    <t>1. Reviewing Your Objectives</t>
+  </si>
+  <si>
+    <t>2. Demo: Snapshot Testing</t>
+  </si>
+  <si>
+    <t>3. Demo: Code Coverage Report</t>
+  </si>
+  <si>
+    <t>1. Testing React Apps</t>
+  </si>
+  <si>
+    <t>Testing Lab 1 - Your First Component Test</t>
+  </si>
+  <si>
+    <t>Testing Lab 2 - Snapshot Tests</t>
+  </si>
+  <si>
+    <t>Testing Lab 3 - More Component Testing</t>
+  </si>
+  <si>
+    <t>Total # of Days for TDD with Jest</t>
+  </si>
+  <si>
+    <t>Total # of Hours for TDD with Jest</t>
+  </si>
+  <si>
+    <t>Day 43</t>
+  </si>
+  <si>
+    <t>Styling a React App with Material UI</t>
+  </si>
+  <si>
+    <t>1. Containers, Cards and Grids</t>
+  </si>
+  <si>
+    <t>1.Introduction</t>
+  </si>
+  <si>
+    <t>2. Installation</t>
+  </si>
+  <si>
+    <t>3. Icons</t>
+  </si>
+  <si>
+    <t>4. Setting Up React App</t>
+  </si>
+  <si>
+    <t>5. Fetching Data from the API</t>
+  </si>
+  <si>
+    <t>6. Using a Container to Wrap a React App</t>
+  </si>
+  <si>
+    <t>7. Add Heading to React App</t>
+  </si>
+  <si>
+    <t>8. Creating Character Cards</t>
+  </si>
+  <si>
+    <t>9. Adding Name and Status to Card</t>
+  </si>
+  <si>
+    <t>10. Using Grid Component</t>
+  </si>
+  <si>
+    <t>2. AppBar, ToolBar and Paper Component</t>
+  </si>
+  <si>
+    <t>2. Generating The React Project</t>
+  </si>
+  <si>
+    <t>3. Installing Material-UI Library &amp; Dependencies</t>
+  </si>
+  <si>
+    <t>4. Implementing The Sample Application</t>
+  </si>
+  <si>
+    <t>5. Importing required Components</t>
+  </si>
+  <si>
+    <t>6. Creating  Sign In function</t>
+  </si>
+  <si>
+    <t>7. Creating an App Bar component</t>
+  </si>
+  <si>
+    <t>8. Material UI ToolBar</t>
+  </si>
+  <si>
+    <t>9. Creating Sign In form component</t>
+  </si>
+  <si>
+    <t>10. How to use Paper Component in ReactJS ?</t>
+  </si>
+  <si>
+    <t>3. Custom Responsive React NavBar with CSS</t>
+  </si>
+  <si>
+    <t>2. Prerequisites</t>
+  </si>
+  <si>
+    <t>3. Creating the project</t>
+  </si>
+  <si>
+    <t>4. Understanding the navigation layout</t>
+  </si>
+  <si>
+    <t>5. Styling the navbar component</t>
+  </si>
+  <si>
+    <t>6. Responsiveness with media queries</t>
+  </si>
+  <si>
+    <t>7. Toggling the navbar view with useState</t>
+  </si>
+  <si>
+    <t>8. Conclusion</t>
+  </si>
+  <si>
+    <t>Total # of Days for Material UI</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Material UI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -5554,14 +6191,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5573,6 +6202,14 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -5726,8 +6363,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5741,7 +6386,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5764,14 +6417,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -5787,10 +6432,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5818,6 +6463,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -5827,22 +6479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5857,14 +6494,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5956,7 +6593,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5968,163 +6737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6137,6 +6750,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6245,26 +6882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6288,6 +6916,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6317,35 +6971,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6363,130 +7000,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignme